--- a/FileSyncandWOPI/Docs/MS-ONESTORE/MS-ONESTORE_RequirementSpecification.xlsx
+++ b/FileSyncandWOPI/Docs/MS-ONESTORE/MS-ONESTORE_RequirementSpecification.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DF3B59-E4F9-4D68-A5AD-0A0BEE43A05C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E3A696-0BD7-4429-A44E-9C1E0416BECD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="14670" windowHeight="8325" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="14670" windowHeight="8325" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -6491,12 +6491,6 @@
     <t>[In GlobalIdTableEntry2FNDX] [iIndexMapTo] MUST be unique relative to the other indices in this global identification table specified by FileNode structures with the value of the FileNode.FileNodeID field equal to 0x024 (GlobalIdTableEntryFNDX structure), 0x25 (GlobalIdTableEntry2FNDX structure), and 0x26 (GlobalIdTableEntry3FNDX structure).</t>
   </si>
   <si>
-    <t>[In GlobalIdTableEntry2FNDX] The iIndexMapTo is defferent in two global identification table specified by FileNode structures with the value of the FileNode.FileNodeID field equal to 0x024 (GlobalIdTableEntryFNDX structure), 0x25 (GlobalIdTableEntry2FNDX structure), and 0x26 (GlobalIdTableEntry3FNDX structure).</t>
-  </si>
-  <si>
-    <t>[In GlobalIdTableEntryFNDX]  The indexes in two global identification table specified by FileNode structures with the values of the FileNode.FileNodeID fields equal to 0x024 (GlobalIdTableEntryFNDX structure), 0x25 (GlobalIdTableEntry2FNDX structure), and 0x26 (GlobalIdTableEntry3FNDX structure) are different.</t>
-  </si>
-  <si>
     <t>MS-ONESTORE_R55901</t>
   </si>
   <si>
@@ -6513,9 +6507,6 @@
   </si>
   <si>
     <t>Partial derived by requirement: MS-ONESTORE_R57001</t>
-  </si>
-  <si>
-    <t>[In GlobalIdTableEntry3FNDX] The indices from the value of iIndexCopyToStart to the value of (iIndexCopyToStart + cEntriesToCopy – 1) are different in two global identification table specified by FileNode structures with the values of the FileNode.FileNodeID field equal to 0x024 (GlobalIdTableEntryFNDX structure), 0x025 (GlobalIdTableEntry2FNDX structure), and 0x026 (GlobalIdTableEntry3FNDX structure).</t>
   </si>
   <si>
     <t>[In RevisionRoleDeclarationFND] [rid] MUST match the value of the RevisionManifestStart4FND.rid field,  RevisionManifestStart6FND.rid field or RevisionManifestStart7FND.base.rid field of one of preceding revision manifests (section 2.1.9) in the current revision manifest list (section 2.1.10).</t>
@@ -6765,6 +6756,16 @@
   <si>
     <t>[In RevisionManifestStart6FND] [ridDependent] Otherwise[If the value is not "{{00000000-0000-0000-0000-000000000000}, 0}"], this value MUST be equal to [the RevisionManifestStart6FND.rid field or] the RevisionManifestStart7FND.base.rid field of a previous revision manifest within this revision manifest list.</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In GlobalIdTableEntryFNDX]  The indexes in global identification table specified by FileNode structures with the values of the FileNode.FileNodeID fields equal to 0x024 (GlobalIdTableEntryFNDX structure) is different.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In GlobalIdTableEntry2FNDX] The iIndexMapTo is different in global identification table specified by FileNode structures with the value of the FileNode.FileNodeID field equal to 0x25 (GlobalIdTableEntry2FNDX structure).</t>
+  </si>
+  <si>
+    <t>[In GlobalIdTableEntry3FNDX] The indices from the value of iIndexCopyToStart to the value of (iIndexCopyToStart + cEntriesToCopy – 1) is different in global identification table specified by FileNode structures with the values of the FileNode.FileNodeID field equal to 0x026 (GlobalIdTableEntry3FNDX structure).</t>
   </si>
 </sst>
 </file>
@@ -6834,7 +6835,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6862,12 +6863,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6985,7 +6980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -7063,24 +7058,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7104,6 +7081,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9633,7 +9625,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -9658,31 +9650,31 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
       <c r="J5" s="4"/>
       <c r="O5" s="32"/>
     </row>
@@ -9690,96 +9682,96 @@
       <c r="A6" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:15" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:15" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -9792,12 +9784,12 @@
       <c r="C12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9810,12 +9802,12 @@
       <c r="C13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -9828,12 +9820,12 @@
       <c r="C14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -9846,60 +9838,60 @@
       <c r="C15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="39"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -10230,7 +10222,7 @@
         <v>18</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="32" spans="1:10" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.15">
@@ -11336,7 +11328,7 @@
         <v>18</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="150" x14ac:dyDescent="0.25">
@@ -11363,7 +11355,7 @@
         <v>18</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -18138,7 +18130,7 @@
         <v>941</v>
       </c>
       <c r="C347" s="16" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="D347" s="24"/>
       <c r="E347" s="24" t="s">
@@ -22192,7 +22184,7 @@
         <v>1076</v>
       </c>
       <c r="C509" s="16" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="D509" s="24"/>
       <c r="E509" s="24" t="s">
@@ -22823,7 +22815,7 @@
         <v>1098</v>
       </c>
       <c r="C534" s="16" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="D534" s="17" t="s">
         <v>1704</v>
@@ -22844,13 +22836,13 @@
     </row>
     <row r="535" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A535" s="17" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="B535" s="19" t="s">
         <v>1098</v>
       </c>
       <c r="C535" s="16" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="D535" s="17" t="s">
         <v>1704</v>
@@ -22928,7 +22920,7 @@
         <v>1098</v>
       </c>
       <c r="C538" s="16" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="D538" s="17"/>
       <c r="E538" s="24" t="s">
@@ -22947,13 +22939,13 @@
     </row>
     <row r="539" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A539" s="17" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="B539" s="19" t="s">
         <v>1098</v>
       </c>
       <c r="C539" s="16" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D539" s="17"/>
       <c r="E539" s="17" t="s">
@@ -23498,7 +23490,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A561" s="17" t="s">
         <v>2036</v>
       </c>
@@ -23506,7 +23498,7 @@
         <v>1114</v>
       </c>
       <c r="C561" s="16" t="s">
-        <v>2045</v>
+        <v>2130</v>
       </c>
       <c r="D561" s="29" t="s">
         <v>541</v>
@@ -23803,18 +23795,18 @@
         <v>17</v>
       </c>
       <c r="I572" s="16" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="573" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A573" s="17" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="B573" s="19" t="s">
         <v>1120</v>
       </c>
       <c r="C573" s="16" t="s">
-        <v>2044</v>
+        <v>2131</v>
       </c>
       <c r="D573" s="17" t="s">
         <v>1722</v>
@@ -23941,7 +23933,7 @@
         <v>1123</v>
       </c>
       <c r="C578" s="16" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="D578" s="24"/>
       <c r="E578" s="24" t="s">
@@ -23991,7 +23983,7 @@
         <v>1123</v>
       </c>
       <c r="C580" s="16" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="D580" s="24"/>
       <c r="E580" s="24" t="s">
@@ -24041,7 +24033,7 @@
         <v>1123</v>
       </c>
       <c r="C582" s="16" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="D582" s="24"/>
       <c r="E582" s="24" t="s">
@@ -24082,18 +24074,18 @@
         <v>17</v>
       </c>
       <c r="I583" s="16" t="s">
-        <v>2051</v>
-      </c>
-    </row>
-    <row r="584" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A584" s="29" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="B584" s="19" t="s">
         <v>1123</v>
       </c>
       <c r="C584" s="16" t="s">
-        <v>2052</v>
+        <v>2132</v>
       </c>
       <c r="D584" s="17" t="s">
         <v>561</v>
@@ -24944,8 +24936,8 @@
       <c r="B618" s="19" t="s">
         <v>1168</v>
       </c>
-      <c r="C618" s="33" t="s">
-        <v>2053</v>
+      <c r="C618" s="16" t="s">
+        <v>2050</v>
       </c>
       <c r="D618" s="24"/>
       <c r="E618" s="24" t="s">
@@ -24958,7 +24950,7 @@
         <v>15</v>
       </c>
       <c r="H618" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I618" s="26"/>
     </row>
@@ -25186,7 +25178,7 @@
         <v>18</v>
       </c>
       <c r="I627" s="16" t="s">
-        <v>2054</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="628" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -25310,7 +25302,7 @@
         <v>15</v>
       </c>
       <c r="H632" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I632" s="26"/>
     </row>
@@ -25322,7 +25314,7 @@
         <v>1187</v>
       </c>
       <c r="C633" s="16" t="s">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="D633" s="24"/>
       <c r="E633" s="24" t="s">
@@ -25372,7 +25364,7 @@
         <v>1187</v>
       </c>
       <c r="C635" s="16" t="s">
-        <v>2056</v>
+        <v>2053</v>
       </c>
       <c r="D635" s="24"/>
       <c r="E635" s="24" t="s">
@@ -25472,7 +25464,7 @@
         <v>1187</v>
       </c>
       <c r="C639" s="16" t="s">
-        <v>2057</v>
+        <v>2054</v>
       </c>
       <c r="D639" s="24"/>
       <c r="E639" s="24" t="s">
@@ -25747,7 +25739,7 @@
         <v>1200</v>
       </c>
       <c r="C650" s="16" t="s">
-        <v>2058</v>
+        <v>2055</v>
       </c>
       <c r="D650" s="29"/>
       <c r="E650" s="24" t="s">
@@ -25763,18 +25755,18 @@
         <v>17</v>
       </c>
       <c r="I650" s="16" t="s">
-        <v>2060</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="651" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A651" s="17" t="s">
-        <v>2059</v>
+        <v>2056</v>
       </c>
       <c r="B651" s="19" t="s">
         <v>1200</v>
       </c>
       <c r="C651" s="16" t="s">
-        <v>2061</v>
+        <v>2058</v>
       </c>
       <c r="D651" s="17" t="s">
         <v>620</v>
@@ -26601,7 +26593,7 @@
         <v>1234</v>
       </c>
       <c r="C684" s="16" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="D684" s="24"/>
       <c r="E684" s="24" t="s">
@@ -26626,7 +26618,7 @@
         <v>1234</v>
       </c>
       <c r="C685" s="16" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="D685" s="24"/>
       <c r="E685" s="24" t="s">
@@ -26651,7 +26643,7 @@
         <v>1234</v>
       </c>
       <c r="C686" s="16" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="D686" s="24"/>
       <c r="E686" s="24" t="s">
@@ -26676,7 +26668,7 @@
         <v>1234</v>
       </c>
       <c r="C687" s="16" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="D687" s="24"/>
       <c r="E687" s="24" t="s">
@@ -26701,7 +26693,7 @@
         <v>1234</v>
       </c>
       <c r="C688" s="16" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="D688" s="24"/>
       <c r="E688" s="24" t="s">
@@ -26726,7 +26718,7 @@
         <v>1234</v>
       </c>
       <c r="C689" s="16" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="D689" s="29"/>
       <c r="E689" s="24" t="s">
@@ -26751,7 +26743,7 @@
         <v>1234</v>
       </c>
       <c r="C690" s="16" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="D690" s="24"/>
       <c r="E690" s="24" t="s">
@@ -26776,7 +26768,7 @@
         <v>1234</v>
       </c>
       <c r="C691" s="16" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="D691" s="24"/>
       <c r="E691" s="24" t="s">
@@ -26801,7 +26793,7 @@
         <v>1234</v>
       </c>
       <c r="C692" s="16" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="D692" s="24"/>
       <c r="E692" s="24" t="s">
@@ -26826,7 +26818,7 @@
         <v>1234</v>
       </c>
       <c r="C693" s="16" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="D693" s="24"/>
       <c r="E693" s="24" t="s">
@@ -26851,7 +26843,7 @@
         <v>1234</v>
       </c>
       <c r="C694" s="16" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="D694" s="29"/>
       <c r="E694" s="24" t="s">
@@ -27076,7 +27068,7 @@
         <v>1260</v>
       </c>
       <c r="C703" s="16" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="D703" s="24"/>
       <c r="E703" s="24" t="s">
@@ -27801,7 +27793,7 @@
         <v>1276</v>
       </c>
       <c r="C732" s="16" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="D732" s="24"/>
       <c r="E732" s="24" t="s">
@@ -27976,7 +27968,7 @@
         <v>1284</v>
       </c>
       <c r="C739" s="16" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="D739" s="24"/>
       <c r="E739" s="24" t="s">
@@ -27995,13 +27987,13 @@
     </row>
     <row r="740" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A740" s="17" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="B740" s="19" t="s">
         <v>1284</v>
       </c>
       <c r="C740" s="16" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="D740" s="29"/>
       <c r="E740" s="24" t="s">
@@ -28076,7 +28068,7 @@
         <v>1289</v>
       </c>
       <c r="C743" s="16" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="D743" s="24"/>
       <c r="E743" s="24" t="s">
@@ -28101,7 +28093,7 @@
         <v>1289</v>
       </c>
       <c r="C744" s="16" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="D744" s="24"/>
       <c r="E744" s="24" t="s">
@@ -28126,7 +28118,7 @@
         <v>1289</v>
       </c>
       <c r="C745" s="16" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="D745" s="24"/>
       <c r="E745" s="24" t="s">
@@ -28176,7 +28168,7 @@
         <v>1289</v>
       </c>
       <c r="C747" s="16" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="D747" s="24"/>
       <c r="E747" s="24" t="s">
@@ -28201,7 +28193,7 @@
         <v>1289</v>
       </c>
       <c r="C748" s="16" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="D748" s="24"/>
       <c r="E748" s="24" t="s">
@@ -28226,7 +28218,7 @@
         <v>1289</v>
       </c>
       <c r="C749" s="16" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="D749" s="24"/>
       <c r="E749" s="24" t="s">
@@ -28251,7 +28243,7 @@
         <v>1289</v>
       </c>
       <c r="C750" s="16" t="s">
-        <v>2084</v>
+        <v>2081</v>
       </c>
       <c r="D750" s="24"/>
       <c r="E750" s="24" t="s">
@@ -28276,7 +28268,7 @@
         <v>1289</v>
       </c>
       <c r="C751" s="16" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
       <c r="D751" s="24"/>
       <c r="E751" s="24" t="s">
@@ -28326,7 +28318,7 @@
         <v>1289</v>
       </c>
       <c r="C753" s="16" t="s">
-        <v>2086</v>
+        <v>2083</v>
       </c>
       <c r="D753" s="24"/>
       <c r="E753" s="24" t="s">
@@ -28351,7 +28343,7 @@
         <v>1289</v>
       </c>
       <c r="C754" s="16" t="s">
-        <v>2087</v>
+        <v>2084</v>
       </c>
       <c r="D754" s="24"/>
       <c r="E754" s="24" t="s">
@@ -28376,7 +28368,7 @@
         <v>1289</v>
       </c>
       <c r="C755" s="16" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="D755" s="24"/>
       <c r="E755" s="24" t="s">
@@ -28401,7 +28393,7 @@
         <v>1289</v>
       </c>
       <c r="C756" s="16" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="D756" s="24"/>
       <c r="E756" s="24" t="s">
@@ -28426,7 +28418,7 @@
         <v>1289</v>
       </c>
       <c r="C757" s="16" t="s">
-        <v>2090</v>
+        <v>2087</v>
       </c>
       <c r="D757" s="24"/>
       <c r="E757" s="24" t="s">
@@ -28501,7 +28493,7 @@
         <v>1289</v>
       </c>
       <c r="C760" s="16" t="s">
-        <v>2091</v>
+        <v>2088</v>
       </c>
       <c r="D760" s="24"/>
       <c r="E760" s="24" t="s">
@@ -28626,7 +28618,7 @@
         <v>1300</v>
       </c>
       <c r="C765" s="16" t="s">
-        <v>2092</v>
+        <v>2089</v>
       </c>
       <c r="D765" s="24"/>
       <c r="E765" s="24" t="s">
@@ -28651,7 +28643,7 @@
         <v>1300</v>
       </c>
       <c r="C766" s="16" t="s">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="D766" s="24"/>
       <c r="E766" s="24" t="s">
@@ -28676,7 +28668,7 @@
         <v>1300</v>
       </c>
       <c r="C767" s="16" t="s">
-        <v>2094</v>
+        <v>2091</v>
       </c>
       <c r="D767" s="24"/>
       <c r="E767" s="24" t="s">
@@ -28701,7 +28693,7 @@
         <v>1300</v>
       </c>
       <c r="C768" s="16" t="s">
-        <v>2095</v>
+        <v>2092</v>
       </c>
       <c r="D768" s="24"/>
       <c r="E768" s="24" t="s">
@@ -28751,7 +28743,7 @@
         <v>1300</v>
       </c>
       <c r="C770" s="16" t="s">
-        <v>2096</v>
+        <v>2093</v>
       </c>
       <c r="D770" s="24"/>
       <c r="E770" s="24" t="s">
@@ -29089,7 +29081,7 @@
         <v>16</v>
       </c>
       <c r="H783" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I783" s="26"/>
     </row>
@@ -29326,7 +29318,7 @@
         <v>1321</v>
       </c>
       <c r="C793" s="16" t="s">
-        <v>2097</v>
+        <v>2094</v>
       </c>
       <c r="D793" s="24"/>
       <c r="E793" s="24" t="s">
@@ -29926,7 +29918,7 @@
         <v>1346</v>
       </c>
       <c r="C817" s="16" t="s">
-        <v>2098</v>
+        <v>2095</v>
       </c>
       <c r="D817" s="24"/>
       <c r="E817" s="24" t="s">
@@ -29951,7 +29943,7 @@
         <v>1346</v>
       </c>
       <c r="C818" s="16" t="s">
-        <v>2099</v>
+        <v>2096</v>
       </c>
       <c r="D818" s="24"/>
       <c r="E818" s="24" t="s">
@@ -30201,7 +30193,7 @@
         <v>1356</v>
       </c>
       <c r="C828" s="16" t="s">
-        <v>2100</v>
+        <v>2097</v>
       </c>
       <c r="D828" s="24"/>
       <c r="E828" s="24" t="s">
@@ -30226,7 +30218,7 @@
         <v>1356</v>
       </c>
       <c r="C829" s="16" t="s">
-        <v>2101</v>
+        <v>2098</v>
       </c>
       <c r="D829" s="24"/>
       <c r="E829" s="24" t="s">
@@ -30276,7 +30268,7 @@
         <v>1356</v>
       </c>
       <c r="C831" s="16" t="s">
-        <v>2102</v>
+        <v>2099</v>
       </c>
       <c r="D831" s="24"/>
       <c r="E831" s="24" t="s">
@@ -30301,7 +30293,7 @@
         <v>1356</v>
       </c>
       <c r="C832" s="16" t="s">
-        <v>2103</v>
+        <v>2100</v>
       </c>
       <c r="D832" s="24"/>
       <c r="E832" s="24" t="s">
@@ -30489,7 +30481,7 @@
         <v>15</v>
       </c>
       <c r="H839" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I839" s="26"/>
     </row>
@@ -31026,7 +31018,7 @@
         <v>1392</v>
       </c>
       <c r="C861" s="16" t="s">
-        <v>2104</v>
+        <v>2101</v>
       </c>
       <c r="D861" s="24"/>
       <c r="E861" s="24" t="s">
@@ -31151,7 +31143,7 @@
         <v>1392</v>
       </c>
       <c r="C866" s="16" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="D866" s="24"/>
       <c r="E866" s="24" t="s">
@@ -31201,7 +31193,7 @@
         <v>1392</v>
       </c>
       <c r="C868" s="16" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="D868" s="24"/>
       <c r="E868" s="24" t="s">
@@ -31967,7 +31959,7 @@
         <v>18</v>
       </c>
       <c r="I898" s="16" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="899" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -32003,7 +31995,7 @@
         <v>1432</v>
       </c>
       <c r="C900" s="16" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="D900" s="24"/>
       <c r="E900" s="24" t="s">
@@ -32153,7 +32145,7 @@
         <v>1432</v>
       </c>
       <c r="C906" s="16" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D906" s="24"/>
       <c r="E906" s="24" t="s">
@@ -32253,7 +32245,7 @@
         <v>1432</v>
       </c>
       <c r="C910" s="16" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="D910" s="24"/>
       <c r="E910" s="24" t="s">
@@ -32344,7 +32336,7 @@
         <v>18</v>
       </c>
       <c r="I913" s="16" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="914" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -32680,7 +32672,7 @@
         <v>1444</v>
       </c>
       <c r="C927" s="16" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="D927" s="24"/>
       <c r="E927" s="24" t="s">
@@ -32730,7 +32722,7 @@
         <v>1444</v>
       </c>
       <c r="C929" s="16" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="D929" s="24"/>
       <c r="E929" s="24" t="s">
@@ -32743,7 +32735,7 @@
         <v>15</v>
       </c>
       <c r="H929" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I929" s="26"/>
     </row>
@@ -32821,7 +32813,7 @@
         <v>18</v>
       </c>
       <c r="I932" s="16" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="933" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -33573,7 +33565,7 @@
         <v>18</v>
       </c>
       <c r="I962" s="16" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="963" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -33659,7 +33651,7 @@
         <v>1483</v>
       </c>
       <c r="C966" s="16" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D966" s="24"/>
       <c r="E966" s="24" t="s">
@@ -34250,18 +34242,18 @@
         <v>17</v>
       </c>
       <c r="I989" s="16" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="990" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A990" s="17" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="B990" s="19" t="s">
         <v>1523</v>
       </c>
       <c r="C990" s="16" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="D990" s="17" t="s">
         <v>288</v>
@@ -34488,7 +34480,7 @@
         <v>1523</v>
       </c>
       <c r="C999" s="16" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="D999" s="24"/>
       <c r="E999" s="24" t="s">
@@ -34682,6 +34674,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B5:I5"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B16:I16"/>
@@ -34689,11 +34686,6 @@
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B17:I17"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J257:J260 J262:J265 A20:I28 B29:I46 B244:D244 B242:B243 D242:D243 B248:D248 B245:B247 D245:D247 B252:D252 B249:B251 D249:D251 B253:B255 D253:D255 B256:D272 B275:D276 B273:B274 D273:D274 B277:B278 D277:D278 B377:B382 D377:D382 B440:D457 B430:B439 D430:D439 B460:D485 D458:D459 B488:D491 B486:B487 D486:D487 B492:B494 D492:D494 B383:D429 B458:B459 B547:D558 B543:B546 D543:D546 B565:D568 D559:D564 B559:B564 D569:D573 B569:B573 B574:D577 B578:B580 D578:D580 B581:D617 B618 D618 A619:I632 A636:I638 A633:B635 D633:I635 A640:I644 A639:B639 D639:I639 A647:I649 A645:B646 D645:I646 A650:B650 E650:I650 A684:B694 D684:I694 A703:B703 D703:I703 A704:I731 A732:B733 D732:I733 A734:I742 A746:I746 A743:B745 D743:I745 A752:I752 A747:B751 D747:I751 A758:I759 A753:B757 D753:I757 A761:I763 A760:B760 D760:I760 A769:I769 A764:B768 D764:I768 A772:I792 A770:B771 D770:I771 A793:B793 D793:I793 A794:I813 A815:I816 A814:B814 D814:I814 A819:I827 A817:B818 D817:I818 A833:I860 A828:B832 D828:I832 A862:I865 A861:B861 D861:I861 A867:I867 A866:B866 D866:I866 A869:I899 A868:B868 D868:I868 A901:I905 A900:B900 D900:I900 A908:I909 A906:B907 D906:I907 A914:I926 A910:B913 D910:I913 A928:I928 A927:B927 D927:I927 A930:I931 A929:B929 D929:I929 A933:I965 A932:B932 D932:I932 A966:B966 D966:I966 A991:I998 A990:H990 A967:I989 A1000:I1006 A999:B999 D999:I999 B495:D534 B47:D241 A651:I683 A695:I702 B279:D376 A29:A534 E47:I534 E536:I538 A536:C538 D536 B540:D542 A540:A618 E540:I618">

--- a/FileSyncandWOPI/Docs/MS-ONESTORE/MS-ONESTORE_RequirementSpecification.xlsx
+++ b/FileSyncandWOPI/Docs/MS-ONESTORE/MS-ONESTORE_RequirementSpecification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-lugao\source\repos\Interop-TestSuites\FileSyncandWOPI\Docs\MS-ONESTORE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4BA433-98E7-4C50-9254-71CB9B38755A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE8F15A-CA3F-490F-BB98-9B040D576C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9417,7 +9417,7 @@
   <dimension ref="A1:O1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B9" sqref="B9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -9460,7 +9460,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <v>7.2</v>
+        <v>11.1</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>4</v>

--- a/FileSyncandWOPI/Docs/MS-ONESTORE/MS-ONESTORE_RequirementSpecification.xlsx
+++ b/FileSyncandWOPI/Docs/MS-ONESTORE/MS-ONESTORE_RequirementSpecification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-lugao\source\repos\Interop-TestSuites\FileSyncandWOPI\Docs\MS-ONESTORE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-jingyuma\Interop-TestSuites\FileSyncandWOPI\Docs\MS-ONESTORE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE8F15A-CA3F-490F-BB98-9B040D576C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7891B1E1-FDEA-4534-AF5B-6B2B2C28E5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -6666,9 +6666,6 @@
     <t>MS-ONESTORE_R989</t>
   </si>
   <si>
-    <t xml:space="preserve">[In Packaging Structure] Packaging End (2 byte): An 16-bit stream object header end, as specified in [MS-FSSHTTPB] section 2.2.1.5.4, that specifies a stream object of type 0x7A. </t>
-  </si>
-  <si>
     <t>MS-ONESTORE_R990</t>
   </si>
   <si>
@@ -6794,6 +6791,9 @@
   </si>
   <si>
     <t xml:space="preserve">[In ObjectSpaceObjectPropSet] [padding] The total size, in bytes, of an ObjectSpaceObjectPropSet structure MUST be a multiple of 8 if the padding field is present; the size of the padding field is the number of bytes necessary to ensure the total size of ObjectSpaceObjectPropSet structure is a multiple of 8. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[In Packaging Structure] Packaging End (2 bytes): A 16-bit stream object header end, as specified in [MS-FSSHTTPB] section 2.2.1.5.4, that specifies a stream object of type 0x7A. </t>
   </si>
 </sst>
 </file>
@@ -7005,7 +7005,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -7048,7 +7048,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -9417,20 +9417,20 @@
   <dimension ref="A1:O1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:I9"/>
+      <selection activeCell="B6" sqref="B6:I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
     <col min="3" max="3" width="85" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.54296875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" customWidth="1"/>
     <col min="8" max="8" width="23" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.6328125" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
@@ -9460,13 +9460,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="10">
-        <v>44607</v>
+        <v>45062</v>
       </c>
       <c r="J3" s="24"/>
     </row>
@@ -9715,7 +9715,7 @@
       <c r="I18" s="32"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="28.8">
+    <row r="19" spans="1:10" ht="29">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="29">
       <c r="A20" s="21" t="s">
         <v>35</v>
       </c>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="29">
       <c r="A21" s="21" t="s">
         <v>41</v>
       </c>
@@ -9844,7 +9844,7 @@
       </c>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="29">
       <c r="A24" s="21" t="s">
         <v>47</v>
       </c>
@@ -9869,7 +9869,7 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="29">
       <c r="A25" s="21" t="s">
         <v>51</v>
       </c>
@@ -9894,7 +9894,7 @@
       </c>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1">
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="29">
       <c r="A26" s="21" t="s">
         <v>53</v>
       </c>
@@ -9919,7 +9919,7 @@
       </c>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="43.2">
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="43.5">
       <c r="A27" s="21" t="s">
         <v>55</v>
       </c>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="29">
       <c r="A28" s="21" t="s">
         <v>57</v>
       </c>
@@ -9969,7 +9969,7 @@
       </c>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="43.2">
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="43.5">
       <c r="A29" s="21" t="s">
         <v>59</v>
       </c>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" ht="57.6">
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="58">
       <c r="A30" s="21" t="s">
         <v>61</v>
       </c>
@@ -10019,7 +10019,7 @@
       </c>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" ht="86.4">
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="87">
       <c r="A31" s="21" t="s">
         <v>63</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" ht="28.8">
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="29">
       <c r="A32" s="21" t="s">
         <v>66</v>
       </c>
@@ -10071,7 +10071,7 @@
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" ht="28.8">
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="29">
       <c r="A33" s="21" t="s">
         <v>68</v>
       </c>
@@ -10096,7 +10096,7 @@
       </c>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" ht="28.8">
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="29">
       <c r="A34" s="21" t="s">
         <v>70</v>
       </c>
@@ -10121,7 +10121,7 @@
       </c>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="28.8">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="29">
       <c r="A35" s="21" t="s">
         <v>72</v>
       </c>
@@ -10146,7 +10146,7 @@
       </c>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" ht="28.8">
+    <row r="36" spans="1:9" ht="29">
       <c r="A36" s="21" t="s">
         <v>74</v>
       </c>
@@ -10171,7 +10171,7 @@
       </c>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" ht="28.8">
+    <row r="37" spans="1:9" ht="29">
       <c r="A37" s="21" t="s">
         <v>76</v>
       </c>
@@ -10196,7 +10196,7 @@
       </c>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" ht="28.8">
+    <row r="38" spans="1:9" ht="29">
       <c r="A38" s="21" t="s">
         <v>79</v>
       </c>
@@ -10221,7 +10221,7 @@
       </c>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" ht="28.8">
+    <row r="39" spans="1:9" ht="29">
       <c r="A39" s="21" t="s">
         <v>81</v>
       </c>
@@ -10246,9 +10246,9 @@
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" ht="28.8">
+    <row r="40" spans="1:9" ht="29">
       <c r="A40" s="21" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="B40" s="22" t="s">
         <v>77</v>
@@ -10271,9 +10271,9 @@
       </c>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" ht="28.8">
+    <row r="41" spans="1:9" ht="29">
       <c r="A41" s="21" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="B41" s="22" t="s">
         <v>77</v>
@@ -10296,7 +10296,7 @@
       </c>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" ht="28.8">
+    <row r="42" spans="1:9" ht="29">
       <c r="A42" s="21" t="s">
         <v>85</v>
       </c>
@@ -10321,7 +10321,7 @@
       </c>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" ht="28.8">
+    <row r="43" spans="1:9" ht="29">
       <c r="A43" s="21" t="s">
         <v>87</v>
       </c>
@@ -10346,9 +10346,9 @@
       </c>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" ht="43.2">
+    <row r="44" spans="1:9" ht="43.5">
       <c r="A44" s="21" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="B44" s="22" t="s">
         <v>77</v>
@@ -10373,9 +10373,9 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="28.8">
+    <row r="45" spans="1:9" ht="29">
       <c r="A45" s="21" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="B45" s="22" t="s">
         <v>92</v>
@@ -10398,7 +10398,7 @@
       </c>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" ht="28.8">
+    <row r="46" spans="1:9" ht="29">
       <c r="A46" s="21" t="s">
         <v>94</v>
       </c>
@@ -10423,7 +10423,7 @@
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" ht="28.8">
+    <row r="47" spans="1:9" ht="29">
       <c r="A47" s="21" t="s">
         <v>96</v>
       </c>
@@ -10448,7 +10448,7 @@
       </c>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" ht="129.6">
+    <row r="48" spans="1:9" ht="130.5">
       <c r="A48" s="21" t="s">
         <v>98</v>
       </c>
@@ -10475,7 +10475,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="28.8">
+    <row r="49" spans="1:9" ht="29">
       <c r="A49" s="21" t="s">
         <v>101</v>
       </c>
@@ -10500,7 +10500,7 @@
       </c>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="28.8">
+    <row r="50" spans="1:9" ht="29">
       <c r="A50" s="21" t="s">
         <v>103</v>
       </c>
@@ -10525,7 +10525,7 @@
       </c>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="28.8">
+    <row r="51" spans="1:9" ht="29">
       <c r="A51" s="21" t="s">
         <v>105</v>
       </c>
@@ -10550,7 +10550,7 @@
       </c>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" ht="28.8">
+    <row r="52" spans="1:9" ht="29">
       <c r="A52" s="21" t="s">
         <v>107</v>
       </c>
@@ -10575,7 +10575,7 @@
       </c>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" ht="43.2">
+    <row r="53" spans="1:9" ht="43.5">
       <c r="A53" s="21" t="s">
         <v>109</v>
       </c>
@@ -10600,7 +10600,7 @@
       </c>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" ht="28.8">
+    <row r="54" spans="1:9" ht="29">
       <c r="A54" s="21" t="s">
         <v>111</v>
       </c>
@@ -10625,7 +10625,7 @@
       </c>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" ht="28.8">
+    <row r="55" spans="1:9" ht="29">
       <c r="A55" s="21" t="s">
         <v>113</v>
       </c>
@@ -10650,7 +10650,7 @@
       </c>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" ht="28.8">
+    <row r="56" spans="1:9" ht="29">
       <c r="A56" s="21" t="s">
         <v>115</v>
       </c>
@@ -10675,7 +10675,7 @@
       </c>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" ht="100.8">
+    <row r="57" spans="1:9" ht="101.5">
       <c r="A57" s="21" t="s">
         <v>117</v>
       </c>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" ht="28.8">
+    <row r="59" spans="1:9" ht="29">
       <c r="A59" s="21" t="s">
         <v>122</v>
       </c>
@@ -10750,7 +10750,7 @@
       </c>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" ht="43.2">
+    <row r="60" spans="1:9" ht="43.5">
       <c r="A60" s="21" t="s">
         <v>124</v>
       </c>
@@ -10775,7 +10775,7 @@
       </c>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" ht="28.8">
+    <row r="61" spans="1:9" ht="29">
       <c r="A61" s="21" t="s">
         <v>126</v>
       </c>
@@ -10800,7 +10800,7 @@
       </c>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" ht="28.8">
+    <row r="62" spans="1:9" ht="29">
       <c r="A62" s="21" t="s">
         <v>128</v>
       </c>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:9" ht="28.8">
+    <row r="63" spans="1:9" ht="29">
       <c r="A63" s="21" t="s">
         <v>130</v>
       </c>
@@ -10875,7 +10875,7 @@
       </c>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" ht="28.8">
+    <row r="65" spans="1:9" ht="29">
       <c r="A65" s="21" t="s">
         <v>135</v>
       </c>
@@ -10900,7 +10900,7 @@
       </c>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" ht="28.8">
+    <row r="66" spans="1:9" ht="29">
       <c r="A66" s="21" t="s">
         <v>137</v>
       </c>
@@ -10925,7 +10925,7 @@
       </c>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="1:9" ht="158.4">
+    <row r="67" spans="1:9" ht="159.5">
       <c r="A67" s="21" t="s">
         <v>140</v>
       </c>
@@ -10950,7 +10950,7 @@
       </c>
       <c r="I67" s="23"/>
     </row>
-    <row r="68" spans="1:9" ht="28.8">
+    <row r="68" spans="1:9" ht="29">
       <c r="A68" s="21" t="s">
         <v>142</v>
       </c>
@@ -10975,7 +10975,7 @@
       </c>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="1:9" ht="28.8">
+    <row r="69" spans="1:9" ht="29">
       <c r="A69" s="21" t="s">
         <v>144</v>
       </c>
@@ -11000,7 +11000,7 @@
       </c>
       <c r="I69" s="23"/>
     </row>
-    <row r="70" spans="1:9" ht="28.8">
+    <row r="70" spans="1:9" ht="29">
       <c r="A70" s="21" t="s">
         <v>146</v>
       </c>
@@ -11025,7 +11025,7 @@
       </c>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" spans="1:9" ht="43.2">
+    <row r="71" spans="1:9" ht="43.5">
       <c r="A71" s="21" t="s">
         <v>148</v>
       </c>
@@ -11050,7 +11050,7 @@
       </c>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:9" ht="43.2">
+    <row r="72" spans="1:9" ht="43.5">
       <c r="A72" s="21" t="s">
         <v>150</v>
       </c>
@@ -11075,7 +11075,7 @@
       </c>
       <c r="I72" s="23"/>
     </row>
-    <row r="73" spans="1:9" ht="43.2">
+    <row r="73" spans="1:9" ht="43.5">
       <c r="A73" s="21" t="s">
         <v>152</v>
       </c>
@@ -11100,7 +11100,7 @@
       </c>
       <c r="I73" s="23"/>
     </row>
-    <row r="74" spans="1:9" ht="28.8">
+    <row r="74" spans="1:9" ht="29">
       <c r="A74" s="21" t="s">
         <v>154</v>
       </c>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="1:9" ht="144">
+    <row r="75" spans="1:9" ht="145">
       <c r="A75" s="21" t="s">
         <v>156</v>
       </c>
@@ -11152,7 +11152,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="144">
+    <row r="76" spans="1:9" ht="145">
       <c r="A76" s="21" t="s">
         <v>159</v>
       </c>
@@ -11179,7 +11179,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="72">
+    <row r="77" spans="1:9" ht="72.5">
       <c r="A77" s="21" t="s">
         <v>161</v>
       </c>
@@ -11204,7 +11204,7 @@
       </c>
       <c r="I77" s="23"/>
     </row>
-    <row r="78" spans="1:9" ht="57.6">
+    <row r="78" spans="1:9" ht="58">
       <c r="A78" s="21" t="s">
         <v>163</v>
       </c>
@@ -11229,7 +11229,7 @@
       </c>
       <c r="I78" s="23"/>
     </row>
-    <row r="79" spans="1:9" ht="100.8">
+    <row r="79" spans="1:9" ht="101.5">
       <c r="A79" s="21" t="s">
         <v>165</v>
       </c>
@@ -11254,7 +11254,7 @@
       </c>
       <c r="I79" s="23"/>
     </row>
-    <row r="80" spans="1:9" ht="86.4">
+    <row r="80" spans="1:9" ht="87">
       <c r="A80" s="21" t="s">
         <v>167</v>
       </c>
@@ -11279,7 +11279,7 @@
       </c>
       <c r="I80" s="23"/>
     </row>
-    <row r="81" spans="1:9" ht="86.4">
+    <row r="81" spans="1:9" ht="87">
       <c r="A81" s="21" t="s">
         <v>169</v>
       </c>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="I81" s="23"/>
     </row>
-    <row r="82" spans="1:9" ht="86.4">
+    <row r="82" spans="1:9" ht="87">
       <c r="A82" s="21" t="s">
         <v>171</v>
       </c>
@@ -11329,7 +11329,7 @@
       </c>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" spans="1:9" ht="86.4">
+    <row r="83" spans="1:9" ht="87">
       <c r="A83" s="21" t="s">
         <v>173</v>
       </c>
@@ -11354,7 +11354,7 @@
       </c>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="1:9" ht="86.4">
+    <row r="84" spans="1:9" ht="87">
       <c r="A84" s="21" t="s">
         <v>175</v>
       </c>
@@ -11379,7 +11379,7 @@
       </c>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="1:9" ht="57.6">
+    <row r="85" spans="1:9" ht="58">
       <c r="A85" s="21" t="s">
         <v>177</v>
       </c>
@@ -11404,7 +11404,7 @@
       </c>
       <c r="I85" s="23"/>
     </row>
-    <row r="86" spans="1:9" ht="43.2">
+    <row r="86" spans="1:9" ht="58">
       <c r="A86" s="21" t="s">
         <v>179</v>
       </c>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="1:9" ht="28.8">
+    <row r="87" spans="1:9" ht="29">
       <c r="A87" s="21" t="s">
         <v>181</v>
       </c>
@@ -11454,7 +11454,7 @@
       </c>
       <c r="I87" s="23"/>
     </row>
-    <row r="88" spans="1:9" ht="43.2">
+    <row r="88" spans="1:9" ht="43.5">
       <c r="A88" s="21" t="s">
         <v>183</v>
       </c>
@@ -11479,7 +11479,7 @@
       </c>
       <c r="I88" s="23"/>
     </row>
-    <row r="89" spans="1:9" ht="43.2">
+    <row r="89" spans="1:9" ht="43.5">
       <c r="A89" s="21" t="s">
         <v>186</v>
       </c>
@@ -11504,7 +11504,7 @@
       </c>
       <c r="I89" s="23"/>
     </row>
-    <row r="90" spans="1:9" ht="28.8">
+    <row r="90" spans="1:9" ht="29">
       <c r="A90" s="21" t="s">
         <v>188</v>
       </c>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="I91" s="23"/>
     </row>
-    <row r="92" spans="1:9" ht="43.2">
+    <row r="92" spans="1:9" ht="43.5">
       <c r="A92" s="21" t="s">
         <v>192</v>
       </c>
@@ -11579,7 +11579,7 @@
       </c>
       <c r="I92" s="23"/>
     </row>
-    <row r="93" spans="1:9" ht="28.8">
+    <row r="93" spans="1:9" ht="29">
       <c r="A93" s="21" t="s">
         <v>194</v>
       </c>
@@ -11604,7 +11604,7 @@
       </c>
       <c r="I93" s="23"/>
     </row>
-    <row r="94" spans="1:9" ht="57.6">
+    <row r="94" spans="1:9" ht="58">
       <c r="A94" s="21" t="s">
         <v>196</v>
       </c>
@@ -11629,7 +11629,7 @@
       </c>
       <c r="I94" s="23"/>
     </row>
-    <row r="95" spans="1:9" ht="57.6">
+    <row r="95" spans="1:9" ht="58">
       <c r="A95" s="21" t="s">
         <v>198</v>
       </c>
@@ -11654,7 +11654,7 @@
       </c>
       <c r="I95" s="23"/>
     </row>
-    <row r="96" spans="1:9" ht="28.8">
+    <row r="96" spans="1:9" ht="29">
       <c r="A96" s="21" t="s">
         <v>200</v>
       </c>
@@ -11679,7 +11679,7 @@
       </c>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="1:9" ht="57.6">
+    <row r="97" spans="1:9" ht="58">
       <c r="A97" s="21" t="s">
         <v>203</v>
       </c>
@@ -11706,7 +11706,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="43.2">
+    <row r="98" spans="1:9" ht="43.5">
       <c r="A98" s="21" t="s">
         <v>206</v>
       </c>
@@ -11731,7 +11731,7 @@
       </c>
       <c r="I98" s="23"/>
     </row>
-    <row r="99" spans="1:9" ht="28.8">
+    <row r="99" spans="1:9" ht="29">
       <c r="A99" s="21" t="s">
         <v>208</v>
       </c>
@@ -11756,7 +11756,7 @@
       </c>
       <c r="I99" s="23"/>
     </row>
-    <row r="100" spans="1:9" ht="43.2">
+    <row r="100" spans="1:9" ht="43.5">
       <c r="A100" s="21" t="s">
         <v>210</v>
       </c>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I100" s="23"/>
     </row>
-    <row r="101" spans="1:9" ht="28.8">
+    <row r="101" spans="1:9" ht="29">
       <c r="A101" s="21" t="s">
         <v>212</v>
       </c>
@@ -11806,7 +11806,7 @@
       </c>
       <c r="I101" s="23"/>
     </row>
-    <row r="102" spans="1:9" ht="28.8">
+    <row r="102" spans="1:9" ht="29">
       <c r="A102" s="21" t="s">
         <v>215</v>
       </c>
@@ -11831,7 +11831,7 @@
       </c>
       <c r="I102" s="23"/>
     </row>
-    <row r="103" spans="1:9" ht="72">
+    <row r="103" spans="1:9" ht="72.5">
       <c r="A103" s="21" t="s">
         <v>217</v>
       </c>
@@ -11856,7 +11856,7 @@
       </c>
       <c r="I103" s="23"/>
     </row>
-    <row r="104" spans="1:9" ht="72">
+    <row r="104" spans="1:9" ht="72.5">
       <c r="A104" s="21" t="s">
         <v>219</v>
       </c>
@@ -11906,7 +11906,7 @@
       </c>
       <c r="I105" s="23"/>
     </row>
-    <row r="106" spans="1:9" ht="28.8">
+    <row r="106" spans="1:9" ht="29">
       <c r="A106" s="21" t="s">
         <v>223</v>
       </c>
@@ -11956,7 +11956,7 @@
       </c>
       <c r="I107" s="23"/>
     </row>
-    <row r="108" spans="1:9" ht="43.2">
+    <row r="108" spans="1:9" ht="43.5">
       <c r="A108" s="21" t="s">
         <v>227</v>
       </c>
@@ -12031,7 +12031,7 @@
       </c>
       <c r="I110" s="23"/>
     </row>
-    <row r="111" spans="1:9" ht="28.8">
+    <row r="111" spans="1:9" ht="29">
       <c r="A111" s="21" t="s">
         <v>234</v>
       </c>
@@ -12056,7 +12056,7 @@
       </c>
       <c r="I111" s="23"/>
     </row>
-    <row r="112" spans="1:9" ht="28.8">
+    <row r="112" spans="1:9" ht="29">
       <c r="A112" s="21" t="s">
         <v>236</v>
       </c>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="I112" s="23"/>
     </row>
-    <row r="113" spans="1:9" ht="43.2">
+    <row r="113" spans="1:9" ht="43.5">
       <c r="A113" s="21" t="s">
         <v>239</v>
       </c>
@@ -12106,7 +12106,7 @@
       </c>
       <c r="I113" s="23"/>
     </row>
-    <row r="114" spans="1:9" ht="28.8">
+    <row r="114" spans="1:9" ht="29">
       <c r="A114" s="21" t="s">
         <v>241</v>
       </c>
@@ -12131,7 +12131,7 @@
       </c>
       <c r="I114" s="23"/>
     </row>
-    <row r="115" spans="1:9" ht="43.2">
+    <row r="115" spans="1:9" ht="43.5">
       <c r="A115" s="21" t="s">
         <v>243</v>
       </c>
@@ -12156,7 +12156,7 @@
       </c>
       <c r="I115" s="23"/>
     </row>
-    <row r="116" spans="1:9" ht="28.8">
+    <row r="116" spans="1:9" ht="29">
       <c r="A116" s="21" t="s">
         <v>245</v>
       </c>
@@ -12181,7 +12181,7 @@
       </c>
       <c r="I116" s="23"/>
     </row>
-    <row r="117" spans="1:9" ht="28.8">
+    <row r="117" spans="1:9" ht="29">
       <c r="A117" s="21" t="s">
         <v>247</v>
       </c>
@@ -12256,7 +12256,7 @@
       </c>
       <c r="I119" s="23"/>
     </row>
-    <row r="120" spans="1:9" ht="28.8">
+    <row r="120" spans="1:9" ht="29">
       <c r="A120" s="21" t="s">
         <v>253</v>
       </c>
@@ -12281,7 +12281,7 @@
       </c>
       <c r="I120" s="23"/>
     </row>
-    <row r="121" spans="1:9" ht="43.2">
+    <row r="121" spans="1:9" ht="43.5">
       <c r="A121" s="21" t="s">
         <v>255</v>
       </c>
@@ -12306,7 +12306,7 @@
       </c>
       <c r="I121" s="23"/>
     </row>
-    <row r="122" spans="1:9" ht="28.8">
+    <row r="122" spans="1:9" ht="29">
       <c r="A122" s="21" t="s">
         <v>257</v>
       </c>
@@ -12331,7 +12331,7 @@
       </c>
       <c r="I122" s="23"/>
     </row>
-    <row r="123" spans="1:9" ht="57.6">
+    <row r="123" spans="1:9" ht="58">
       <c r="A123" s="21" t="s">
         <v>259</v>
       </c>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="I123" s="23"/>
     </row>
-    <row r="124" spans="1:9" ht="28.8">
+    <row r="124" spans="1:9" ht="29">
       <c r="A124" s="21" t="s">
         <v>261</v>
       </c>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="I124" s="23"/>
     </row>
-    <row r="125" spans="1:9" ht="115.2">
+    <row r="125" spans="1:9" ht="116">
       <c r="A125" s="21" t="s">
         <v>263</v>
       </c>
@@ -12406,7 +12406,7 @@
       </c>
       <c r="I125" s="23"/>
     </row>
-    <row r="126" spans="1:9" ht="28.8">
+    <row r="126" spans="1:9" ht="29">
       <c r="A126" s="21" t="s">
         <v>265</v>
       </c>
@@ -12431,7 +12431,7 @@
       </c>
       <c r="I126" s="23"/>
     </row>
-    <row r="127" spans="1:9" ht="86.4">
+    <row r="127" spans="1:9" ht="87">
       <c r="A127" s="21" t="s">
         <v>267</v>
       </c>
@@ -12456,7 +12456,7 @@
       </c>
       <c r="I127" s="23"/>
     </row>
-    <row r="128" spans="1:9" ht="86.4">
+    <row r="128" spans="1:9" ht="87">
       <c r="A128" s="21" t="s">
         <v>269</v>
       </c>
@@ -12481,7 +12481,7 @@
       </c>
       <c r="I128" s="23"/>
     </row>
-    <row r="129" spans="1:9" ht="72">
+    <row r="129" spans="1:9" ht="72.5">
       <c r="A129" s="21" t="s">
         <v>271</v>
       </c>
@@ -12506,7 +12506,7 @@
       </c>
       <c r="I129" s="23"/>
     </row>
-    <row r="130" spans="1:9" ht="100.8">
+    <row r="130" spans="1:9" ht="101.5">
       <c r="A130" s="21" t="s">
         <v>273</v>
       </c>
@@ -12531,7 +12531,7 @@
       </c>
       <c r="I130" s="23"/>
     </row>
-    <row r="131" spans="1:9" ht="43.2">
+    <row r="131" spans="1:9" ht="43.5">
       <c r="A131" s="21" t="s">
         <v>275</v>
       </c>
@@ -12556,7 +12556,7 @@
       </c>
       <c r="I131" s="23"/>
     </row>
-    <row r="132" spans="1:9" ht="115.2">
+    <row r="132" spans="1:9" ht="116">
       <c r="A132" s="21" t="s">
         <v>277</v>
       </c>
@@ -12581,7 +12581,7 @@
       </c>
       <c r="I132" s="23"/>
     </row>
-    <row r="133" spans="1:9" ht="28.8">
+    <row r="133" spans="1:9" ht="29">
       <c r="A133" s="21" t="s">
         <v>279</v>
       </c>
@@ -12606,7 +12606,7 @@
       </c>
       <c r="I133" s="23"/>
     </row>
-    <row r="134" spans="1:9" ht="28.8">
+    <row r="134" spans="1:9" ht="29">
       <c r="A134" s="21" t="s">
         <v>281</v>
       </c>
@@ -12631,7 +12631,7 @@
       </c>
       <c r="I134" s="23"/>
     </row>
-    <row r="135" spans="1:9" ht="43.2">
+    <row r="135" spans="1:9" ht="43.5">
       <c r="A135" s="21" t="s">
         <v>283</v>
       </c>
@@ -12656,7 +12656,7 @@
       </c>
       <c r="I135" s="23"/>
     </row>
-    <row r="136" spans="1:9" ht="28.8">
+    <row r="136" spans="1:9" ht="29">
       <c r="A136" s="21" t="s">
         <v>286</v>
       </c>
@@ -12681,7 +12681,7 @@
       </c>
       <c r="I136" s="23"/>
     </row>
-    <row r="137" spans="1:9" ht="28.8">
+    <row r="137" spans="1:9" ht="29">
       <c r="A137" s="21" t="s">
         <v>288</v>
       </c>
@@ -12706,7 +12706,7 @@
       </c>
       <c r="I137" s="23"/>
     </row>
-    <row r="138" spans="1:9" ht="43.2">
+    <row r="138" spans="1:9" ht="43.5">
       <c r="A138" s="21" t="s">
         <v>290</v>
       </c>
@@ -12731,7 +12731,7 @@
       </c>
       <c r="I138" s="23"/>
     </row>
-    <row r="139" spans="1:9" ht="28.8">
+    <row r="139" spans="1:9" ht="43.5">
       <c r="A139" s="21" t="s">
         <v>292</v>
       </c>
@@ -12756,7 +12756,7 @@
       </c>
       <c r="I139" s="23"/>
     </row>
-    <row r="140" spans="1:9" ht="115.2">
+    <row r="140" spans="1:9" ht="116">
       <c r="A140" s="21" t="s">
         <v>294</v>
       </c>
@@ -12831,7 +12831,7 @@
       </c>
       <c r="I142" s="23"/>
     </row>
-    <row r="143" spans="1:9" ht="28.8">
+    <row r="143" spans="1:9" ht="29">
       <c r="A143" s="21" t="s">
         <v>301</v>
       </c>
@@ -12856,7 +12856,7 @@
       </c>
       <c r="I143" s="23"/>
     </row>
-    <row r="144" spans="1:9" ht="72">
+    <row r="144" spans="1:9" ht="72.5">
       <c r="A144" s="21" t="s">
         <v>303</v>
       </c>
@@ -12881,7 +12881,7 @@
       </c>
       <c r="I144" s="23"/>
     </row>
-    <row r="145" spans="1:9" ht="43.2">
+    <row r="145" spans="1:9" ht="43.5">
       <c r="A145" s="21" t="s">
         <v>305</v>
       </c>
@@ -12906,7 +12906,7 @@
       </c>
       <c r="I145" s="23"/>
     </row>
-    <row r="146" spans="1:9" ht="43.2">
+    <row r="146" spans="1:9" ht="43.5">
       <c r="A146" s="21" t="s">
         <v>307</v>
       </c>
@@ -12931,7 +12931,7 @@
       </c>
       <c r="I146" s="23"/>
     </row>
-    <row r="147" spans="1:9" ht="43.2">
+    <row r="147" spans="1:9" ht="43.5">
       <c r="A147" s="21" t="s">
         <v>309</v>
       </c>
@@ -12956,7 +12956,7 @@
       </c>
       <c r="I147" s="23"/>
     </row>
-    <row r="148" spans="1:9" ht="43.2">
+    <row r="148" spans="1:9" ht="43.5">
       <c r="A148" s="21" t="s">
         <v>311</v>
       </c>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="I148" s="23"/>
     </row>
-    <row r="149" spans="1:9" ht="28.8">
+    <row r="149" spans="1:9" ht="29">
       <c r="A149" s="21" t="s">
         <v>313</v>
       </c>
@@ -13006,7 +13006,7 @@
       </c>
       <c r="I149" s="23"/>
     </row>
-    <row r="150" spans="1:9" ht="28.8">
+    <row r="150" spans="1:9" ht="29">
       <c r="A150" s="21" t="s">
         <v>315</v>
       </c>
@@ -13031,7 +13031,7 @@
       </c>
       <c r="I150" s="23"/>
     </row>
-    <row r="151" spans="1:9" ht="28.8">
+    <row r="151" spans="1:9" ht="29">
       <c r="A151" s="21" t="s">
         <v>317</v>
       </c>
@@ -13056,7 +13056,7 @@
       </c>
       <c r="I151" s="23"/>
     </row>
-    <row r="152" spans="1:9" ht="28.8">
+    <row r="152" spans="1:9" ht="29">
       <c r="A152" s="21" t="s">
         <v>319</v>
       </c>
@@ -13081,7 +13081,7 @@
       </c>
       <c r="I152" s="23"/>
     </row>
-    <row r="153" spans="1:9" ht="28.8">
+    <row r="153" spans="1:9" ht="29">
       <c r="A153" s="21" t="s">
         <v>322</v>
       </c>
@@ -13106,7 +13106,7 @@
       </c>
       <c r="I153" s="23"/>
     </row>
-    <row r="154" spans="1:9" ht="28.8">
+    <row r="154" spans="1:9" ht="29">
       <c r="A154" s="21" t="s">
         <v>324</v>
       </c>
@@ -13131,7 +13131,7 @@
       </c>
       <c r="I154" s="23"/>
     </row>
-    <row r="155" spans="1:9" ht="57.6">
+    <row r="155" spans="1:9" ht="58">
       <c r="A155" s="21" t="s">
         <v>326</v>
       </c>
@@ -13156,7 +13156,7 @@
       </c>
       <c r="I155" s="23"/>
     </row>
-    <row r="156" spans="1:9" ht="57.6">
+    <row r="156" spans="1:9" ht="58">
       <c r="A156" s="21" t="s">
         <v>328</v>
       </c>
@@ -13181,7 +13181,7 @@
       </c>
       <c r="I156" s="23"/>
     </row>
-    <row r="157" spans="1:9" ht="72">
+    <row r="157" spans="1:9" ht="72.5">
       <c r="A157" s="21" t="s">
         <v>330</v>
       </c>
@@ -13206,7 +13206,7 @@
       </c>
       <c r="I157" s="23"/>
     </row>
-    <row r="158" spans="1:9" ht="72">
+    <row r="158" spans="1:9" ht="72.5">
       <c r="A158" s="21" t="s">
         <v>332</v>
       </c>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="I158" s="23"/>
     </row>
-    <row r="159" spans="1:9" ht="57.6">
+    <row r="159" spans="1:9" ht="58">
       <c r="A159" s="21" t="s">
         <v>334</v>
       </c>
@@ -13256,7 +13256,7 @@
       </c>
       <c r="I159" s="23"/>
     </row>
-    <row r="160" spans="1:9" ht="43.2">
+    <row r="160" spans="1:9" ht="43.5">
       <c r="A160" s="21" t="s">
         <v>336</v>
       </c>
@@ -13356,7 +13356,7 @@
       </c>
       <c r="I163" s="23"/>
     </row>
-    <row r="164" spans="1:9" ht="72">
+    <row r="164" spans="1:9" ht="72.5">
       <c r="A164" s="21" t="s">
         <v>345</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="43.2">
+    <row r="165" spans="1:9" ht="43.5">
       <c r="A165" s="21" t="s">
         <v>348</v>
       </c>
@@ -13408,7 +13408,7 @@
       </c>
       <c r="I165" s="23"/>
     </row>
-    <row r="166" spans="1:9" ht="28.8">
+    <row r="166" spans="1:9" ht="29">
       <c r="A166" s="21" t="s">
         <v>350</v>
       </c>
@@ -13433,7 +13433,7 @@
       </c>
       <c r="I166" s="23"/>
     </row>
-    <row r="167" spans="1:9" ht="28.8">
+    <row r="167" spans="1:9" ht="29">
       <c r="A167" s="21" t="s">
         <v>352</v>
       </c>
@@ -13458,7 +13458,7 @@
       </c>
       <c r="I167" s="23"/>
     </row>
-    <row r="168" spans="1:9" ht="115.2">
+    <row r="168" spans="1:9" ht="130.5">
       <c r="A168" s="21" t="s">
         <v>354</v>
       </c>
@@ -13483,7 +13483,7 @@
       </c>
       <c r="I168" s="23"/>
     </row>
-    <row r="169" spans="1:9" ht="28.8">
+    <row r="169" spans="1:9" ht="29">
       <c r="A169" s="21" t="s">
         <v>356</v>
       </c>
@@ -13533,7 +13533,7 @@
       </c>
       <c r="I170" s="23"/>
     </row>
-    <row r="171" spans="1:9" ht="28.8">
+    <row r="171" spans="1:9" ht="29">
       <c r="A171" s="21" t="s">
         <v>361</v>
       </c>
@@ -13558,7 +13558,7 @@
       </c>
       <c r="I171" s="23"/>
     </row>
-    <row r="172" spans="1:9" ht="57.6">
+    <row r="172" spans="1:9" ht="58">
       <c r="A172" s="21" t="s">
         <v>363</v>
       </c>
@@ -13583,7 +13583,7 @@
       </c>
       <c r="I172" s="23"/>
     </row>
-    <row r="173" spans="1:9" ht="43.2">
+    <row r="173" spans="1:9" ht="43.5">
       <c r="A173" s="21" t="s">
         <v>365</v>
       </c>
@@ -13608,7 +13608,7 @@
       </c>
       <c r="I173" s="23"/>
     </row>
-    <row r="174" spans="1:9" ht="43.2">
+    <row r="174" spans="1:9" ht="43.5">
       <c r="A174" s="21" t="s">
         <v>367</v>
       </c>
@@ -13633,7 +13633,7 @@
       </c>
       <c r="I174" s="23"/>
     </row>
-    <row r="175" spans="1:9" ht="28.8">
+    <row r="175" spans="1:9" ht="29">
       <c r="A175" s="21" t="s">
         <v>369</v>
       </c>
@@ -13658,7 +13658,7 @@
       </c>
       <c r="I175" s="23"/>
     </row>
-    <row r="176" spans="1:9" ht="28.8">
+    <row r="176" spans="1:9" ht="29">
       <c r="A176" s="21" t="s">
         <v>371</v>
       </c>
@@ -13683,7 +13683,7 @@
       </c>
       <c r="I176" s="23"/>
     </row>
-    <row r="177" spans="1:9" ht="28.8">
+    <row r="177" spans="1:9" ht="29">
       <c r="A177" s="21" t="s">
         <v>374</v>
       </c>
@@ -13758,7 +13758,7 @@
       </c>
       <c r="I179" s="23"/>
     </row>
-    <row r="180" spans="1:9" ht="28.8">
+    <row r="180" spans="1:9" ht="29">
       <c r="A180" s="21" t="s">
         <v>380</v>
       </c>
@@ -13783,7 +13783,7 @@
       </c>
       <c r="I180" s="23"/>
     </row>
-    <row r="181" spans="1:9" ht="43.2">
+    <row r="181" spans="1:9" ht="43.5">
       <c r="A181" s="21" t="s">
         <v>382</v>
       </c>
@@ -13833,7 +13833,7 @@
       </c>
       <c r="I182" s="23"/>
     </row>
-    <row r="183" spans="1:9" ht="28.8">
+    <row r="183" spans="1:9" ht="29">
       <c r="A183" s="21" t="s">
         <v>387</v>
       </c>
@@ -13908,7 +13908,7 @@
       </c>
       <c r="I185" s="23"/>
     </row>
-    <row r="186" spans="1:9" ht="28.8">
+    <row r="186" spans="1:9" ht="29">
       <c r="A186" s="21" t="s">
         <v>393</v>
       </c>
@@ -13933,7 +13933,7 @@
       </c>
       <c r="I186" s="23"/>
     </row>
-    <row r="187" spans="1:9" ht="28.8">
+    <row r="187" spans="1:9" ht="29">
       <c r="A187" s="21" t="s">
         <v>395</v>
       </c>
@@ -14008,7 +14008,7 @@
       </c>
       <c r="I189" s="23"/>
     </row>
-    <row r="190" spans="1:9" ht="28.8">
+    <row r="190" spans="1:9" ht="29">
       <c r="A190" s="21" t="s">
         <v>402</v>
       </c>
@@ -14058,7 +14058,7 @@
       </c>
       <c r="I191" s="23"/>
     </row>
-    <row r="192" spans="1:9" ht="28.8">
+    <row r="192" spans="1:9" ht="29">
       <c r="A192" s="21" t="s">
         <v>406</v>
       </c>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="I194" s="23"/>
     </row>
-    <row r="195" spans="1:9" ht="28.8">
+    <row r="195" spans="1:9" ht="29">
       <c r="A195" s="21" t="s">
         <v>413</v>
       </c>
@@ -14183,7 +14183,7 @@
       </c>
       <c r="I196" s="23"/>
     </row>
-    <row r="197" spans="1:9" ht="28.8">
+    <row r="197" spans="1:9" ht="29">
       <c r="A197" s="21" t="s">
         <v>417</v>
       </c>
@@ -14208,7 +14208,7 @@
       </c>
       <c r="I197" s="23"/>
     </row>
-    <row r="198" spans="1:9" ht="43.2">
+    <row r="198" spans="1:9" ht="43.5">
       <c r="A198" s="21" t="s">
         <v>419</v>
       </c>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="I198" s="23"/>
     </row>
-    <row r="199" spans="1:9" ht="28.8">
+    <row r="199" spans="1:9" ht="29">
       <c r="A199" s="21" t="s">
         <v>421</v>
       </c>
@@ -14258,7 +14258,7 @@
       </c>
       <c r="I199" s="23"/>
     </row>
-    <row r="200" spans="1:9" ht="43.2">
+    <row r="200" spans="1:9" ht="43.5">
       <c r="A200" s="21" t="s">
         <v>423</v>
       </c>
@@ -14283,7 +14283,7 @@
       </c>
       <c r="I200" s="23"/>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" ht="29">
       <c r="A201" s="21" t="s">
         <v>426</v>
       </c>
@@ -14308,7 +14308,7 @@
       </c>
       <c r="I201" s="23"/>
     </row>
-    <row r="202" spans="1:9" ht="43.2">
+    <row r="202" spans="1:9" ht="43.5">
       <c r="A202" s="21" t="s">
         <v>428</v>
       </c>
@@ -14333,7 +14333,7 @@
       </c>
       <c r="I202" s="23"/>
     </row>
-    <row r="203" spans="1:9" ht="28.8">
+    <row r="203" spans="1:9" ht="29">
       <c r="A203" s="21" t="s">
         <v>430</v>
       </c>
@@ -14358,7 +14358,7 @@
       </c>
       <c r="I203" s="23"/>
     </row>
-    <row r="204" spans="1:9" ht="57.6">
+    <row r="204" spans="1:9" ht="58">
       <c r="A204" s="21" t="s">
         <v>432</v>
       </c>
@@ -14383,7 +14383,7 @@
       </c>
       <c r="I204" s="23"/>
     </row>
-    <row r="205" spans="1:9" ht="43.2">
+    <row r="205" spans="1:9" ht="43.5">
       <c r="A205" s="21" t="s">
         <v>435</v>
       </c>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="I205" s="23"/>
     </row>
-    <row r="206" spans="1:9" ht="28.8">
+    <row r="206" spans="1:9" ht="29">
       <c r="A206" s="21" t="s">
         <v>437</v>
       </c>
@@ -14458,7 +14458,7 @@
       </c>
       <c r="I207" s="23"/>
     </row>
-    <row r="208" spans="1:9" ht="28.8">
+    <row r="208" spans="1:9" ht="29">
       <c r="A208" s="21" t="s">
         <v>441</v>
       </c>
@@ -14483,7 +14483,7 @@
       </c>
       <c r="I208" s="23"/>
     </row>
-    <row r="209" spans="1:9" ht="28.8">
+    <row r="209" spans="1:9" ht="29">
       <c r="A209" s="21" t="s">
         <v>443</v>
       </c>
@@ -14508,7 +14508,7 @@
       </c>
       <c r="I209" s="23"/>
     </row>
-    <row r="210" spans="1:9" ht="28.8">
+    <row r="210" spans="1:9" ht="29">
       <c r="A210" s="21" t="s">
         <v>445</v>
       </c>
@@ -14533,7 +14533,7 @@
       </c>
       <c r="I210" s="23"/>
     </row>
-    <row r="211" spans="1:9" ht="28.8">
+    <row r="211" spans="1:9" ht="29">
       <c r="A211" s="21" t="s">
         <v>447</v>
       </c>
@@ -14558,7 +14558,7 @@
       </c>
       <c r="I211" s="23"/>
     </row>
-    <row r="212" spans="1:9" ht="43.2">
+    <row r="212" spans="1:9" ht="43.5">
       <c r="A212" s="21" t="s">
         <v>449</v>
       </c>
@@ -14608,7 +14608,7 @@
       </c>
       <c r="I213" s="23"/>
     </row>
-    <row r="214" spans="1:9" ht="43.2">
+    <row r="214" spans="1:9" ht="43.5">
       <c r="A214" s="21" t="s">
         <v>454</v>
       </c>
@@ -14633,7 +14633,7 @@
       </c>
       <c r="I214" s="23"/>
     </row>
-    <row r="215" spans="1:9" ht="28.8">
+    <row r="215" spans="1:9" ht="29">
       <c r="A215" s="21" t="s">
         <v>456</v>
       </c>
@@ -14658,7 +14658,7 @@
       </c>
       <c r="I215" s="23"/>
     </row>
-    <row r="216" spans="1:9" ht="28.8">
+    <row r="216" spans="1:9" ht="29">
       <c r="A216" s="21" t="s">
         <v>458</v>
       </c>
@@ -14708,7 +14708,7 @@
       </c>
       <c r="I217" s="23"/>
     </row>
-    <row r="218" spans="1:9" ht="28.8">
+    <row r="218" spans="1:9" ht="29">
       <c r="A218" s="21" t="s">
         <v>463</v>
       </c>
@@ -14733,7 +14733,7 @@
       </c>
       <c r="I218" s="23"/>
     </row>
-    <row r="219" spans="1:9" ht="28.8">
+    <row r="219" spans="1:9" ht="29">
       <c r="A219" s="21" t="s">
         <v>465</v>
       </c>
@@ -14758,7 +14758,7 @@
       </c>
       <c r="I219" s="23"/>
     </row>
-    <row r="220" spans="1:9" ht="28.8">
+    <row r="220" spans="1:9" ht="29">
       <c r="A220" s="21" t="s">
         <v>467</v>
       </c>
@@ -14783,7 +14783,7 @@
       </c>
       <c r="I220" s="23"/>
     </row>
-    <row r="221" spans="1:9" ht="28.8">
+    <row r="221" spans="1:9" ht="29">
       <c r="A221" s="21" t="s">
         <v>470</v>
       </c>
@@ -14808,7 +14808,7 @@
       </c>
       <c r="I221" s="23"/>
     </row>
-    <row r="222" spans="1:9" ht="28.8">
+    <row r="222" spans="1:9" ht="29">
       <c r="A222" s="21" t="s">
         <v>472</v>
       </c>
@@ -14833,7 +14833,7 @@
       </c>
       <c r="I222" s="23"/>
     </row>
-    <row r="223" spans="1:9" ht="28.8">
+    <row r="223" spans="1:9" ht="29">
       <c r="A223" s="21" t="s">
         <v>474</v>
       </c>
@@ -15008,7 +15008,7 @@
       </c>
       <c r="I229" s="23"/>
     </row>
-    <row r="230" spans="1:9" ht="28.8">
+    <row r="230" spans="1:9" ht="29">
       <c r="A230" s="21" t="s">
         <v>489</v>
       </c>
@@ -15033,7 +15033,7 @@
       </c>
       <c r="I230" s="23"/>
     </row>
-    <row r="231" spans="1:9" ht="28.8">
+    <row r="231" spans="1:9" ht="29">
       <c r="A231" s="21" t="s">
         <v>491</v>
       </c>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="I233" s="23"/>
     </row>
-    <row r="234" spans="1:9" ht="28.8">
+    <row r="234" spans="1:9" ht="29">
       <c r="A234" s="21" t="s">
         <v>497</v>
       </c>
@@ -15133,7 +15133,7 @@
       </c>
       <c r="I234" s="23"/>
     </row>
-    <row r="235" spans="1:9" ht="28.8">
+    <row r="235" spans="1:9" ht="29">
       <c r="A235" s="21" t="s">
         <v>499</v>
       </c>
@@ -15185,7 +15185,7 @@
       </c>
       <c r="I236" s="23"/>
     </row>
-    <row r="237" spans="1:9" ht="28.8">
+    <row r="237" spans="1:9" ht="29">
       <c r="A237" s="21" t="s">
         <v>504</v>
       </c>
@@ -15210,7 +15210,7 @@
       </c>
       <c r="I237" s="23"/>
     </row>
-    <row r="238" spans="1:9" ht="28.8">
+    <row r="238" spans="1:9" ht="29">
       <c r="A238" s="21" t="s">
         <v>506</v>
       </c>
@@ -15285,7 +15285,7 @@
       </c>
       <c r="I240" s="23"/>
     </row>
-    <row r="241" spans="1:9" ht="28.8">
+    <row r="241" spans="1:9" ht="29">
       <c r="A241" s="21" t="s">
         <v>512</v>
       </c>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I244" s="23"/>
     </row>
-    <row r="245" spans="1:9" ht="28.8">
+    <row r="245" spans="1:9" ht="29">
       <c r="A245" s="21" t="s">
         <v>520</v>
       </c>
@@ -15485,7 +15485,7 @@
       </c>
       <c r="I248" s="23"/>
     </row>
-    <row r="249" spans="1:9" ht="28.8">
+    <row r="249" spans="1:9" ht="29">
       <c r="A249" s="21" t="s">
         <v>528</v>
       </c>
@@ -15585,7 +15585,7 @@
       </c>
       <c r="I252" s="23"/>
     </row>
-    <row r="253" spans="1:9" ht="28.8">
+    <row r="253" spans="1:9" ht="29">
       <c r="A253" s="21" t="s">
         <v>536</v>
       </c>
@@ -15660,7 +15660,7 @@
       </c>
       <c r="I255" s="23"/>
     </row>
-    <row r="256" spans="1:9" ht="28.8">
+    <row r="256" spans="1:9" ht="29">
       <c r="A256" s="21" t="s">
         <v>542</v>
       </c>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="I256" s="23"/>
     </row>
-    <row r="257" spans="1:10" ht="28.8">
+    <row r="257" spans="1:10" ht="29">
       <c r="A257" s="21" t="s">
         <v>544</v>
       </c>
@@ -15711,7 +15711,7 @@
       <c r="I257" s="23"/>
       <c r="J257" s="23"/>
     </row>
-    <row r="258" spans="1:10" ht="28.8">
+    <row r="258" spans="1:10" ht="29">
       <c r="A258" s="21" t="s">
         <v>546</v>
       </c>
@@ -15763,7 +15763,7 @@
       <c r="I259" s="23"/>
       <c r="J259" s="23"/>
     </row>
-    <row r="260" spans="1:10" ht="28.8">
+    <row r="260" spans="1:10" ht="29">
       <c r="A260" s="21" t="s">
         <v>550</v>
       </c>
@@ -15789,7 +15789,7 @@
       <c r="I260" s="23"/>
       <c r="J260" s="23"/>
     </row>
-    <row r="261" spans="1:10" ht="28.8">
+    <row r="261" spans="1:10" ht="29">
       <c r="A261" s="21" t="s">
         <v>552</v>
       </c>
@@ -15814,7 +15814,7 @@
       </c>
       <c r="I261" s="23"/>
     </row>
-    <row r="262" spans="1:10">
+    <row r="262" spans="1:10" ht="29">
       <c r="A262" s="21" t="s">
         <v>554</v>
       </c>
@@ -15840,7 +15840,7 @@
       <c r="I262" s="23"/>
       <c r="J262" s="23"/>
     </row>
-    <row r="263" spans="1:10">
+    <row r="263" spans="1:10" ht="29">
       <c r="A263" s="21" t="s">
         <v>556</v>
       </c>
@@ -15866,7 +15866,7 @@
       <c r="I263" s="23"/>
       <c r="J263" s="23"/>
     </row>
-    <row r="264" spans="1:10" ht="28.8">
+    <row r="264" spans="1:10" ht="29">
       <c r="A264" s="21" t="s">
         <v>558</v>
       </c>
@@ -15892,7 +15892,7 @@
       <c r="I264" s="23"/>
       <c r="J264" s="23"/>
     </row>
-    <row r="265" spans="1:10" ht="28.8">
+    <row r="265" spans="1:10" ht="29">
       <c r="A265" s="21" t="s">
         <v>560</v>
       </c>
@@ -15918,7 +15918,7 @@
       <c r="I265" s="23"/>
       <c r="J265" s="23"/>
     </row>
-    <row r="266" spans="1:10" ht="28.8">
+    <row r="266" spans="1:10" ht="29">
       <c r="A266" s="21" t="s">
         <v>562</v>
       </c>
@@ -16018,7 +16018,7 @@
       </c>
       <c r="I269" s="23"/>
     </row>
-    <row r="270" spans="1:10" ht="28.8">
+    <row r="270" spans="1:10" ht="29">
       <c r="A270" s="21" t="s">
         <v>570</v>
       </c>
@@ -16043,7 +16043,7 @@
       </c>
       <c r="I270" s="23"/>
     </row>
-    <row r="271" spans="1:10" ht="28.8">
+    <row r="271" spans="1:10" ht="29">
       <c r="A271" s="21" t="s">
         <v>572</v>
       </c>
@@ -16068,7 +16068,7 @@
       </c>
       <c r="I271" s="23"/>
     </row>
-    <row r="272" spans="1:10" ht="43.2">
+    <row r="272" spans="1:10" ht="43.5">
       <c r="A272" s="21" t="s">
         <v>574</v>
       </c>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="I272" s="23"/>
     </row>
-    <row r="273" spans="1:9" ht="28.8">
+    <row r="273" spans="1:9" ht="29">
       <c r="A273" s="21" t="s">
         <v>576</v>
       </c>
@@ -16118,7 +16118,7 @@
       </c>
       <c r="I273" s="23"/>
     </row>
-    <row r="274" spans="1:9" ht="28.8">
+    <row r="274" spans="1:9" ht="29">
       <c r="A274" s="21" t="s">
         <v>578</v>
       </c>
@@ -16143,7 +16143,7 @@
       </c>
       <c r="I274" s="23"/>
     </row>
-    <row r="275" spans="1:9" ht="28.8">
+    <row r="275" spans="1:9" ht="29">
       <c r="A275" s="21" t="s">
         <v>580</v>
       </c>
@@ -16168,7 +16168,7 @@
       </c>
       <c r="I275" s="23"/>
     </row>
-    <row r="276" spans="1:9" ht="28.8">
+    <row r="276" spans="1:9" ht="29">
       <c r="A276" s="21" t="s">
         <v>582</v>
       </c>
@@ -16193,7 +16193,7 @@
       </c>
       <c r="I276" s="23"/>
     </row>
-    <row r="277" spans="1:9" ht="28.8">
+    <row r="277" spans="1:9" ht="29">
       <c r="A277" s="21" t="s">
         <v>584</v>
       </c>
@@ -16218,9 +16218,9 @@
       </c>
       <c r="I277" s="23"/>
     </row>
-    <row r="278" spans="1:9" ht="28.8">
+    <row r="278" spans="1:9" ht="29">
       <c r="A278" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B278" s="22" t="s">
         <v>485</v>
@@ -16243,7 +16243,7 @@
       </c>
       <c r="I278" s="23"/>
     </row>
-    <row r="279" spans="1:9" ht="28.8">
+    <row r="279" spans="1:9" ht="29">
       <c r="A279" s="21" t="s">
         <v>587</v>
       </c>
@@ -16268,7 +16268,7 @@
       </c>
       <c r="I279" s="23"/>
     </row>
-    <row r="280" spans="1:9" ht="28.8">
+    <row r="280" spans="1:9" ht="29">
       <c r="A280" s="21" t="s">
         <v>589</v>
       </c>
@@ -16293,7 +16293,7 @@
       </c>
       <c r="I280" s="23"/>
     </row>
-    <row r="281" spans="1:9" ht="28.8">
+    <row r="281" spans="1:9" ht="29">
       <c r="A281" s="21" t="s">
         <v>591</v>
       </c>
@@ -16318,7 +16318,7 @@
       </c>
       <c r="I281" s="23"/>
     </row>
-    <row r="282" spans="1:9" ht="43.2">
+    <row r="282" spans="1:9" ht="43.5">
       <c r="A282" s="21" t="s">
         <v>593</v>
       </c>
@@ -16343,7 +16343,7 @@
       </c>
       <c r="I282" s="23"/>
     </row>
-    <row r="283" spans="1:9" ht="28.8">
+    <row r="283" spans="1:9" ht="29">
       <c r="A283" s="21" t="s">
         <v>595</v>
       </c>
@@ -16368,7 +16368,7 @@
       </c>
       <c r="I283" s="23"/>
     </row>
-    <row r="284" spans="1:9" ht="28.8">
+    <row r="284" spans="1:9" ht="29">
       <c r="A284" s="21" t="s">
         <v>597</v>
       </c>
@@ -16393,7 +16393,7 @@
       </c>
       <c r="I284" s="23"/>
     </row>
-    <row r="285" spans="1:9" ht="28.8">
+    <row r="285" spans="1:9" ht="29">
       <c r="A285" s="21" t="s">
         <v>599</v>
       </c>
@@ -16418,7 +16418,7 @@
       </c>
       <c r="I285" s="23"/>
     </row>
-    <row r="286" spans="1:9" ht="28.8">
+    <row r="286" spans="1:9" ht="29">
       <c r="A286" s="21" t="s">
         <v>601</v>
       </c>
@@ -16443,7 +16443,7 @@
       </c>
       <c r="I286" s="23"/>
     </row>
-    <row r="287" spans="1:9" ht="28.8">
+    <row r="287" spans="1:9" ht="29">
       <c r="A287" s="21" t="s">
         <v>603</v>
       </c>
@@ -16468,7 +16468,7 @@
       </c>
       <c r="I287" s="23"/>
     </row>
-    <row r="288" spans="1:9" ht="28.8">
+    <row r="288" spans="1:9" ht="29">
       <c r="A288" s="21" t="s">
         <v>605</v>
       </c>
@@ -16493,7 +16493,7 @@
       </c>
       <c r="I288" s="23"/>
     </row>
-    <row r="289" spans="1:9" ht="28.8">
+    <row r="289" spans="1:9" ht="29">
       <c r="A289" s="21" t="s">
         <v>607</v>
       </c>
@@ -16543,7 +16543,7 @@
       </c>
       <c r="I290" s="23"/>
     </row>
-    <row r="291" spans="1:9" ht="28.8">
+    <row r="291" spans="1:9" ht="29">
       <c r="A291" s="21" t="s">
         <v>611</v>
       </c>
@@ -16568,7 +16568,7 @@
       </c>
       <c r="I291" s="23"/>
     </row>
-    <row r="292" spans="1:9" ht="28.8">
+    <row r="292" spans="1:9" ht="29">
       <c r="A292" s="21" t="s">
         <v>613</v>
       </c>
@@ -16593,7 +16593,7 @@
       </c>
       <c r="I292" s="23"/>
     </row>
-    <row r="293" spans="1:9" ht="28.8">
+    <row r="293" spans="1:9" ht="29">
       <c r="A293" s="21" t="s">
         <v>615</v>
       </c>
@@ -16618,7 +16618,7 @@
       </c>
       <c r="I293" s="23"/>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" ht="29">
       <c r="A294" s="21" t="s">
         <v>617</v>
       </c>
@@ -16668,7 +16668,7 @@
       </c>
       <c r="I295" s="23"/>
     </row>
-    <row r="296" spans="1:9" ht="43.2">
+    <row r="296" spans="1:9" ht="43.5">
       <c r="A296" s="21" t="s">
         <v>621</v>
       </c>
@@ -16743,7 +16743,7 @@
       </c>
       <c r="I298" s="23"/>
     </row>
-    <row r="299" spans="1:9" ht="28.8">
+    <row r="299" spans="1:9" ht="29">
       <c r="A299" s="21" t="s">
         <v>627</v>
       </c>
@@ -16793,7 +16793,7 @@
       </c>
       <c r="I300" s="23"/>
     </row>
-    <row r="301" spans="1:9" ht="28.8">
+    <row r="301" spans="1:9" ht="29">
       <c r="A301" s="21" t="s">
         <v>631</v>
       </c>
@@ -16843,7 +16843,7 @@
       </c>
       <c r="I302" s="23"/>
     </row>
-    <row r="303" spans="1:9" ht="28.8">
+    <row r="303" spans="1:9" ht="29">
       <c r="A303" s="21" t="s">
         <v>635</v>
       </c>
@@ -16893,7 +16893,7 @@
       </c>
       <c r="I304" s="23"/>
     </row>
-    <row r="305" spans="1:9" ht="28.8">
+    <row r="305" spans="1:9" ht="29">
       <c r="A305" s="21" t="s">
         <v>639</v>
       </c>
@@ -16943,7 +16943,7 @@
       </c>
       <c r="I306" s="23"/>
     </row>
-    <row r="307" spans="1:9" ht="28.8">
+    <row r="307" spans="1:9" ht="29">
       <c r="A307" s="21" t="s">
         <v>643</v>
       </c>
@@ -16993,7 +16993,7 @@
       </c>
       <c r="I308" s="23"/>
     </row>
-    <row r="309" spans="1:9" ht="28.8">
+    <row r="309" spans="1:9" ht="29">
       <c r="A309" s="21" t="s">
         <v>647</v>
       </c>
@@ -17118,7 +17118,7 @@
       </c>
       <c r="I313" s="23"/>
     </row>
-    <row r="314" spans="1:9" ht="28.8">
+    <row r="314" spans="1:9" ht="29">
       <c r="A314" s="21" t="s">
         <v>658</v>
       </c>
@@ -17143,7 +17143,7 @@
       </c>
       <c r="I314" s="23"/>
     </row>
-    <row r="315" spans="1:9" ht="28.8">
+    <row r="315" spans="1:9" ht="29">
       <c r="A315" s="21" t="s">
         <v>660</v>
       </c>
@@ -17168,7 +17168,7 @@
       </c>
       <c r="I315" s="23"/>
     </row>
-    <row r="316" spans="1:9" ht="28.8">
+    <row r="316" spans="1:9" ht="29">
       <c r="A316" s="21" t="s">
         <v>662</v>
       </c>
@@ -17193,7 +17193,7 @@
       </c>
       <c r="I316" s="23"/>
     </row>
-    <row r="317" spans="1:9" ht="28.8">
+    <row r="317" spans="1:9" ht="29">
       <c r="A317" s="21" t="s">
         <v>664</v>
       </c>
@@ -17243,7 +17243,7 @@
       </c>
       <c r="I318" s="23"/>
     </row>
-    <row r="319" spans="1:9" ht="28.8">
+    <row r="319" spans="1:9" ht="29">
       <c r="A319" s="21" t="s">
         <v>669</v>
       </c>
@@ -17268,7 +17268,7 @@
       </c>
       <c r="I319" s="23"/>
     </row>
-    <row r="320" spans="1:9" ht="28.8">
+    <row r="320" spans="1:9" ht="29">
       <c r="A320" s="21" t="s">
         <v>671</v>
       </c>
@@ -17293,7 +17293,7 @@
       </c>
       <c r="I320" s="23"/>
     </row>
-    <row r="321" spans="1:9" ht="28.8">
+    <row r="321" spans="1:9" ht="29">
       <c r="A321" s="21" t="s">
         <v>673</v>
       </c>
@@ -17318,7 +17318,7 @@
       </c>
       <c r="I321" s="23"/>
     </row>
-    <row r="322" spans="1:9" ht="28.8">
+    <row r="322" spans="1:9" ht="29">
       <c r="A322" s="21" t="s">
         <v>675</v>
       </c>
@@ -17343,7 +17343,7 @@
       </c>
       <c r="I322" s="23"/>
     </row>
-    <row r="323" spans="1:9" ht="43.2">
+    <row r="323" spans="1:9" ht="43.5">
       <c r="A323" s="21" t="s">
         <v>677</v>
       </c>
@@ -17368,7 +17368,7 @@
       </c>
       <c r="I323" s="23"/>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" ht="29">
       <c r="A324" s="21" t="s">
         <v>679</v>
       </c>
@@ -17393,7 +17393,7 @@
       </c>
       <c r="I324" s="23"/>
     </row>
-    <row r="325" spans="1:9" ht="28.8">
+    <row r="325" spans="1:9" ht="29">
       <c r="A325" s="21" t="s">
         <v>682</v>
       </c>
@@ -17418,7 +17418,7 @@
       </c>
       <c r="I325" s="23"/>
     </row>
-    <row r="326" spans="1:9" ht="28.8">
+    <row r="326" spans="1:9" ht="29">
       <c r="A326" s="21" t="s">
         <v>684</v>
       </c>
@@ -17468,7 +17468,7 @@
       </c>
       <c r="I327" s="23"/>
     </row>
-    <row r="328" spans="1:9" ht="28.8">
+    <row r="328" spans="1:9" ht="29">
       <c r="A328" s="21" t="s">
         <v>688</v>
       </c>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="I328" s="23"/>
     </row>
-    <row r="329" spans="1:9" ht="28.8">
+    <row r="329" spans="1:9" ht="29">
       <c r="A329" s="21" t="s">
         <v>690</v>
       </c>
@@ -17543,7 +17543,7 @@
       </c>
       <c r="I330" s="23"/>
     </row>
-    <row r="331" spans="1:9" ht="43.2">
+    <row r="331" spans="1:9" ht="43.5">
       <c r="A331" s="21" t="s">
         <v>694</v>
       </c>
@@ -17568,7 +17568,7 @@
       </c>
       <c r="I331" s="23"/>
     </row>
-    <row r="332" spans="1:9" ht="28.8">
+    <row r="332" spans="1:9" ht="29">
       <c r="A332" s="21" t="s">
         <v>696</v>
       </c>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="I332" s="23"/>
     </row>
-    <row r="333" spans="1:9" ht="28.8">
+    <row r="333" spans="1:9" ht="29">
       <c r="A333" s="21" t="s">
         <v>698</v>
       </c>
@@ -17618,7 +17618,7 @@
       </c>
       <c r="I333" s="23"/>
     </row>
-    <row r="334" spans="1:9" ht="28.8">
+    <row r="334" spans="1:9" ht="29">
       <c r="A334" s="21" t="s">
         <v>700</v>
       </c>
@@ -17643,7 +17643,7 @@
       </c>
       <c r="I334" s="23"/>
     </row>
-    <row r="335" spans="1:9" ht="28.8">
+    <row r="335" spans="1:9" ht="29">
       <c r="A335" s="21" t="s">
         <v>702</v>
       </c>
@@ -17668,7 +17668,7 @@
       </c>
       <c r="I335" s="23"/>
     </row>
-    <row r="336" spans="1:9" ht="28.8">
+    <row r="336" spans="1:9" ht="29">
       <c r="A336" s="21" t="s">
         <v>704</v>
       </c>
@@ -17693,7 +17693,7 @@
       </c>
       <c r="I336" s="23"/>
     </row>
-    <row r="337" spans="1:9" ht="28.8">
+    <row r="337" spans="1:9" ht="29">
       <c r="A337" s="21" t="s">
         <v>706</v>
       </c>
@@ -17718,7 +17718,7 @@
       </c>
       <c r="I337" s="23"/>
     </row>
-    <row r="338" spans="1:9" ht="28.8">
+    <row r="338" spans="1:9" ht="29">
       <c r="A338" s="21" t="s">
         <v>708</v>
       </c>
@@ -17743,7 +17743,7 @@
       </c>
       <c r="I338" s="23"/>
     </row>
-    <row r="339" spans="1:9" ht="43.2">
+    <row r="339" spans="1:9" ht="43.5">
       <c r="A339" s="21" t="s">
         <v>710</v>
       </c>
@@ -17818,7 +17818,7 @@
       </c>
       <c r="I341" s="23"/>
     </row>
-    <row r="342" spans="1:9" ht="28.8">
+    <row r="342" spans="1:9" ht="29">
       <c r="A342" s="21" t="s">
         <v>717</v>
       </c>
@@ -17843,7 +17843,7 @@
       </c>
       <c r="I342" s="23"/>
     </row>
-    <row r="343" spans="1:9" ht="28.8">
+    <row r="343" spans="1:9" ht="29">
       <c r="A343" s="21" t="s">
         <v>719</v>
       </c>
@@ -17868,7 +17868,7 @@
       </c>
       <c r="I343" s="23"/>
     </row>
-    <row r="344" spans="1:9" ht="28.8">
+    <row r="344" spans="1:9" ht="29">
       <c r="A344" s="21" t="s">
         <v>721</v>
       </c>
@@ -17893,7 +17893,7 @@
       </c>
       <c r="I344" s="23"/>
     </row>
-    <row r="345" spans="1:9" ht="43.2">
+    <row r="345" spans="1:9" ht="43.5">
       <c r="A345" s="21" t="s">
         <v>723</v>
       </c>
@@ -17943,9 +17943,9 @@
       </c>
       <c r="I346" s="23"/>
     </row>
-    <row r="347" spans="1:9" ht="28.8">
+    <row r="347" spans="1:9" ht="29">
       <c r="A347" s="21" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="B347" s="22" t="s">
         <v>724</v>
@@ -17993,7 +17993,7 @@
       </c>
       <c r="I348" s="23"/>
     </row>
-    <row r="349" spans="1:9" ht="28.8">
+    <row r="349" spans="1:9" ht="29">
       <c r="A349" s="21" t="s">
         <v>731</v>
       </c>
@@ -18068,15 +18068,15 @@
       </c>
       <c r="I351" s="23"/>
     </row>
-    <row r="352" spans="1:9" ht="28.8">
+    <row r="352" spans="1:9" ht="29">
       <c r="A352" s="21" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="B352" s="22" t="s">
         <v>724</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="D352" s="21"/>
       <c r="E352" s="21" t="s">
@@ -18093,7 +18093,7 @@
       </c>
       <c r="I352" s="23"/>
     </row>
-    <row r="353" spans="1:9" ht="57.6">
+    <row r="353" spans="1:9" ht="58">
       <c r="A353" s="21" t="s">
         <v>737</v>
       </c>
@@ -18118,7 +18118,7 @@
       </c>
       <c r="I353" s="23"/>
     </row>
-    <row r="354" spans="1:9" ht="57.6">
+    <row r="354" spans="1:9" ht="58">
       <c r="A354" s="21" t="s">
         <v>739</v>
       </c>
@@ -18143,7 +18143,7 @@
       </c>
       <c r="I354" s="23"/>
     </row>
-    <row r="355" spans="1:9" ht="28.8">
+    <row r="355" spans="1:9" ht="29">
       <c r="A355" s="21" t="s">
         <v>741</v>
       </c>
@@ -18168,7 +18168,7 @@
       </c>
       <c r="I355" s="23"/>
     </row>
-    <row r="356" spans="1:9" ht="28.8">
+    <row r="356" spans="1:9" ht="29">
       <c r="A356" s="21" t="s">
         <v>743</v>
       </c>
@@ -18193,7 +18193,7 @@
       </c>
       <c r="I356" s="23"/>
     </row>
-    <row r="357" spans="1:9" ht="43.2">
+    <row r="357" spans="1:9" ht="43.5">
       <c r="A357" s="21" t="s">
         <v>745</v>
       </c>
@@ -18218,7 +18218,7 @@
       </c>
       <c r="I357" s="23"/>
     </row>
-    <row r="358" spans="1:9" ht="28.8">
+    <row r="358" spans="1:9" ht="29">
       <c r="A358" s="21" t="s">
         <v>748</v>
       </c>
@@ -18243,7 +18243,7 @@
       </c>
       <c r="I358" s="23"/>
     </row>
-    <row r="359" spans="1:9" ht="28.8">
+    <row r="359" spans="1:9" ht="29">
       <c r="A359" s="21" t="s">
         <v>750</v>
       </c>
@@ -18293,7 +18293,7 @@
       </c>
       <c r="I360" s="23"/>
     </row>
-    <row r="361" spans="1:9" ht="28.8">
+    <row r="361" spans="1:9" ht="29">
       <c r="A361" s="21" t="s">
         <v>755</v>
       </c>
@@ -18318,7 +18318,7 @@
       </c>
       <c r="I361" s="23"/>
     </row>
-    <row r="362" spans="1:9" ht="28.8">
+    <row r="362" spans="1:9" ht="29">
       <c r="A362" s="21" t="s">
         <v>757</v>
       </c>
@@ -18368,7 +18368,7 @@
       </c>
       <c r="I363" s="23"/>
     </row>
-    <row r="364" spans="1:9" ht="28.8">
+    <row r="364" spans="1:9" ht="29">
       <c r="A364" s="21" t="s">
         <v>762</v>
       </c>
@@ -18393,7 +18393,7 @@
       </c>
       <c r="I364" s="23"/>
     </row>
-    <row r="365" spans="1:9" ht="28.8">
+    <row r="365" spans="1:9" ht="29">
       <c r="A365" s="21" t="s">
         <v>764</v>
       </c>
@@ -18418,7 +18418,7 @@
       </c>
       <c r="I365" s="23"/>
     </row>
-    <row r="366" spans="1:9" ht="28.8">
+    <row r="366" spans="1:9" ht="29">
       <c r="A366" s="21" t="s">
         <v>766</v>
       </c>
@@ -18443,7 +18443,7 @@
       </c>
       <c r="I366" s="23"/>
     </row>
-    <row r="367" spans="1:9" ht="28.8">
+    <row r="367" spans="1:9" ht="29">
       <c r="A367" s="21" t="s">
         <v>768</v>
       </c>
@@ -18468,7 +18468,7 @@
       </c>
       <c r="I367" s="23"/>
     </row>
-    <row r="368" spans="1:9" ht="43.2">
+    <row r="368" spans="1:9" ht="43.5">
       <c r="A368" s="21" t="s">
         <v>770</v>
       </c>
@@ -18518,7 +18518,7 @@
       </c>
       <c r="I369" s="23"/>
     </row>
-    <row r="370" spans="1:9" ht="28.8">
+    <row r="370" spans="1:9" ht="29">
       <c r="A370" s="21" t="s">
         <v>774</v>
       </c>
@@ -18543,7 +18543,7 @@
       </c>
       <c r="I370" s="23"/>
     </row>
-    <row r="371" spans="1:9" ht="28.8">
+    <row r="371" spans="1:9" ht="29">
       <c r="A371" s="21" t="s">
         <v>776</v>
       </c>
@@ -18568,7 +18568,7 @@
       </c>
       <c r="I371" s="23"/>
     </row>
-    <row r="372" spans="1:9" ht="28.8">
+    <row r="372" spans="1:9" ht="29">
       <c r="A372" s="21" t="s">
         <v>779</v>
       </c>
@@ -18593,7 +18593,7 @@
       </c>
       <c r="I372" s="23"/>
     </row>
-    <row r="373" spans="1:9" ht="43.2">
+    <row r="373" spans="1:9" ht="43.5">
       <c r="A373" s="21" t="s">
         <v>781</v>
       </c>
@@ -18668,7 +18668,7 @@
       </c>
       <c r="I375" s="23"/>
     </row>
-    <row r="376" spans="1:9" ht="28.8">
+    <row r="376" spans="1:9" ht="29">
       <c r="A376" s="21" t="s">
         <v>787</v>
       </c>
@@ -18693,7 +18693,7 @@
       </c>
       <c r="I376" s="23"/>
     </row>
-    <row r="377" spans="1:9" ht="86.4">
+    <row r="377" spans="1:9" ht="87">
       <c r="A377" s="21" t="s">
         <v>789</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="43.2">
+    <row r="378" spans="1:9" ht="43.5">
       <c r="A378" s="21" t="s">
         <v>792</v>
       </c>
@@ -18745,7 +18745,7 @@
       </c>
       <c r="I378" s="23"/>
     </row>
-    <row r="379" spans="1:9" ht="43.2">
+    <row r="379" spans="1:9" ht="43.5">
       <c r="A379" s="21" t="s">
         <v>794</v>
       </c>
@@ -18770,7 +18770,7 @@
       </c>
       <c r="I379" s="23"/>
     </row>
-    <row r="380" spans="1:9" ht="43.2">
+    <row r="380" spans="1:9" ht="43.5">
       <c r="A380" s="21" t="s">
         <v>796</v>
       </c>
@@ -18795,7 +18795,7 @@
       </c>
       <c r="I380" s="23"/>
     </row>
-    <row r="381" spans="1:9" ht="57.6">
+    <row r="381" spans="1:9" ht="58">
       <c r="A381" s="21" t="s">
         <v>798</v>
       </c>
@@ -18820,7 +18820,7 @@
       </c>
       <c r="I381" s="23"/>
     </row>
-    <row r="382" spans="1:9" ht="57.6">
+    <row r="382" spans="1:9" ht="58">
       <c r="A382" s="21" t="s">
         <v>800</v>
       </c>
@@ -18845,7 +18845,7 @@
       </c>
       <c r="I382" s="23"/>
     </row>
-    <row r="383" spans="1:9" ht="28.8">
+    <row r="383" spans="1:9" ht="29">
       <c r="A383" s="21" t="s">
         <v>802</v>
       </c>
@@ -18895,7 +18895,7 @@
       </c>
       <c r="I384" s="23"/>
     </row>
-    <row r="385" spans="1:9" ht="43.2">
+    <row r="385" spans="1:9" ht="43.5">
       <c r="A385" s="21" t="s">
         <v>806</v>
       </c>
@@ -18920,7 +18920,7 @@
       </c>
       <c r="I385" s="23"/>
     </row>
-    <row r="386" spans="1:9" ht="28.8">
+    <row r="386" spans="1:9" ht="29">
       <c r="A386" s="21" t="s">
         <v>808</v>
       </c>
@@ -18945,7 +18945,7 @@
       </c>
       <c r="I386" s="23"/>
     </row>
-    <row r="387" spans="1:9" ht="57.6">
+    <row r="387" spans="1:9" ht="58">
       <c r="A387" s="21" t="s">
         <v>810</v>
       </c>
@@ -18970,7 +18970,7 @@
       </c>
       <c r="I387" s="23"/>
     </row>
-    <row r="388" spans="1:9" ht="43.2">
+    <row r="388" spans="1:9" ht="43.5">
       <c r="A388" s="21" t="s">
         <v>812</v>
       </c>
@@ -19070,7 +19070,7 @@
       </c>
       <c r="I391" s="23"/>
     </row>
-    <row r="392" spans="1:9" ht="28.8">
+    <row r="392" spans="1:9" ht="29">
       <c r="A392" s="21" t="s">
         <v>820</v>
       </c>
@@ -19145,7 +19145,7 @@
       </c>
       <c r="I394" s="23"/>
     </row>
-    <row r="395" spans="1:9" ht="28.8">
+    <row r="395" spans="1:9" ht="29">
       <c r="A395" s="21" t="s">
         <v>827</v>
       </c>
@@ -19195,7 +19195,7 @@
       </c>
       <c r="I396" s="23"/>
     </row>
-    <row r="397" spans="1:9" ht="28.8">
+    <row r="397" spans="1:9" ht="29">
       <c r="A397" s="21" t="s">
         <v>831</v>
       </c>
@@ -19222,7 +19222,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="28.8">
+    <row r="398" spans="1:9" ht="29">
       <c r="A398" s="21" t="s">
         <v>834</v>
       </c>
@@ -19247,7 +19247,7 @@
       </c>
       <c r="I398" s="23"/>
     </row>
-    <row r="399" spans="1:9" ht="28.8">
+    <row r="399" spans="1:9" ht="29">
       <c r="A399" s="21" t="s">
         <v>836</v>
       </c>
@@ -19272,7 +19272,7 @@
       </c>
       <c r="I399" s="23"/>
     </row>
-    <row r="400" spans="1:9" ht="43.2">
+    <row r="400" spans="1:9" ht="43.5">
       <c r="A400" s="21" t="s">
         <v>838</v>
       </c>
@@ -19372,7 +19372,7 @@
       </c>
       <c r="I403" s="23"/>
     </row>
-    <row r="404" spans="1:9" ht="28.8">
+    <row r="404" spans="1:9" ht="29">
       <c r="A404" s="21" t="s">
         <v>847</v>
       </c>
@@ -19397,7 +19397,7 @@
       </c>
       <c r="I404" s="23"/>
     </row>
-    <row r="405" spans="1:9" ht="43.2">
+    <row r="405" spans="1:9" ht="43.5">
       <c r="A405" s="21" t="s">
         <v>849</v>
       </c>
@@ -19447,7 +19447,7 @@
       </c>
       <c r="I406" s="23"/>
     </row>
-    <row r="407" spans="1:9" ht="28.8">
+    <row r="407" spans="1:9" ht="29">
       <c r="A407" s="21" t="s">
         <v>853</v>
       </c>
@@ -19497,7 +19497,7 @@
       </c>
       <c r="I408" s="23"/>
     </row>
-    <row r="409" spans="1:9" ht="28.8">
+    <row r="409" spans="1:9" ht="29">
       <c r="A409" s="21" t="s">
         <v>857</v>
       </c>
@@ -19522,7 +19522,7 @@
       </c>
       <c r="I409" s="23"/>
     </row>
-    <row r="410" spans="1:9" ht="43.2">
+    <row r="410" spans="1:9" ht="43.5">
       <c r="A410" s="21" t="s">
         <v>859</v>
       </c>
@@ -19547,7 +19547,7 @@
       </c>
       <c r="I410" s="23"/>
     </row>
-    <row r="411" spans="1:9" ht="43.2">
+    <row r="411" spans="1:9" ht="43.5">
       <c r="A411" s="21" t="s">
         <v>861</v>
       </c>
@@ -19572,7 +19572,7 @@
       </c>
       <c r="I411" s="23"/>
     </row>
-    <row r="412" spans="1:9" ht="28.8">
+    <row r="412" spans="1:9" ht="29">
       <c r="A412" s="21" t="s">
         <v>863</v>
       </c>
@@ -19772,7 +19772,7 @@
       </c>
       <c r="I419" s="23"/>
     </row>
-    <row r="420" spans="1:9" ht="43.2">
+    <row r="420" spans="1:9" ht="43.5">
       <c r="A420" s="21" t="s">
         <v>879</v>
       </c>
@@ -19797,7 +19797,7 @@
       </c>
       <c r="I420" s="23"/>
     </row>
-    <row r="421" spans="1:9" ht="28.8">
+    <row r="421" spans="1:9" ht="29">
       <c r="A421" s="21" t="s">
         <v>881</v>
       </c>
@@ -19947,7 +19947,7 @@
       </c>
       <c r="I426" s="23"/>
     </row>
-    <row r="427" spans="1:9" ht="28.8">
+    <row r="427" spans="1:9" ht="29">
       <c r="A427" s="21" t="s">
         <v>893</v>
       </c>
@@ -19997,7 +19997,7 @@
       </c>
       <c r="I428" s="23"/>
     </row>
-    <row r="429" spans="1:9" ht="28.8">
+    <row r="429" spans="1:9" ht="29">
       <c r="A429" s="21" t="s">
         <v>897</v>
       </c>
@@ -20072,7 +20072,7 @@
       </c>
       <c r="I431" s="23"/>
     </row>
-    <row r="432" spans="1:9" ht="28.8">
+    <row r="432" spans="1:9" ht="29">
       <c r="A432" s="21" t="s">
         <v>903</v>
       </c>
@@ -20097,7 +20097,7 @@
       </c>
       <c r="I432" s="23"/>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" ht="29">
       <c r="A433" s="21" t="s">
         <v>905</v>
       </c>
@@ -20147,7 +20147,7 @@
       </c>
       <c r="I434" s="23"/>
     </row>
-    <row r="435" spans="1:9" ht="43.2">
+    <row r="435" spans="1:9" ht="43.5">
       <c r="A435" s="21" t="s">
         <v>909</v>
       </c>
@@ -20172,7 +20172,7 @@
       </c>
       <c r="I435" s="23"/>
     </row>
-    <row r="436" spans="1:9" ht="28.8">
+    <row r="436" spans="1:9" ht="29">
       <c r="A436" s="21" t="s">
         <v>911</v>
       </c>
@@ -20197,7 +20197,7 @@
       </c>
       <c r="I436" s="23"/>
     </row>
-    <row r="437" spans="1:9" ht="28.8">
+    <row r="437" spans="1:9" ht="29">
       <c r="A437" s="21" t="s">
         <v>913</v>
       </c>
@@ -20222,7 +20222,7 @@
       </c>
       <c r="I437" s="23"/>
     </row>
-    <row r="438" spans="1:9" ht="43.2">
+    <row r="438" spans="1:9" ht="43.5">
       <c r="A438" s="21" t="s">
         <v>915</v>
       </c>
@@ -20247,7 +20247,7 @@
       </c>
       <c r="I438" s="23"/>
     </row>
-    <row r="439" spans="1:9" ht="28.8">
+    <row r="439" spans="1:9" ht="29">
       <c r="A439" s="21" t="s">
         <v>917</v>
       </c>
@@ -20297,7 +20297,7 @@
       </c>
       <c r="I440" s="23"/>
     </row>
-    <row r="441" spans="1:9" ht="28.8">
+    <row r="441" spans="1:9" ht="29">
       <c r="A441" s="21" t="s">
         <v>921</v>
       </c>
@@ -20347,7 +20347,7 @@
       </c>
       <c r="I442" s="23"/>
     </row>
-    <row r="443" spans="1:9" ht="28.8">
+    <row r="443" spans="1:9" ht="29">
       <c r="A443" s="21" t="s">
         <v>925</v>
       </c>
@@ -20397,7 +20397,7 @@
       </c>
       <c r="I444" s="23"/>
     </row>
-    <row r="445" spans="1:9" ht="28.8">
+    <row r="445" spans="1:9" ht="29">
       <c r="A445" s="21" t="s">
         <v>929</v>
       </c>
@@ -20422,7 +20422,7 @@
       </c>
       <c r="I445" s="23"/>
     </row>
-    <row r="446" spans="1:9" ht="28.8">
+    <row r="446" spans="1:9" ht="29">
       <c r="A446" s="21" t="s">
         <v>931</v>
       </c>
@@ -20447,7 +20447,7 @@
       </c>
       <c r="I446" s="23"/>
     </row>
-    <row r="447" spans="1:9" ht="28.8">
+    <row r="447" spans="1:9" ht="29">
       <c r="A447" s="21" t="s">
         <v>933</v>
       </c>
@@ -20472,7 +20472,7 @@
       </c>
       <c r="I447" s="23"/>
     </row>
-    <row r="448" spans="1:9" ht="28.8">
+    <row r="448" spans="1:9" ht="29">
       <c r="A448" s="21" t="s">
         <v>935</v>
       </c>
@@ -20497,7 +20497,7 @@
       </c>
       <c r="I448" s="23"/>
     </row>
-    <row r="449" spans="1:9" ht="28.8">
+    <row r="449" spans="1:9" ht="29">
       <c r="A449" s="21" t="s">
         <v>937</v>
       </c>
@@ -20522,7 +20522,7 @@
       </c>
       <c r="I449" s="23"/>
     </row>
-    <row r="450" spans="1:9" ht="28.8">
+    <row r="450" spans="1:9" ht="29">
       <c r="A450" s="21" t="s">
         <v>939</v>
       </c>
@@ -20547,7 +20547,7 @@
       </c>
       <c r="I450" s="23"/>
     </row>
-    <row r="451" spans="1:9" ht="28.8">
+    <row r="451" spans="1:9" ht="29">
       <c r="A451" s="21" t="s">
         <v>941</v>
       </c>
@@ -20622,7 +20622,7 @@
       </c>
       <c r="I453" s="23"/>
     </row>
-    <row r="454" spans="1:9" ht="28.8">
+    <row r="454" spans="1:9" ht="29">
       <c r="A454" s="21" t="s">
         <v>947</v>
       </c>
@@ -20647,7 +20647,7 @@
       </c>
       <c r="I454" s="23"/>
     </row>
-    <row r="455" spans="1:9" ht="28.8">
+    <row r="455" spans="1:9" ht="29">
       <c r="A455" s="21" t="s">
         <v>949</v>
       </c>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="I455" s="23"/>
     </row>
-    <row r="456" spans="1:9" ht="28.8">
+    <row r="456" spans="1:9" ht="29">
       <c r="A456" s="21" t="s">
         <v>951</v>
       </c>
@@ -20697,7 +20697,7 @@
       </c>
       <c r="I456" s="23"/>
     </row>
-    <row r="457" spans="1:9" ht="28.8">
+    <row r="457" spans="1:9" ht="29">
       <c r="A457" s="21" t="s">
         <v>953</v>
       </c>
@@ -20722,7 +20722,7 @@
       </c>
       <c r="I457" s="23"/>
     </row>
-    <row r="458" spans="1:9" ht="28.8">
+    <row r="458" spans="1:9" ht="29">
       <c r="A458" s="21" t="s">
         <v>955</v>
       </c>
@@ -20772,7 +20772,7 @@
       </c>
       <c r="I459" s="23"/>
     </row>
-    <row r="460" spans="1:9" ht="28.8">
+    <row r="460" spans="1:9" ht="29">
       <c r="A460" s="21" t="s">
         <v>959</v>
       </c>
@@ -20797,7 +20797,7 @@
       </c>
       <c r="I460" s="23"/>
     </row>
-    <row r="461" spans="1:9" ht="28.8">
+    <row r="461" spans="1:9" ht="29">
       <c r="A461" s="21" t="s">
         <v>961</v>
       </c>
@@ -20822,7 +20822,7 @@
       </c>
       <c r="I461" s="23"/>
     </row>
-    <row r="462" spans="1:9" ht="28.8">
+    <row r="462" spans="1:9" ht="29">
       <c r="A462" s="21" t="s">
         <v>963</v>
       </c>
@@ -20847,7 +20847,7 @@
       </c>
       <c r="I462" s="23"/>
     </row>
-    <row r="463" spans="1:9" ht="28.8">
+    <row r="463" spans="1:9" ht="29">
       <c r="A463" s="21" t="s">
         <v>965</v>
       </c>
@@ -20922,7 +20922,7 @@
       </c>
       <c r="I465" s="23"/>
     </row>
-    <row r="466" spans="1:9" ht="28.8">
+    <row r="466" spans="1:9" ht="29">
       <c r="A466" s="21" t="s">
         <v>970</v>
       </c>
@@ -20947,7 +20947,7 @@
       </c>
       <c r="I466" s="23"/>
     </row>
-    <row r="467" spans="1:9" ht="28.8">
+    <row r="467" spans="1:9" ht="29">
       <c r="A467" s="21" t="s">
         <v>972</v>
       </c>
@@ -20972,7 +20972,7 @@
       </c>
       <c r="I467" s="23"/>
     </row>
-    <row r="468" spans="1:9" ht="28.8">
+    <row r="468" spans="1:9" ht="29">
       <c r="A468" s="21" t="s">
         <v>974</v>
       </c>
@@ -20997,7 +20997,7 @@
       </c>
       <c r="I468" s="23"/>
     </row>
-    <row r="469" spans="1:9" ht="28.8">
+    <row r="469" spans="1:9" ht="29">
       <c r="A469" s="21" t="s">
         <v>976</v>
       </c>
@@ -21022,7 +21022,7 @@
       </c>
       <c r="I469" s="23"/>
     </row>
-    <row r="470" spans="1:9" ht="28.8">
+    <row r="470" spans="1:9" ht="29">
       <c r="A470" s="21" t="s">
         <v>978</v>
       </c>
@@ -21047,7 +21047,7 @@
       </c>
       <c r="I470" s="23"/>
     </row>
-    <row r="471" spans="1:9" ht="28.8">
+    <row r="471" spans="1:9" ht="29">
       <c r="A471" s="21" t="s">
         <v>980</v>
       </c>
@@ -21072,7 +21072,7 @@
       </c>
       <c r="I471" s="23"/>
     </row>
-    <row r="472" spans="1:9" ht="28.8">
+    <row r="472" spans="1:9" ht="29">
       <c r="A472" s="21" t="s">
         <v>982</v>
       </c>
@@ -21097,7 +21097,7 @@
       </c>
       <c r="I472" s="23"/>
     </row>
-    <row r="473" spans="1:9" ht="28.8">
+    <row r="473" spans="1:9" ht="29">
       <c r="A473" s="21" t="s">
         <v>984</v>
       </c>
@@ -21122,7 +21122,7 @@
       </c>
       <c r="I473" s="23"/>
     </row>
-    <row r="474" spans="1:9" ht="28.8">
+    <row r="474" spans="1:9" ht="29">
       <c r="A474" s="21" t="s">
         <v>986</v>
       </c>
@@ -21147,7 +21147,7 @@
       </c>
       <c r="I474" s="23"/>
     </row>
-    <row r="475" spans="1:9" ht="28.8">
+    <row r="475" spans="1:9" ht="29">
       <c r="A475" s="21" t="s">
         <v>988</v>
       </c>
@@ -21172,7 +21172,7 @@
       </c>
       <c r="I475" s="23"/>
     </row>
-    <row r="476" spans="1:9" ht="28.8">
+    <row r="476" spans="1:9" ht="29">
       <c r="A476" s="21" t="s">
         <v>990</v>
       </c>
@@ -21197,7 +21197,7 @@
       </c>
       <c r="I476" s="23"/>
     </row>
-    <row r="477" spans="1:9" ht="28.8">
+    <row r="477" spans="1:9" ht="29">
       <c r="A477" s="21" t="s">
         <v>992</v>
       </c>
@@ -21222,7 +21222,7 @@
       </c>
       <c r="I477" s="23"/>
     </row>
-    <row r="478" spans="1:9" ht="28.8">
+    <row r="478" spans="1:9" ht="29">
       <c r="A478" s="21" t="s">
         <v>994</v>
       </c>
@@ -21247,7 +21247,7 @@
       </c>
       <c r="I478" s="23"/>
     </row>
-    <row r="479" spans="1:9" ht="28.8">
+    <row r="479" spans="1:9" ht="29">
       <c r="A479" s="21" t="s">
         <v>996</v>
       </c>
@@ -21272,7 +21272,7 @@
       </c>
       <c r="I479" s="23"/>
     </row>
-    <row r="480" spans="1:9" ht="28.8">
+    <row r="480" spans="1:9" ht="29">
       <c r="A480" s="21" t="s">
         <v>998</v>
       </c>
@@ -21297,7 +21297,7 @@
       </c>
       <c r="I480" s="23"/>
     </row>
-    <row r="481" spans="1:9" ht="28.8">
+    <row r="481" spans="1:9" ht="29">
       <c r="A481" s="21" t="s">
         <v>1000</v>
       </c>
@@ -21322,7 +21322,7 @@
       </c>
       <c r="I481" s="23"/>
     </row>
-    <row r="482" spans="1:9" ht="28.8">
+    <row r="482" spans="1:9" ht="29">
       <c r="A482" s="21" t="s">
         <v>1002</v>
       </c>
@@ -21347,7 +21347,7 @@
       </c>
       <c r="I482" s="23"/>
     </row>
-    <row r="483" spans="1:9" ht="28.8">
+    <row r="483" spans="1:9" ht="29">
       <c r="A483" s="21" t="s">
         <v>1004</v>
       </c>
@@ -21372,7 +21372,7 @@
       </c>
       <c r="I483" s="23"/>
     </row>
-    <row r="484" spans="1:9" ht="28.8">
+    <row r="484" spans="1:9" ht="29">
       <c r="A484" s="21" t="s">
         <v>1006</v>
       </c>
@@ -21397,7 +21397,7 @@
       </c>
       <c r="I484" s="23"/>
     </row>
-    <row r="485" spans="1:9" ht="28.8">
+    <row r="485" spans="1:9" ht="29">
       <c r="A485" s="21" t="s">
         <v>1008</v>
       </c>
@@ -21472,7 +21472,7 @@
       </c>
       <c r="I487" s="23"/>
     </row>
-    <row r="488" spans="1:9" ht="28.8">
+    <row r="488" spans="1:9" ht="29">
       <c r="A488" s="21" t="s">
         <v>1014</v>
       </c>
@@ -21497,7 +21497,7 @@
       </c>
       <c r="I488" s="23"/>
     </row>
-    <row r="489" spans="1:9" ht="28.8">
+    <row r="489" spans="1:9" ht="29">
       <c r="A489" s="21" t="s">
         <v>1016</v>
       </c>
@@ -21522,7 +21522,7 @@
       </c>
       <c r="I489" s="23"/>
     </row>
-    <row r="490" spans="1:9" ht="28.8">
+    <row r="490" spans="1:9" ht="29">
       <c r="A490" s="21" t="s">
         <v>1018</v>
       </c>
@@ -21547,7 +21547,7 @@
       </c>
       <c r="I490" s="23"/>
     </row>
-    <row r="491" spans="1:9" ht="43.2">
+    <row r="491" spans="1:9" ht="43.5">
       <c r="A491" s="21" t="s">
         <v>1020</v>
       </c>
@@ -21572,7 +21572,7 @@
       </c>
       <c r="I491" s="23"/>
     </row>
-    <row r="492" spans="1:9" ht="28.8">
+    <row r="492" spans="1:9" ht="29">
       <c r="A492" s="21" t="s">
         <v>1022</v>
       </c>
@@ -21622,7 +21622,7 @@
       </c>
       <c r="I493" s="23"/>
     </row>
-    <row r="494" spans="1:9" ht="28.8">
+    <row r="494" spans="1:9" ht="29">
       <c r="A494" s="21" t="s">
         <v>1026</v>
       </c>
@@ -21647,7 +21647,7 @@
       </c>
       <c r="I494" s="23"/>
     </row>
-    <row r="495" spans="1:9" ht="28.8">
+    <row r="495" spans="1:9" ht="29">
       <c r="A495" s="21" t="s">
         <v>1028</v>
       </c>
@@ -21672,7 +21672,7 @@
       </c>
       <c r="I495" s="23"/>
     </row>
-    <row r="496" spans="1:9" ht="28.8">
+    <row r="496" spans="1:9" ht="29">
       <c r="A496" s="21" t="s">
         <v>1031</v>
       </c>
@@ -21697,7 +21697,7 @@
       </c>
       <c r="I496" s="23"/>
     </row>
-    <row r="497" spans="1:9" ht="28.8">
+    <row r="497" spans="1:9" ht="29">
       <c r="A497" s="21" t="s">
         <v>1033</v>
       </c>
@@ -21747,7 +21747,7 @@
       </c>
       <c r="I498" s="23"/>
     </row>
-    <row r="499" spans="1:9" ht="28.8">
+    <row r="499" spans="1:9" ht="29">
       <c r="A499" s="21" t="s">
         <v>1037</v>
       </c>
@@ -21772,7 +21772,7 @@
       </c>
       <c r="I499" s="23"/>
     </row>
-    <row r="500" spans="1:9" ht="43.2">
+    <row r="500" spans="1:9" ht="43.5">
       <c r="A500" s="21" t="s">
         <v>1039</v>
       </c>
@@ -21797,7 +21797,7 @@
       </c>
       <c r="I500" s="23"/>
     </row>
-    <row r="501" spans="1:9" ht="43.2">
+    <row r="501" spans="1:9" ht="43.5">
       <c r="A501" s="21" t="s">
         <v>1041</v>
       </c>
@@ -21847,7 +21847,7 @@
       </c>
       <c r="I502" s="23"/>
     </row>
-    <row r="503" spans="1:9" ht="43.2">
+    <row r="503" spans="1:9" ht="43.5">
       <c r="A503" s="21" t="s">
         <v>1046</v>
       </c>
@@ -21872,7 +21872,7 @@
       </c>
       <c r="I503" s="23"/>
     </row>
-    <row r="504" spans="1:9" ht="43.2">
+    <row r="504" spans="1:9" ht="43.5">
       <c r="A504" s="21" t="s">
         <v>1048</v>
       </c>
@@ -21897,7 +21897,7 @@
       </c>
       <c r="I504" s="23"/>
     </row>
-    <row r="505" spans="1:9" ht="43.2">
+    <row r="505" spans="1:9" ht="43.5">
       <c r="A505" s="21" t="s">
         <v>1050</v>
       </c>
@@ -21922,7 +21922,7 @@
       </c>
       <c r="I505" s="23"/>
     </row>
-    <row r="506" spans="1:9" ht="28.8">
+    <row r="506" spans="1:9" ht="29">
       <c r="A506" s="21" t="s">
         <v>1052</v>
       </c>
@@ -21972,7 +21972,7 @@
       </c>
       <c r="I507" s="23"/>
     </row>
-    <row r="508" spans="1:9" ht="28.8">
+    <row r="508" spans="1:9" ht="29">
       <c r="A508" s="21" t="s">
         <v>1057</v>
       </c>
@@ -21997,7 +21997,7 @@
       </c>
       <c r="I508" s="23"/>
     </row>
-    <row r="509" spans="1:9" ht="43.2">
+    <row r="509" spans="1:9" ht="43.5">
       <c r="A509" s="21" t="s">
         <v>1059</v>
       </c>
@@ -22022,7 +22022,7 @@
       </c>
       <c r="I509" s="23"/>
     </row>
-    <row r="510" spans="1:9" ht="43.2">
+    <row r="510" spans="1:9" ht="43.5">
       <c r="A510" s="21" t="s">
         <v>1061</v>
       </c>
@@ -22072,7 +22072,7 @@
       </c>
       <c r="I511" s="23"/>
     </row>
-    <row r="512" spans="1:9" ht="43.2">
+    <row r="512" spans="1:9" ht="43.5">
       <c r="A512" s="21" t="s">
         <v>1066</v>
       </c>
@@ -22097,7 +22097,7 @@
       </c>
       <c r="I512" s="23"/>
     </row>
-    <row r="513" spans="1:9" ht="28.8">
+    <row r="513" spans="1:9" ht="29">
       <c r="A513" s="21" t="s">
         <v>1068</v>
       </c>
@@ -22147,7 +22147,7 @@
       </c>
       <c r="I514" s="23"/>
     </row>
-    <row r="515" spans="1:9" ht="43.2">
+    <row r="515" spans="1:9" ht="43.5">
       <c r="A515" s="21" t="s">
         <v>1073</v>
       </c>
@@ -22197,7 +22197,7 @@
       </c>
       <c r="I516" s="23"/>
     </row>
-    <row r="517" spans="1:9" ht="28.8">
+    <row r="517" spans="1:9" ht="29">
       <c r="A517" s="21" t="s">
         <v>1077</v>
       </c>
@@ -22222,7 +22222,7 @@
       </c>
       <c r="I517" s="23"/>
     </row>
-    <row r="518" spans="1:9" ht="28.8">
+    <row r="518" spans="1:9" ht="29">
       <c r="A518" s="21" t="s">
         <v>1080</v>
       </c>
@@ -22272,7 +22272,7 @@
       </c>
       <c r="I519" s="23"/>
     </row>
-    <row r="520" spans="1:9" ht="28.8">
+    <row r="520" spans="1:9" ht="29">
       <c r="A520" s="21" t="s">
         <v>1084</v>
       </c>
@@ -22297,7 +22297,7 @@
       </c>
       <c r="I520" s="23"/>
     </row>
-    <row r="521" spans="1:9" ht="43.2">
+    <row r="521" spans="1:9" ht="43.5">
       <c r="A521" s="21" t="s">
         <v>1086</v>
       </c>
@@ -22324,7 +22324,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="28.8">
+    <row r="522" spans="1:9" ht="29">
       <c r="A522" s="21" t="s">
         <v>1089</v>
       </c>
@@ -22351,7 +22351,7 @@
       </c>
       <c r="I522" s="23"/>
     </row>
-    <row r="523" spans="1:9" ht="28.8">
+    <row r="523" spans="1:9" ht="29">
       <c r="A523" s="21" t="s">
         <v>1091</v>
       </c>
@@ -22376,7 +22376,7 @@
       </c>
       <c r="I523" s="23"/>
     </row>
-    <row r="524" spans="1:9" ht="28.8">
+    <row r="524" spans="1:9" ht="29">
       <c r="A524" s="21" t="s">
         <v>1093</v>
       </c>
@@ -22401,7 +22401,7 @@
       </c>
       <c r="I524" s="23"/>
     </row>
-    <row r="525" spans="1:9" ht="43.2">
+    <row r="525" spans="1:9" ht="43.5">
       <c r="A525" s="21" t="s">
         <v>1095</v>
       </c>
@@ -22451,7 +22451,7 @@
       </c>
       <c r="I526" s="23"/>
     </row>
-    <row r="527" spans="1:9" ht="28.8">
+    <row r="527" spans="1:9" ht="29">
       <c r="A527" s="21" t="s">
         <v>1099</v>
       </c>
@@ -22476,7 +22476,7 @@
       </c>
       <c r="I527" s="23"/>
     </row>
-    <row r="528" spans="1:9" ht="28.8">
+    <row r="528" spans="1:9" ht="29">
       <c r="A528" s="21" t="s">
         <v>1101</v>
       </c>
@@ -22526,7 +22526,7 @@
       </c>
       <c r="I529" s="23"/>
     </row>
-    <row r="530" spans="1:10" ht="43.2">
+    <row r="530" spans="1:10" ht="43.5">
       <c r="A530" s="21" t="s">
         <v>1105</v>
       </c>
@@ -22576,7 +22576,7 @@
       </c>
       <c r="I531" s="23"/>
     </row>
-    <row r="532" spans="1:10" ht="28.8">
+    <row r="532" spans="1:10" ht="29">
       <c r="A532" s="21" t="s">
         <v>1110</v>
       </c>
@@ -22601,7 +22601,7 @@
       </c>
       <c r="I532" s="23"/>
     </row>
-    <row r="533" spans="1:10" ht="57.6">
+    <row r="533" spans="1:10" ht="58">
       <c r="A533" s="21" t="s">
         <v>1112</v>
       </c>
@@ -22628,7 +22628,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="534" spans="1:10" ht="28.8">
+    <row r="534" spans="1:10" ht="29">
       <c r="A534" s="21" t="s">
         <v>1115</v>
       </c>
@@ -22655,7 +22655,7 @@
       </c>
       <c r="I534" s="23"/>
     </row>
-    <row r="535" spans="1:10" ht="28.8">
+    <row r="535" spans="1:10" ht="29">
       <c r="A535" s="21" t="s">
         <v>1117</v>
       </c>
@@ -22683,7 +22683,7 @@
       <c r="I535" s="23"/>
       <c r="J535" s="21"/>
     </row>
-    <row r="536" spans="1:10" ht="28.8">
+    <row r="536" spans="1:10" ht="29">
       <c r="A536" s="21" t="s">
         <v>1119</v>
       </c>
@@ -22708,7 +22708,7 @@
       </c>
       <c r="I536" s="23"/>
     </row>
-    <row r="537" spans="1:10" ht="28.8">
+    <row r="537" spans="1:10" ht="29">
       <c r="A537" s="21" t="s">
         <v>1121</v>
       </c>
@@ -22733,7 +22733,7 @@
       </c>
       <c r="I537" s="23"/>
     </row>
-    <row r="538" spans="1:10" ht="57.6">
+    <row r="538" spans="1:10" ht="58">
       <c r="A538" s="21" t="s">
         <v>1123</v>
       </c>
@@ -22758,7 +22758,7 @@
       </c>
       <c r="I538" s="23"/>
     </row>
-    <row r="539" spans="1:10" ht="57.6">
+    <row r="539" spans="1:10" ht="58">
       <c r="A539" s="21" t="s">
         <v>1125</v>
       </c>
@@ -22784,7 +22784,7 @@
       <c r="I539" s="23"/>
       <c r="J539" s="21"/>
     </row>
-    <row r="540" spans="1:10" ht="28.8">
+    <row r="540" spans="1:10" ht="29">
       <c r="A540" s="21" t="s">
         <v>1127</v>
       </c>
@@ -22809,7 +22809,7 @@
       </c>
       <c r="I540" s="23"/>
     </row>
-    <row r="541" spans="1:10" ht="28.8">
+    <row r="541" spans="1:10" ht="29">
       <c r="A541" s="21" t="s">
         <v>1129</v>
       </c>
@@ -22834,7 +22834,7 @@
       </c>
       <c r="I541" s="23"/>
     </row>
-    <row r="542" spans="1:10" ht="28.8">
+    <row r="542" spans="1:10" ht="29">
       <c r="A542" s="21" t="s">
         <v>1131</v>
       </c>
@@ -22909,7 +22909,7 @@
       </c>
       <c r="I544" s="23"/>
     </row>
-    <row r="545" spans="1:9" ht="28.8">
+    <row r="545" spans="1:9" ht="29">
       <c r="A545" s="21" t="s">
         <v>1137</v>
       </c>
@@ -22934,7 +22934,7 @@
       </c>
       <c r="I545" s="23"/>
     </row>
-    <row r="546" spans="1:9" ht="28.8">
+    <row r="546" spans="1:9" ht="29">
       <c r="A546" s="21" t="s">
         <v>1139</v>
       </c>
@@ -22959,7 +22959,7 @@
       </c>
       <c r="I546" s="23"/>
     </row>
-    <row r="547" spans="1:9" ht="43.2">
+    <row r="547" spans="1:9" ht="43.5">
       <c r="A547" s="21" t="s">
         <v>1141</v>
       </c>
@@ -23009,7 +23009,7 @@
       </c>
       <c r="I548" s="23"/>
     </row>
-    <row r="549" spans="1:9" ht="28.8">
+    <row r="549" spans="1:9" ht="29">
       <c r="A549" s="21" t="s">
         <v>1146</v>
       </c>
@@ -23034,7 +23034,7 @@
       </c>
       <c r="I549" s="23"/>
     </row>
-    <row r="550" spans="1:9" ht="28.8">
+    <row r="550" spans="1:9" ht="29">
       <c r="A550" s="21" t="s">
         <v>1148</v>
       </c>
@@ -23059,7 +23059,7 @@
       </c>
       <c r="I550" s="23"/>
     </row>
-    <row r="551" spans="1:9" ht="28.8">
+    <row r="551" spans="1:9" ht="29">
       <c r="A551" s="21" t="s">
         <v>1150</v>
       </c>
@@ -23159,7 +23159,7 @@
       </c>
       <c r="I554" s="23"/>
     </row>
-    <row r="555" spans="1:9" ht="28.8">
+    <row r="555" spans="1:9" ht="29">
       <c r="A555" s="21" t="s">
         <v>1159</v>
       </c>
@@ -23234,7 +23234,7 @@
       </c>
       <c r="I557" s="23"/>
     </row>
-    <row r="558" spans="1:9">
+    <row r="558" spans="1:9" ht="29">
       <c r="A558" s="21" t="s">
         <v>1166</v>
       </c>
@@ -23284,7 +23284,7 @@
       </c>
       <c r="I559" s="23"/>
     </row>
-    <row r="560" spans="1:9" ht="57.6">
+    <row r="560" spans="1:9" ht="58">
       <c r="A560" s="21" t="s">
         <v>1170</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="43.2">
+    <row r="561" spans="1:9" ht="43.5">
       <c r="A561" s="21" t="s">
         <v>1173</v>
       </c>
@@ -23363,7 +23363,7 @@
       </c>
       <c r="I562" s="23"/>
     </row>
-    <row r="563" spans="1:9" ht="43.2">
+    <row r="563" spans="1:9" ht="43.5">
       <c r="A563" s="21" t="s">
         <v>1177</v>
       </c>
@@ -23390,7 +23390,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="28.8">
+    <row r="564" spans="1:9" ht="29">
       <c r="A564" s="21" t="s">
         <v>1180</v>
       </c>
@@ -23417,7 +23417,7 @@
       </c>
       <c r="I564" s="23"/>
     </row>
-    <row r="565" spans="1:9" ht="57.6">
+    <row r="565" spans="1:9" ht="58">
       <c r="A565" s="21" t="s">
         <v>1182</v>
       </c>
@@ -23492,7 +23492,7 @@
       </c>
       <c r="I567" s="23"/>
     </row>
-    <row r="568" spans="1:9" ht="28.8">
+    <row r="568" spans="1:9" ht="43.5">
       <c r="A568" s="21" t="s">
         <v>1189</v>
       </c>
@@ -23517,7 +23517,7 @@
       </c>
       <c r="I568" s="23"/>
     </row>
-    <row r="569" spans="1:9" ht="28.8">
+    <row r="569" spans="1:9" ht="29">
       <c r="A569" s="21" t="s">
         <v>1191</v>
       </c>
@@ -23542,7 +23542,7 @@
       </c>
       <c r="I569" s="23"/>
     </row>
-    <row r="570" spans="1:9" ht="28.8">
+    <row r="570" spans="1:9" ht="29">
       <c r="A570" s="21" t="s">
         <v>1193</v>
       </c>
@@ -23592,7 +23592,7 @@
       </c>
       <c r="I571" s="23"/>
     </row>
-    <row r="572" spans="1:9" ht="57.6">
+    <row r="572" spans="1:9" ht="58">
       <c r="A572" s="21" t="s">
         <v>1197</v>
       </c>
@@ -23619,7 +23619,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="43.2">
+    <row r="573" spans="1:9" ht="43.5">
       <c r="A573" s="21" t="s">
         <v>1200</v>
       </c>
@@ -23646,7 +23646,7 @@
       </c>
       <c r="I573" s="23"/>
     </row>
-    <row r="574" spans="1:9" ht="57.6">
+    <row r="574" spans="1:9" ht="58">
       <c r="A574" s="21" t="s">
         <v>1202</v>
       </c>
@@ -23721,7 +23721,7 @@
       </c>
       <c r="I576" s="23"/>
     </row>
-    <row r="577" spans="1:9" ht="43.2">
+    <row r="577" spans="1:9" ht="43.5">
       <c r="A577" s="21" t="s">
         <v>1209</v>
       </c>
@@ -23746,7 +23746,7 @@
       </c>
       <c r="I577" s="23"/>
     </row>
-    <row r="578" spans="1:9" ht="28.8">
+    <row r="578" spans="1:9" ht="29">
       <c r="A578" s="21" t="s">
         <v>1211</v>
       </c>
@@ -23771,7 +23771,7 @@
       </c>
       <c r="I578" s="23"/>
     </row>
-    <row r="579" spans="1:9" ht="28.8">
+    <row r="579" spans="1:9" ht="29">
       <c r="A579" s="21" t="s">
         <v>1213</v>
       </c>
@@ -23796,7 +23796,7 @@
       </c>
       <c r="I579" s="23"/>
     </row>
-    <row r="580" spans="1:9" ht="43.2">
+    <row r="580" spans="1:9" ht="43.5">
       <c r="A580" s="21" t="s">
         <v>1215</v>
       </c>
@@ -23821,7 +23821,7 @@
       </c>
       <c r="I580" s="23"/>
     </row>
-    <row r="581" spans="1:9" ht="28.8">
+    <row r="581" spans="1:9" ht="29">
       <c r="A581" s="21" t="s">
         <v>1217</v>
       </c>
@@ -23871,7 +23871,7 @@
       </c>
       <c r="I582" s="23"/>
     </row>
-    <row r="583" spans="1:9" ht="72">
+    <row r="583" spans="1:9" ht="87">
       <c r="A583" s="21" t="s">
         <v>1221</v>
       </c>
@@ -23898,7 +23898,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="57.6">
+    <row r="584" spans="1:9" ht="58">
       <c r="A584" s="21" t="s">
         <v>1224</v>
       </c>
@@ -23925,7 +23925,7 @@
       </c>
       <c r="I584" s="23"/>
     </row>
-    <row r="585" spans="1:9" ht="28.8">
+    <row r="585" spans="1:9" ht="29">
       <c r="A585" s="21" t="s">
         <v>1226</v>
       </c>
@@ -23975,7 +23975,7 @@
       </c>
       <c r="I586" s="23"/>
     </row>
-    <row r="587" spans="1:9" ht="28.8">
+    <row r="587" spans="1:9" ht="29">
       <c r="A587" s="21" t="s">
         <v>1231</v>
       </c>
@@ -24025,7 +24025,7 @@
       </c>
       <c r="I588" s="23"/>
     </row>
-    <row r="589" spans="1:9" ht="43.2">
+    <row r="589" spans="1:9" ht="43.5">
       <c r="A589" s="21" t="s">
         <v>1235</v>
       </c>
@@ -24050,7 +24050,7 @@
       </c>
       <c r="I589" s="23"/>
     </row>
-    <row r="590" spans="1:9" ht="28.8">
+    <row r="590" spans="1:9" ht="29">
       <c r="A590" s="21" t="s">
         <v>1237</v>
       </c>
@@ -24075,7 +24075,7 @@
       </c>
       <c r="I590" s="23"/>
     </row>
-    <row r="591" spans="1:9" ht="28.8">
+    <row r="591" spans="1:9" ht="43.5">
       <c r="A591" s="21" t="s">
         <v>1239</v>
       </c>
@@ -24100,7 +24100,7 @@
       </c>
       <c r="I591" s="23"/>
     </row>
-    <row r="592" spans="1:9" ht="43.2">
+    <row r="592" spans="1:9" ht="43.5">
       <c r="A592" s="21" t="s">
         <v>1241</v>
       </c>
@@ -24125,7 +24125,7 @@
       </c>
       <c r="I592" s="23"/>
     </row>
-    <row r="593" spans="1:9" ht="28.8">
+    <row r="593" spans="1:9" ht="29">
       <c r="A593" s="21" t="s">
         <v>1243</v>
       </c>
@@ -24150,7 +24150,7 @@
       </c>
       <c r="I593" s="23"/>
     </row>
-    <row r="594" spans="1:9" ht="28.8">
+    <row r="594" spans="1:9" ht="29">
       <c r="A594" s="21" t="s">
         <v>1245</v>
       </c>
@@ -24175,7 +24175,7 @@
       </c>
       <c r="I594" s="23"/>
     </row>
-    <row r="595" spans="1:9" ht="28.8">
+    <row r="595" spans="1:9" ht="29">
       <c r="A595" s="21" t="s">
         <v>1248</v>
       </c>
@@ -24200,7 +24200,7 @@
       </c>
       <c r="I595" s="23"/>
     </row>
-    <row r="596" spans="1:9" ht="28.8">
+    <row r="596" spans="1:9" ht="29">
       <c r="A596" s="21" t="s">
         <v>1250</v>
       </c>
@@ -24250,7 +24250,7 @@
       </c>
       <c r="I597" s="23"/>
     </row>
-    <row r="598" spans="1:9" ht="43.2">
+    <row r="598" spans="1:9" ht="43.5">
       <c r="A598" s="21" t="s">
         <v>1254</v>
       </c>
@@ -24275,7 +24275,7 @@
       </c>
       <c r="I598" s="23"/>
     </row>
-    <row r="599" spans="1:9" ht="28.8">
+    <row r="599" spans="1:9" ht="29">
       <c r="A599" s="21" t="s">
         <v>1256</v>
       </c>
@@ -24300,7 +24300,7 @@
       </c>
       <c r="I599" s="23"/>
     </row>
-    <row r="600" spans="1:9" ht="43.2">
+    <row r="600" spans="1:9" ht="43.5">
       <c r="A600" s="21" t="s">
         <v>1258</v>
       </c>
@@ -24325,7 +24325,7 @@
       </c>
       <c r="I600" s="23"/>
     </row>
-    <row r="601" spans="1:9" ht="43.2">
+    <row r="601" spans="1:9" ht="43.5">
       <c r="A601" s="21" t="s">
         <v>1260</v>
       </c>
@@ -24375,7 +24375,7 @@
       </c>
       <c r="I602" s="23"/>
     </row>
-    <row r="603" spans="1:9" ht="28.8">
+    <row r="603" spans="1:9" ht="29">
       <c r="A603" s="21" t="s">
         <v>1264</v>
       </c>
@@ -24400,7 +24400,7 @@
       </c>
       <c r="I603" s="23"/>
     </row>
-    <row r="604" spans="1:9" ht="43.2">
+    <row r="604" spans="1:9" ht="43.5">
       <c r="A604" s="21" t="s">
         <v>1266</v>
       </c>
@@ -24475,7 +24475,7 @@
       </c>
       <c r="I606" s="23"/>
     </row>
-    <row r="607" spans="1:9" ht="43.2">
+    <row r="607" spans="1:9" ht="43.5">
       <c r="A607" s="21" t="s">
         <v>1273</v>
       </c>
@@ -24500,7 +24500,7 @@
       </c>
       <c r="I607" s="23"/>
     </row>
-    <row r="608" spans="1:9" ht="28.8">
+    <row r="608" spans="1:9" ht="29">
       <c r="A608" s="21" t="s">
         <v>1275</v>
       </c>
@@ -24525,7 +24525,7 @@
       </c>
       <c r="I608" s="23"/>
     </row>
-    <row r="609" spans="1:9" ht="28.8">
+    <row r="609" spans="1:9" ht="29">
       <c r="A609" s="21" t="s">
         <v>1277</v>
       </c>
@@ -24600,7 +24600,7 @@
       </c>
       <c r="I611" s="23"/>
     </row>
-    <row r="612" spans="1:9" ht="28.8">
+    <row r="612" spans="1:9" ht="29">
       <c r="A612" s="21" t="s">
         <v>1284</v>
       </c>
@@ -24625,7 +24625,7 @@
       </c>
       <c r="I612" s="23"/>
     </row>
-    <row r="613" spans="1:9" ht="28.8">
+    <row r="613" spans="1:9" ht="29">
       <c r="A613" s="21" t="s">
         <v>1286</v>
       </c>
@@ -24650,7 +24650,7 @@
       </c>
       <c r="I613" s="23"/>
     </row>
-    <row r="614" spans="1:9" ht="28.8">
+    <row r="614" spans="1:9" ht="29">
       <c r="A614" s="21" t="s">
         <v>1288</v>
       </c>
@@ -24725,7 +24725,7 @@
       </c>
       <c r="I616" s="23"/>
     </row>
-    <row r="617" spans="1:9" ht="28.8">
+    <row r="617" spans="1:9" ht="29">
       <c r="A617" s="21" t="s">
         <v>1295</v>
       </c>
@@ -24750,7 +24750,7 @@
       </c>
       <c r="I617" s="23"/>
     </row>
-    <row r="618" spans="1:9" ht="43.2">
+    <row r="618" spans="1:9" ht="43.5">
       <c r="A618" s="21" t="s">
         <v>1297</v>
       </c>
@@ -24775,7 +24775,7 @@
       </c>
       <c r="I618" s="23"/>
     </row>
-    <row r="619" spans="1:9" ht="28.8">
+    <row r="619" spans="1:9" ht="29">
       <c r="A619" s="21" t="s">
         <v>1299</v>
       </c>
@@ -24800,7 +24800,7 @@
       </c>
       <c r="I619" s="23"/>
     </row>
-    <row r="620" spans="1:9" ht="43.2">
+    <row r="620" spans="1:9" ht="43.5">
       <c r="A620" s="21" t="s">
         <v>1301</v>
       </c>
@@ -24850,7 +24850,7 @@
       </c>
       <c r="I621" s="23"/>
     </row>
-    <row r="622" spans="1:9" ht="28.8">
+    <row r="622" spans="1:9" ht="29">
       <c r="A622" s="21" t="s">
         <v>1306</v>
       </c>
@@ -24875,7 +24875,7 @@
       </c>
       <c r="I622" s="23"/>
     </row>
-    <row r="623" spans="1:9" ht="28.8">
+    <row r="623" spans="1:9" ht="29">
       <c r="A623" s="21" t="s">
         <v>1308</v>
       </c>
@@ -24900,7 +24900,7 @@
       </c>
       <c r="I623" s="23"/>
     </row>
-    <row r="624" spans="1:9" ht="28.8">
+    <row r="624" spans="1:9" ht="29">
       <c r="A624" s="21" t="s">
         <v>1310</v>
       </c>
@@ -24925,7 +24925,7 @@
       </c>
       <c r="I624" s="23"/>
     </row>
-    <row r="625" spans="1:9" ht="57.6">
+    <row r="625" spans="1:9" ht="58">
       <c r="A625" s="21" t="s">
         <v>1313</v>
       </c>
@@ -24975,7 +24975,7 @@
       </c>
       <c r="I626" s="23"/>
     </row>
-    <row r="627" spans="1:9" ht="57.6">
+    <row r="627" spans="1:9" ht="58">
       <c r="A627" s="21" t="s">
         <v>1317</v>
       </c>
@@ -25002,7 +25002,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="628" spans="1:9" ht="28.8">
+    <row r="628" spans="1:9" ht="29">
       <c r="A628" s="21" t="s">
         <v>1320</v>
       </c>
@@ -25027,7 +25027,7 @@
       </c>
       <c r="I628" s="23"/>
     </row>
-    <row r="629" spans="1:9" ht="28.8">
+    <row r="629" spans="1:9" ht="29">
       <c r="A629" s="21" t="s">
         <v>1322</v>
       </c>
@@ -25052,7 +25052,7 @@
       </c>
       <c r="I629" s="23"/>
     </row>
-    <row r="630" spans="1:9" ht="28.8">
+    <row r="630" spans="1:9" ht="29">
       <c r="A630" s="21" t="s">
         <v>1324</v>
       </c>
@@ -25077,7 +25077,7 @@
       </c>
       <c r="I630" s="23"/>
     </row>
-    <row r="631" spans="1:9" ht="28.8">
+    <row r="631" spans="1:9" ht="29">
       <c r="A631" s="21" t="s">
         <v>1326</v>
       </c>
@@ -25102,7 +25102,7 @@
       </c>
       <c r="I631" s="23"/>
     </row>
-    <row r="632" spans="1:9" ht="43.2">
+    <row r="632" spans="1:9" ht="43.5">
       <c r="A632" s="21" t="s">
         <v>1329</v>
       </c>
@@ -25127,7 +25127,7 @@
       </c>
       <c r="I632" s="23"/>
     </row>
-    <row r="633" spans="1:9" ht="28.8">
+    <row r="633" spans="1:9" ht="29">
       <c r="A633" s="21" t="s">
         <v>1331</v>
       </c>
@@ -25152,7 +25152,7 @@
       </c>
       <c r="I633" s="23"/>
     </row>
-    <row r="634" spans="1:9" ht="28.8">
+    <row r="634" spans="1:9" ht="29">
       <c r="A634" s="21" t="s">
         <v>1333</v>
       </c>
@@ -25177,7 +25177,7 @@
       </c>
       <c r="I634" s="23"/>
     </row>
-    <row r="635" spans="1:9" ht="28.8">
+    <row r="635" spans="1:9" ht="29">
       <c r="A635" s="21" t="s">
         <v>1335</v>
       </c>
@@ -25227,7 +25227,7 @@
       </c>
       <c r="I636" s="23"/>
     </row>
-    <row r="637" spans="1:9" ht="43.2">
+    <row r="637" spans="1:9" ht="43.5">
       <c r="A637" s="21" t="s">
         <v>1339</v>
       </c>
@@ -25252,7 +25252,7 @@
       </c>
       <c r="I637" s="23"/>
     </row>
-    <row r="638" spans="1:9" ht="43.2">
+    <row r="638" spans="1:9" ht="43.5">
       <c r="A638" s="21" t="s">
         <v>1341</v>
       </c>
@@ -25302,7 +25302,7 @@
       </c>
       <c r="I639" s="23"/>
     </row>
-    <row r="640" spans="1:9" ht="28.8">
+    <row r="640" spans="1:9" ht="29">
       <c r="A640" s="21" t="s">
         <v>1345</v>
       </c>
@@ -25327,7 +25327,7 @@
       </c>
       <c r="I640" s="23"/>
     </row>
-    <row r="641" spans="1:9" ht="43.2">
+    <row r="641" spans="1:9" ht="43.5">
       <c r="A641" s="21" t="s">
         <v>1348</v>
       </c>
@@ -25402,7 +25402,7 @@
       </c>
       <c r="I643" s="23"/>
     </row>
-    <row r="644" spans="1:9" ht="28.8">
+    <row r="644" spans="1:9" ht="29">
       <c r="A644" s="21" t="s">
         <v>1354</v>
       </c>
@@ -25427,7 +25427,7 @@
       </c>
       <c r="I644" s="23"/>
     </row>
-    <row r="645" spans="1:9" ht="28.8">
+    <row r="645" spans="1:9" ht="29">
       <c r="A645" s="21" t="s">
         <v>1356</v>
       </c>
@@ -25452,7 +25452,7 @@
       </c>
       <c r="I645" s="23"/>
     </row>
-    <row r="646" spans="1:9" ht="28.8">
+    <row r="646" spans="1:9" ht="29">
       <c r="A646" s="21" t="s">
         <v>1359</v>
       </c>
@@ -25502,7 +25502,7 @@
       </c>
       <c r="I647" s="23"/>
     </row>
-    <row r="648" spans="1:9" ht="28.8">
+    <row r="648" spans="1:9" ht="29">
       <c r="A648" s="21" t="s">
         <v>1363</v>
       </c>
@@ -25527,7 +25527,7 @@
       </c>
       <c r="I648" s="23"/>
     </row>
-    <row r="649" spans="1:9" ht="28.8">
+    <row r="649" spans="1:9" ht="29">
       <c r="A649" s="21" t="s">
         <v>1365</v>
       </c>
@@ -25552,7 +25552,7 @@
       </c>
       <c r="I649" s="23"/>
     </row>
-    <row r="650" spans="1:9" ht="28.8">
+    <row r="650" spans="1:9" ht="29">
       <c r="A650" s="21" t="s">
         <v>1367</v>
       </c>
@@ -25579,7 +25579,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="651" spans="1:9" ht="28.8">
+    <row r="651" spans="1:9" ht="29">
       <c r="A651" s="21" t="s">
         <v>1370</v>
       </c>
@@ -25606,7 +25606,7 @@
       </c>
       <c r="I651" s="23"/>
     </row>
-    <row r="652" spans="1:9" ht="28.8">
+    <row r="652" spans="1:9" ht="29">
       <c r="A652" s="21" t="s">
         <v>1372</v>
       </c>
@@ -25631,7 +25631,7 @@
       </c>
       <c r="I652" s="23"/>
     </row>
-    <row r="653" spans="1:9" ht="28.8">
+    <row r="653" spans="1:9" ht="29">
       <c r="A653" s="21" t="s">
         <v>1375</v>
       </c>
@@ -25681,7 +25681,7 @@
       </c>
       <c r="I654" s="23"/>
     </row>
-    <row r="655" spans="1:9" ht="43.2">
+    <row r="655" spans="1:9" ht="58">
       <c r="A655" s="21" t="s">
         <v>1379</v>
       </c>
@@ -25706,7 +25706,7 @@
       </c>
       <c r="I655" s="23"/>
     </row>
-    <row r="656" spans="1:9" ht="28.8">
+    <row r="656" spans="1:9" ht="29">
       <c r="A656" s="21" t="s">
         <v>1381</v>
       </c>
@@ -25731,7 +25731,7 @@
       </c>
       <c r="I656" s="23"/>
     </row>
-    <row r="657" spans="1:9" ht="28.8">
+    <row r="657" spans="1:9" ht="29">
       <c r="A657" s="21" t="s">
         <v>1383</v>
       </c>
@@ -25756,7 +25756,7 @@
       </c>
       <c r="I657" s="23"/>
     </row>
-    <row r="658" spans="1:9" ht="28.8">
+    <row r="658" spans="1:9" ht="29">
       <c r="A658" s="21" t="s">
         <v>1385</v>
       </c>
@@ -25781,7 +25781,7 @@
       </c>
       <c r="I658" s="23"/>
     </row>
-    <row r="659" spans="1:9" ht="28.8">
+    <row r="659" spans="1:9" ht="29">
       <c r="A659" s="21" t="s">
         <v>1388</v>
       </c>
@@ -25831,7 +25831,7 @@
       </c>
       <c r="I660" s="23"/>
     </row>
-    <row r="661" spans="1:9" ht="43.2">
+    <row r="661" spans="1:9" ht="43.5">
       <c r="A661" s="21" t="s">
         <v>1392</v>
       </c>
@@ -25856,7 +25856,7 @@
       </c>
       <c r="I661" s="23"/>
     </row>
-    <row r="662" spans="1:9" ht="28.8">
+    <row r="662" spans="1:9" ht="43.5">
       <c r="A662" s="21" t="s">
         <v>1394</v>
       </c>
@@ -25881,7 +25881,7 @@
       </c>
       <c r="I662" s="23"/>
     </row>
-    <row r="663" spans="1:9" ht="28.8">
+    <row r="663" spans="1:9" ht="29">
       <c r="A663" s="21" t="s">
         <v>1396</v>
       </c>
@@ -25906,7 +25906,7 @@
       </c>
       <c r="I663" s="23"/>
     </row>
-    <row r="664" spans="1:9" ht="43.2">
+    <row r="664" spans="1:9" ht="43.5">
       <c r="A664" s="21" t="s">
         <v>1398</v>
       </c>
@@ -25981,7 +25981,7 @@
       </c>
       <c r="I666" s="23"/>
     </row>
-    <row r="667" spans="1:9" ht="28.8">
+    <row r="667" spans="1:9" ht="29">
       <c r="A667" s="21" t="s">
         <v>1405</v>
       </c>
@@ -26006,7 +26006,7 @@
       </c>
       <c r="I667" s="23"/>
     </row>
-    <row r="668" spans="1:9" ht="28.8">
+    <row r="668" spans="1:9" ht="29">
       <c r="A668" s="21" t="s">
         <v>1407</v>
       </c>
@@ -26031,7 +26031,7 @@
       </c>
       <c r="I668" s="23"/>
     </row>
-    <row r="669" spans="1:9" ht="28.8">
+    <row r="669" spans="1:9" ht="29">
       <c r="A669" s="21" t="s">
         <v>1409</v>
       </c>
@@ -26056,7 +26056,7 @@
       </c>
       <c r="I669" s="23"/>
     </row>
-    <row r="670" spans="1:9" ht="28.8">
+    <row r="670" spans="1:9" ht="29">
       <c r="A670" s="21" t="s">
         <v>1411</v>
       </c>
@@ -26081,7 +26081,7 @@
       </c>
       <c r="I670" s="23"/>
     </row>
-    <row r="671" spans="1:9" ht="28.8">
+    <row r="671" spans="1:9" ht="29">
       <c r="A671" s="21" t="s">
         <v>1414</v>
       </c>
@@ -26131,7 +26131,7 @@
       </c>
       <c r="I672" s="23"/>
     </row>
-    <row r="673" spans="1:9" ht="28.8">
+    <row r="673" spans="1:9" ht="29">
       <c r="A673" s="21" t="s">
         <v>1418</v>
       </c>
@@ -26156,7 +26156,7 @@
       </c>
       <c r="I673" s="23"/>
     </row>
-    <row r="674" spans="1:9" ht="28.8">
+    <row r="674" spans="1:9" ht="29">
       <c r="A674" s="21" t="s">
         <v>1420</v>
       </c>
@@ -26181,7 +26181,7 @@
       </c>
       <c r="I674" s="23"/>
     </row>
-    <row r="675" spans="1:9" ht="28.8">
+    <row r="675" spans="1:9" ht="29">
       <c r="A675" s="21" t="s">
         <v>1422</v>
       </c>
@@ -26206,7 +26206,7 @@
       </c>
       <c r="I675" s="23"/>
     </row>
-    <row r="676" spans="1:9" ht="28.8">
+    <row r="676" spans="1:9" ht="29">
       <c r="A676" s="21" t="s">
         <v>1424</v>
       </c>
@@ -26231,7 +26231,7 @@
       </c>
       <c r="I676" s="23"/>
     </row>
-    <row r="677" spans="1:9" ht="28.8">
+    <row r="677" spans="1:9" ht="29">
       <c r="A677" s="21" t="s">
         <v>1427</v>
       </c>
@@ -26256,7 +26256,7 @@
       </c>
       <c r="I677" s="23"/>
     </row>
-    <row r="678" spans="1:9" ht="28.8">
+    <row r="678" spans="1:9" ht="29">
       <c r="A678" s="21" t="s">
         <v>1429</v>
       </c>
@@ -26306,7 +26306,7 @@
       </c>
       <c r="I679" s="23"/>
     </row>
-    <row r="680" spans="1:9" ht="28.8">
+    <row r="680" spans="1:9" ht="29">
       <c r="A680" s="21" t="s">
         <v>1433</v>
       </c>
@@ -26331,7 +26331,7 @@
       </c>
       <c r="I680" s="23"/>
     </row>
-    <row r="681" spans="1:9" ht="28.8">
+    <row r="681" spans="1:9" ht="29">
       <c r="A681" s="21" t="s">
         <v>1435</v>
       </c>
@@ -26356,7 +26356,7 @@
       </c>
       <c r="I681" s="23"/>
     </row>
-    <row r="682" spans="1:9" ht="28.8">
+    <row r="682" spans="1:9" ht="29">
       <c r="A682" s="21" t="s">
         <v>1437</v>
       </c>
@@ -26381,7 +26381,7 @@
       </c>
       <c r="I682" s="23"/>
     </row>
-    <row r="683" spans="1:9" ht="28.8">
+    <row r="683" spans="1:9" ht="29">
       <c r="A683" s="21" t="s">
         <v>1439</v>
       </c>
@@ -26406,7 +26406,7 @@
       </c>
       <c r="I683" s="23"/>
     </row>
-    <row r="684" spans="1:9" ht="43.2">
+    <row r="684" spans="1:9" ht="43.5">
       <c r="A684" s="21" t="s">
         <v>1441</v>
       </c>
@@ -26431,7 +26431,7 @@
       </c>
       <c r="I684" s="23"/>
     </row>
-    <row r="685" spans="1:9" ht="43.2">
+    <row r="685" spans="1:9" ht="43.5">
       <c r="A685" s="21" t="s">
         <v>1443</v>
       </c>
@@ -26456,7 +26456,7 @@
       </c>
       <c r="I685" s="23"/>
     </row>
-    <row r="686" spans="1:9" ht="43.2">
+    <row r="686" spans="1:9" ht="43.5">
       <c r="A686" s="21" t="s">
         <v>1445</v>
       </c>
@@ -26481,7 +26481,7 @@
       </c>
       <c r="I686" s="23"/>
     </row>
-    <row r="687" spans="1:9" ht="43.2">
+    <row r="687" spans="1:9" ht="43.5">
       <c r="A687" s="21" t="s">
         <v>1447</v>
       </c>
@@ -26506,7 +26506,7 @@
       </c>
       <c r="I687" s="23"/>
     </row>
-    <row r="688" spans="1:9" ht="43.2">
+    <row r="688" spans="1:9" ht="43.5">
       <c r="A688" s="21" t="s">
         <v>1449</v>
       </c>
@@ -26531,7 +26531,7 @@
       </c>
       <c r="I688" s="23"/>
     </row>
-    <row r="689" spans="1:9" ht="28.8">
+    <row r="689" spans="1:9" ht="29">
       <c r="A689" s="21" t="s">
         <v>1451</v>
       </c>
@@ -26556,7 +26556,7 @@
       </c>
       <c r="I689" s="23"/>
     </row>
-    <row r="690" spans="1:9" ht="43.2">
+    <row r="690" spans="1:9" ht="43.5">
       <c r="A690" s="21" t="s">
         <v>1453</v>
       </c>
@@ -26581,7 +26581,7 @@
       </c>
       <c r="I690" s="23"/>
     </row>
-    <row r="691" spans="1:9" ht="43.2">
+    <row r="691" spans="1:9" ht="43.5">
       <c r="A691" s="21" t="s">
         <v>1455</v>
       </c>
@@ -26606,7 +26606,7 @@
       </c>
       <c r="I691" s="23"/>
     </row>
-    <row r="692" spans="1:9" ht="28.8">
+    <row r="692" spans="1:9" ht="29">
       <c r="A692" s="21" t="s">
         <v>1457</v>
       </c>
@@ -26631,7 +26631,7 @@
       </c>
       <c r="I692" s="23"/>
     </row>
-    <row r="693" spans="1:9" ht="28.8">
+    <row r="693" spans="1:9" ht="29">
       <c r="A693" s="21" t="s">
         <v>1459</v>
       </c>
@@ -26656,7 +26656,7 @@
       </c>
       <c r="I693" s="23"/>
     </row>
-    <row r="694" spans="1:9" ht="28.8">
+    <row r="694" spans="1:9" ht="29">
       <c r="A694" s="21" t="s">
         <v>1461</v>
       </c>
@@ -26681,7 +26681,7 @@
       </c>
       <c r="I694" s="23"/>
     </row>
-    <row r="695" spans="1:9" ht="28.8">
+    <row r="695" spans="1:9" ht="29">
       <c r="A695" s="21" t="s">
         <v>1463</v>
       </c>
@@ -26706,7 +26706,7 @@
       </c>
       <c r="I695" s="23"/>
     </row>
-    <row r="696" spans="1:9" ht="28.8">
+    <row r="696" spans="1:9" ht="29">
       <c r="A696" s="21" t="s">
         <v>1465</v>
       </c>
@@ -26731,7 +26731,7 @@
       </c>
       <c r="I696" s="23"/>
     </row>
-    <row r="697" spans="1:9" ht="28.8">
+    <row r="697" spans="1:9" ht="29">
       <c r="A697" s="21" t="s">
         <v>1468</v>
       </c>
@@ -26756,7 +26756,7 @@
       </c>
       <c r="I697" s="23"/>
     </row>
-    <row r="698" spans="1:9" ht="28.8">
+    <row r="698" spans="1:9" ht="29">
       <c r="A698" s="21" t="s">
         <v>1470</v>
       </c>
@@ -26781,7 +26781,7 @@
       </c>
       <c r="I698" s="23"/>
     </row>
-    <row r="699" spans="1:9" ht="28.8">
+    <row r="699" spans="1:9" ht="29">
       <c r="A699" s="21" t="s">
         <v>1472</v>
       </c>
@@ -26806,7 +26806,7 @@
       </c>
       <c r="I699" s="23"/>
     </row>
-    <row r="700" spans="1:9" ht="28.8">
+    <row r="700" spans="1:9" ht="29">
       <c r="A700" s="21" t="s">
         <v>1474</v>
       </c>
@@ -26831,7 +26831,7 @@
       </c>
       <c r="I700" s="23"/>
     </row>
-    <row r="701" spans="1:9" ht="28.8">
+    <row r="701" spans="1:9" ht="29">
       <c r="A701" s="21" t="s">
         <v>1476</v>
       </c>
@@ -26856,7 +26856,7 @@
       </c>
       <c r="I701" s="23"/>
     </row>
-    <row r="702" spans="1:9" ht="28.8">
+    <row r="702" spans="1:9" ht="43.5">
       <c r="A702" s="21" t="s">
         <v>1478</v>
       </c>
@@ -26881,7 +26881,7 @@
       </c>
       <c r="I702" s="23"/>
     </row>
-    <row r="703" spans="1:9" ht="43.2">
+    <row r="703" spans="1:9" ht="43.5">
       <c r="A703" s="21" t="s">
         <v>1480</v>
       </c>
@@ -26906,7 +26906,7 @@
       </c>
       <c r="I703" s="23"/>
     </row>
-    <row r="704" spans="1:9" ht="28.8">
+    <row r="704" spans="1:9" ht="29">
       <c r="A704" s="21" t="s">
         <v>1482</v>
       </c>
@@ -26931,7 +26931,7 @@
       </c>
       <c r="I704" s="23"/>
     </row>
-    <row r="705" spans="1:9" ht="28.8">
+    <row r="705" spans="1:9" ht="29">
       <c r="A705" s="21" t="s">
         <v>1484</v>
       </c>
@@ -26956,7 +26956,7 @@
       </c>
       <c r="I705" s="23"/>
     </row>
-    <row r="706" spans="1:9" ht="28.8">
+    <row r="706" spans="1:9" ht="29">
       <c r="A706" s="21" t="s">
         <v>1486</v>
       </c>
@@ -26981,7 +26981,7 @@
       </c>
       <c r="I706" s="23"/>
     </row>
-    <row r="707" spans="1:9" ht="28.8">
+    <row r="707" spans="1:9" ht="29">
       <c r="A707" s="21" t="s">
         <v>1488</v>
       </c>
@@ -27031,7 +27031,7 @@
       </c>
       <c r="I708" s="23"/>
     </row>
-    <row r="709" spans="1:9" ht="28.8">
+    <row r="709" spans="1:9" ht="29">
       <c r="A709" s="21" t="s">
         <v>1492</v>
       </c>
@@ -27056,7 +27056,7 @@
       </c>
       <c r="I709" s="23"/>
     </row>
-    <row r="710" spans="1:9" ht="43.2">
+    <row r="710" spans="1:9" ht="43.5">
       <c r="A710" s="21" t="s">
         <v>1494</v>
       </c>
@@ -27081,7 +27081,7 @@
       </c>
       <c r="I710" s="23"/>
     </row>
-    <row r="711" spans="1:9">
+    <row r="711" spans="1:9" ht="29">
       <c r="A711" s="21" t="s">
         <v>1496</v>
       </c>
@@ -27106,7 +27106,7 @@
       </c>
       <c r="I711" s="23"/>
     </row>
-    <row r="712" spans="1:9" ht="28.8">
+    <row r="712" spans="1:9" ht="29">
       <c r="A712" s="21" t="s">
         <v>1498</v>
       </c>
@@ -27131,7 +27131,7 @@
       </c>
       <c r="I712" s="23"/>
     </row>
-    <row r="713" spans="1:9" ht="28.8">
+    <row r="713" spans="1:9" ht="29">
       <c r="A713" s="21" t="s">
         <v>1500</v>
       </c>
@@ -27156,7 +27156,7 @@
       </c>
       <c r="I713" s="23"/>
     </row>
-    <row r="714" spans="1:9" ht="28.8">
+    <row r="714" spans="1:9" ht="29">
       <c r="A714" s="21" t="s">
         <v>1502</v>
       </c>
@@ -27181,7 +27181,7 @@
       </c>
       <c r="I714" s="23"/>
     </row>
-    <row r="715" spans="1:9" ht="28.8">
+    <row r="715" spans="1:9" ht="29">
       <c r="A715" s="21" t="s">
         <v>1505</v>
       </c>
@@ -27206,7 +27206,7 @@
       </c>
       <c r="I715" s="23"/>
     </row>
-    <row r="716" spans="1:9" ht="28.8">
+    <row r="716" spans="1:9" ht="29">
       <c r="A716" s="21" t="s">
         <v>1507</v>
       </c>
@@ -27231,7 +27231,7 @@
       </c>
       <c r="I716" s="23"/>
     </row>
-    <row r="717" spans="1:9" ht="28.8">
+    <row r="717" spans="1:9" ht="43.5">
       <c r="A717" s="21" t="s">
         <v>1509</v>
       </c>
@@ -27256,7 +27256,7 @@
       </c>
       <c r="I717" s="23"/>
     </row>
-    <row r="718" spans="1:9" ht="28.8">
+    <row r="718" spans="1:9" ht="29">
       <c r="A718" s="21" t="s">
         <v>1511</v>
       </c>
@@ -27281,7 +27281,7 @@
       </c>
       <c r="I718" s="23"/>
     </row>
-    <row r="719" spans="1:9" ht="43.2">
+    <row r="719" spans="1:9" ht="43.5">
       <c r="A719" s="21" t="s">
         <v>1513</v>
       </c>
@@ -27306,7 +27306,7 @@
       </c>
       <c r="I719" s="23"/>
     </row>
-    <row r="720" spans="1:9" ht="28.8">
+    <row r="720" spans="1:9" ht="43.5">
       <c r="A720" s="21" t="s">
         <v>1515</v>
       </c>
@@ -27331,7 +27331,7 @@
       </c>
       <c r="I720" s="23"/>
     </row>
-    <row r="721" spans="1:9" ht="28.8">
+    <row r="721" spans="1:9" ht="29">
       <c r="A721" s="21" t="s">
         <v>1517</v>
       </c>
@@ -27356,7 +27356,7 @@
       </c>
       <c r="I721" s="23"/>
     </row>
-    <row r="722" spans="1:9" ht="28.8">
+    <row r="722" spans="1:9" ht="29">
       <c r="A722" s="21" t="s">
         <v>1520</v>
       </c>
@@ -27381,7 +27381,7 @@
       </c>
       <c r="I722" s="23"/>
     </row>
-    <row r="723" spans="1:9" ht="28.8">
+    <row r="723" spans="1:9" ht="29">
       <c r="A723" s="21" t="s">
         <v>1522</v>
       </c>
@@ -27406,7 +27406,7 @@
       </c>
       <c r="I723" s="23"/>
     </row>
-    <row r="724" spans="1:9" ht="43.2">
+    <row r="724" spans="1:9" ht="43.5">
       <c r="A724" s="21" t="s">
         <v>1524</v>
       </c>
@@ -27431,7 +27431,7 @@
       </c>
       <c r="I724" s="23"/>
     </row>
-    <row r="725" spans="1:9" ht="28.8">
+    <row r="725" spans="1:9" ht="29">
       <c r="A725" s="21" t="s">
         <v>1526</v>
       </c>
@@ -27456,7 +27456,7 @@
       </c>
       <c r="I725" s="23"/>
     </row>
-    <row r="726" spans="1:9" ht="43.2">
+    <row r="726" spans="1:9" ht="43.5">
       <c r="A726" s="21" t="s">
         <v>1528</v>
       </c>
@@ -27481,7 +27481,7 @@
       </c>
       <c r="I726" s="23"/>
     </row>
-    <row r="727" spans="1:9" ht="43.2">
+    <row r="727" spans="1:9" ht="43.5">
       <c r="A727" s="21" t="s">
         <v>1530</v>
       </c>
@@ -27506,7 +27506,7 @@
       </c>
       <c r="I727" s="23"/>
     </row>
-    <row r="728" spans="1:9" ht="28.8">
+    <row r="728" spans="1:9" ht="29">
       <c r="A728" s="21" t="s">
         <v>1532</v>
       </c>
@@ -27531,7 +27531,7 @@
       </c>
       <c r="I728" s="23"/>
     </row>
-    <row r="729" spans="1:9">
+    <row r="729" spans="1:9" ht="29">
       <c r="A729" s="21" t="s">
         <v>1535</v>
       </c>
@@ -27556,7 +27556,7 @@
       </c>
       <c r="I729" s="23"/>
     </row>
-    <row r="730" spans="1:9" ht="43.2">
+    <row r="730" spans="1:9" ht="43.5">
       <c r="A730" s="21" t="s">
         <v>1537</v>
       </c>
@@ -27581,7 +27581,7 @@
       </c>
       <c r="I730" s="23"/>
     </row>
-    <row r="731" spans="1:9" ht="28.8">
+    <row r="731" spans="1:9" ht="29">
       <c r="A731" s="21" t="s">
         <v>1539</v>
       </c>
@@ -27606,7 +27606,7 @@
       </c>
       <c r="I731" s="23"/>
     </row>
-    <row r="732" spans="1:9" ht="28.8">
+    <row r="732" spans="1:9" ht="29">
       <c r="A732" s="21" t="s">
         <v>1541</v>
       </c>
@@ -27631,7 +27631,7 @@
       </c>
       <c r="I732" s="23"/>
     </row>
-    <row r="733" spans="1:9" ht="28.8">
+    <row r="733" spans="1:9" ht="29">
       <c r="A733" s="21" t="s">
         <v>1543</v>
       </c>
@@ -27656,7 +27656,7 @@
       </c>
       <c r="I733" s="23"/>
     </row>
-    <row r="734" spans="1:9" ht="28.8">
+    <row r="734" spans="1:9" ht="29">
       <c r="A734" s="21" t="s">
         <v>1546</v>
       </c>
@@ -27681,7 +27681,7 @@
       </c>
       <c r="I734" s="23"/>
     </row>
-    <row r="735" spans="1:9" ht="28.8">
+    <row r="735" spans="1:9" ht="43.5">
       <c r="A735" s="21" t="s">
         <v>1548</v>
       </c>
@@ -27706,7 +27706,7 @@
       </c>
       <c r="I735" s="23"/>
     </row>
-    <row r="736" spans="1:9" ht="43.2">
+    <row r="736" spans="1:9" ht="43.5">
       <c r="A736" s="21" t="s">
         <v>1551</v>
       </c>
@@ -27731,7 +27731,7 @@
       </c>
       <c r="I736" s="23"/>
     </row>
-    <row r="737" spans="1:9" ht="43.2">
+    <row r="737" spans="1:9" ht="43.5">
       <c r="A737" s="21" t="s">
         <v>1553</v>
       </c>
@@ -27756,7 +27756,7 @@
       </c>
       <c r="I737" s="23"/>
     </row>
-    <row r="738" spans="1:9" ht="43.2">
+    <row r="738" spans="1:9" ht="43.5">
       <c r="A738" s="21" t="s">
         <v>1555</v>
       </c>
@@ -27781,7 +27781,7 @@
       </c>
       <c r="I738" s="23"/>
     </row>
-    <row r="739" spans="1:9" ht="28.8">
+    <row r="739" spans="1:9" ht="29">
       <c r="A739" s="21" t="s">
         <v>1557</v>
       </c>
@@ -27806,7 +27806,7 @@
       </c>
       <c r="I739" s="23"/>
     </row>
-    <row r="740" spans="1:9" ht="43.2">
+    <row r="740" spans="1:9" ht="43.5">
       <c r="A740" s="21" t="s">
         <v>1559</v>
       </c>
@@ -27831,7 +27831,7 @@
       </c>
       <c r="I740" s="23"/>
     </row>
-    <row r="741" spans="1:9" ht="43.2">
+    <row r="741" spans="1:9" ht="43.5">
       <c r="A741" s="21" t="s">
         <v>1561</v>
       </c>
@@ -27856,7 +27856,7 @@
       </c>
       <c r="I741" s="23"/>
     </row>
-    <row r="742" spans="1:9" ht="28.8">
+    <row r="742" spans="1:9" ht="29">
       <c r="A742" s="21" t="s">
         <v>1564</v>
       </c>
@@ -27881,7 +27881,7 @@
       </c>
       <c r="I742" s="23"/>
     </row>
-    <row r="743" spans="1:9" ht="43.2">
+    <row r="743" spans="1:9" ht="43.5">
       <c r="A743" s="21" t="s">
         <v>1566</v>
       </c>
@@ -27906,7 +27906,7 @@
       </c>
       <c r="I743" s="23"/>
     </row>
-    <row r="744" spans="1:9" ht="28.8">
+    <row r="744" spans="1:9" ht="29">
       <c r="A744" s="21" t="s">
         <v>1568</v>
       </c>
@@ -27931,7 +27931,7 @@
       </c>
       <c r="I744" s="23"/>
     </row>
-    <row r="745" spans="1:9" ht="43.2">
+    <row r="745" spans="1:9" ht="43.5">
       <c r="A745" s="21" t="s">
         <v>1570</v>
       </c>
@@ -27956,7 +27956,7 @@
       </c>
       <c r="I745" s="23"/>
     </row>
-    <row r="746" spans="1:9" ht="43.2">
+    <row r="746" spans="1:9" ht="43.5">
       <c r="A746" s="21" t="s">
         <v>1572</v>
       </c>
@@ -27981,7 +27981,7 @@
       </c>
       <c r="I746" s="23"/>
     </row>
-    <row r="747" spans="1:9" ht="28.8">
+    <row r="747" spans="1:9" ht="29">
       <c r="A747" s="21" t="s">
         <v>1574</v>
       </c>
@@ -28006,7 +28006,7 @@
       </c>
       <c r="I747" s="23"/>
     </row>
-    <row r="748" spans="1:9" ht="28.8">
+    <row r="748" spans="1:9" ht="29">
       <c r="A748" s="21" t="s">
         <v>1576</v>
       </c>
@@ -28031,7 +28031,7 @@
       </c>
       <c r="I748" s="23"/>
     </row>
-    <row r="749" spans="1:9" ht="43.2">
+    <row r="749" spans="1:9" ht="43.5">
       <c r="A749" s="21" t="s">
         <v>1578</v>
       </c>
@@ -28056,7 +28056,7 @@
       </c>
       <c r="I749" s="23"/>
     </row>
-    <row r="750" spans="1:9" ht="28.8">
+    <row r="750" spans="1:9" ht="29">
       <c r="A750" s="21" t="s">
         <v>1580</v>
       </c>
@@ -28081,7 +28081,7 @@
       </c>
       <c r="I750" s="23"/>
     </row>
-    <row r="751" spans="1:9" ht="43.2">
+    <row r="751" spans="1:9" ht="43.5">
       <c r="A751" s="21" t="s">
         <v>1582</v>
       </c>
@@ -28106,7 +28106,7 @@
       </c>
       <c r="I751" s="23"/>
     </row>
-    <row r="752" spans="1:9" ht="43.2">
+    <row r="752" spans="1:9" ht="43.5">
       <c r="A752" s="21" t="s">
         <v>1584</v>
       </c>
@@ -28131,7 +28131,7 @@
       </c>
       <c r="I752" s="23"/>
     </row>
-    <row r="753" spans="1:9" ht="28.8">
+    <row r="753" spans="1:9" ht="29">
       <c r="A753" s="21" t="s">
         <v>1586</v>
       </c>
@@ -28156,7 +28156,7 @@
       </c>
       <c r="I753" s="23"/>
     </row>
-    <row r="754" spans="1:9" ht="28.8">
+    <row r="754" spans="1:9" ht="29">
       <c r="A754" s="21" t="s">
         <v>1588</v>
       </c>
@@ -28181,7 +28181,7 @@
       </c>
       <c r="I754" s="23"/>
     </row>
-    <row r="755" spans="1:9" ht="43.2">
+    <row r="755" spans="1:9" ht="43.5">
       <c r="A755" s="21" t="s">
         <v>1590</v>
       </c>
@@ -28206,7 +28206,7 @@
       </c>
       <c r="I755" s="23"/>
     </row>
-    <row r="756" spans="1:9" ht="28.8">
+    <row r="756" spans="1:9" ht="29">
       <c r="A756" s="21" t="s">
         <v>1592</v>
       </c>
@@ -28231,7 +28231,7 @@
       </c>
       <c r="I756" s="23"/>
     </row>
-    <row r="757" spans="1:9" ht="43.2">
+    <row r="757" spans="1:9" ht="43.5">
       <c r="A757" s="21" t="s">
         <v>1594</v>
       </c>
@@ -28256,7 +28256,7 @@
       </c>
       <c r="I757" s="23"/>
     </row>
-    <row r="758" spans="1:9" ht="28.8">
+    <row r="758" spans="1:9" ht="29">
       <c r="A758" s="21" t="s">
         <v>1596</v>
       </c>
@@ -28281,7 +28281,7 @@
       </c>
       <c r="I758" s="23"/>
     </row>
-    <row r="759" spans="1:9" ht="43.2">
+    <row r="759" spans="1:9" ht="43.5">
       <c r="A759" s="21" t="s">
         <v>1598</v>
       </c>
@@ -28306,7 +28306,7 @@
       </c>
       <c r="I759" s="23"/>
     </row>
-    <row r="760" spans="1:9" ht="57.6">
+    <row r="760" spans="1:9" ht="58">
       <c r="A760" s="21" t="s">
         <v>1600</v>
       </c>
@@ -28314,7 +28314,7 @@
         <v>1562</v>
       </c>
       <c r="C760" s="23" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="D760" s="21"/>
       <c r="E760" s="21" t="s">
@@ -28356,7 +28356,7 @@
       </c>
       <c r="I761" s="23"/>
     </row>
-    <row r="762" spans="1:9" ht="28.8">
+    <row r="762" spans="1:9" ht="29">
       <c r="A762" s="21" t="s">
         <v>1603</v>
       </c>
@@ -28381,7 +28381,7 @@
       </c>
       <c r="I762" s="23"/>
     </row>
-    <row r="763" spans="1:9" ht="28.8">
+    <row r="763" spans="1:9" ht="29">
       <c r="A763" s="21" t="s">
         <v>1605</v>
       </c>
@@ -28406,7 +28406,7 @@
       </c>
       <c r="I763" s="23"/>
     </row>
-    <row r="764" spans="1:9" ht="43.2">
+    <row r="764" spans="1:9" ht="43.5">
       <c r="A764" s="21" t="s">
         <v>1608</v>
       </c>
@@ -28431,7 +28431,7 @@
       </c>
       <c r="I764" s="23"/>
     </row>
-    <row r="765" spans="1:9" ht="28.8">
+    <row r="765" spans="1:9" ht="29">
       <c r="A765" s="21" t="s">
         <v>1610</v>
       </c>
@@ -28456,7 +28456,7 @@
       </c>
       <c r="I765" s="23"/>
     </row>
-    <row r="766" spans="1:9" ht="28.8">
+    <row r="766" spans="1:9" ht="29">
       <c r="A766" s="21" t="s">
         <v>1612</v>
       </c>
@@ -28481,7 +28481,7 @@
       </c>
       <c r="I766" s="23"/>
     </row>
-    <row r="767" spans="1:9" ht="28.8">
+    <row r="767" spans="1:9" ht="29">
       <c r="A767" s="21" t="s">
         <v>1614</v>
       </c>
@@ -28506,7 +28506,7 @@
       </c>
       <c r="I767" s="23"/>
     </row>
-    <row r="768" spans="1:9" ht="28.8">
+    <row r="768" spans="1:9" ht="29">
       <c r="A768" s="21" t="s">
         <v>1616</v>
       </c>
@@ -28531,7 +28531,7 @@
       </c>
       <c r="I768" s="23"/>
     </row>
-    <row r="769" spans="1:9" ht="28.8">
+    <row r="769" spans="1:9" ht="29">
       <c r="A769" s="21" t="s">
         <v>1618</v>
       </c>
@@ -28556,7 +28556,7 @@
       </c>
       <c r="I769" s="23"/>
     </row>
-    <row r="770" spans="1:9" ht="28.8">
+    <row r="770" spans="1:9" ht="29">
       <c r="A770" s="21" t="s">
         <v>1620</v>
       </c>
@@ -28581,7 +28581,7 @@
       </c>
       <c r="I770" s="23"/>
     </row>
-    <row r="771" spans="1:9" ht="43.2">
+    <row r="771" spans="1:9" ht="43.5">
       <c r="A771" s="21" t="s">
         <v>1622</v>
       </c>
@@ -28606,7 +28606,7 @@
       </c>
       <c r="I771" s="23"/>
     </row>
-    <row r="772" spans="1:9" ht="43.2">
+    <row r="772" spans="1:9" ht="43.5">
       <c r="A772" s="21" t="s">
         <v>1625</v>
       </c>
@@ -28631,7 +28631,7 @@
       </c>
       <c r="I772" s="23"/>
     </row>
-    <row r="773" spans="1:9" ht="28.8">
+    <row r="773" spans="1:9" ht="29">
       <c r="A773" s="21" t="s">
         <v>1627</v>
       </c>
@@ -28656,7 +28656,7 @@
       </c>
       <c r="I773" s="23"/>
     </row>
-    <row r="774" spans="1:9" ht="28.8">
+    <row r="774" spans="1:9" ht="29">
       <c r="A774" s="21" t="s">
         <v>1629</v>
       </c>
@@ -28706,7 +28706,7 @@
       </c>
       <c r="I775" s="23"/>
     </row>
-    <row r="776" spans="1:9" ht="28.8">
+    <row r="776" spans="1:9" ht="29">
       <c r="A776" s="21" t="s">
         <v>1633</v>
       </c>
@@ -28731,7 +28731,7 @@
       </c>
       <c r="I776" s="23"/>
     </row>
-    <row r="777" spans="1:9" ht="28.8">
+    <row r="777" spans="1:9" ht="29">
       <c r="A777" s="21" t="s">
         <v>1635</v>
       </c>
@@ -28756,7 +28756,7 @@
       </c>
       <c r="I777" s="23"/>
     </row>
-    <row r="778" spans="1:9" ht="43.2">
+    <row r="778" spans="1:9" ht="43.5">
       <c r="A778" s="21" t="s">
         <v>1637</v>
       </c>
@@ -28781,7 +28781,7 @@
       </c>
       <c r="I778" s="23"/>
     </row>
-    <row r="779" spans="1:9" ht="28.8">
+    <row r="779" spans="1:9" ht="29">
       <c r="A779" s="21" t="s">
         <v>1640</v>
       </c>
@@ -28806,7 +28806,7 @@
       </c>
       <c r="I779" s="23"/>
     </row>
-    <row r="780" spans="1:9" ht="28.8">
+    <row r="780" spans="1:9" ht="29">
       <c r="A780" s="21" t="s">
         <v>1642</v>
       </c>
@@ -28831,7 +28831,7 @@
       </c>
       <c r="I780" s="23"/>
     </row>
-    <row r="781" spans="1:9" ht="28.8">
+    <row r="781" spans="1:9" ht="29">
       <c r="A781" s="21" t="s">
         <v>1644</v>
       </c>
@@ -28856,7 +28856,7 @@
       </c>
       <c r="I781" s="23"/>
     </row>
-    <row r="782" spans="1:9" ht="28.8">
+    <row r="782" spans="1:9" ht="29">
       <c r="A782" s="21" t="s">
         <v>1646</v>
       </c>
@@ -28881,7 +28881,7 @@
       </c>
       <c r="I782" s="23"/>
     </row>
-    <row r="783" spans="1:9" ht="43.2">
+    <row r="783" spans="1:9" ht="43.5">
       <c r="A783" s="21" t="s">
         <v>1648</v>
       </c>
@@ -28906,7 +28906,7 @@
       </c>
       <c r="I783" s="23"/>
     </row>
-    <row r="784" spans="1:9" ht="43.2">
+    <row r="784" spans="1:9" ht="43.5">
       <c r="A784" s="21" t="s">
         <v>1650</v>
       </c>
@@ -28956,7 +28956,7 @@
       </c>
       <c r="I785" s="23"/>
     </row>
-    <row r="786" spans="1:9" ht="43.2">
+    <row r="786" spans="1:9" ht="43.5">
       <c r="A786" s="21" t="s">
         <v>1654</v>
       </c>
@@ -28981,7 +28981,7 @@
       </c>
       <c r="I786" s="23"/>
     </row>
-    <row r="787" spans="1:9" ht="28.8">
+    <row r="787" spans="1:9" ht="29">
       <c r="A787" s="21" t="s">
         <v>1656</v>
       </c>
@@ -29006,7 +29006,7 @@
       </c>
       <c r="I787" s="23"/>
     </row>
-    <row r="788" spans="1:9" ht="28.8">
+    <row r="788" spans="1:9" ht="29">
       <c r="A788" s="21" t="s">
         <v>1658</v>
       </c>
@@ -29031,7 +29031,7 @@
       </c>
       <c r="I788" s="23"/>
     </row>
-    <row r="789" spans="1:9" ht="28.8">
+    <row r="789" spans="1:9" ht="29">
       <c r="A789" s="21" t="s">
         <v>1661</v>
       </c>
@@ -29106,7 +29106,7 @@
       </c>
       <c r="I791" s="23"/>
     </row>
-    <row r="792" spans="1:9" ht="28.8">
+    <row r="792" spans="1:9" ht="29">
       <c r="A792" s="21" t="s">
         <v>1667</v>
       </c>
@@ -29131,7 +29131,7 @@
       </c>
       <c r="I792" s="23"/>
     </row>
-    <row r="793" spans="1:9" ht="28.8">
+    <row r="793" spans="1:9" ht="29">
       <c r="A793" s="21" t="s">
         <v>1669</v>
       </c>
@@ -29206,7 +29206,7 @@
       </c>
       <c r="I795" s="23"/>
     </row>
-    <row r="796" spans="1:9" ht="28.8">
+    <row r="796" spans="1:9" ht="29">
       <c r="A796" s="21" t="s">
         <v>1675</v>
       </c>
@@ -29231,7 +29231,7 @@
       </c>
       <c r="I796" s="23"/>
     </row>
-    <row r="797" spans="1:9" ht="28.8">
+    <row r="797" spans="1:9" ht="29">
       <c r="A797" s="21" t="s">
         <v>1677</v>
       </c>
@@ -29256,7 +29256,7 @@
       </c>
       <c r="I797" s="23"/>
     </row>
-    <row r="798" spans="1:9" ht="28.8">
+    <row r="798" spans="1:9" ht="29">
       <c r="A798" s="21" t="s">
         <v>1679</v>
       </c>
@@ -29281,7 +29281,7 @@
       </c>
       <c r="I798" s="23"/>
     </row>
-    <row r="799" spans="1:9" ht="28.8">
+    <row r="799" spans="1:9" ht="29">
       <c r="A799" s="21" t="s">
         <v>1681</v>
       </c>
@@ -29306,7 +29306,7 @@
       </c>
       <c r="I799" s="23"/>
     </row>
-    <row r="800" spans="1:9" ht="28.8">
+    <row r="800" spans="1:9" ht="29">
       <c r="A800" s="21" t="s">
         <v>1683</v>
       </c>
@@ -29331,7 +29331,7 @@
       </c>
       <c r="I800" s="23"/>
     </row>
-    <row r="801" spans="1:9" ht="28.8">
+    <row r="801" spans="1:9" ht="29">
       <c r="A801" s="21" t="s">
         <v>1685</v>
       </c>
@@ -29356,7 +29356,7 @@
       </c>
       <c r="I801" s="23"/>
     </row>
-    <row r="802" spans="1:9" ht="28.8">
+    <row r="802" spans="1:9" ht="29">
       <c r="A802" s="21" t="s">
         <v>1687</v>
       </c>
@@ -29381,7 +29381,7 @@
       </c>
       <c r="I802" s="23"/>
     </row>
-    <row r="803" spans="1:9" ht="43.2">
+    <row r="803" spans="1:9" ht="43.5">
       <c r="A803" s="21" t="s">
         <v>1689</v>
       </c>
@@ -29406,7 +29406,7 @@
       </c>
       <c r="I803" s="23"/>
     </row>
-    <row r="804" spans="1:9" ht="28.8">
+    <row r="804" spans="1:9" ht="29">
       <c r="A804" s="21" t="s">
         <v>1691</v>
       </c>
@@ -29431,7 +29431,7 @@
       </c>
       <c r="I804" s="23"/>
     </row>
-    <row r="805" spans="1:9" ht="28.8">
+    <row r="805" spans="1:9" ht="29">
       <c r="A805" s="21" t="s">
         <v>1693</v>
       </c>
@@ -29456,7 +29456,7 @@
       </c>
       <c r="I805" s="23"/>
     </row>
-    <row r="806" spans="1:9" ht="43.2">
+    <row r="806" spans="1:9" ht="43.5">
       <c r="A806" s="21" t="s">
         <v>1695</v>
       </c>
@@ -29481,7 +29481,7 @@
       </c>
       <c r="I806" s="23"/>
     </row>
-    <row r="807" spans="1:9" ht="28.8">
+    <row r="807" spans="1:9" ht="29">
       <c r="A807" s="21" t="s">
         <v>1697</v>
       </c>
@@ -29506,7 +29506,7 @@
       </c>
       <c r="I807" s="23"/>
     </row>
-    <row r="808" spans="1:9" ht="28.8">
+    <row r="808" spans="1:9" ht="29">
       <c r="A808" s="21" t="s">
         <v>1699</v>
       </c>
@@ -29531,7 +29531,7 @@
       </c>
       <c r="I808" s="23"/>
     </row>
-    <row r="809" spans="1:9" ht="43.2">
+    <row r="809" spans="1:9" ht="43.5">
       <c r="A809" s="21" t="s">
         <v>1701</v>
       </c>
@@ -29556,7 +29556,7 @@
       </c>
       <c r="I809" s="23"/>
     </row>
-    <row r="810" spans="1:9" ht="28.8">
+    <row r="810" spans="1:9" ht="29">
       <c r="A810" s="21" t="s">
         <v>1703</v>
       </c>
@@ -29581,7 +29581,7 @@
       </c>
       <c r="I810" s="23"/>
     </row>
-    <row r="811" spans="1:9" ht="28.8">
+    <row r="811" spans="1:9" ht="29">
       <c r="A811" s="21" t="s">
         <v>1705</v>
       </c>
@@ -29656,7 +29656,7 @@
       </c>
       <c r="I813" s="23"/>
     </row>
-    <row r="814" spans="1:9" ht="28.8">
+    <row r="814" spans="1:9" ht="29">
       <c r="A814" s="21" t="s">
         <v>1712</v>
       </c>
@@ -29681,7 +29681,7 @@
       </c>
       <c r="I814" s="23"/>
     </row>
-    <row r="815" spans="1:9" ht="28.8">
+    <row r="815" spans="1:9" ht="29">
       <c r="A815" s="21" t="s">
         <v>1714</v>
       </c>
@@ -29706,7 +29706,7 @@
       </c>
       <c r="I815" s="23"/>
     </row>
-    <row r="816" spans="1:9" ht="28.8">
+    <row r="816" spans="1:9" ht="29">
       <c r="A816" s="21" t="s">
         <v>1716</v>
       </c>
@@ -29731,7 +29731,7 @@
       </c>
       <c r="I816" s="23"/>
     </row>
-    <row r="817" spans="1:9" ht="28.8">
+    <row r="817" spans="1:9" ht="29">
       <c r="A817" s="21" t="s">
         <v>1718</v>
       </c>
@@ -29756,7 +29756,7 @@
       </c>
       <c r="I817" s="23"/>
     </row>
-    <row r="818" spans="1:9" ht="28.8">
+    <row r="818" spans="1:9" ht="29">
       <c r="A818" s="21" t="s">
         <v>1720</v>
       </c>
@@ -29781,7 +29781,7 @@
       </c>
       <c r="I818" s="23"/>
     </row>
-    <row r="819" spans="1:9" ht="43.2">
+    <row r="819" spans="1:9" ht="43.5">
       <c r="A819" s="21" t="s">
         <v>1722</v>
       </c>
@@ -29806,7 +29806,7 @@
       </c>
       <c r="I819" s="23"/>
     </row>
-    <row r="820" spans="1:9" ht="28.8">
+    <row r="820" spans="1:9" ht="29">
       <c r="A820" s="21" t="s">
         <v>1725</v>
       </c>
@@ -29831,7 +29831,7 @@
       </c>
       <c r="I820" s="23"/>
     </row>
-    <row r="821" spans="1:9" ht="28.8">
+    <row r="821" spans="1:9" ht="29">
       <c r="A821" s="21" t="s">
         <v>1727</v>
       </c>
@@ -29856,7 +29856,7 @@
       </c>
       <c r="I821" s="23"/>
     </row>
-    <row r="822" spans="1:9" ht="28.8">
+    <row r="822" spans="1:9" ht="29">
       <c r="A822" s="21" t="s">
         <v>1729</v>
       </c>
@@ -29881,7 +29881,7 @@
       </c>
       <c r="I822" s="23"/>
     </row>
-    <row r="823" spans="1:9" ht="28.8">
+    <row r="823" spans="1:9" ht="29">
       <c r="A823" s="21" t="s">
         <v>1731</v>
       </c>
@@ -29906,7 +29906,7 @@
       </c>
       <c r="I823" s="23"/>
     </row>
-    <row r="824" spans="1:9" ht="28.8">
+    <row r="824" spans="1:9" ht="29">
       <c r="A824" s="21" t="s">
         <v>1734</v>
       </c>
@@ -29931,7 +29931,7 @@
       </c>
       <c r="I824" s="23"/>
     </row>
-    <row r="825" spans="1:9" ht="28.8">
+    <row r="825" spans="1:9" ht="29">
       <c r="A825" s="21" t="s">
         <v>1736</v>
       </c>
@@ -29981,7 +29981,7 @@
       </c>
       <c r="I826" s="23"/>
     </row>
-    <row r="827" spans="1:9" ht="28.8">
+    <row r="827" spans="1:9" ht="29">
       <c r="A827" s="21" t="s">
         <v>1740</v>
       </c>
@@ -30031,7 +30031,7 @@
       </c>
       <c r="I828" s="23"/>
     </row>
-    <row r="829" spans="1:9" ht="28.8">
+    <row r="829" spans="1:9" ht="29">
       <c r="A829" s="21" t="s">
         <v>1744</v>
       </c>
@@ -30056,7 +30056,7 @@
       </c>
       <c r="I829" s="23"/>
     </row>
-    <row r="830" spans="1:9" ht="28.8">
+    <row r="830" spans="1:9" ht="29">
       <c r="A830" s="21" t="s">
         <v>1746</v>
       </c>
@@ -30081,7 +30081,7 @@
       </c>
       <c r="I830" s="23"/>
     </row>
-    <row r="831" spans="1:9" ht="28.8">
+    <row r="831" spans="1:9" ht="29">
       <c r="A831" s="21" t="s">
         <v>1748</v>
       </c>
@@ -30106,7 +30106,7 @@
       </c>
       <c r="I831" s="23"/>
     </row>
-    <row r="832" spans="1:9" ht="28.8">
+    <row r="832" spans="1:9" ht="29">
       <c r="A832" s="21" t="s">
         <v>1750</v>
       </c>
@@ -30131,7 +30131,7 @@
       </c>
       <c r="I832" s="23"/>
     </row>
-    <row r="833" spans="1:9" ht="28.8">
+    <row r="833" spans="1:9" ht="29">
       <c r="A833" s="21" t="s">
         <v>1752</v>
       </c>
@@ -30156,7 +30156,7 @@
       </c>
       <c r="I833" s="23"/>
     </row>
-    <row r="834" spans="1:9" ht="28.8">
+    <row r="834" spans="1:9" ht="29">
       <c r="A834" s="21" t="s">
         <v>1755</v>
       </c>
@@ -30181,7 +30181,7 @@
       </c>
       <c r="I834" s="23"/>
     </row>
-    <row r="835" spans="1:9" ht="28.8">
+    <row r="835" spans="1:9" ht="29">
       <c r="A835" s="21" t="s">
         <v>1757</v>
       </c>
@@ -30206,7 +30206,7 @@
       </c>
       <c r="I835" s="23"/>
     </row>
-    <row r="836" spans="1:9" ht="28.8">
+    <row r="836" spans="1:9" ht="29">
       <c r="A836" s="21" t="s">
         <v>1759</v>
       </c>
@@ -30281,7 +30281,7 @@
       </c>
       <c r="I838" s="23"/>
     </row>
-    <row r="839" spans="1:9" ht="43.2">
+    <row r="839" spans="1:9" ht="43.5">
       <c r="A839" s="21" t="s">
         <v>1765</v>
       </c>
@@ -30331,7 +30331,7 @@
       </c>
       <c r="I840" s="23"/>
     </row>
-    <row r="841" spans="1:9" ht="28.8">
+    <row r="841" spans="1:9" ht="29">
       <c r="A841" s="21" t="s">
         <v>1769</v>
       </c>
@@ -30356,7 +30356,7 @@
       </c>
       <c r="I841" s="23"/>
     </row>
-    <row r="842" spans="1:9" ht="28.8">
+    <row r="842" spans="1:9" ht="29">
       <c r="A842" s="21" t="s">
         <v>1771</v>
       </c>
@@ -30381,7 +30381,7 @@
       </c>
       <c r="I842" s="23"/>
     </row>
-    <row r="843" spans="1:9" ht="28.8">
+    <row r="843" spans="1:9" ht="29">
       <c r="A843" s="21" t="s">
         <v>1773</v>
       </c>
@@ -30431,7 +30431,7 @@
       </c>
       <c r="I844" s="23"/>
     </row>
-    <row r="845" spans="1:9" ht="28.8">
+    <row r="845" spans="1:9" ht="29">
       <c r="A845" s="21" t="s">
         <v>1777</v>
       </c>
@@ -30456,7 +30456,7 @@
       </c>
       <c r="I845" s="23"/>
     </row>
-    <row r="846" spans="1:9" ht="28.8">
+    <row r="846" spans="1:9" ht="29">
       <c r="A846" s="21" t="s">
         <v>1779</v>
       </c>
@@ -30481,7 +30481,7 @@
       </c>
       <c r="I846" s="23"/>
     </row>
-    <row r="847" spans="1:9" ht="28.8">
+    <row r="847" spans="1:9" ht="29">
       <c r="A847" s="21" t="s">
         <v>1781</v>
       </c>
@@ -30506,7 +30506,7 @@
       </c>
       <c r="I847" s="23"/>
     </row>
-    <row r="848" spans="1:9" ht="28.8">
+    <row r="848" spans="1:9" ht="29">
       <c r="A848" s="21" t="s">
         <v>1783</v>
       </c>
@@ -30531,7 +30531,7 @@
       </c>
       <c r="I848" s="23"/>
     </row>
-    <row r="849" spans="1:9" ht="43.2">
+    <row r="849" spans="1:9" ht="43.5">
       <c r="A849" s="21" t="s">
         <v>1785</v>
       </c>
@@ -30556,7 +30556,7 @@
       </c>
       <c r="I849" s="23"/>
     </row>
-    <row r="850" spans="1:9" ht="43.2">
+    <row r="850" spans="1:9" ht="43.5">
       <c r="A850" s="21" t="s">
         <v>1787</v>
       </c>
@@ -30581,7 +30581,7 @@
       </c>
       <c r="I850" s="23"/>
     </row>
-    <row r="851" spans="1:9" ht="28.8">
+    <row r="851" spans="1:9" ht="29">
       <c r="A851" s="21" t="s">
         <v>1789</v>
       </c>
@@ -30606,7 +30606,7 @@
       </c>
       <c r="I851" s="23"/>
     </row>
-    <row r="852" spans="1:9" ht="28.8">
+    <row r="852" spans="1:9" ht="29">
       <c r="A852" s="21" t="s">
         <v>1792</v>
       </c>
@@ -30631,7 +30631,7 @@
       </c>
       <c r="I852" s="23"/>
     </row>
-    <row r="853" spans="1:9" ht="28.8">
+    <row r="853" spans="1:9" ht="29">
       <c r="A853" s="21" t="s">
         <v>1794</v>
       </c>
@@ -30656,7 +30656,7 @@
       </c>
       <c r="I853" s="23"/>
     </row>
-    <row r="854" spans="1:9" ht="28.8">
+    <row r="854" spans="1:9" ht="29">
       <c r="A854" s="21" t="s">
         <v>1796</v>
       </c>
@@ -30681,7 +30681,7 @@
       </c>
       <c r="I854" s="23"/>
     </row>
-    <row r="855" spans="1:9" ht="28.8">
+    <row r="855" spans="1:9" ht="29">
       <c r="A855" s="21" t="s">
         <v>1798</v>
       </c>
@@ -30706,7 +30706,7 @@
       </c>
       <c r="I855" s="23"/>
     </row>
-    <row r="856" spans="1:9" ht="28.8">
+    <row r="856" spans="1:9" ht="29">
       <c r="A856" s="21" t="s">
         <v>1801</v>
       </c>
@@ -30731,7 +30731,7 @@
       </c>
       <c r="I856" s="23"/>
     </row>
-    <row r="857" spans="1:9" ht="28.8">
+    <row r="857" spans="1:9" ht="29">
       <c r="A857" s="21" t="s">
         <v>1803</v>
       </c>
@@ -30756,7 +30756,7 @@
       </c>
       <c r="I857" s="23"/>
     </row>
-    <row r="858" spans="1:9" ht="28.8">
+    <row r="858" spans="1:9" ht="29">
       <c r="A858" s="21" t="s">
         <v>1805</v>
       </c>
@@ -30806,7 +30806,7 @@
       </c>
       <c r="I859" s="23"/>
     </row>
-    <row r="860" spans="1:9" ht="28.8">
+    <row r="860" spans="1:9" ht="29">
       <c r="A860" s="21" t="s">
         <v>1810</v>
       </c>
@@ -30856,7 +30856,7 @@
       </c>
       <c r="I861" s="23"/>
     </row>
-    <row r="862" spans="1:9" ht="28.8">
+    <row r="862" spans="1:9" ht="29">
       <c r="A862" s="21" t="s">
         <v>1814</v>
       </c>
@@ -30931,7 +30931,7 @@
       </c>
       <c r="I864" s="23"/>
     </row>
-    <row r="865" spans="1:9" ht="28.8">
+    <row r="865" spans="1:9" ht="29">
       <c r="A865" s="21" t="s">
         <v>1820</v>
       </c>
@@ -30956,7 +30956,7 @@
       </c>
       <c r="I865" s="23"/>
     </row>
-    <row r="866" spans="1:9" ht="28.8">
+    <row r="866" spans="1:9" ht="29">
       <c r="A866" s="21" t="s">
         <v>1822</v>
       </c>
@@ -30981,7 +30981,7 @@
       </c>
       <c r="I866" s="23"/>
     </row>
-    <row r="867" spans="1:9" ht="28.8">
+    <row r="867" spans="1:9" ht="29">
       <c r="A867" s="21" t="s">
         <v>1824</v>
       </c>
@@ -31031,7 +31031,7 @@
       </c>
       <c r="I868" s="23"/>
     </row>
-    <row r="869" spans="1:9" ht="28.8">
+    <row r="869" spans="1:9" ht="29">
       <c r="A869" s="21" t="s">
         <v>1828</v>
       </c>
@@ -31056,7 +31056,7 @@
       </c>
       <c r="I869" s="23"/>
     </row>
-    <row r="870" spans="1:9" ht="43.2">
+    <row r="870" spans="1:9" ht="43.5">
       <c r="A870" s="21" t="s">
         <v>1831</v>
       </c>
@@ -31106,7 +31106,7 @@
       </c>
       <c r="I871" s="23"/>
     </row>
-    <row r="872" spans="1:9" ht="28.8">
+    <row r="872" spans="1:9" ht="29">
       <c r="A872" s="21" t="s">
         <v>1835</v>
       </c>
@@ -31131,7 +31131,7 @@
       </c>
       <c r="I872" s="23"/>
     </row>
-    <row r="873" spans="1:9">
+    <row r="873" spans="1:9" ht="29">
       <c r="A873" s="21" t="s">
         <v>1837</v>
       </c>
@@ -31206,7 +31206,7 @@
       </c>
       <c r="I875" s="23"/>
     </row>
-    <row r="876" spans="1:9" ht="28.8">
+    <row r="876" spans="1:9" ht="29">
       <c r="A876" s="21" t="s">
         <v>1843</v>
       </c>
@@ -31231,7 +31231,7 @@
       </c>
       <c r="I876" s="23"/>
     </row>
-    <row r="877" spans="1:9" ht="28.8">
+    <row r="877" spans="1:9" ht="29">
       <c r="A877" s="21" t="s">
         <v>1845</v>
       </c>
@@ -31281,7 +31281,7 @@
       </c>
       <c r="I878" s="23"/>
     </row>
-    <row r="879" spans="1:9" ht="28.8">
+    <row r="879" spans="1:9" ht="29">
       <c r="A879" s="21" t="s">
         <v>1849</v>
       </c>
@@ -31306,7 +31306,7 @@
       </c>
       <c r="I879" s="23"/>
     </row>
-    <row r="880" spans="1:9" ht="28.8">
+    <row r="880" spans="1:9" ht="29">
       <c r="A880" s="21" t="s">
         <v>1852</v>
       </c>
@@ -31331,7 +31331,7 @@
       </c>
       <c r="I880" s="23"/>
     </row>
-    <row r="881" spans="1:9" ht="28.8">
+    <row r="881" spans="1:9" ht="29">
       <c r="A881" s="21" t="s">
         <v>1854</v>
       </c>
@@ -31381,7 +31381,7 @@
       </c>
       <c r="I882" s="23"/>
     </row>
-    <row r="883" spans="1:9" ht="28.8">
+    <row r="883" spans="1:9" ht="29">
       <c r="A883" s="21" t="s">
         <v>1858</v>
       </c>
@@ -31431,7 +31431,7 @@
       </c>
       <c r="I884" s="23"/>
     </row>
-    <row r="885" spans="1:9" ht="28.8">
+    <row r="885" spans="1:9" ht="29">
       <c r="A885" s="21" t="s">
         <v>1862</v>
       </c>
@@ -31456,7 +31456,7 @@
       </c>
       <c r="I885" s="23"/>
     </row>
-    <row r="886" spans="1:9" ht="28.8">
+    <row r="886" spans="1:9" ht="29">
       <c r="A886" s="21" t="s">
         <v>1864</v>
       </c>
@@ -31481,7 +31481,7 @@
       </c>
       <c r="I886" s="23"/>
     </row>
-    <row r="887" spans="1:9" ht="28.8">
+    <row r="887" spans="1:9" ht="29">
       <c r="A887" s="21" t="s">
         <v>1866</v>
       </c>
@@ -31531,7 +31531,7 @@
       </c>
       <c r="I888" s="23"/>
     </row>
-    <row r="889" spans="1:9" ht="28.8">
+    <row r="889" spans="1:9" ht="29">
       <c r="A889" s="21" t="s">
         <v>1869</v>
       </c>
@@ -31556,7 +31556,7 @@
       </c>
       <c r="I889" s="23"/>
     </row>
-    <row r="890" spans="1:9" ht="28.8">
+    <row r="890" spans="1:9" ht="29">
       <c r="A890" s="21" t="s">
         <v>1871</v>
       </c>
@@ -31581,7 +31581,7 @@
       </c>
       <c r="I890" s="23"/>
     </row>
-    <row r="891" spans="1:9" ht="28.8">
+    <row r="891" spans="1:9" ht="29">
       <c r="A891" s="21" t="s">
         <v>1874</v>
       </c>
@@ -31606,7 +31606,7 @@
       </c>
       <c r="I891" s="23"/>
     </row>
-    <row r="892" spans="1:9" ht="28.8">
+    <row r="892" spans="1:9" ht="29">
       <c r="A892" s="21" t="s">
         <v>1876</v>
       </c>
@@ -31631,7 +31631,7 @@
       </c>
       <c r="I892" s="23"/>
     </row>
-    <row r="893" spans="1:9" ht="28.8">
+    <row r="893" spans="1:9" ht="29">
       <c r="A893" s="21" t="s">
         <v>1878</v>
       </c>
@@ -31656,7 +31656,7 @@
       </c>
       <c r="I893" s="23"/>
     </row>
-    <row r="894" spans="1:9" ht="28.8">
+    <row r="894" spans="1:9" ht="29">
       <c r="A894" s="21" t="s">
         <v>1880</v>
       </c>
@@ -31706,7 +31706,7 @@
       </c>
       <c r="I895" s="23"/>
     </row>
-    <row r="896" spans="1:9" ht="43.2">
+    <row r="896" spans="1:9" ht="43.5">
       <c r="A896" s="21" t="s">
         <v>1884</v>
       </c>
@@ -31731,7 +31731,7 @@
       </c>
       <c r="I896" s="23"/>
     </row>
-    <row r="897" spans="1:9" ht="28.8">
+    <row r="897" spans="1:9" ht="29">
       <c r="A897" s="21" t="s">
         <v>1887</v>
       </c>
@@ -31756,7 +31756,7 @@
       </c>
       <c r="I897" s="23"/>
     </row>
-    <row r="898" spans="1:9" ht="187.2">
+    <row r="898" spans="1:9" ht="188.5">
       <c r="A898" s="21" t="s">
         <v>1889</v>
       </c>
@@ -31783,7 +31783,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="899" spans="1:9" ht="28.8">
+    <row r="899" spans="1:9" ht="29">
       <c r="A899" s="21" t="s">
         <v>1893</v>
       </c>
@@ -31808,7 +31808,7 @@
       </c>
       <c r="I899" s="23"/>
     </row>
-    <row r="900" spans="1:9" ht="28.8">
+    <row r="900" spans="1:9" ht="29">
       <c r="A900" s="21" t="s">
         <v>1895</v>
       </c>
@@ -31908,7 +31908,7 @@
       </c>
       <c r="I903" s="23"/>
     </row>
-    <row r="904" spans="1:9" ht="28.8">
+    <row r="904" spans="1:9" ht="29">
       <c r="A904" s="21" t="s">
         <v>1903</v>
       </c>
@@ -31933,7 +31933,7 @@
       </c>
       <c r="I904" s="23"/>
     </row>
-    <row r="905" spans="1:9" ht="28.8">
+    <row r="905" spans="1:9" ht="29">
       <c r="A905" s="21" t="s">
         <v>1905</v>
       </c>
@@ -31958,7 +31958,7 @@
       </c>
       <c r="I905" s="23"/>
     </row>
-    <row r="906" spans="1:9" ht="28.8">
+    <row r="906" spans="1:9" ht="29">
       <c r="A906" s="21" t="s">
         <v>1907</v>
       </c>
@@ -31983,7 +31983,7 @@
       </c>
       <c r="I906" s="23"/>
     </row>
-    <row r="907" spans="1:9" ht="43.2">
+    <row r="907" spans="1:9" ht="43.5">
       <c r="A907" s="21" t="s">
         <v>1909</v>
       </c>
@@ -32033,7 +32033,7 @@
       </c>
       <c r="I908" s="23"/>
     </row>
-    <row r="909" spans="1:9" ht="28.8">
+    <row r="909" spans="1:9" ht="29">
       <c r="A909" s="21" t="s">
         <v>1913</v>
       </c>
@@ -32058,7 +32058,7 @@
       </c>
       <c r="I909" s="23"/>
     </row>
-    <row r="910" spans="1:9" ht="28.8">
+    <row r="910" spans="1:9" ht="29">
       <c r="A910" s="21" t="s">
         <v>1915</v>
       </c>
@@ -32083,7 +32083,7 @@
       </c>
       <c r="I910" s="23"/>
     </row>
-    <row r="911" spans="1:9" ht="43.2">
+    <row r="911" spans="1:9" ht="43.5">
       <c r="A911" s="21" t="s">
         <v>1917</v>
       </c>
@@ -32108,7 +32108,7 @@
       </c>
       <c r="I911" s="23"/>
     </row>
-    <row r="912" spans="1:9" ht="57.6">
+    <row r="912" spans="1:9" ht="58">
       <c r="A912" s="21" t="s">
         <v>1919</v>
       </c>
@@ -32133,7 +32133,7 @@
       </c>
       <c r="I912" s="23"/>
     </row>
-    <row r="913" spans="1:9" ht="57.6">
+    <row r="913" spans="1:9" ht="58">
       <c r="A913" s="21" t="s">
         <v>1922</v>
       </c>
@@ -32141,7 +32141,7 @@
         <v>1920</v>
       </c>
       <c r="C913" s="23" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="D913" s="21"/>
       <c r="E913" s="21" t="s">
@@ -32160,7 +32160,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="914" spans="1:9" ht="43.2">
+    <row r="914" spans="1:9" ht="43.5">
       <c r="A914" s="21" t="s">
         <v>1924</v>
       </c>
@@ -32185,7 +32185,7 @@
       </c>
       <c r="I914" s="23"/>
     </row>
-    <row r="915" spans="1:9" ht="43.2">
+    <row r="915" spans="1:9" ht="43.5">
       <c r="A915" s="21" t="s">
         <v>1926</v>
       </c>
@@ -32210,15 +32210,15 @@
       </c>
       <c r="I915" s="23"/>
     </row>
-    <row r="916" spans="1:9" ht="28.8">
+    <row r="916" spans="1:9" ht="29">
       <c r="A916" s="21" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B916" s="22" t="s">
         <v>1920</v>
       </c>
       <c r="C916" s="23" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="D916" s="21"/>
       <c r="E916" s="21" t="s">
@@ -32235,7 +32235,7 @@
       </c>
       <c r="I916" s="23"/>
     </row>
-    <row r="917" spans="1:9" ht="28.8">
+    <row r="917" spans="1:9" ht="29">
       <c r="A917" s="21" t="s">
         <v>1928</v>
       </c>
@@ -32260,15 +32260,15 @@
       </c>
       <c r="I917" s="23"/>
     </row>
-    <row r="918" spans="1:9" ht="28.8">
+    <row r="918" spans="1:9" ht="29">
       <c r="A918" s="21" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="B918" s="22" t="s">
         <v>1920</v>
       </c>
       <c r="C918" s="23" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D918" s="21"/>
       <c r="E918" s="21" t="s">
@@ -32285,15 +32285,15 @@
       </c>
       <c r="I918" s="23"/>
     </row>
-    <row r="919" spans="1:9" ht="28.8">
+    <row r="919" spans="1:9" ht="29">
       <c r="A919" s="21" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="B919" s="22" t="s">
         <v>1920</v>
       </c>
       <c r="C919" s="23" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D919" s="21"/>
       <c r="E919" s="21" t="s">
@@ -32310,15 +32310,15 @@
       </c>
       <c r="I919" s="23"/>
     </row>
-    <row r="920" spans="1:9" ht="43.2">
+    <row r="920" spans="1:9" ht="43.5">
       <c r="A920" s="21" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="B920" s="22" t="s">
         <v>1920</v>
       </c>
       <c r="C920" s="23" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D920" s="21"/>
       <c r="E920" s="21" t="s">
@@ -32335,9 +32335,9 @@
       </c>
       <c r="I920" s="23"/>
     </row>
-    <row r="921" spans="1:9" ht="28.8">
+    <row r="921" spans="1:9" ht="29">
       <c r="A921" s="21" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B921" s="22" t="s">
         <v>1920</v>
@@ -32360,9 +32360,9 @@
       </c>
       <c r="I921" s="23"/>
     </row>
-    <row r="922" spans="1:9" ht="28.8">
+    <row r="922" spans="1:9" ht="29">
       <c r="A922" s="21" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="B922" s="22" t="s">
         <v>1920</v>
@@ -32385,9 +32385,9 @@
       </c>
       <c r="I922" s="23"/>
     </row>
-    <row r="923" spans="1:9" ht="28.8">
+    <row r="923" spans="1:9" ht="29">
       <c r="A923" s="21" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B923" s="22" t="s">
         <v>1920</v>
@@ -32410,9 +32410,9 @@
       </c>
       <c r="I923" s="23"/>
     </row>
-    <row r="924" spans="1:9" ht="28.8">
+    <row r="924" spans="1:9" ht="29">
       <c r="A924" s="21" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B924" s="22" t="s">
         <v>1920</v>
@@ -32460,9 +32460,9 @@
       </c>
       <c r="I925" s="23"/>
     </row>
-    <row r="926" spans="1:9" ht="28.8">
+    <row r="926" spans="1:9" ht="29">
       <c r="A926" s="21" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B926" s="22" t="s">
         <v>1920</v>
@@ -32485,7 +32485,7 @@
       </c>
       <c r="I926" s="23"/>
     </row>
-    <row r="927" spans="1:9" ht="28.8">
+    <row r="927" spans="1:9" ht="29">
       <c r="A927" s="21" t="s">
         <v>1937</v>
       </c>
@@ -32510,7 +32510,7 @@
       </c>
       <c r="I927" s="23"/>
     </row>
-    <row r="928" spans="1:9" ht="28.8">
+    <row r="928" spans="1:9" ht="29">
       <c r="A928" s="21" t="s">
         <v>1939</v>
       </c>
@@ -32535,7 +32535,7 @@
       </c>
       <c r="I928" s="23"/>
     </row>
-    <row r="929" spans="1:9" ht="28.8">
+    <row r="929" spans="1:9" ht="29">
       <c r="A929" s="21" t="s">
         <v>1941</v>
       </c>
@@ -32560,7 +32560,7 @@
       </c>
       <c r="I929" s="23"/>
     </row>
-    <row r="930" spans="1:9" ht="28.8">
+    <row r="930" spans="1:9" ht="29">
       <c r="A930" s="21" t="s">
         <v>1943</v>
       </c>
@@ -32585,7 +32585,7 @@
       </c>
       <c r="I930" s="23"/>
     </row>
-    <row r="931" spans="1:9" ht="43.2">
+    <row r="931" spans="1:9" ht="43.5">
       <c r="A931" s="21" t="s">
         <v>1945</v>
       </c>
@@ -32610,7 +32610,7 @@
       </c>
       <c r="I931" s="23"/>
     </row>
-    <row r="932" spans="1:9" ht="72">
+    <row r="932" spans="1:9" ht="72.5">
       <c r="A932" s="21" t="s">
         <v>1948</v>
       </c>
@@ -32637,7 +32637,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="933" spans="1:9" ht="28.8">
+    <row r="933" spans="1:9" ht="29">
       <c r="A933" s="21" t="s">
         <v>1951</v>
       </c>
@@ -32662,7 +32662,7 @@
       </c>
       <c r="I933" s="23"/>
     </row>
-    <row r="934" spans="1:9" ht="28.8">
+    <row r="934" spans="1:9" ht="29">
       <c r="A934" s="21" t="s">
         <v>1953</v>
       </c>
@@ -32687,9 +32687,9 @@
       </c>
       <c r="I934" s="23"/>
     </row>
-    <row r="935" spans="1:9" ht="28.8">
+    <row r="935" spans="1:9" ht="29">
       <c r="A935" s="21" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="B935" s="22" t="s">
         <v>1946</v>
@@ -32737,7 +32737,7 @@
       </c>
       <c r="I936" s="23"/>
     </row>
-    <row r="937" spans="1:9" ht="43.2">
+    <row r="937" spans="1:9" ht="43.5">
       <c r="A937" s="21" t="s">
         <v>1958</v>
       </c>
@@ -32762,7 +32762,7 @@
       </c>
       <c r="I937" s="23"/>
     </row>
-    <row r="938" spans="1:9">
+    <row r="938" spans="1:9" ht="29">
       <c r="A938" s="21" t="s">
         <v>1961</v>
       </c>
@@ -32787,7 +32787,7 @@
       </c>
       <c r="I938" s="23"/>
     </row>
-    <row r="939" spans="1:9" ht="28.8">
+    <row r="939" spans="1:9" ht="29">
       <c r="A939" s="21" t="s">
         <v>1963</v>
       </c>
@@ -32812,7 +32812,7 @@
       </c>
       <c r="I939" s="23"/>
     </row>
-    <row r="940" spans="1:9" ht="43.2">
+    <row r="940" spans="1:9" ht="43.5">
       <c r="A940" s="21" t="s">
         <v>1965</v>
       </c>
@@ -32837,7 +32837,7 @@
       </c>
       <c r="I940" s="23"/>
     </row>
-    <row r="941" spans="1:9" ht="28.8">
+    <row r="941" spans="1:9" ht="29">
       <c r="A941" s="21" t="s">
         <v>1967</v>
       </c>
@@ -32862,7 +32862,7 @@
       </c>
       <c r="I941" s="23"/>
     </row>
-    <row r="942" spans="1:9" ht="28.8">
+    <row r="942" spans="1:9" ht="29">
       <c r="A942" s="21" t="s">
         <v>1969</v>
       </c>
@@ -32887,7 +32887,7 @@
       </c>
       <c r="I942" s="23"/>
     </row>
-    <row r="943" spans="1:9" ht="28.8">
+    <row r="943" spans="1:9" ht="29">
       <c r="A943" s="21" t="s">
         <v>1971</v>
       </c>
@@ -32912,7 +32912,7 @@
       </c>
       <c r="I943" s="23"/>
     </row>
-    <row r="944" spans="1:9" ht="28.8">
+    <row r="944" spans="1:9" ht="29">
       <c r="A944" s="21" t="s">
         <v>1973</v>
       </c>
@@ -32937,7 +32937,7 @@
       </c>
       <c r="I944" s="23"/>
     </row>
-    <row r="945" spans="1:9" ht="28.8">
+    <row r="945" spans="1:9" ht="29">
       <c r="A945" s="21" t="s">
         <v>1975</v>
       </c>
@@ -32962,7 +32962,7 @@
       </c>
       <c r="I945" s="23"/>
     </row>
-    <row r="946" spans="1:9" ht="28.8">
+    <row r="946" spans="1:9" ht="29">
       <c r="A946" s="21" t="s">
         <v>1977</v>
       </c>
@@ -32987,7 +32987,7 @@
       </c>
       <c r="I946" s="23"/>
     </row>
-    <row r="947" spans="1:9" ht="43.2">
+    <row r="947" spans="1:9" ht="43.5">
       <c r="A947" s="21" t="s">
         <v>1979</v>
       </c>
@@ -33012,7 +33012,7 @@
       </c>
       <c r="I947" s="23"/>
     </row>
-    <row r="948" spans="1:9" ht="43.2">
+    <row r="948" spans="1:9" ht="43.5">
       <c r="A948" s="21" t="s">
         <v>1982</v>
       </c>
@@ -33037,7 +33037,7 @@
       </c>
       <c r="I948" s="23"/>
     </row>
-    <row r="949" spans="1:9" ht="28.8">
+    <row r="949" spans="1:9" ht="29">
       <c r="A949" s="21" t="s">
         <v>1984</v>
       </c>
@@ -33087,7 +33087,7 @@
       </c>
       <c r="I950" s="23"/>
     </row>
-    <row r="951" spans="1:9" ht="28.8">
+    <row r="951" spans="1:9" ht="29">
       <c r="A951" s="21" t="s">
         <v>1989</v>
       </c>
@@ -33137,7 +33137,7 @@
       </c>
       <c r="I952" s="23"/>
     </row>
-    <row r="953" spans="1:9" ht="28.8">
+    <row r="953" spans="1:9" ht="29">
       <c r="A953" s="21" t="s">
         <v>1993</v>
       </c>
@@ -33162,7 +33162,7 @@
       </c>
       <c r="I953" s="23"/>
     </row>
-    <row r="954" spans="1:9" ht="28.8">
+    <row r="954" spans="1:9" ht="29">
       <c r="A954" s="21" t="s">
         <v>1995</v>
       </c>
@@ -33187,7 +33187,7 @@
       </c>
       <c r="I954" s="23"/>
     </row>
-    <row r="955" spans="1:9" ht="28.8">
+    <row r="955" spans="1:9" ht="29">
       <c r="A955" s="21" t="s">
         <v>1997</v>
       </c>
@@ -33212,7 +33212,7 @@
       </c>
       <c r="I955" s="23"/>
     </row>
-    <row r="956" spans="1:9" ht="28.8">
+    <row r="956" spans="1:9" ht="29">
       <c r="A956" s="21" t="s">
         <v>1999</v>
       </c>
@@ -33237,7 +33237,7 @@
       </c>
       <c r="I956" s="23"/>
     </row>
-    <row r="957" spans="1:9" ht="57.6">
+    <row r="957" spans="1:9" ht="58">
       <c r="A957" s="21" t="s">
         <v>2001</v>
       </c>
@@ -33262,7 +33262,7 @@
       </c>
       <c r="I957" s="23"/>
     </row>
-    <row r="958" spans="1:9" ht="43.2">
+    <row r="958" spans="1:9" ht="43.5">
       <c r="A958" s="21" t="s">
         <v>2003</v>
       </c>
@@ -33287,7 +33287,7 @@
       </c>
       <c r="I958" s="23"/>
     </row>
-    <row r="959" spans="1:9" ht="28.8">
+    <row r="959" spans="1:9" ht="29">
       <c r="A959" s="21" t="s">
         <v>2005</v>
       </c>
@@ -33312,7 +33312,7 @@
       </c>
       <c r="I959" s="23"/>
     </row>
-    <row r="960" spans="1:9" ht="28.8">
+    <row r="960" spans="1:9" ht="29">
       <c r="A960" s="21" t="s">
         <v>2007</v>
       </c>
@@ -33337,7 +33337,7 @@
       </c>
       <c r="I960" s="23"/>
     </row>
-    <row r="961" spans="1:9" ht="57.6">
+    <row r="961" spans="1:9" ht="58">
       <c r="A961" s="21" t="s">
         <v>2009</v>
       </c>
@@ -33362,7 +33362,7 @@
       </c>
       <c r="I961" s="23"/>
     </row>
-    <row r="962" spans="1:9" ht="158.4">
+    <row r="962" spans="1:9" ht="159.5">
       <c r="A962" s="21" t="s">
         <v>2011</v>
       </c>
@@ -33389,7 +33389,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="963" spans="1:9" ht="28.8">
+    <row r="963" spans="1:9" ht="29">
       <c r="A963" s="21" t="s">
         <v>2014</v>
       </c>
@@ -33414,7 +33414,7 @@
       </c>
       <c r="I963" s="23"/>
     </row>
-    <row r="964" spans="1:9" ht="57.6">
+    <row r="964" spans="1:9" ht="58">
       <c r="A964" s="21" t="s">
         <v>2016</v>
       </c>
@@ -33439,7 +33439,7 @@
       </c>
       <c r="I964" s="23"/>
     </row>
-    <row r="965" spans="1:9" ht="57.6">
+    <row r="965" spans="1:9" ht="58">
       <c r="A965" s="21" t="s">
         <v>2018</v>
       </c>
@@ -33464,7 +33464,7 @@
       </c>
       <c r="I965" s="23"/>
     </row>
-    <row r="966" spans="1:9" ht="28.8">
+    <row r="966" spans="1:9" ht="29">
       <c r="A966" s="21" t="s">
         <v>2020</v>
       </c>
@@ -33489,7 +33489,7 @@
       </c>
       <c r="I966" s="23"/>
     </row>
-    <row r="967" spans="1:9" ht="28.8">
+    <row r="967" spans="1:9" ht="29">
       <c r="A967" s="21" t="s">
         <v>2022</v>
       </c>
@@ -33514,7 +33514,7 @@
       </c>
       <c r="I967" s="23"/>
     </row>
-    <row r="968" spans="1:9" ht="43.2">
+    <row r="968" spans="1:9" ht="43.5">
       <c r="A968" s="21" t="s">
         <v>2024</v>
       </c>
@@ -33539,7 +33539,7 @@
       </c>
       <c r="I968" s="23"/>
     </row>
-    <row r="969" spans="1:9" ht="43.2">
+    <row r="969" spans="1:9" ht="43.5">
       <c r="A969" s="21" t="s">
         <v>2026</v>
       </c>
@@ -33564,7 +33564,7 @@
       </c>
       <c r="I969" s="23"/>
     </row>
-    <row r="970" spans="1:9" ht="28.8">
+    <row r="970" spans="1:9" ht="29">
       <c r="A970" s="21" t="s">
         <v>2028</v>
       </c>
@@ -33589,7 +33589,7 @@
       </c>
       <c r="I970" s="23"/>
     </row>
-    <row r="971" spans="1:9" ht="28.8">
+    <row r="971" spans="1:9" ht="29">
       <c r="A971" s="21" t="s">
         <v>2030</v>
       </c>
@@ -33614,7 +33614,7 @@
       </c>
       <c r="I971" s="23"/>
     </row>
-    <row r="972" spans="1:9" ht="28.8">
+    <row r="972" spans="1:9" ht="29">
       <c r="A972" s="21" t="s">
         <v>2032</v>
       </c>
@@ -33639,7 +33639,7 @@
       </c>
       <c r="I972" s="23"/>
     </row>
-    <row r="973" spans="1:9" ht="57.6">
+    <row r="973" spans="1:9" ht="58">
       <c r="A973" s="21" t="s">
         <v>2034</v>
       </c>
@@ -33664,7 +33664,7 @@
       </c>
       <c r="I973" s="23"/>
     </row>
-    <row r="974" spans="1:9" ht="28.8">
+    <row r="974" spans="1:9" ht="29">
       <c r="A974" s="21" t="s">
         <v>2037</v>
       </c>
@@ -33689,7 +33689,7 @@
       </c>
       <c r="I974" s="23"/>
     </row>
-    <row r="975" spans="1:9" ht="28.8">
+    <row r="975" spans="1:9" ht="29">
       <c r="A975" s="21" t="s">
         <v>2039</v>
       </c>
@@ -33714,7 +33714,7 @@
       </c>
       <c r="I975" s="23"/>
     </row>
-    <row r="976" spans="1:9" ht="43.2">
+    <row r="976" spans="1:9" ht="43.5">
       <c r="A976" s="21" t="s">
         <v>2041</v>
       </c>
@@ -33722,7 +33722,7 @@
         <v>2035</v>
       </c>
       <c r="C976" s="23" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="D976" s="21"/>
       <c r="E976" s="21" t="s">
@@ -33739,7 +33739,7 @@
       </c>
       <c r="I976" s="23"/>
     </row>
-    <row r="977" spans="1:9" ht="28.8">
+    <row r="977" spans="1:9" ht="29">
       <c r="A977" s="21" t="s">
         <v>2042</v>
       </c>
@@ -33764,7 +33764,7 @@
       </c>
       <c r="I977" s="23"/>
     </row>
-    <row r="978" spans="1:9" ht="28.8">
+    <row r="978" spans="1:9" ht="29">
       <c r="A978" s="21" t="s">
         <v>2044</v>
       </c>
@@ -33789,7 +33789,7 @@
       </c>
       <c r="I978" s="23"/>
     </row>
-    <row r="979" spans="1:9" ht="43.2">
+    <row r="979" spans="1:9" ht="43.5">
       <c r="A979" s="21" t="s">
         <v>2047</v>
       </c>
@@ -33814,7 +33814,7 @@
       </c>
       <c r="I979" s="23"/>
     </row>
-    <row r="980" spans="1:9" ht="43.2">
+    <row r="980" spans="1:9" ht="43.5">
       <c r="A980" s="21" t="s">
         <v>2049</v>
       </c>
@@ -33839,7 +33839,7 @@
       </c>
       <c r="I980" s="23"/>
     </row>
-    <row r="981" spans="1:9" ht="43.2">
+    <row r="981" spans="1:9" ht="43.5">
       <c r="A981" s="21" t="s">
         <v>2051</v>
       </c>
@@ -33864,7 +33864,7 @@
       </c>
       <c r="I981" s="23"/>
     </row>
-    <row r="982" spans="1:9" ht="28.8">
+    <row r="982" spans="1:9" ht="29">
       <c r="A982" s="21" t="s">
         <v>2053</v>
       </c>
@@ -33889,7 +33889,7 @@
       </c>
       <c r="I982" s="23"/>
     </row>
-    <row r="983" spans="1:9" ht="28.8">
+    <row r="983" spans="1:9" ht="43.5">
       <c r="A983" s="21" t="s">
         <v>2055</v>
       </c>
@@ -33914,7 +33914,7 @@
       </c>
       <c r="I983" s="23"/>
     </row>
-    <row r="984" spans="1:9" ht="57.6">
+    <row r="984" spans="1:9" ht="58">
       <c r="A984" s="21" t="s">
         <v>2058</v>
       </c>
@@ -33939,7 +33939,7 @@
       </c>
       <c r="I984" s="23"/>
     </row>
-    <row r="985" spans="1:9" ht="72">
+    <row r="985" spans="1:9" ht="72.5">
       <c r="A985" s="21" t="s">
         <v>2060</v>
       </c>
@@ -34014,7 +34014,7 @@
       </c>
       <c r="I987" s="23"/>
     </row>
-    <row r="988" spans="1:9" ht="28.8">
+    <row r="988" spans="1:9" ht="29">
       <c r="A988" s="21" t="s">
         <v>2067</v>
       </c>
@@ -34039,7 +34039,7 @@
       </c>
       <c r="I988" s="23"/>
     </row>
-    <row r="989" spans="1:9" ht="28.8">
+    <row r="989" spans="1:9" ht="29">
       <c r="A989" s="21" t="s">
         <v>2069</v>
       </c>
@@ -34093,7 +34093,7 @@
       </c>
       <c r="I990" s="23"/>
     </row>
-    <row r="991" spans="1:9" ht="28.8">
+    <row r="991" spans="1:9" ht="29">
       <c r="A991" s="21" t="s">
         <v>2074</v>
       </c>
@@ -34101,7 +34101,7 @@
         <v>2063</v>
       </c>
       <c r="C991" s="23" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D991" s="21"/>
       <c r="E991" s="21" t="s">
@@ -34118,7 +34118,7 @@
       </c>
       <c r="I991" s="23"/>
     </row>
-    <row r="992" spans="1:9" ht="28.8">
+    <row r="992" spans="1:9" ht="29">
       <c r="A992" s="21" t="s">
         <v>2075</v>
       </c>
@@ -34142,7 +34142,7 @@
         <v>40</v>
       </c>
       <c r="I992" s="23" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="993" spans="1:9">
@@ -34220,7 +34220,7 @@
       </c>
       <c r="I995" s="23"/>
     </row>
-    <row r="996" spans="1:9" ht="43.2">
+    <row r="996" spans="1:9" ht="58">
       <c r="A996" s="21" t="s">
         <v>2083</v>
       </c>
@@ -34245,7 +34245,7 @@
       </c>
       <c r="I996" s="23"/>
     </row>
-    <row r="997" spans="1:9" ht="28.8">
+    <row r="997" spans="1:9" ht="29">
       <c r="A997" s="21" t="s">
         <v>2085</v>
       </c>
@@ -34270,7 +34270,7 @@
       </c>
       <c r="I997" s="23"/>
     </row>
-    <row r="998" spans="1:9" ht="43.2">
+    <row r="998" spans="1:9" ht="43.5">
       <c r="A998" s="21" t="s">
         <v>2087</v>
       </c>
@@ -34294,10 +34294,10 @@
         <v>40</v>
       </c>
       <c r="I998" s="23" t="s">
-        <v>2131</v>
-      </c>
-    </row>
-    <row r="999" spans="1:9" ht="43.2">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" ht="43.5">
       <c r="A999" s="21" t="s">
         <v>2089</v>
       </c>
@@ -34321,7 +34321,7 @@
         <v>40</v>
       </c>
       <c r="I999" s="23" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1000" spans="1:9">
@@ -34349,7 +34349,7 @@
       </c>
       <c r="I1000" s="23"/>
     </row>
-    <row r="1001" spans="1:9" ht="28.8">
+    <row r="1001" spans="1:9" ht="29">
       <c r="A1001" s="21" t="s">
         <v>2093</v>
       </c>
@@ -34374,7 +34374,7 @@
       </c>
       <c r="I1001" s="23"/>
     </row>
-    <row r="1002" spans="1:9" ht="28.8">
+    <row r="1002" spans="1:9" ht="29">
       <c r="A1002" s="21" t="s">
         <v>2095</v>
       </c>
@@ -34399,7 +34399,7 @@
       </c>
       <c r="I1002" s="23"/>
     </row>
-    <row r="1003" spans="1:9" ht="28.8">
+    <row r="1003" spans="1:9" ht="29">
       <c r="A1003" s="21" t="s">
         <v>2097</v>
       </c>
@@ -34407,7 +34407,7 @@
         <v>2063</v>
       </c>
       <c r="C1003" s="23" t="s">
-        <v>2098</v>
+        <v>2132</v>
       </c>
       <c r="D1003" s="21"/>
       <c r="E1003" s="21" t="s">
@@ -34426,13 +34426,13 @@
     </row>
     <row r="1004" spans="1:9">
       <c r="A1004" s="21" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="B1004" s="22" t="s">
         <v>2063</v>
       </c>
       <c r="C1004" s="23" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="D1004" s="21"/>
       <c r="E1004" s="21" t="s">
@@ -34449,15 +34449,15 @@
       </c>
       <c r="I1004" s="23"/>
     </row>
-    <row r="1005" spans="1:9" ht="43.2">
+    <row r="1005" spans="1:9" ht="43.5">
       <c r="A1005" s="21" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="B1005" s="26">
         <v>5</v>
       </c>
       <c r="C1005" s="23" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="D1005" s="21"/>
       <c r="E1005" s="21" t="s">
@@ -34474,15 +34474,15 @@
       </c>
       <c r="I1005" s="23"/>
     </row>
-    <row r="1006" spans="1:9" ht="28.8">
+    <row r="1006" spans="1:9" ht="29">
       <c r="A1006" s="21" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="B1006" s="26">
         <v>5</v>
       </c>
       <c r="C1006" s="23" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="D1006" s="21"/>
       <c r="E1006" s="21" t="s">

--- a/FileSyncandWOPI/Docs/MS-ONESTORE/MS-ONESTORE_RequirementSpecification.xlsx
+++ b/FileSyncandWOPI/Docs/MS-ONESTORE/MS-ONESTORE_RequirementSpecification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\TestSuites\Interop-TestSuites-WJP-Commit\FileSyncandWOPI\Docs\MS-ONESTORE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestSuite\20250218\Interop-TestSuites\FileSyncandWOPI\Docs\MS-ONESTORE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14567F09-12CC-4BD5-ACF2-02878684F739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{142D57A0-81B8-4D37-B72B-C1A7E204D0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7053,6 +7053,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7077,21 +7092,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7100,14 +7100,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="5" tint="0.59996337778862885"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="6" tint="0.59996337778862885"/>
+          <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8811,7 +8811,7 @@
   <dimension ref="A1:O1006"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D981" sqref="D981"/>
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -8854,42 +8854,42 @@
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="10">
-        <v>45608</v>
+        <v>45706</v>
       </c>
       <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:15" ht="21">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="24"/>
       <c r="O5" s="25"/>
     </row>
@@ -8897,96 +8897,96 @@
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:15" ht="78.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:15" ht="33.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:15">
@@ -8999,12 +8999,12 @@
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
@@ -9017,12 +9017,12 @@
       <c r="C13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:15">
@@ -9035,12 +9035,12 @@
       <c r="C14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:15">
@@ -9053,60 +9053,60 @@
       <c r="C15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" ht="64.5" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10" ht="30">
@@ -33895,11 +33895,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B9:I9"/>
@@ -33907,34 +33902,39 @@
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A535:B535 D535:I535">
     <cfRule type="expression" dxfId="197" priority="20">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="15">
+    <cfRule type="expression" dxfId="196" priority="17">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="15">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="16">
+    <cfRule type="expression" dxfId="194" priority="16">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="194" priority="17">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:I28 B29:I46 A29:A534 B47:D241 E47:I534 B242:B243 D242:D243 B244:D244 B245:B247 D245:D247 B248:D248 B249:B251 D249:D251 B252:D252 B253:B255 D253:D255 B256:D272 J257:J260 J262:J265 B273:B274 D273:D274 B275:D276 B277:B278 D277:D278 B279:D376 B377:B382 D377:D382 B383:D429 B430:B439 D430:D439 B440:D457 B458:B459 D458:D459 B460:D485 B486:B487 D486:D487 B488:D491 B492:B494 D492:D494 B495:D534 A536:C538 E536:I538 B540:D542 A540:A618 E540:I618 B543:B546 D543:D546 B547:D558 B559:B564 D559:D564 B565:D568 B569:B573 D569:D573 B574:D577 B578:B580 D578:D580 B581:D617 B618 D618 A619:I632 A633:B635 D633:I635 A636:I638 A639:B639 D639:I639 A640:I644 A645:B646 D645:I646 A647:I649 A650:B650 E650:I650 A651:I683 A684:B694 D684:I694 A695:I702 A703:B703 D703:I703 A704:I731 A732:B733 D732:I733 A734:I742 A743:B745 D743:I745 A746:I746 A747:B751 D747:I751 A752:I752 A753:B757 D753:I757 A758:I759 A760:B760 D760:I760 A761:I763 A764:B768 D764:I768 A769:I769 A770:B771 D770:I771 A772:I792 A793:B793 D793:I793 A794:I813 A814:B814 D814:I814 A815:I816 A817:B818 D817:I818 A819:I827 A828:B832 D828:I832 A833:I860 A861:B861 D861:I861 A862:I865 A866:B866 D866:I866 A867:I867 A868:B868 D868:I868 A869:I899 A900:B900 D900:I900 A901:I905 A906:B907 D906:I907 A908:I909 A910:B913 D910:I913 A914:I926 A927:B927 D927:I927 A928:I928 A929:B929 D929:I929 A930:I931 A932:B932 D932:I932 A933:I965 A966:B966 D966:I966 A967:I989 A990:H990 A991:I998 A999:B999 D999:I999 A1000:I1006">
-    <cfRule type="expression" dxfId="193" priority="429">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    <cfRule type="expression" dxfId="193" priority="383">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="385">
+    <cfRule type="expression" dxfId="192" priority="384">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="191" priority="385">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="384">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="190" priority="383">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    <cfRule type="expression" dxfId="190" priority="429">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A539:I539">
@@ -33952,17 +33952,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C242:C243">
-    <cfRule type="expression" dxfId="185" priority="320">
+    <cfRule type="expression" dxfId="185" priority="318">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="184" priority="317">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="183" priority="320">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="319">
+    <cfRule type="expression" dxfId="182" priority="319">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="183" priority="318">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="182" priority="317">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245:C247">
@@ -33994,53 +33994,53 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253:C255">
-    <cfRule type="expression" dxfId="173" priority="302">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="172" priority="301">
+    <cfRule type="expression" dxfId="173" priority="301">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="171" priority="300">
+    <cfRule type="expression" dxfId="172" priority="300">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="170" priority="299">
+    <cfRule type="expression" dxfId="171" priority="299">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="170" priority="302">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C273:C274">
-    <cfRule type="expression" dxfId="169" priority="293">
+    <cfRule type="expression" dxfId="169" priority="294">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="168" priority="293">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="296">
+    <cfRule type="expression" dxfId="167" priority="296">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="167" priority="295">
+    <cfRule type="expression" dxfId="166" priority="295">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="294">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C277:C278">
-    <cfRule type="expression" dxfId="165" priority="289">
+    <cfRule type="expression" dxfId="165" priority="290">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="164" priority="289">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="164" priority="287">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="163" priority="288">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="290">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    <cfRule type="expression" dxfId="162" priority="287">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C377:C382">
-    <cfRule type="expression" dxfId="161" priority="283">
+    <cfRule type="expression" dxfId="161" priority="284">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="160" priority="283">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="160" priority="284">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="159" priority="282">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
@@ -34050,31 +34050,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C430:C439">
-    <cfRule type="expression" dxfId="157" priority="275">
+    <cfRule type="expression" dxfId="157" priority="278">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="276">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="155" priority="275">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="278">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="155" priority="277">
+    <cfRule type="expression" dxfId="154" priority="277">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="154" priority="276">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C458:C459">
-    <cfRule type="expression" dxfId="153" priority="271">
+    <cfRule type="expression" dxfId="153" priority="272">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="152" priority="271">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="272">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    <cfRule type="expression" dxfId="151" priority="270">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="269">
+    <cfRule type="expression" dxfId="150" priority="269">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="270">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C486:C487">
@@ -34092,45 +34092,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C492:C494">
-    <cfRule type="expression" dxfId="145" priority="260">
+    <cfRule type="expression" dxfId="145" priority="258">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="144" priority="257">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="143" priority="260">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="259">
+    <cfRule type="expression" dxfId="142" priority="259">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="258">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C535">
+    <cfRule type="expression" dxfId="141" priority="12">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="11">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="10">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="257">
+    <cfRule type="expression" dxfId="138" priority="9">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C535">
-    <cfRule type="expression" dxfId="141" priority="11">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="140" priority="10">
+  <conditionalFormatting sqref="C543:C546">
+    <cfRule type="expression" dxfId="137" priority="252">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="139" priority="9">
+    <cfRule type="expression" dxfId="136" priority="251">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="12">
+    <cfRule type="expression" dxfId="135" priority="254">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C543:C546">
-    <cfRule type="expression" dxfId="137" priority="254">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="253">
+    <cfRule type="expression" dxfId="134" priority="253">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="135" priority="252">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="134" priority="251">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C559:C564">
@@ -34148,17 +34148,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C569:C573">
-    <cfRule type="expression" dxfId="129" priority="239">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    <cfRule type="expression" dxfId="129" priority="242">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="240">
+    <cfRule type="expression" dxfId="128" priority="241">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="240">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="241">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="242">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    <cfRule type="expression" dxfId="126" priority="239">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C578:C580">
@@ -34176,45 +34176,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C618">
-    <cfRule type="expression" dxfId="121" priority="229">
+    <cfRule type="expression" dxfId="121" priority="230">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="120" priority="229">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="227">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="119" priority="228">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="230">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    <cfRule type="expression" dxfId="118" priority="227">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C633:C635">
-    <cfRule type="expression" dxfId="117" priority="223">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="224">
+    <cfRule type="expression" dxfId="117" priority="224">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="222">
+    <cfRule type="expression" dxfId="116" priority="222">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="223">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="114" priority="221">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C639">
-    <cfRule type="expression" dxfId="113" priority="218">
+    <cfRule type="expression" dxfId="113" priority="216">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="215">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="111" priority="218">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="216">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="217">
+    <cfRule type="expression" dxfId="110" priority="217">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="215">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C645:C646">
@@ -34232,45 +34232,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C650">
-    <cfRule type="expression" dxfId="105" priority="206">
+    <cfRule type="expression" dxfId="105" priority="204">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="104" priority="203">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="206">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="205">
+    <cfRule type="expression" dxfId="102" priority="205">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="204">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="203">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C684:C694">
-    <cfRule type="expression" dxfId="101" priority="188">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="187">
+    <cfRule type="expression" dxfId="101" priority="187">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="186">
+    <cfRule type="expression" dxfId="100" priority="186">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="185">
+    <cfRule type="expression" dxfId="99" priority="185">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="188">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C703">
-    <cfRule type="expression" dxfId="97" priority="180">
+    <cfRule type="expression" dxfId="97" priority="182">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="96" priority="181">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="95" priority="180">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="179">
+    <cfRule type="expression" dxfId="94" priority="179">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="95" priority="181">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="182">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C732:C733">
@@ -34291,28 +34291,28 @@
     <cfRule type="expression" dxfId="89" priority="164">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="161">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    <cfRule type="expression" dxfId="88" priority="163">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="87" priority="162">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="163">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    <cfRule type="expression" dxfId="86" priority="161">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C747:C751">
-    <cfRule type="expression" dxfId="85" priority="157">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="84" priority="156">
+    <cfRule type="expression" dxfId="85" priority="156">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="155">
+    <cfRule type="expression" dxfId="84" priority="155">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="158">
+    <cfRule type="expression" dxfId="83" priority="158">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="157">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C753:C757">
@@ -34330,199 +34330,199 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C760">
-    <cfRule type="expression" dxfId="77" priority="145">
+    <cfRule type="expression" dxfId="77" priority="146">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="145">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="144">
+    <cfRule type="expression" dxfId="75" priority="144">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="143">
+    <cfRule type="expression" dxfId="74" priority="143">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="74" priority="146">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C764:C768">
-    <cfRule type="expression" dxfId="73" priority="125">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    <cfRule type="expression" dxfId="73" priority="128">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="126">
+    <cfRule type="expression" dxfId="72" priority="127">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="71" priority="126">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="128">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="127">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    <cfRule type="expression" dxfId="70" priority="125">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C770:C771">
-    <cfRule type="expression" dxfId="69" priority="113">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    <cfRule type="expression" dxfId="69" priority="116">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="115">
+    <cfRule type="expression" dxfId="68" priority="114">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="115">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="116">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="114">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    <cfRule type="expression" dxfId="66" priority="113">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C793">
-    <cfRule type="expression" dxfId="65" priority="108">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    <cfRule type="expression" dxfId="65" priority="110">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="64" priority="109">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="107">
+    <cfRule type="expression" dxfId="63" priority="108">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="107">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="110">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C814">
     <cfRule type="expression" dxfId="61" priority="102">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="104">
+    <cfRule type="expression" dxfId="60" priority="101">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="59" priority="104">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="59" priority="101">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="103">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C817:C818">
-    <cfRule type="expression" dxfId="57" priority="97">
+    <cfRule type="expression" dxfId="57" priority="98">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="97">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="96">
+    <cfRule type="expression" dxfId="55" priority="96">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="95">
+    <cfRule type="expression" dxfId="54" priority="95">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="98">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C828:C832">
-    <cfRule type="expression" dxfId="53" priority="92">
+    <cfRule type="expression" dxfId="53" priority="90">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="89">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="51" priority="92">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="91">
+    <cfRule type="expression" dxfId="50" priority="91">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="90">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C861">
+    <cfRule type="expression" dxfId="49" priority="86">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="84">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="89">
+    <cfRule type="expression" dxfId="47" priority="83">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="85">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C866">
+    <cfRule type="expression" dxfId="45" priority="80">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="79">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="78">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="77">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C861">
-    <cfRule type="expression" dxfId="49" priority="85">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="83">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="47" priority="84">
+  <conditionalFormatting sqref="C868">
+    <cfRule type="expression" dxfId="41" priority="72">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="86">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C866">
-    <cfRule type="expression" dxfId="45" priority="77">
+    <cfRule type="expression" dxfId="40" priority="71">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="44" priority="78">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="80">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="79">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C868">
-    <cfRule type="expression" dxfId="41" priority="71">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="74">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="39" priority="73">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="72">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    <cfRule type="expression" dxfId="38" priority="74">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C900">
     <cfRule type="expression" dxfId="37" priority="68">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="66">
+    <cfRule type="expression" dxfId="36" priority="67">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="66">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="67">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="65">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C906:C907">
-    <cfRule type="expression" dxfId="33" priority="62">
+    <cfRule type="expression" dxfId="33" priority="60">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="59">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="62">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="61">
+    <cfRule type="expression" dxfId="30" priority="61">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="60">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C910:C913">
+    <cfRule type="expression" dxfId="29" priority="56">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="55">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="54">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="59">
+    <cfRule type="expression" dxfId="26" priority="53">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C910:C913">
-    <cfRule type="expression" dxfId="29" priority="54">
+  <conditionalFormatting sqref="C927">
+    <cfRule type="expression" dxfId="25" priority="50">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="24" priority="49">
+      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="48">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="53">
+    <cfRule type="expression" dxfId="22" priority="47">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="56">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="55">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C927">
-    <cfRule type="expression" dxfId="25" priority="48">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="47">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="50">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="49">
-      <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C929">
@@ -34540,45 +34540,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C932">
-    <cfRule type="expression" dxfId="17" priority="38">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="37">
+    <cfRule type="expression" dxfId="17" priority="37">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="36">
+    <cfRule type="expression" dxfId="16" priority="36">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="35">
+    <cfRule type="expression" dxfId="15" priority="35">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="38">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C966">
-    <cfRule type="expression" dxfId="13" priority="32">
+    <cfRule type="expression" dxfId="13" priority="30">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="29">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="32">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="31">
+    <cfRule type="expression" dxfId="10" priority="31">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="30">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="29">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C999">
-    <cfRule type="expression" dxfId="9" priority="26">
-      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="25">
+    <cfRule type="expression" dxfId="9" priority="25">
       <formula>EXACT(INDIRECT("L"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="24">
+    <cfRule type="expression" dxfId="8" priority="24">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"Deleted")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="23">
+    <cfRule type="expression" dxfId="7" priority="23">
       <formula>EXACT(INDIRECT("P"&amp;ROW()),"SectionDeleted")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="26">
+      <formula>EXACT(INDIRECT("P"&amp;ROW()),"Section Deleted")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D536:D538">
@@ -34596,11 +34596,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F1006">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
-      <formula>NOT(VLOOKUP(F20,$A$12:$C$15,2,FALSE)="In")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">

--- a/FileSyncandWOPI/Docs/MS-ONESTORE/MS-ONESTORE_RequirementSpecification.xlsx
+++ b/FileSyncandWOPI/Docs/MS-ONESTORE/MS-ONESTORE_RequirementSpecification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestSuite\20250218\Interop-TestSuites\FileSyncandWOPI\Docs\MS-ONESTORE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\TestSuite\backup\Interop-TestSuites-v-xiaohshi-20250520\Interop-TestSuites\FileSyncandWOPI\Docs\MS-ONESTORE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3986889E-D9C6-4C21-A3C9-C0A8EE6488D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FB0874-567D-469A-B9C2-B0D7E34E50E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" tabRatio="570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="2" r:id="rId1"/>
@@ -6715,10 +6715,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>[In TransactionEntry] [srcID value] 0x00000001: [TransactionEntrySwitch] MUST be equal to CRC (section 2.1.2) of all TransactionEntry structures in the current transaction.&lt;8&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>[In Header Cell] § Object Group Extended GUID: MUST be calculated as Cell Manifest Current Revision Extended GUID specified previously XOR "{{26402DF1-68C7-43C0-A37C-04B9100893CE}, 0x80000000 }".</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -6797,6 +6793,9 @@
   <si>
     <t>[In TransactionLogFragment] nextFragment (12 bytes): An optional FileChunkReference64x32 structure (section 2.2.4.4) that specifies the location and size of the next TransactionLogFragment structure.</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>[In TransactionEntry] [srcID value] 0x00000001: [TransactionEntrySwitch] SHOULD be equal to CRC (section 2.1.2) of all TransactionEntry structures in the current transaction.&lt;8&gt;</t>
   </si>
 </sst>
 </file>
@@ -6804,14 +6803,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="177" formatCode="0.0.0"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="0.0.0"/>
   </numFmts>
   <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -6843,7 +6842,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -7003,15 +7002,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7054,6 +7053,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7078,24 +7092,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="210">
     <dxf>
@@ -8430,9 +8429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4429703</xdr:colOff>
-      <xdr:row>338</xdr:row>
-      <xdr:rowOff>180925</xdr:rowOff>
+      <xdr:colOff>4426528</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>358725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8476,13 +8475,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Requirement" displayName="Requirement" ref="A19:I1006" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A19:I1006" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="2.3.3.1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A19:I1006" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="ns1:REQ_ID" name="Req ID" dataDxfId="209">
       <xmlColumnPr mapId="12" xpath="/ns1:ReqTable/ns1:Requirement/ns1:REQ_ID" xmlDataType="string"/>
@@ -8817,21 +8810,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C343" sqref="C343"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D352" sqref="D352"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13" style="2" customWidth="1"/>
     <col min="3" max="3" width="85" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.453125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.08984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" customWidth="1"/>
     <col min="8" max="8" width="23" style="2" customWidth="1"/>
-    <col min="9" max="9" width="28.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="28.6328125" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
@@ -8861,42 +8854,42 @@
         <v>3</v>
       </c>
       <c r="C3" s="9">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="10">
-        <v>45706</v>
+        <v>45797</v>
       </c>
       <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:15" ht="21">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="J4" s="24"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="24"/>
       <c r="O5" s="25"/>
     </row>
@@ -8904,96 +8897,96 @@
       <c r="A6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
       <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:15" ht="78.75" customHeight="1">
       <c r="A9" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
       <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:15" ht="33.75" customHeight="1">
       <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:15">
@@ -9006,12 +8999,12 @@
       <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
       <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:15" ht="15" customHeight="1">
@@ -9024,12 +9017,12 @@
       <c r="C13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:15">
@@ -9042,12 +9035,12 @@
       <c r="C14" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:15">
@@ -9060,63 +9053,63 @@
       <c r="C15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:15" ht="30" customHeight="1">
       <c r="A16" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" ht="64.5" customHeight="1">
       <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" ht="30" customHeight="1">
       <c r="A18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" ht="30">
+    <row r="19" spans="1:10" ht="29">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -9145,7 +9138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="1" customFormat="1" ht="30" hidden="1">
+    <row r="20" spans="1:10" s="1" customFormat="1" ht="29">
       <c r="A20" s="21" t="s">
         <v>35</v>
       </c>
@@ -9170,7 +9163,7 @@
       </c>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="1:10" s="1" customFormat="1" ht="30" hidden="1">
+    <row r="21" spans="1:10" s="1" customFormat="1" ht="29">
       <c r="A21" s="21" t="s">
         <v>41</v>
       </c>
@@ -9195,7 +9188,7 @@
       </c>
       <c r="I21" s="22"/>
     </row>
-    <row r="22" spans="1:10" s="1" customFormat="1" hidden="1">
+    <row r="22" spans="1:10" s="1" customFormat="1">
       <c r="A22" s="21" t="s">
         <v>43</v>
       </c>
@@ -9220,7 +9213,7 @@
       </c>
       <c r="I22" s="22"/>
     </row>
-    <row r="23" spans="1:10" s="1" customFormat="1" hidden="1">
+    <row r="23" spans="1:10" s="1" customFormat="1">
       <c r="A23" s="21" t="s">
         <v>45</v>
       </c>
@@ -9245,7 +9238,7 @@
       </c>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" ht="30" hidden="1">
+    <row r="24" spans="1:10" s="1" customFormat="1" ht="29">
       <c r="A24" s="21" t="s">
         <v>47</v>
       </c>
@@ -9270,7 +9263,7 @@
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" ht="30" hidden="1">
+    <row r="25" spans="1:10" s="1" customFormat="1" ht="29">
       <c r="A25" s="21" t="s">
         <v>51</v>
       </c>
@@ -9295,7 +9288,7 @@
       </c>
       <c r="I25" s="22"/>
     </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" hidden="1">
+    <row r="26" spans="1:10" s="1" customFormat="1" ht="29">
       <c r="A26" s="21" t="s">
         <v>53</v>
       </c>
@@ -9320,7 +9313,7 @@
       </c>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="1:10" s="1" customFormat="1" ht="30" hidden="1">
+    <row r="27" spans="1:10" s="1" customFormat="1" ht="43.5">
       <c r="A27" s="21" t="s">
         <v>55</v>
       </c>
@@ -9345,7 +9338,7 @@
       </c>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" ht="30" hidden="1">
+    <row r="28" spans="1:10" s="1" customFormat="1" ht="29">
       <c r="A28" s="21" t="s">
         <v>57</v>
       </c>
@@ -9370,7 +9363,7 @@
       </c>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:10" s="1" customFormat="1" ht="30" hidden="1">
+    <row r="29" spans="1:10" s="1" customFormat="1" ht="43.5">
       <c r="A29" s="21" t="s">
         <v>59</v>
       </c>
@@ -9395,7 +9388,7 @@
       </c>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:10" s="1" customFormat="1" ht="45" hidden="1">
+    <row r="30" spans="1:10" s="1" customFormat="1" ht="58">
       <c r="A30" s="21" t="s">
         <v>61</v>
       </c>
@@ -9420,7 +9413,7 @@
       </c>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" ht="75" hidden="1">
+    <row r="31" spans="1:10" s="1" customFormat="1" ht="87">
       <c r="A31" s="21" t="s">
         <v>63</v>
       </c>
@@ -9447,7 +9440,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" ht="30" hidden="1">
+    <row r="32" spans="1:10" s="1" customFormat="1" ht="29">
       <c r="A32" s="21" t="s">
         <v>66</v>
       </c>
@@ -9472,7 +9465,7 @@
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" ht="30" hidden="1">
+    <row r="33" spans="1:9" s="1" customFormat="1" ht="29">
       <c r="A33" s="21" t="s">
         <v>68</v>
       </c>
@@ -9497,7 +9490,7 @@
       </c>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" ht="30" hidden="1">
+    <row r="34" spans="1:9" s="1" customFormat="1" ht="29">
       <c r="A34" s="21" t="s">
         <v>70</v>
       </c>
@@ -9522,7 +9515,7 @@
       </c>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" ht="30" hidden="1">
+    <row r="35" spans="1:9" s="1" customFormat="1" ht="29">
       <c r="A35" s="21" t="s">
         <v>72</v>
       </c>
@@ -9547,7 +9540,7 @@
       </c>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" ht="30" hidden="1">
+    <row r="36" spans="1:9" ht="29">
       <c r="A36" s="21" t="s">
         <v>74</v>
       </c>
@@ -9572,7 +9565,7 @@
       </c>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="1:9" ht="30" hidden="1">
+    <row r="37" spans="1:9" ht="29">
       <c r="A37" s="21" t="s">
         <v>76</v>
       </c>
@@ -9597,7 +9590,7 @@
       </c>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="1:9" ht="30" hidden="1">
+    <row r="38" spans="1:9" ht="29">
       <c r="A38" s="21" t="s">
         <v>79</v>
       </c>
@@ -9622,7 +9615,7 @@
       </c>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="1:9" ht="30" hidden="1">
+    <row r="39" spans="1:9" ht="29">
       <c r="A39" s="21" t="s">
         <v>81</v>
       </c>
@@ -9647,7 +9640,7 @@
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="1:9" ht="30" hidden="1">
+    <row r="40" spans="1:9" ht="29">
       <c r="A40" s="21" t="s">
         <v>2103</v>
       </c>
@@ -9672,7 +9665,7 @@
       </c>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="1:9" hidden="1">
+    <row r="41" spans="1:9" ht="29">
       <c r="A41" s="21" t="s">
         <v>2104</v>
       </c>
@@ -9697,7 +9690,7 @@
       </c>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="1:9" ht="30" hidden="1">
+    <row r="42" spans="1:9" ht="29">
       <c r="A42" s="21" t="s">
         <v>85</v>
       </c>
@@ -9722,7 +9715,7 @@
       </c>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="1:9" ht="30" hidden="1">
+    <row r="43" spans="1:9" ht="29">
       <c r="A43" s="21" t="s">
         <v>87</v>
       </c>
@@ -9747,7 +9740,7 @@
       </c>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="1:9" ht="45" hidden="1">
+    <row r="44" spans="1:9" ht="43.5">
       <c r="A44" s="21" t="s">
         <v>2105</v>
       </c>
@@ -9774,7 +9767,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="30" hidden="1">
+    <row r="45" spans="1:9" ht="29">
       <c r="A45" s="21" t="s">
         <v>2106</v>
       </c>
@@ -9799,7 +9792,7 @@
       </c>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="1:9" ht="30" hidden="1">
+    <row r="46" spans="1:9" ht="29">
       <c r="A46" s="21" t="s">
         <v>94</v>
       </c>
@@ -9824,7 +9817,7 @@
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="1:9" ht="30" hidden="1">
+    <row r="47" spans="1:9" ht="43.5">
       <c r="A47" s="21" t="s">
         <v>96</v>
       </c>
@@ -9849,7 +9842,7 @@
       </c>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="1:9" ht="120" hidden="1">
+    <row r="48" spans="1:9" ht="130.5">
       <c r="A48" s="21" t="s">
         <v>98</v>
       </c>
@@ -9876,7 +9869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="30" hidden="1">
+    <row r="49" spans="1:9" ht="29">
       <c r="A49" s="21" t="s">
         <v>101</v>
       </c>
@@ -9901,7 +9894,7 @@
       </c>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="1:9" ht="30" hidden="1">
+    <row r="50" spans="1:9" ht="29">
       <c r="A50" s="21" t="s">
         <v>103</v>
       </c>
@@ -9926,7 +9919,7 @@
       </c>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="1:9" ht="30" hidden="1">
+    <row r="51" spans="1:9" ht="29">
       <c r="A51" s="21" t="s">
         <v>105</v>
       </c>
@@ -9951,7 +9944,7 @@
       </c>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="1:9" ht="30" hidden="1">
+    <row r="52" spans="1:9" ht="29">
       <c r="A52" s="21" t="s">
         <v>107</v>
       </c>
@@ -9976,7 +9969,7 @@
       </c>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="1:9" ht="45" hidden="1">
+    <row r="53" spans="1:9" ht="43.5">
       <c r="A53" s="21" t="s">
         <v>109</v>
       </c>
@@ -10001,7 +9994,7 @@
       </c>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="1:9" ht="30" hidden="1">
+    <row r="54" spans="1:9" ht="29">
       <c r="A54" s="21" t="s">
         <v>111</v>
       </c>
@@ -10026,7 +10019,7 @@
       </c>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="1:9" ht="30" hidden="1">
+    <row r="55" spans="1:9" ht="29">
       <c r="A55" s="21" t="s">
         <v>113</v>
       </c>
@@ -10051,7 +10044,7 @@
       </c>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:9" ht="30" hidden="1">
+    <row r="56" spans="1:9" ht="29">
       <c r="A56" s="21" t="s">
         <v>115</v>
       </c>
@@ -10076,7 +10069,7 @@
       </c>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="1:9" ht="90" hidden="1">
+    <row r="57" spans="1:9" ht="101.5">
       <c r="A57" s="21" t="s">
         <v>117</v>
       </c>
@@ -10101,7 +10094,7 @@
       </c>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="1:9" hidden="1">
+    <row r="58" spans="1:9">
       <c r="A58" s="21" t="s">
         <v>119</v>
       </c>
@@ -10126,7 +10119,7 @@
       </c>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="1:9" ht="30" hidden="1">
+    <row r="59" spans="1:9" ht="29">
       <c r="A59" s="21" t="s">
         <v>122</v>
       </c>
@@ -10151,7 +10144,7 @@
       </c>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="1:9" ht="45" hidden="1">
+    <row r="60" spans="1:9" ht="43.5">
       <c r="A60" s="21" t="s">
         <v>124</v>
       </c>
@@ -10176,7 +10169,7 @@
       </c>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="1:9" ht="30" hidden="1">
+    <row r="61" spans="1:9" ht="29">
       <c r="A61" s="21" t="s">
         <v>126</v>
       </c>
@@ -10201,7 +10194,7 @@
       </c>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="1:9" ht="30" hidden="1">
+    <row r="62" spans="1:9" ht="29">
       <c r="A62" s="21" t="s">
         <v>128</v>
       </c>
@@ -10226,7 +10219,7 @@
       </c>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="1:9" ht="30" hidden="1">
+    <row r="63" spans="1:9" ht="29">
       <c r="A63" s="21" t="s">
         <v>130</v>
       </c>
@@ -10251,7 +10244,7 @@
       </c>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="1:9" hidden="1">
+    <row r="64" spans="1:9">
       <c r="A64" s="21" t="s">
         <v>132</v>
       </c>
@@ -10276,7 +10269,7 @@
       </c>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="1:9" hidden="1">
+    <row r="65" spans="1:9" ht="29">
       <c r="A65" s="21" t="s">
         <v>135</v>
       </c>
@@ -10301,7 +10294,7 @@
       </c>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="1:9" ht="30" hidden="1">
+    <row r="66" spans="1:9" ht="29">
       <c r="A66" s="21" t="s">
         <v>137</v>
       </c>
@@ -10326,7 +10319,7 @@
       </c>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="1:9" ht="165" hidden="1">
+    <row r="67" spans="1:9" ht="159.5">
       <c r="A67" s="21" t="s">
         <v>140</v>
       </c>
@@ -10351,7 +10344,7 @@
       </c>
       <c r="I67" s="23"/>
     </row>
-    <row r="68" spans="1:9" ht="30" hidden="1">
+    <row r="68" spans="1:9" ht="29">
       <c r="A68" s="21" t="s">
         <v>142</v>
       </c>
@@ -10376,7 +10369,7 @@
       </c>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="1:9" ht="30" hidden="1">
+    <row r="69" spans="1:9" ht="29">
       <c r="A69" s="21" t="s">
         <v>144</v>
       </c>
@@ -10401,7 +10394,7 @@
       </c>
       <c r="I69" s="23"/>
     </row>
-    <row r="70" spans="1:9" ht="30" hidden="1">
+    <row r="70" spans="1:9" ht="29">
       <c r="A70" s="21" t="s">
         <v>146</v>
       </c>
@@ -10426,7 +10419,7 @@
       </c>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" spans="1:9" ht="45" hidden="1">
+    <row r="71" spans="1:9" ht="43.5">
       <c r="A71" s="21" t="s">
         <v>148</v>
       </c>
@@ -10451,7 +10444,7 @@
       </c>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="1:9" ht="45" hidden="1">
+    <row r="72" spans="1:9" ht="43.5">
       <c r="A72" s="21" t="s">
         <v>150</v>
       </c>
@@ -10476,7 +10469,7 @@
       </c>
       <c r="I72" s="23"/>
     </row>
-    <row r="73" spans="1:9" ht="45" hidden="1">
+    <row r="73" spans="1:9" ht="43.5">
       <c r="A73" s="21" t="s">
         <v>152</v>
       </c>
@@ -10501,7 +10494,7 @@
       </c>
       <c r="I73" s="23"/>
     </row>
-    <row r="74" spans="1:9" hidden="1">
+    <row r="74" spans="1:9" ht="29">
       <c r="A74" s="21" t="s">
         <v>154</v>
       </c>
@@ -10526,7 +10519,7 @@
       </c>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="1:9" ht="150" hidden="1">
+    <row r="75" spans="1:9" ht="145">
       <c r="A75" s="21" t="s">
         <v>156</v>
       </c>
@@ -10553,7 +10546,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="150" hidden="1">
+    <row r="76" spans="1:9" ht="145">
       <c r="A76" s="21" t="s">
         <v>159</v>
       </c>
@@ -10580,7 +10573,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="75" hidden="1">
+    <row r="77" spans="1:9" ht="72.5">
       <c r="A77" s="21" t="s">
         <v>161</v>
       </c>
@@ -10605,7 +10598,7 @@
       </c>
       <c r="I77" s="23"/>
     </row>
-    <row r="78" spans="1:9" ht="60" hidden="1">
+    <row r="78" spans="1:9" ht="58">
       <c r="A78" s="21" t="s">
         <v>163</v>
       </c>
@@ -10630,7 +10623,7 @@
       </c>
       <c r="I78" s="23"/>
     </row>
-    <row r="79" spans="1:9" ht="105" hidden="1">
+    <row r="79" spans="1:9" ht="101.5">
       <c r="A79" s="21" t="s">
         <v>165</v>
       </c>
@@ -10655,7 +10648,7 @@
       </c>
       <c r="I79" s="23"/>
     </row>
-    <row r="80" spans="1:9" ht="90" hidden="1">
+    <row r="80" spans="1:9" ht="87">
       <c r="A80" s="21" t="s">
         <v>167</v>
       </c>
@@ -10680,7 +10673,7 @@
       </c>
       <c r="I80" s="23"/>
     </row>
-    <row r="81" spans="1:9" ht="90" hidden="1">
+    <row r="81" spans="1:9" ht="87">
       <c r="A81" s="21" t="s">
         <v>169</v>
       </c>
@@ -10705,7 +10698,7 @@
       </c>
       <c r="I81" s="23"/>
     </row>
-    <row r="82" spans="1:9" ht="90" hidden="1">
+    <row r="82" spans="1:9" ht="87">
       <c r="A82" s="21" t="s">
         <v>171</v>
       </c>
@@ -10730,7 +10723,7 @@
       </c>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" spans="1:9" ht="75" hidden="1">
+    <row r="83" spans="1:9" ht="87">
       <c r="A83" s="21" t="s">
         <v>173</v>
       </c>
@@ -10755,7 +10748,7 @@
       </c>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="1:9" ht="75" hidden="1">
+    <row r="84" spans="1:9" ht="87">
       <c r="A84" s="21" t="s">
         <v>175</v>
       </c>
@@ -10780,7 +10773,7 @@
       </c>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="1:9" ht="45" hidden="1">
+    <row r="85" spans="1:9" ht="58">
       <c r="A85" s="21" t="s">
         <v>177</v>
       </c>
@@ -10805,7 +10798,7 @@
       </c>
       <c r="I85" s="23"/>
     </row>
-    <row r="86" spans="1:9" ht="45" hidden="1">
+    <row r="86" spans="1:9" ht="58">
       <c r="A86" s="21" t="s">
         <v>179</v>
       </c>
@@ -10830,7 +10823,7 @@
       </c>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="1:9" ht="30" hidden="1">
+    <row r="87" spans="1:9" ht="29">
       <c r="A87" s="21" t="s">
         <v>181</v>
       </c>
@@ -10855,7 +10848,7 @@
       </c>
       <c r="I87" s="23"/>
     </row>
-    <row r="88" spans="1:9" ht="45" hidden="1">
+    <row r="88" spans="1:9" ht="58">
       <c r="A88" s="21" t="s">
         <v>183</v>
       </c>
@@ -10880,7 +10873,7 @@
       </c>
       <c r="I88" s="23"/>
     </row>
-    <row r="89" spans="1:9" ht="45" hidden="1">
+    <row r="89" spans="1:9" ht="43.5">
       <c r="A89" s="21" t="s">
         <v>186</v>
       </c>
@@ -10905,7 +10898,7 @@
       </c>
       <c r="I89" s="23"/>
     </row>
-    <row r="90" spans="1:9" ht="30" hidden="1">
+    <row r="90" spans="1:9" ht="29">
       <c r="A90" s="21" t="s">
         <v>188</v>
       </c>
@@ -10930,7 +10923,7 @@
       </c>
       <c r="I90" s="23"/>
     </row>
-    <row r="91" spans="1:9" hidden="1">
+    <row r="91" spans="1:9">
       <c r="A91" s="21" t="s">
         <v>190</v>
       </c>
@@ -10955,7 +10948,7 @@
       </c>
       <c r="I91" s="23"/>
     </row>
-    <row r="92" spans="1:9" ht="45" hidden="1">
+    <row r="92" spans="1:9" ht="43.5">
       <c r="A92" s="21" t="s">
         <v>192</v>
       </c>
@@ -10980,7 +10973,7 @@
       </c>
       <c r="I92" s="23"/>
     </row>
-    <row r="93" spans="1:9" ht="30" hidden="1">
+    <row r="93" spans="1:9" ht="29">
       <c r="A93" s="21" t="s">
         <v>194</v>
       </c>
@@ -11005,7 +10998,7 @@
       </c>
       <c r="I93" s="23"/>
     </row>
-    <row r="94" spans="1:9" ht="60" hidden="1">
+    <row r="94" spans="1:9" ht="58">
       <c r="A94" s="21" t="s">
         <v>196</v>
       </c>
@@ -11030,7 +11023,7 @@
       </c>
       <c r="I94" s="23"/>
     </row>
-    <row r="95" spans="1:9" ht="60" hidden="1">
+    <row r="95" spans="1:9" ht="58">
       <c r="A95" s="21" t="s">
         <v>198</v>
       </c>
@@ -11055,7 +11048,7 @@
       </c>
       <c r="I95" s="23"/>
     </row>
-    <row r="96" spans="1:9" ht="30" hidden="1">
+    <row r="96" spans="1:9" ht="29">
       <c r="A96" s="21" t="s">
         <v>200</v>
       </c>
@@ -11080,7 +11073,7 @@
       </c>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="1:9" ht="45" hidden="1">
+    <row r="97" spans="1:9" ht="58">
       <c r="A97" s="21" t="s">
         <v>203</v>
       </c>
@@ -11107,7 +11100,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="45" hidden="1">
+    <row r="98" spans="1:9" ht="43.5">
       <c r="A98" s="21" t="s">
         <v>206</v>
       </c>
@@ -11132,7 +11125,7 @@
       </c>
       <c r="I98" s="23"/>
     </row>
-    <row r="99" spans="1:9" ht="30" hidden="1">
+    <row r="99" spans="1:9" ht="29">
       <c r="A99" s="21" t="s">
         <v>208</v>
       </c>
@@ -11157,7 +11150,7 @@
       </c>
       <c r="I99" s="23"/>
     </row>
-    <row r="100" spans="1:9" ht="45" hidden="1">
+    <row r="100" spans="1:9" ht="43.5">
       <c r="A100" s="21" t="s">
         <v>210</v>
       </c>
@@ -11182,7 +11175,7 @@
       </c>
       <c r="I100" s="23"/>
     </row>
-    <row r="101" spans="1:9" ht="30" hidden="1">
+    <row r="101" spans="1:9" ht="29">
       <c r="A101" s="21" t="s">
         <v>212</v>
       </c>
@@ -11207,7 +11200,7 @@
       </c>
       <c r="I101" s="23"/>
     </row>
-    <row r="102" spans="1:9" ht="30" hidden="1">
+    <row r="102" spans="1:9" ht="29">
       <c r="A102" s="21" t="s">
         <v>215</v>
       </c>
@@ -11232,7 +11225,7 @@
       </c>
       <c r="I102" s="23"/>
     </row>
-    <row r="103" spans="1:9" ht="75" hidden="1">
+    <row r="103" spans="1:9" ht="72.5">
       <c r="A103" s="21" t="s">
         <v>217</v>
       </c>
@@ -11257,7 +11250,7 @@
       </c>
       <c r="I103" s="23"/>
     </row>
-    <row r="104" spans="1:9" ht="75" hidden="1">
+    <row r="104" spans="1:9" ht="72.5">
       <c r="A104" s="21" t="s">
         <v>219</v>
       </c>
@@ -11282,7 +11275,7 @@
       </c>
       <c r="I104" s="23"/>
     </row>
-    <row r="105" spans="1:9" hidden="1">
+    <row r="105" spans="1:9">
       <c r="A105" s="21" t="s">
         <v>221</v>
       </c>
@@ -11307,7 +11300,7 @@
       </c>
       <c r="I105" s="23"/>
     </row>
-    <row r="106" spans="1:9" ht="30" hidden="1">
+    <row r="106" spans="1:9" ht="29">
       <c r="A106" s="21" t="s">
         <v>223</v>
       </c>
@@ -11332,7 +11325,7 @@
       </c>
       <c r="I106" s="23"/>
     </row>
-    <row r="107" spans="1:9" hidden="1">
+    <row r="107" spans="1:9">
       <c r="A107" s="21" t="s">
         <v>225</v>
       </c>
@@ -11357,7 +11350,7 @@
       </c>
       <c r="I107" s="23"/>
     </row>
-    <row r="108" spans="1:9" ht="45" hidden="1">
+    <row r="108" spans="1:9" ht="43.5">
       <c r="A108" s="21" t="s">
         <v>227</v>
       </c>
@@ -11382,7 +11375,7 @@
       </c>
       <c r="I108" s="23"/>
     </row>
-    <row r="109" spans="1:9" hidden="1">
+    <row r="109" spans="1:9">
       <c r="A109" s="21" t="s">
         <v>230</v>
       </c>
@@ -11407,7 +11400,7 @@
       </c>
       <c r="I109" s="23"/>
     </row>
-    <row r="110" spans="1:9" hidden="1">
+    <row r="110" spans="1:9">
       <c r="A110" s="21" t="s">
         <v>232</v>
       </c>
@@ -11432,7 +11425,7 @@
       </c>
       <c r="I110" s="23"/>
     </row>
-    <row r="111" spans="1:9" ht="30" hidden="1">
+    <row r="111" spans="1:9" ht="29">
       <c r="A111" s="21" t="s">
         <v>234</v>
       </c>
@@ -11457,7 +11450,7 @@
       </c>
       <c r="I111" s="23"/>
     </row>
-    <row r="112" spans="1:9" ht="30" hidden="1">
+    <row r="112" spans="1:9" ht="29">
       <c r="A112" s="21" t="s">
         <v>236</v>
       </c>
@@ -11482,7 +11475,7 @@
       </c>
       <c r="I112" s="23"/>
     </row>
-    <row r="113" spans="1:9" ht="30" hidden="1">
+    <row r="113" spans="1:9" ht="43.5">
       <c r="A113" s="21" t="s">
         <v>239</v>
       </c>
@@ -11507,7 +11500,7 @@
       </c>
       <c r="I113" s="23"/>
     </row>
-    <row r="114" spans="1:9" ht="30" hidden="1">
+    <row r="114" spans="1:9" ht="29">
       <c r="A114" s="21" t="s">
         <v>241</v>
       </c>
@@ -11532,7 +11525,7 @@
       </c>
       <c r="I114" s="23"/>
     </row>
-    <row r="115" spans="1:9" ht="45" hidden="1">
+    <row r="115" spans="1:9" ht="43.5">
       <c r="A115" s="21" t="s">
         <v>243</v>
       </c>
@@ -11557,7 +11550,7 @@
       </c>
       <c r="I115" s="23"/>
     </row>
-    <row r="116" spans="1:9" ht="30" hidden="1">
+    <row r="116" spans="1:9" ht="29">
       <c r="A116" s="21" t="s">
         <v>245</v>
       </c>
@@ -11582,7 +11575,7 @@
       </c>
       <c r="I116" s="23"/>
     </row>
-    <row r="117" spans="1:9" ht="30" hidden="1">
+    <row r="117" spans="1:9" ht="29">
       <c r="A117" s="21" t="s">
         <v>247</v>
       </c>
@@ -11607,7 +11600,7 @@
       </c>
       <c r="I117" s="23"/>
     </row>
-    <row r="118" spans="1:9" hidden="1">
+    <row r="118" spans="1:9">
       <c r="A118" s="21" t="s">
         <v>249</v>
       </c>
@@ -11632,7 +11625,7 @@
       </c>
       <c r="I118" s="23"/>
     </row>
-    <row r="119" spans="1:9" hidden="1">
+    <row r="119" spans="1:9">
       <c r="A119" s="21" t="s">
         <v>251</v>
       </c>
@@ -11657,7 +11650,7 @@
       </c>
       <c r="I119" s="23"/>
     </row>
-    <row r="120" spans="1:9" hidden="1">
+    <row r="120" spans="1:9" ht="29">
       <c r="A120" s="21" t="s">
         <v>253</v>
       </c>
@@ -11682,7 +11675,7 @@
       </c>
       <c r="I120" s="23"/>
     </row>
-    <row r="121" spans="1:9" ht="45" hidden="1">
+    <row r="121" spans="1:9" ht="43.5">
       <c r="A121" s="21" t="s">
         <v>255</v>
       </c>
@@ -11707,7 +11700,7 @@
       </c>
       <c r="I121" s="23"/>
     </row>
-    <row r="122" spans="1:9" ht="30" hidden="1">
+    <row r="122" spans="1:9" ht="29">
       <c r="A122" s="21" t="s">
         <v>257</v>
       </c>
@@ -11732,7 +11725,7 @@
       </c>
       <c r="I122" s="23"/>
     </row>
-    <row r="123" spans="1:9" ht="45" hidden="1">
+    <row r="123" spans="1:9" ht="58">
       <c r="A123" s="21" t="s">
         <v>259</v>
       </c>
@@ -11757,7 +11750,7 @@
       </c>
       <c r="I123" s="23"/>
     </row>
-    <row r="124" spans="1:9" ht="30" hidden="1">
+    <row r="124" spans="1:9" ht="29">
       <c r="A124" s="21" t="s">
         <v>261</v>
       </c>
@@ -11782,7 +11775,7 @@
       </c>
       <c r="I124" s="23"/>
     </row>
-    <row r="125" spans="1:9" ht="120" hidden="1">
+    <row r="125" spans="1:9" ht="116">
       <c r="A125" s="21" t="s">
         <v>263</v>
       </c>
@@ -11807,7 +11800,7 @@
       </c>
       <c r="I125" s="23"/>
     </row>
-    <row r="126" spans="1:9" ht="30" hidden="1">
+    <row r="126" spans="1:9" ht="29">
       <c r="A126" s="21" t="s">
         <v>265</v>
       </c>
@@ -11832,7 +11825,7 @@
       </c>
       <c r="I126" s="23"/>
     </row>
-    <row r="127" spans="1:9" ht="90" hidden="1">
+    <row r="127" spans="1:9" ht="87">
       <c r="A127" s="21" t="s">
         <v>267</v>
       </c>
@@ -11857,7 +11850,7 @@
       </c>
       <c r="I127" s="23"/>
     </row>
-    <row r="128" spans="1:9" ht="90" hidden="1">
+    <row r="128" spans="1:9" ht="87">
       <c r="A128" s="21" t="s">
         <v>269</v>
       </c>
@@ -11882,7 +11875,7 @@
       </c>
       <c r="I128" s="23"/>
     </row>
-    <row r="129" spans="1:9" ht="75" hidden="1">
+    <row r="129" spans="1:9" ht="72.5">
       <c r="A129" s="21" t="s">
         <v>271</v>
       </c>
@@ -11907,7 +11900,7 @@
       </c>
       <c r="I129" s="23"/>
     </row>
-    <row r="130" spans="1:9" ht="90" hidden="1">
+    <row r="130" spans="1:9" ht="101.5">
       <c r="A130" s="21" t="s">
         <v>273</v>
       </c>
@@ -11932,7 +11925,7 @@
       </c>
       <c r="I130" s="23"/>
     </row>
-    <row r="131" spans="1:9" ht="45" hidden="1">
+    <row r="131" spans="1:9" ht="43.5">
       <c r="A131" s="21" t="s">
         <v>275</v>
       </c>
@@ -11957,7 +11950,7 @@
       </c>
       <c r="I131" s="23"/>
     </row>
-    <row r="132" spans="1:9" ht="120" hidden="1">
+    <row r="132" spans="1:9" ht="116">
       <c r="A132" s="21" t="s">
         <v>277</v>
       </c>
@@ -11982,7 +11975,7 @@
       </c>
       <c r="I132" s="23"/>
     </row>
-    <row r="133" spans="1:9" hidden="1">
+    <row r="133" spans="1:9" ht="29">
       <c r="A133" s="21" t="s">
         <v>279</v>
       </c>
@@ -12007,7 +12000,7 @@
       </c>
       <c r="I133" s="23"/>
     </row>
-    <row r="134" spans="1:9" ht="30" hidden="1">
+    <row r="134" spans="1:9" ht="29">
       <c r="A134" s="21" t="s">
         <v>281</v>
       </c>
@@ -12032,7 +12025,7 @@
       </c>
       <c r="I134" s="23"/>
     </row>
-    <row r="135" spans="1:9" ht="45" hidden="1">
+    <row r="135" spans="1:9" ht="43.5">
       <c r="A135" s="21" t="s">
         <v>283</v>
       </c>
@@ -12057,7 +12050,7 @@
       </c>
       <c r="I135" s="23"/>
     </row>
-    <row r="136" spans="1:9" ht="30" hidden="1">
+    <row r="136" spans="1:9" ht="29">
       <c r="A136" s="21" t="s">
         <v>286</v>
       </c>
@@ -12082,7 +12075,7 @@
       </c>
       <c r="I136" s="23"/>
     </row>
-    <row r="137" spans="1:9" ht="30" hidden="1">
+    <row r="137" spans="1:9" ht="29">
       <c r="A137" s="21" t="s">
         <v>288</v>
       </c>
@@ -12107,7 +12100,7 @@
       </c>
       <c r="I137" s="23"/>
     </row>
-    <row r="138" spans="1:9" ht="45" hidden="1">
+    <row r="138" spans="1:9" ht="43.5">
       <c r="A138" s="21" t="s">
         <v>290</v>
       </c>
@@ -12132,7 +12125,7 @@
       </c>
       <c r="I138" s="23"/>
     </row>
-    <row r="139" spans="1:9" ht="30" hidden="1">
+    <row r="139" spans="1:9" ht="43.5">
       <c r="A139" s="21" t="s">
         <v>292</v>
       </c>
@@ -12157,7 +12150,7 @@
       </c>
       <c r="I139" s="23"/>
     </row>
-    <row r="140" spans="1:9" ht="120" hidden="1">
+    <row r="140" spans="1:9" ht="116">
       <c r="A140" s="21" t="s">
         <v>294</v>
       </c>
@@ -12182,7 +12175,7 @@
       </c>
       <c r="I140" s="23"/>
     </row>
-    <row r="141" spans="1:9" hidden="1">
+    <row r="141" spans="1:9">
       <c r="A141" s="21" t="s">
         <v>296</v>
       </c>
@@ -12207,7 +12200,7 @@
       </c>
       <c r="I141" s="23"/>
     </row>
-    <row r="142" spans="1:9" hidden="1">
+    <row r="142" spans="1:9">
       <c r="A142" s="21" t="s">
         <v>299</v>
       </c>
@@ -12232,7 +12225,7 @@
       </c>
       <c r="I142" s="23"/>
     </row>
-    <row r="143" spans="1:9" ht="30" hidden="1">
+    <row r="143" spans="1:9" ht="29">
       <c r="A143" s="21" t="s">
         <v>301</v>
       </c>
@@ -12257,7 +12250,7 @@
       </c>
       <c r="I143" s="23"/>
     </row>
-    <row r="144" spans="1:9" ht="75" hidden="1">
+    <row r="144" spans="1:9" ht="72.5">
       <c r="A144" s="21" t="s">
         <v>303</v>
       </c>
@@ -12282,7 +12275,7 @@
       </c>
       <c r="I144" s="23"/>
     </row>
-    <row r="145" spans="1:9" ht="45" hidden="1">
+    <row r="145" spans="1:9" ht="43.5">
       <c r="A145" s="21" t="s">
         <v>305</v>
       </c>
@@ -12307,7 +12300,7 @@
       </c>
       <c r="I145" s="23"/>
     </row>
-    <row r="146" spans="1:9" ht="45" hidden="1">
+    <row r="146" spans="1:9" ht="43.5">
       <c r="A146" s="21" t="s">
         <v>307</v>
       </c>
@@ -12332,7 +12325,7 @@
       </c>
       <c r="I146" s="23"/>
     </row>
-    <row r="147" spans="1:9" ht="45" hidden="1">
+    <row r="147" spans="1:9" ht="43.5">
       <c r="A147" s="21" t="s">
         <v>309</v>
       </c>
@@ -12357,7 +12350,7 @@
       </c>
       <c r="I147" s="23"/>
     </row>
-    <row r="148" spans="1:9" ht="45" hidden="1">
+    <row r="148" spans="1:9" ht="43.5">
       <c r="A148" s="21" t="s">
         <v>311</v>
       </c>
@@ -12382,7 +12375,7 @@
       </c>
       <c r="I148" s="23"/>
     </row>
-    <row r="149" spans="1:9" ht="30" hidden="1">
+    <row r="149" spans="1:9" ht="29">
       <c r="A149" s="21" t="s">
         <v>313</v>
       </c>
@@ -12407,7 +12400,7 @@
       </c>
       <c r="I149" s="23"/>
     </row>
-    <row r="150" spans="1:9" ht="30" hidden="1">
+    <row r="150" spans="1:9" ht="29">
       <c r="A150" s="21" t="s">
         <v>315</v>
       </c>
@@ -12432,7 +12425,7 @@
       </c>
       <c r="I150" s="23"/>
     </row>
-    <row r="151" spans="1:9" ht="30" hidden="1">
+    <row r="151" spans="1:9" ht="29">
       <c r="A151" s="21" t="s">
         <v>317</v>
       </c>
@@ -12457,7 +12450,7 @@
       </c>
       <c r="I151" s="23"/>
     </row>
-    <row r="152" spans="1:9" hidden="1">
+    <row r="152" spans="1:9" ht="29">
       <c r="A152" s="21" t="s">
         <v>319</v>
       </c>
@@ -12482,7 +12475,7 @@
       </c>
       <c r="I152" s="23"/>
     </row>
-    <row r="153" spans="1:9" ht="30" hidden="1">
+    <row r="153" spans="1:9" ht="29">
       <c r="A153" s="21" t="s">
         <v>322</v>
       </c>
@@ -12507,7 +12500,7 @@
       </c>
       <c r="I153" s="23"/>
     </row>
-    <row r="154" spans="1:9" ht="30" hidden="1">
+    <row r="154" spans="1:9" ht="29">
       <c r="A154" s="21" t="s">
         <v>324</v>
       </c>
@@ -12532,7 +12525,7 @@
       </c>
       <c r="I154" s="23"/>
     </row>
-    <row r="155" spans="1:9" ht="60" hidden="1">
+    <row r="155" spans="1:9" ht="58">
       <c r="A155" s="21" t="s">
         <v>326</v>
       </c>
@@ -12557,7 +12550,7 @@
       </c>
       <c r="I155" s="23"/>
     </row>
-    <row r="156" spans="1:9" ht="60" hidden="1">
+    <row r="156" spans="1:9" ht="58">
       <c r="A156" s="21" t="s">
         <v>328</v>
       </c>
@@ -12582,7 +12575,7 @@
       </c>
       <c r="I156" s="23"/>
     </row>
-    <row r="157" spans="1:9" ht="75" hidden="1">
+    <row r="157" spans="1:9" ht="72.5">
       <c r="A157" s="21" t="s">
         <v>330</v>
       </c>
@@ -12607,7 +12600,7 @@
       </c>
       <c r="I157" s="23"/>
     </row>
-    <row r="158" spans="1:9" ht="75" hidden="1">
+    <row r="158" spans="1:9" ht="72.5">
       <c r="A158" s="21" t="s">
         <v>332</v>
       </c>
@@ -12632,7 +12625,7 @@
       </c>
       <c r="I158" s="23"/>
     </row>
-    <row r="159" spans="1:9" ht="60" hidden="1">
+    <row r="159" spans="1:9" ht="58">
       <c r="A159" s="21" t="s">
         <v>334</v>
       </c>
@@ -12657,7 +12650,7 @@
       </c>
       <c r="I159" s="23"/>
     </row>
-    <row r="160" spans="1:9" ht="45" hidden="1">
+    <row r="160" spans="1:9" ht="43.5">
       <c r="A160" s="21" t="s">
         <v>336</v>
       </c>
@@ -12682,7 +12675,7 @@
       </c>
       <c r="I160" s="23"/>
     </row>
-    <row r="161" spans="1:9" hidden="1">
+    <row r="161" spans="1:9" ht="29">
       <c r="A161" s="21" t="s">
         <v>338</v>
       </c>
@@ -12707,7 +12700,7 @@
       </c>
       <c r="I161" s="23"/>
     </row>
-    <row r="162" spans="1:9" hidden="1">
+    <row r="162" spans="1:9">
       <c r="A162" s="21" t="s">
         <v>341</v>
       </c>
@@ -12732,7 +12725,7 @@
       </c>
       <c r="I162" s="23"/>
     </row>
-    <row r="163" spans="1:9" hidden="1">
+    <row r="163" spans="1:9">
       <c r="A163" s="21" t="s">
         <v>343</v>
       </c>
@@ -12757,7 +12750,7 @@
       </c>
       <c r="I163" s="23"/>
     </row>
-    <row r="164" spans="1:9" ht="60" hidden="1">
+    <row r="164" spans="1:9" ht="72.5">
       <c r="A164" s="21" t="s">
         <v>345</v>
       </c>
@@ -12784,7 +12777,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="45" hidden="1">
+    <row r="165" spans="1:9" ht="43.5">
       <c r="A165" s="21" t="s">
         <v>348</v>
       </c>
@@ -12809,7 +12802,7 @@
       </c>
       <c r="I165" s="23"/>
     </row>
-    <row r="166" spans="1:9" ht="30" hidden="1">
+    <row r="166" spans="1:9" ht="29">
       <c r="A166" s="21" t="s">
         <v>350</v>
       </c>
@@ -12834,7 +12827,7 @@
       </c>
       <c r="I166" s="23"/>
     </row>
-    <row r="167" spans="1:9" ht="30" hidden="1">
+    <row r="167" spans="1:9" ht="29">
       <c r="A167" s="21" t="s">
         <v>352</v>
       </c>
@@ -12859,7 +12852,7 @@
       </c>
       <c r="I167" s="23"/>
     </row>
-    <row r="168" spans="1:9" ht="120" hidden="1">
+    <row r="168" spans="1:9" ht="130.5">
       <c r="A168" s="21" t="s">
         <v>354</v>
       </c>
@@ -12884,7 +12877,7 @@
       </c>
       <c r="I168" s="23"/>
     </row>
-    <row r="169" spans="1:9" ht="30" hidden="1">
+    <row r="169" spans="1:9" ht="29">
       <c r="A169" s="21" t="s">
         <v>356</v>
       </c>
@@ -12909,7 +12902,7 @@
       </c>
       <c r="I169" s="23"/>
     </row>
-    <row r="170" spans="1:9" hidden="1">
+    <row r="170" spans="1:9">
       <c r="A170" s="21" t="s">
         <v>359</v>
       </c>
@@ -12934,7 +12927,7 @@
       </c>
       <c r="I170" s="23"/>
     </row>
-    <row r="171" spans="1:9" ht="30" hidden="1">
+    <row r="171" spans="1:9" ht="29">
       <c r="A171" s="21" t="s">
         <v>361</v>
       </c>
@@ -12959,7 +12952,7 @@
       </c>
       <c r="I171" s="23"/>
     </row>
-    <row r="172" spans="1:9" ht="60" hidden="1">
+    <row r="172" spans="1:9" ht="58">
       <c r="A172" s="21" t="s">
         <v>363</v>
       </c>
@@ -12984,7 +12977,7 @@
       </c>
       <c r="I172" s="23"/>
     </row>
-    <row r="173" spans="1:9" ht="45" hidden="1">
+    <row r="173" spans="1:9" ht="43.5">
       <c r="A173" s="21" t="s">
         <v>365</v>
       </c>
@@ -13009,7 +13002,7 @@
       </c>
       <c r="I173" s="23"/>
     </row>
-    <row r="174" spans="1:9" ht="45" hidden="1">
+    <row r="174" spans="1:9" ht="43.5">
       <c r="A174" s="21" t="s">
         <v>367</v>
       </c>
@@ -13034,7 +13027,7 @@
       </c>
       <c r="I174" s="23"/>
     </row>
-    <row r="175" spans="1:9" ht="30" hidden="1">
+    <row r="175" spans="1:9" ht="29">
       <c r="A175" s="21" t="s">
         <v>369</v>
       </c>
@@ -13059,7 +13052,7 @@
       </c>
       <c r="I175" s="23"/>
     </row>
-    <row r="176" spans="1:9" ht="30" hidden="1">
+    <row r="176" spans="1:9" ht="29">
       <c r="A176" s="21" t="s">
         <v>371</v>
       </c>
@@ -13084,7 +13077,7 @@
       </c>
       <c r="I176" s="23"/>
     </row>
-    <row r="177" spans="1:9" ht="30" hidden="1">
+    <row r="177" spans="1:9" ht="29">
       <c r="A177" s="21" t="s">
         <v>374</v>
       </c>
@@ -13109,7 +13102,7 @@
       </c>
       <c r="I177" s="23"/>
     </row>
-    <row r="178" spans="1:9" hidden="1">
+    <row r="178" spans="1:9">
       <c r="A178" s="21" t="s">
         <v>376</v>
       </c>
@@ -13134,7 +13127,7 @@
       </c>
       <c r="I178" s="23"/>
     </row>
-    <row r="179" spans="1:9" hidden="1">
+    <row r="179" spans="1:9">
       <c r="A179" s="21" t="s">
         <v>378</v>
       </c>
@@ -13159,7 +13152,7 @@
       </c>
       <c r="I179" s="23"/>
     </row>
-    <row r="180" spans="1:9" ht="30" hidden="1">
+    <row r="180" spans="1:9" ht="29">
       <c r="A180" s="21" t="s">
         <v>380</v>
       </c>
@@ -13184,7 +13177,7 @@
       </c>
       <c r="I180" s="23"/>
     </row>
-    <row r="181" spans="1:9" ht="30" hidden="1">
+    <row r="181" spans="1:9" ht="43.5">
       <c r="A181" s="21" t="s">
         <v>382</v>
       </c>
@@ -13209,7 +13202,7 @@
       </c>
       <c r="I181" s="23"/>
     </row>
-    <row r="182" spans="1:9" hidden="1">
+    <row r="182" spans="1:9">
       <c r="A182" s="21" t="s">
         <v>385</v>
       </c>
@@ -13234,7 +13227,7 @@
       </c>
       <c r="I182" s="23"/>
     </row>
-    <row r="183" spans="1:9" ht="30" hidden="1">
+    <row r="183" spans="1:9" ht="29">
       <c r="A183" s="21" t="s">
         <v>387</v>
       </c>
@@ -13259,7 +13252,7 @@
       </c>
       <c r="I183" s="23"/>
     </row>
-    <row r="184" spans="1:9" hidden="1">
+    <row r="184" spans="1:9">
       <c r="A184" s="21" t="s">
         <v>389</v>
       </c>
@@ -13284,7 +13277,7 @@
       </c>
       <c r="I184" s="23"/>
     </row>
-    <row r="185" spans="1:9" hidden="1">
+    <row r="185" spans="1:9" ht="29">
       <c r="A185" s="21" t="s">
         <v>391</v>
       </c>
@@ -13309,7 +13302,7 @@
       </c>
       <c r="I185" s="23"/>
     </row>
-    <row r="186" spans="1:9" ht="30" hidden="1">
+    <row r="186" spans="1:9" ht="29">
       <c r="A186" s="21" t="s">
         <v>393</v>
       </c>
@@ -13334,7 +13327,7 @@
       </c>
       <c r="I186" s="23"/>
     </row>
-    <row r="187" spans="1:9" hidden="1">
+    <row r="187" spans="1:9" ht="29">
       <c r="A187" s="21" t="s">
         <v>395</v>
       </c>
@@ -13359,7 +13352,7 @@
       </c>
       <c r="I187" s="23"/>
     </row>
-    <row r="188" spans="1:9" hidden="1">
+    <row r="188" spans="1:9">
       <c r="A188" s="21" t="s">
         <v>397</v>
       </c>
@@ -13384,7 +13377,7 @@
       </c>
       <c r="I188" s="23"/>
     </row>
-    <row r="189" spans="1:9" hidden="1">
+    <row r="189" spans="1:9">
       <c r="A189" s="21" t="s">
         <v>400</v>
       </c>
@@ -13409,7 +13402,7 @@
       </c>
       <c r="I189" s="23"/>
     </row>
-    <row r="190" spans="1:9" ht="30" hidden="1">
+    <row r="190" spans="1:9" ht="29">
       <c r="A190" s="21" t="s">
         <v>402</v>
       </c>
@@ -13434,7 +13427,7 @@
       </c>
       <c r="I190" s="23"/>
     </row>
-    <row r="191" spans="1:9" hidden="1">
+    <row r="191" spans="1:9">
       <c r="A191" s="21" t="s">
         <v>404</v>
       </c>
@@ -13459,7 +13452,7 @@
       </c>
       <c r="I191" s="23"/>
     </row>
-    <row r="192" spans="1:9" hidden="1">
+    <row r="192" spans="1:9" ht="29">
       <c r="A192" s="21" t="s">
         <v>406</v>
       </c>
@@ -13484,7 +13477,7 @@
       </c>
       <c r="I192" s="23"/>
     </row>
-    <row r="193" spans="1:9" hidden="1">
+    <row r="193" spans="1:9">
       <c r="A193" s="21" t="s">
         <v>408</v>
       </c>
@@ -13509,7 +13502,7 @@
       </c>
       <c r="I193" s="23"/>
     </row>
-    <row r="194" spans="1:9" hidden="1">
+    <row r="194" spans="1:9">
       <c r="A194" s="21" t="s">
         <v>411</v>
       </c>
@@ -13534,7 +13527,7 @@
       </c>
       <c r="I194" s="23"/>
     </row>
-    <row r="195" spans="1:9" ht="30" hidden="1">
+    <row r="195" spans="1:9" ht="29">
       <c r="A195" s="21" t="s">
         <v>413</v>
       </c>
@@ -13559,7 +13552,7 @@
       </c>
       <c r="I195" s="23"/>
     </row>
-    <row r="196" spans="1:9" hidden="1">
+    <row r="196" spans="1:9">
       <c r="A196" s="21" t="s">
         <v>415</v>
       </c>
@@ -13584,7 +13577,7 @@
       </c>
       <c r="I196" s="23"/>
     </row>
-    <row r="197" spans="1:9" ht="30" hidden="1">
+    <row r="197" spans="1:9" ht="29">
       <c r="A197" s="21" t="s">
         <v>417</v>
       </c>
@@ -13609,7 +13602,7 @@
       </c>
       <c r="I197" s="23"/>
     </row>
-    <row r="198" spans="1:9" ht="45" hidden="1">
+    <row r="198" spans="1:9" ht="43.5">
       <c r="A198" s="21" t="s">
         <v>419</v>
       </c>
@@ -13634,7 +13627,7 @@
       </c>
       <c r="I198" s="23"/>
     </row>
-    <row r="199" spans="1:9" ht="30" hidden="1">
+    <row r="199" spans="1:9" ht="29">
       <c r="A199" s="21" t="s">
         <v>421</v>
       </c>
@@ -13659,7 +13652,7 @@
       </c>
       <c r="I199" s="23"/>
     </row>
-    <row r="200" spans="1:9" ht="45" hidden="1">
+    <row r="200" spans="1:9" ht="43.5">
       <c r="A200" s="21" t="s">
         <v>423</v>
       </c>
@@ -13684,7 +13677,7 @@
       </c>
       <c r="I200" s="23"/>
     </row>
-    <row r="201" spans="1:9" hidden="1">
+    <row r="201" spans="1:9" ht="29">
       <c r="A201" s="21" t="s">
         <v>426</v>
       </c>
@@ -13709,7 +13702,7 @@
       </c>
       <c r="I201" s="23"/>
     </row>
-    <row r="202" spans="1:9" ht="45" hidden="1">
+    <row r="202" spans="1:9" ht="43.5">
       <c r="A202" s="21" t="s">
         <v>428</v>
       </c>
@@ -13734,7 +13727,7 @@
       </c>
       <c r="I202" s="23"/>
     </row>
-    <row r="203" spans="1:9" ht="30" hidden="1">
+    <row r="203" spans="1:9" ht="29">
       <c r="A203" s="21" t="s">
         <v>430</v>
       </c>
@@ -13759,7 +13752,7 @@
       </c>
       <c r="I203" s="23"/>
     </row>
-    <row r="204" spans="1:9" ht="45" hidden="1">
+    <row r="204" spans="1:9" ht="58">
       <c r="A204" s="21" t="s">
         <v>432</v>
       </c>
@@ -13784,7 +13777,7 @@
       </c>
       <c r="I204" s="23"/>
     </row>
-    <row r="205" spans="1:9" ht="45" hidden="1">
+    <row r="205" spans="1:9" ht="43.5">
       <c r="A205" s="21" t="s">
         <v>435</v>
       </c>
@@ -13809,7 +13802,7 @@
       </c>
       <c r="I205" s="23"/>
     </row>
-    <row r="206" spans="1:9" ht="30" hidden="1">
+    <row r="206" spans="1:9" ht="29">
       <c r="A206" s="21" t="s">
         <v>437</v>
       </c>
@@ -13834,7 +13827,7 @@
       </c>
       <c r="I206" s="23"/>
     </row>
-    <row r="207" spans="1:9" hidden="1">
+    <row r="207" spans="1:9">
       <c r="A207" s="21" t="s">
         <v>439</v>
       </c>
@@ -13859,7 +13852,7 @@
       </c>
       <c r="I207" s="23"/>
     </row>
-    <row r="208" spans="1:9" ht="30" hidden="1">
+    <row r="208" spans="1:9" ht="29">
       <c r="A208" s="21" t="s">
         <v>441</v>
       </c>
@@ -13884,7 +13877,7 @@
       </c>
       <c r="I208" s="23"/>
     </row>
-    <row r="209" spans="1:9" ht="30" hidden="1">
+    <row r="209" spans="1:9" ht="29">
       <c r="A209" s="21" t="s">
         <v>443</v>
       </c>
@@ -13909,7 +13902,7 @@
       </c>
       <c r="I209" s="23"/>
     </row>
-    <row r="210" spans="1:9" hidden="1">
+    <row r="210" spans="1:9" ht="29">
       <c r="A210" s="21" t="s">
         <v>445</v>
       </c>
@@ -13934,7 +13927,7 @@
       </c>
       <c r="I210" s="23"/>
     </row>
-    <row r="211" spans="1:9" ht="30" hidden="1">
+    <row r="211" spans="1:9" ht="29">
       <c r="A211" s="21" t="s">
         <v>447</v>
       </c>
@@ -13959,7 +13952,7 @@
       </c>
       <c r="I211" s="23"/>
     </row>
-    <row r="212" spans="1:9" ht="45" hidden="1">
+    <row r="212" spans="1:9" ht="43.5">
       <c r="A212" s="21" t="s">
         <v>449</v>
       </c>
@@ -13984,7 +13977,7 @@
       </c>
       <c r="I212" s="23"/>
     </row>
-    <row r="213" spans="1:9" hidden="1">
+    <row r="213" spans="1:9">
       <c r="A213" s="21" t="s">
         <v>452</v>
       </c>
@@ -14009,7 +14002,7 @@
       </c>
       <c r="I213" s="23"/>
     </row>
-    <row r="214" spans="1:9" ht="45" hidden="1">
+    <row r="214" spans="1:9" ht="43.5">
       <c r="A214" s="21" t="s">
         <v>454</v>
       </c>
@@ -14034,7 +14027,7 @@
       </c>
       <c r="I214" s="23"/>
     </row>
-    <row r="215" spans="1:9" ht="30" hidden="1">
+    <row r="215" spans="1:9" ht="29">
       <c r="A215" s="21" t="s">
         <v>456</v>
       </c>
@@ -14059,7 +14052,7 @@
       </c>
       <c r="I215" s="23"/>
     </row>
-    <row r="216" spans="1:9" ht="30" hidden="1">
+    <row r="216" spans="1:9" ht="29">
       <c r="A216" s="21" t="s">
         <v>458</v>
       </c>
@@ -14084,7 +14077,7 @@
       </c>
       <c r="I216" s="23"/>
     </row>
-    <row r="217" spans="1:9" hidden="1">
+    <row r="217" spans="1:9">
       <c r="A217" s="21" t="s">
         <v>461</v>
       </c>
@@ -14109,7 +14102,7 @@
       </c>
       <c r="I217" s="23"/>
     </row>
-    <row r="218" spans="1:9" ht="30" hidden="1">
+    <row r="218" spans="1:9" ht="29">
       <c r="A218" s="21" t="s">
         <v>463</v>
       </c>
@@ -14134,7 +14127,7 @@
       </c>
       <c r="I218" s="23"/>
     </row>
-    <row r="219" spans="1:9" ht="30" hidden="1">
+    <row r="219" spans="1:9" ht="29">
       <c r="A219" s="21" t="s">
         <v>465</v>
       </c>
@@ -14159,7 +14152,7 @@
       </c>
       <c r="I219" s="23"/>
     </row>
-    <row r="220" spans="1:9" ht="30" hidden="1">
+    <row r="220" spans="1:9" ht="29">
       <c r="A220" s="21" t="s">
         <v>467</v>
       </c>
@@ -14184,7 +14177,7 @@
       </c>
       <c r="I220" s="23"/>
     </row>
-    <row r="221" spans="1:9" ht="30" hidden="1">
+    <row r="221" spans="1:9" ht="29">
       <c r="A221" s="21" t="s">
         <v>470</v>
       </c>
@@ -14209,7 +14202,7 @@
       </c>
       <c r="I221" s="23"/>
     </row>
-    <row r="222" spans="1:9" ht="30" hidden="1">
+    <row r="222" spans="1:9" ht="29">
       <c r="A222" s="21" t="s">
         <v>472</v>
       </c>
@@ -14234,7 +14227,7 @@
       </c>
       <c r="I222" s="23"/>
     </row>
-    <row r="223" spans="1:9" ht="30" hidden="1">
+    <row r="223" spans="1:9" ht="29">
       <c r="A223" s="21" t="s">
         <v>474</v>
       </c>
@@ -14259,7 +14252,7 @@
       </c>
       <c r="I223" s="23"/>
     </row>
-    <row r="224" spans="1:9" hidden="1">
+    <row r="224" spans="1:9">
       <c r="A224" s="21" t="s">
         <v>476</v>
       </c>
@@ -14284,7 +14277,7 @@
       </c>
       <c r="I224" s="23"/>
     </row>
-    <row r="225" spans="1:9" hidden="1">
+    <row r="225" spans="1:9">
       <c r="A225" s="21" t="s">
         <v>478</v>
       </c>
@@ -14309,7 +14302,7 @@
       </c>
       <c r="I225" s="23"/>
     </row>
-    <row r="226" spans="1:9" hidden="1">
+    <row r="226" spans="1:9">
       <c r="A226" s="21" t="s">
         <v>480</v>
       </c>
@@ -14334,7 +14327,7 @@
       </c>
       <c r="I226" s="23"/>
     </row>
-    <row r="227" spans="1:9" hidden="1">
+    <row r="227" spans="1:9">
       <c r="A227" s="21" t="s">
         <v>482</v>
       </c>
@@ -14359,7 +14352,7 @@
       </c>
       <c r="I227" s="23"/>
     </row>
-    <row r="228" spans="1:9" hidden="1">
+    <row r="228" spans="1:9">
       <c r="A228" s="21" t="s">
         <v>484</v>
       </c>
@@ -14384,7 +14377,7 @@
       </c>
       <c r="I228" s="23"/>
     </row>
-    <row r="229" spans="1:9" hidden="1">
+    <row r="229" spans="1:9">
       <c r="A229" s="21" t="s">
         <v>487</v>
       </c>
@@ -14409,7 +14402,7 @@
       </c>
       <c r="I229" s="23"/>
     </row>
-    <row r="230" spans="1:9" ht="30" hidden="1">
+    <row r="230" spans="1:9" ht="29">
       <c r="A230" s="21" t="s">
         <v>489</v>
       </c>
@@ -14434,7 +14427,7 @@
       </c>
       <c r="I230" s="23"/>
     </row>
-    <row r="231" spans="1:9" ht="30" hidden="1">
+    <row r="231" spans="1:9" ht="29">
       <c r="A231" s="21" t="s">
         <v>491</v>
       </c>
@@ -14459,7 +14452,7 @@
       </c>
       <c r="I231" s="23"/>
     </row>
-    <row r="232" spans="1:9" hidden="1">
+    <row r="232" spans="1:9">
       <c r="A232" s="21" t="s">
         <v>493</v>
       </c>
@@ -14484,7 +14477,7 @@
       </c>
       <c r="I232" s="23"/>
     </row>
-    <row r="233" spans="1:9" hidden="1">
+    <row r="233" spans="1:9">
       <c r="A233" s="21" t="s">
         <v>495</v>
       </c>
@@ -14509,7 +14502,7 @@
       </c>
       <c r="I233" s="23"/>
     </row>
-    <row r="234" spans="1:9" ht="30" hidden="1">
+    <row r="234" spans="1:9" ht="29">
       <c r="A234" s="21" t="s">
         <v>497</v>
       </c>
@@ -14534,7 +14527,7 @@
       </c>
       <c r="I234" s="23"/>
     </row>
-    <row r="235" spans="1:9" ht="30" hidden="1">
+    <row r="235" spans="1:9" ht="29">
       <c r="A235" s="21" t="s">
         <v>499</v>
       </c>
@@ -14561,7 +14554,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1">
+    <row r="236" spans="1:9">
       <c r="A236" s="21" t="s">
         <v>502</v>
       </c>
@@ -14586,7 +14579,7 @@
       </c>
       <c r="I236" s="23"/>
     </row>
-    <row r="237" spans="1:9" ht="30" hidden="1">
+    <row r="237" spans="1:9" ht="29">
       <c r="A237" s="21" t="s">
         <v>504</v>
       </c>
@@ -14611,7 +14604,7 @@
       </c>
       <c r="I237" s="23"/>
     </row>
-    <row r="238" spans="1:9" ht="30" hidden="1">
+    <row r="238" spans="1:9" ht="29">
       <c r="A238" s="21" t="s">
         <v>506</v>
       </c>
@@ -14636,7 +14629,7 @@
       </c>
       <c r="I238" s="23"/>
     </row>
-    <row r="239" spans="1:9" hidden="1">
+    <row r="239" spans="1:9">
       <c r="A239" s="21" t="s">
         <v>508</v>
       </c>
@@ -14661,7 +14654,7 @@
       </c>
       <c r="I239" s="23"/>
     </row>
-    <row r="240" spans="1:9" hidden="1">
+    <row r="240" spans="1:9">
       <c r="A240" s="21" t="s">
         <v>510</v>
       </c>
@@ -14686,7 +14679,7 @@
       </c>
       <c r="I240" s="23"/>
     </row>
-    <row r="241" spans="1:9" ht="30" hidden="1">
+    <row r="241" spans="1:9" ht="29">
       <c r="A241" s="21" t="s">
         <v>512</v>
       </c>
@@ -14711,7 +14704,7 @@
       </c>
       <c r="I241" s="23"/>
     </row>
-    <row r="242" spans="1:9" hidden="1">
+    <row r="242" spans="1:9">
       <c r="A242" s="21" t="s">
         <v>514</v>
       </c>
@@ -14736,7 +14729,7 @@
       </c>
       <c r="I242" s="23"/>
     </row>
-    <row r="243" spans="1:9" hidden="1">
+    <row r="243" spans="1:9">
       <c r="A243" s="21" t="s">
         <v>516</v>
       </c>
@@ -14761,7 +14754,7 @@
       </c>
       <c r="I243" s="23"/>
     </row>
-    <row r="244" spans="1:9" hidden="1">
+    <row r="244" spans="1:9">
       <c r="A244" s="21" t="s">
         <v>518</v>
       </c>
@@ -14786,7 +14779,7 @@
       </c>
       <c r="I244" s="23"/>
     </row>
-    <row r="245" spans="1:9" ht="30" hidden="1">
+    <row r="245" spans="1:9" ht="29">
       <c r="A245" s="21" t="s">
         <v>520</v>
       </c>
@@ -14811,7 +14804,7 @@
       </c>
       <c r="I245" s="23"/>
     </row>
-    <row r="246" spans="1:9" hidden="1">
+    <row r="246" spans="1:9">
       <c r="A246" s="21" t="s">
         <v>522</v>
       </c>
@@ -14836,7 +14829,7 @@
       </c>
       <c r="I246" s="23"/>
     </row>
-    <row r="247" spans="1:9" hidden="1">
+    <row r="247" spans="1:9">
       <c r="A247" s="21" t="s">
         <v>524</v>
       </c>
@@ -14861,7 +14854,7 @@
       </c>
       <c r="I247" s="23"/>
     </row>
-    <row r="248" spans="1:9" hidden="1">
+    <row r="248" spans="1:9">
       <c r="A248" s="21" t="s">
         <v>526</v>
       </c>
@@ -14886,7 +14879,7 @@
       </c>
       <c r="I248" s="23"/>
     </row>
-    <row r="249" spans="1:9" ht="30" hidden="1">
+    <row r="249" spans="1:9" ht="29">
       <c r="A249" s="21" t="s">
         <v>528</v>
       </c>
@@ -14911,7 +14904,7 @@
       </c>
       <c r="I249" s="23"/>
     </row>
-    <row r="250" spans="1:9" hidden="1">
+    <row r="250" spans="1:9">
       <c r="A250" s="21" t="s">
         <v>530</v>
       </c>
@@ -14936,7 +14929,7 @@
       </c>
       <c r="I250" s="23"/>
     </row>
-    <row r="251" spans="1:9" hidden="1">
+    <row r="251" spans="1:9">
       <c r="A251" s="21" t="s">
         <v>532</v>
       </c>
@@ -14961,7 +14954,7 @@
       </c>
       <c r="I251" s="23"/>
     </row>
-    <row r="252" spans="1:9" hidden="1">
+    <row r="252" spans="1:9">
       <c r="A252" s="21" t="s">
         <v>534</v>
       </c>
@@ -14986,7 +14979,7 @@
       </c>
       <c r="I252" s="23"/>
     </row>
-    <row r="253" spans="1:9" ht="30" hidden="1">
+    <row r="253" spans="1:9" ht="29">
       <c r="A253" s="21" t="s">
         <v>536</v>
       </c>
@@ -15011,7 +15004,7 @@
       </c>
       <c r="I253" s="23"/>
     </row>
-    <row r="254" spans="1:9" hidden="1">
+    <row r="254" spans="1:9">
       <c r="A254" s="21" t="s">
         <v>538</v>
       </c>
@@ -15036,7 +15029,7 @@
       </c>
       <c r="I254" s="23"/>
     </row>
-    <row r="255" spans="1:9" hidden="1">
+    <row r="255" spans="1:9">
       <c r="A255" s="21" t="s">
         <v>540</v>
       </c>
@@ -15061,7 +15054,7 @@
       </c>
       <c r="I255" s="23"/>
     </row>
-    <row r="256" spans="1:9" ht="30" hidden="1">
+    <row r="256" spans="1:9" ht="29">
       <c r="A256" s="21" t="s">
         <v>542</v>
       </c>
@@ -15086,7 +15079,7 @@
       </c>
       <c r="I256" s="23"/>
     </row>
-    <row r="257" spans="1:10" ht="30" hidden="1">
+    <row r="257" spans="1:10" ht="29">
       <c r="A257" s="21" t="s">
         <v>544</v>
       </c>
@@ -15112,7 +15105,7 @@
       <c r="I257" s="23"/>
       <c r="J257" s="23"/>
     </row>
-    <row r="258" spans="1:10" ht="30" hidden="1">
+    <row r="258" spans="1:10" ht="29">
       <c r="A258" s="21" t="s">
         <v>546</v>
       </c>
@@ -15138,7 +15131,7 @@
       <c r="I258" s="23"/>
       <c r="J258" s="23"/>
     </row>
-    <row r="259" spans="1:10" hidden="1">
+    <row r="259" spans="1:10">
       <c r="A259" s="21" t="s">
         <v>548</v>
       </c>
@@ -15164,7 +15157,7 @@
       <c r="I259" s="23"/>
       <c r="J259" s="23"/>
     </row>
-    <row r="260" spans="1:10" ht="30" hidden="1">
+    <row r="260" spans="1:10" ht="29">
       <c r="A260" s="21" t="s">
         <v>550</v>
       </c>
@@ -15190,7 +15183,7 @@
       <c r="I260" s="23"/>
       <c r="J260" s="23"/>
     </row>
-    <row r="261" spans="1:10" ht="30" hidden="1">
+    <row r="261" spans="1:10" ht="29">
       <c r="A261" s="21" t="s">
         <v>552</v>
       </c>
@@ -15215,7 +15208,7 @@
       </c>
       <c r="I261" s="23"/>
     </row>
-    <row r="262" spans="1:10" hidden="1">
+    <row r="262" spans="1:10" ht="29">
       <c r="A262" s="21" t="s">
         <v>554</v>
       </c>
@@ -15241,7 +15234,7 @@
       <c r="I262" s="23"/>
       <c r="J262" s="23"/>
     </row>
-    <row r="263" spans="1:10" hidden="1">
+    <row r="263" spans="1:10" ht="29">
       <c r="A263" s="21" t="s">
         <v>556</v>
       </c>
@@ -15267,7 +15260,7 @@
       <c r="I263" s="23"/>
       <c r="J263" s="23"/>
     </row>
-    <row r="264" spans="1:10" hidden="1">
+    <row r="264" spans="1:10" ht="29">
       <c r="A264" s="21" t="s">
         <v>558</v>
       </c>
@@ -15293,7 +15286,7 @@
       <c r="I264" s="23"/>
       <c r="J264" s="23"/>
     </row>
-    <row r="265" spans="1:10" ht="30" hidden="1">
+    <row r="265" spans="1:10" ht="29">
       <c r="A265" s="21" t="s">
         <v>560</v>
       </c>
@@ -15319,7 +15312,7 @@
       <c r="I265" s="23"/>
       <c r="J265" s="23"/>
     </row>
-    <row r="266" spans="1:10" ht="30" hidden="1">
+    <row r="266" spans="1:10" ht="29">
       <c r="A266" s="21" t="s">
         <v>562</v>
       </c>
@@ -15344,7 +15337,7 @@
       </c>
       <c r="I266" s="23"/>
     </row>
-    <row r="267" spans="1:10" hidden="1">
+    <row r="267" spans="1:10">
       <c r="A267" s="21" t="s">
         <v>564</v>
       </c>
@@ -15369,7 +15362,7 @@
       </c>
       <c r="I267" s="23"/>
     </row>
-    <row r="268" spans="1:10" hidden="1">
+    <row r="268" spans="1:10">
       <c r="A268" s="21" t="s">
         <v>566</v>
       </c>
@@ -15394,7 +15387,7 @@
       </c>
       <c r="I268" s="23"/>
     </row>
-    <row r="269" spans="1:10" hidden="1">
+    <row r="269" spans="1:10">
       <c r="A269" s="21" t="s">
         <v>568</v>
       </c>
@@ -15419,7 +15412,7 @@
       </c>
       <c r="I269" s="23"/>
     </row>
-    <row r="270" spans="1:10" ht="30" hidden="1">
+    <row r="270" spans="1:10" ht="29">
       <c r="A270" s="21" t="s">
         <v>570</v>
       </c>
@@ -15444,7 +15437,7 @@
       </c>
       <c r="I270" s="23"/>
     </row>
-    <row r="271" spans="1:10" ht="30" hidden="1">
+    <row r="271" spans="1:10" ht="29">
       <c r="A271" s="21" t="s">
         <v>572</v>
       </c>
@@ -15469,7 +15462,7 @@
       </c>
       <c r="I271" s="23"/>
     </row>
-    <row r="272" spans="1:10" ht="45" hidden="1">
+    <row r="272" spans="1:10" ht="43.5">
       <c r="A272" s="21" t="s">
         <v>574</v>
       </c>
@@ -15494,7 +15487,7 @@
       </c>
       <c r="I272" s="23"/>
     </row>
-    <row r="273" spans="1:9" ht="30" hidden="1">
+    <row r="273" spans="1:9" ht="29">
       <c r="A273" s="21" t="s">
         <v>576</v>
       </c>
@@ -15519,7 +15512,7 @@
       </c>
       <c r="I273" s="23"/>
     </row>
-    <row r="274" spans="1:9" ht="30" hidden="1">
+    <row r="274" spans="1:9" ht="29">
       <c r="A274" s="21" t="s">
         <v>578</v>
       </c>
@@ -15544,7 +15537,7 @@
       </c>
       <c r="I274" s="23"/>
     </row>
-    <row r="275" spans="1:9" ht="30" hidden="1">
+    <row r="275" spans="1:9" ht="29">
       <c r="A275" s="21" t="s">
         <v>580</v>
       </c>
@@ -15569,7 +15562,7 @@
       </c>
       <c r="I275" s="23"/>
     </row>
-    <row r="276" spans="1:9" ht="30" hidden="1">
+    <row r="276" spans="1:9" ht="29">
       <c r="A276" s="21" t="s">
         <v>582</v>
       </c>
@@ -15594,7 +15587,7 @@
       </c>
       <c r="I276" s="23"/>
     </row>
-    <row r="277" spans="1:9" ht="30" hidden="1">
+    <row r="277" spans="1:9" ht="29">
       <c r="A277" s="21" t="s">
         <v>584</v>
       </c>
@@ -15619,7 +15612,7 @@
       </c>
       <c r="I277" s="23"/>
     </row>
-    <row r="278" spans="1:9" ht="30" hidden="1">
+    <row r="278" spans="1:9" ht="29">
       <c r="A278" s="21" t="s">
         <v>2110</v>
       </c>
@@ -15644,7 +15637,7 @@
       </c>
       <c r="I278" s="23"/>
     </row>
-    <row r="279" spans="1:9" ht="30" hidden="1">
+    <row r="279" spans="1:9" ht="29">
       <c r="A279" s="21" t="s">
         <v>587</v>
       </c>
@@ -15669,7 +15662,7 @@
       </c>
       <c r="I279" s="23"/>
     </row>
-    <row r="280" spans="1:9" ht="30" hidden="1">
+    <row r="280" spans="1:9" ht="29">
       <c r="A280" s="21" t="s">
         <v>589</v>
       </c>
@@ -15694,7 +15687,7 @@
       </c>
       <c r="I280" s="23"/>
     </row>
-    <row r="281" spans="1:9" ht="30" hidden="1">
+    <row r="281" spans="1:9" ht="29">
       <c r="A281" s="21" t="s">
         <v>591</v>
       </c>
@@ -15719,7 +15712,7 @@
       </c>
       <c r="I281" s="23"/>
     </row>
-    <row r="282" spans="1:9" ht="30" hidden="1">
+    <row r="282" spans="1:9" ht="43.5">
       <c r="A282" s="21" t="s">
         <v>593</v>
       </c>
@@ -15744,7 +15737,7 @@
       </c>
       <c r="I282" s="23"/>
     </row>
-    <row r="283" spans="1:9" hidden="1">
+    <row r="283" spans="1:9" ht="29">
       <c r="A283" s="21" t="s">
         <v>595</v>
       </c>
@@ -15769,7 +15762,7 @@
       </c>
       <c r="I283" s="23"/>
     </row>
-    <row r="284" spans="1:9" ht="30" hidden="1">
+    <row r="284" spans="1:9" ht="29">
       <c r="A284" s="21" t="s">
         <v>597</v>
       </c>
@@ -15794,7 +15787,7 @@
       </c>
       <c r="I284" s="23"/>
     </row>
-    <row r="285" spans="1:9" hidden="1">
+    <row r="285" spans="1:9" ht="29">
       <c r="A285" s="21" t="s">
         <v>599</v>
       </c>
@@ -15819,7 +15812,7 @@
       </c>
       <c r="I285" s="23"/>
     </row>
-    <row r="286" spans="1:9" ht="30" hidden="1">
+    <row r="286" spans="1:9" ht="29">
       <c r="A286" s="21" t="s">
         <v>601</v>
       </c>
@@ -15844,7 +15837,7 @@
       </c>
       <c r="I286" s="23"/>
     </row>
-    <row r="287" spans="1:9" ht="30" hidden="1">
+    <row r="287" spans="1:9" ht="29">
       <c r="A287" s="21" t="s">
         <v>603</v>
       </c>
@@ -15869,7 +15862,7 @@
       </c>
       <c r="I287" s="23"/>
     </row>
-    <row r="288" spans="1:9" ht="30" hidden="1">
+    <row r="288" spans="1:9" ht="29">
       <c r="A288" s="21" t="s">
         <v>605</v>
       </c>
@@ -15894,7 +15887,7 @@
       </c>
       <c r="I288" s="23"/>
     </row>
-    <row r="289" spans="1:9" ht="30" hidden="1">
+    <row r="289" spans="1:9" ht="29">
       <c r="A289" s="21" t="s">
         <v>607</v>
       </c>
@@ -15919,7 +15912,7 @@
       </c>
       <c r="I289" s="23"/>
     </row>
-    <row r="290" spans="1:9" hidden="1">
+    <row r="290" spans="1:9">
       <c r="A290" s="21" t="s">
         <v>609</v>
       </c>
@@ -15944,7 +15937,7 @@
       </c>
       <c r="I290" s="23"/>
     </row>
-    <row r="291" spans="1:9" ht="30" hidden="1">
+    <row r="291" spans="1:9" ht="29">
       <c r="A291" s="21" t="s">
         <v>611</v>
       </c>
@@ -15969,7 +15962,7 @@
       </c>
       <c r="I291" s="23"/>
     </row>
-    <row r="292" spans="1:9" ht="30" hidden="1">
+    <row r="292" spans="1:9" ht="29">
       <c r="A292" s="21" t="s">
         <v>613</v>
       </c>
@@ -15994,7 +15987,7 @@
       </c>
       <c r="I292" s="23"/>
     </row>
-    <row r="293" spans="1:9" ht="30" hidden="1">
+    <row r="293" spans="1:9" ht="29">
       <c r="A293" s="21" t="s">
         <v>615</v>
       </c>
@@ -16019,7 +16012,7 @@
       </c>
       <c r="I293" s="23"/>
     </row>
-    <row r="294" spans="1:9" hidden="1">
+    <row r="294" spans="1:9" ht="29">
       <c r="A294" s="21" t="s">
         <v>617</v>
       </c>
@@ -16044,7 +16037,7 @@
       </c>
       <c r="I294" s="23"/>
     </row>
-    <row r="295" spans="1:9" hidden="1">
+    <row r="295" spans="1:9">
       <c r="A295" s="21" t="s">
         <v>619</v>
       </c>
@@ -16069,7 +16062,7 @@
       </c>
       <c r="I295" s="23"/>
     </row>
-    <row r="296" spans="1:9" ht="45" hidden="1">
+    <row r="296" spans="1:9" ht="43.5">
       <c r="A296" s="21" t="s">
         <v>621</v>
       </c>
@@ -16094,7 +16087,7 @@
       </c>
       <c r="I296" s="23"/>
     </row>
-    <row r="297" spans="1:9" hidden="1">
+    <row r="297" spans="1:9">
       <c r="A297" s="21" t="s">
         <v>623</v>
       </c>
@@ -16119,7 +16112,7 @@
       </c>
       <c r="I297" s="23"/>
     </row>
-    <row r="298" spans="1:9" hidden="1">
+    <row r="298" spans="1:9">
       <c r="A298" s="21" t="s">
         <v>625</v>
       </c>
@@ -16144,7 +16137,7 @@
       </c>
       <c r="I298" s="23"/>
     </row>
-    <row r="299" spans="1:9" hidden="1">
+    <row r="299" spans="1:9" ht="29">
       <c r="A299" s="21" t="s">
         <v>627</v>
       </c>
@@ -16169,7 +16162,7 @@
       </c>
       <c r="I299" s="23"/>
     </row>
-    <row r="300" spans="1:9" hidden="1">
+    <row r="300" spans="1:9">
       <c r="A300" s="21" t="s">
         <v>629</v>
       </c>
@@ -16194,7 +16187,7 @@
       </c>
       <c r="I300" s="23"/>
     </row>
-    <row r="301" spans="1:9" ht="30" hidden="1">
+    <row r="301" spans="1:9" ht="29">
       <c r="A301" s="21" t="s">
         <v>631</v>
       </c>
@@ -16219,7 +16212,7 @@
       </c>
       <c r="I301" s="23"/>
     </row>
-    <row r="302" spans="1:9" hidden="1">
+    <row r="302" spans="1:9">
       <c r="A302" s="21" t="s">
         <v>633</v>
       </c>
@@ -16244,7 +16237,7 @@
       </c>
       <c r="I302" s="23"/>
     </row>
-    <row r="303" spans="1:9" ht="30" hidden="1">
+    <row r="303" spans="1:9" ht="29">
       <c r="A303" s="21" t="s">
         <v>635</v>
       </c>
@@ -16269,7 +16262,7 @@
       </c>
       <c r="I303" s="23"/>
     </row>
-    <row r="304" spans="1:9" hidden="1">
+    <row r="304" spans="1:9">
       <c r="A304" s="21" t="s">
         <v>637</v>
       </c>
@@ -16294,7 +16287,7 @@
       </c>
       <c r="I304" s="23"/>
     </row>
-    <row r="305" spans="1:9" ht="30" hidden="1">
+    <row r="305" spans="1:9" ht="29">
       <c r="A305" s="21" t="s">
         <v>639</v>
       </c>
@@ -16319,7 +16312,7 @@
       </c>
       <c r="I305" s="23"/>
     </row>
-    <row r="306" spans="1:9" hidden="1">
+    <row r="306" spans="1:9">
       <c r="A306" s="21" t="s">
         <v>641</v>
       </c>
@@ -16344,7 +16337,7 @@
       </c>
       <c r="I306" s="23"/>
     </row>
-    <row r="307" spans="1:9" ht="30" hidden="1">
+    <row r="307" spans="1:9" ht="29">
       <c r="A307" s="21" t="s">
         <v>643</v>
       </c>
@@ -16369,7 +16362,7 @@
       </c>
       <c r="I307" s="23"/>
     </row>
-    <row r="308" spans="1:9" hidden="1">
+    <row r="308" spans="1:9">
       <c r="A308" s="21" t="s">
         <v>645</v>
       </c>
@@ -16394,7 +16387,7 @@
       </c>
       <c r="I308" s="23"/>
     </row>
-    <row r="309" spans="1:9" ht="30" hidden="1">
+    <row r="309" spans="1:9" ht="29">
       <c r="A309" s="21" t="s">
         <v>647</v>
       </c>
@@ -16419,7 +16412,7 @@
       </c>
       <c r="I309" s="23"/>
     </row>
-    <row r="310" spans="1:9" hidden="1">
+    <row r="310" spans="1:9">
       <c r="A310" s="21" t="s">
         <v>649</v>
       </c>
@@ -16444,7 +16437,7 @@
       </c>
       <c r="I310" s="23"/>
     </row>
-    <row r="311" spans="1:9" hidden="1">
+    <row r="311" spans="1:9">
       <c r="A311" s="21" t="s">
         <v>651</v>
       </c>
@@ -16469,7 +16462,7 @@
       </c>
       <c r="I311" s="23"/>
     </row>
-    <row r="312" spans="1:9" hidden="1">
+    <row r="312" spans="1:9">
       <c r="A312" s="21" t="s">
         <v>653</v>
       </c>
@@ -16494,7 +16487,7 @@
       </c>
       <c r="I312" s="23"/>
     </row>
-    <row r="313" spans="1:9" hidden="1">
+    <row r="313" spans="1:9">
       <c r="A313" s="21" t="s">
         <v>655</v>
       </c>
@@ -16519,7 +16512,7 @@
       </c>
       <c r="I313" s="23"/>
     </row>
-    <row r="314" spans="1:9" ht="30" hidden="1">
+    <row r="314" spans="1:9" ht="29">
       <c r="A314" s="21" t="s">
         <v>658</v>
       </c>
@@ -16544,7 +16537,7 @@
       </c>
       <c r="I314" s="23"/>
     </row>
-    <row r="315" spans="1:9" ht="30" hidden="1">
+    <row r="315" spans="1:9" ht="29">
       <c r="A315" s="21" t="s">
         <v>660</v>
       </c>
@@ -16569,7 +16562,7 @@
       </c>
       <c r="I315" s="23"/>
     </row>
-    <row r="316" spans="1:9" ht="30" hidden="1">
+    <row r="316" spans="1:9" ht="29">
       <c r="A316" s="21" t="s">
         <v>662</v>
       </c>
@@ -16594,7 +16587,7 @@
       </c>
       <c r="I316" s="23"/>
     </row>
-    <row r="317" spans="1:9" ht="30" hidden="1">
+    <row r="317" spans="1:9" ht="29">
       <c r="A317" s="21" t="s">
         <v>664</v>
       </c>
@@ -16619,7 +16612,7 @@
       </c>
       <c r="I317" s="23"/>
     </row>
-    <row r="318" spans="1:9" hidden="1">
+    <row r="318" spans="1:9">
       <c r="A318" s="21" t="s">
         <v>667</v>
       </c>
@@ -16644,7 +16637,7 @@
       </c>
       <c r="I318" s="23"/>
     </row>
-    <row r="319" spans="1:9" ht="30" hidden="1">
+    <row r="319" spans="1:9" ht="29">
       <c r="A319" s="21" t="s">
         <v>669</v>
       </c>
@@ -16669,7 +16662,7 @@
       </c>
       <c r="I319" s="23"/>
     </row>
-    <row r="320" spans="1:9" ht="30" hidden="1">
+    <row r="320" spans="1:9" ht="29">
       <c r="A320" s="21" t="s">
         <v>671</v>
       </c>
@@ -16694,7 +16687,7 @@
       </c>
       <c r="I320" s="23"/>
     </row>
-    <row r="321" spans="1:9" ht="30" hidden="1">
+    <row r="321" spans="1:9" ht="29">
       <c r="A321" s="21" t="s">
         <v>673</v>
       </c>
@@ -16719,7 +16712,7 @@
       </c>
       <c r="I321" s="23"/>
     </row>
-    <row r="322" spans="1:9" ht="30" hidden="1">
+    <row r="322" spans="1:9" ht="29">
       <c r="A322" s="21" t="s">
         <v>675</v>
       </c>
@@ -16744,7 +16737,7 @@
       </c>
       <c r="I322" s="23"/>
     </row>
-    <row r="323" spans="1:9" ht="45" hidden="1">
+    <row r="323" spans="1:9" ht="43.5">
       <c r="A323" s="21" t="s">
         <v>677</v>
       </c>
@@ -16769,7 +16762,7 @@
       </c>
       <c r="I323" s="23"/>
     </row>
-    <row r="324" spans="1:9" hidden="1">
+    <row r="324" spans="1:9" ht="29">
       <c r="A324" s="21" t="s">
         <v>679</v>
       </c>
@@ -16794,7 +16787,7 @@
       </c>
       <c r="I324" s="23"/>
     </row>
-    <row r="325" spans="1:9" ht="30" hidden="1">
+    <row r="325" spans="1:9" ht="29">
       <c r="A325" s="21" t="s">
         <v>682</v>
       </c>
@@ -16819,7 +16812,7 @@
       </c>
       <c r="I325" s="23"/>
     </row>
-    <row r="326" spans="1:9" ht="30" hidden="1">
+    <row r="326" spans="1:9" ht="29">
       <c r="A326" s="21" t="s">
         <v>684</v>
       </c>
@@ -16844,7 +16837,7 @@
       </c>
       <c r="I326" s="23"/>
     </row>
-    <row r="327" spans="1:9" hidden="1">
+    <row r="327" spans="1:9">
       <c r="A327" s="21" t="s">
         <v>686</v>
       </c>
@@ -16869,7 +16862,7 @@
       </c>
       <c r="I327" s="23"/>
     </row>
-    <row r="328" spans="1:9" hidden="1">
+    <row r="328" spans="1:9" ht="29">
       <c r="A328" s="21" t="s">
         <v>688</v>
       </c>
@@ -16894,7 +16887,7 @@
       </c>
       <c r="I328" s="23"/>
     </row>
-    <row r="329" spans="1:9" hidden="1">
+    <row r="329" spans="1:9" ht="29">
       <c r="A329" s="21" t="s">
         <v>690</v>
       </c>
@@ -16919,7 +16912,7 @@
       </c>
       <c r="I329" s="23"/>
     </row>
-    <row r="330" spans="1:9" hidden="1">
+    <row r="330" spans="1:9">
       <c r="A330" s="21" t="s">
         <v>692</v>
       </c>
@@ -16944,7 +16937,7 @@
       </c>
       <c r="I330" s="23"/>
     </row>
-    <row r="331" spans="1:9" ht="30" hidden="1">
+    <row r="331" spans="1:9" ht="43.5">
       <c r="A331" s="21" t="s">
         <v>694</v>
       </c>
@@ -16969,7 +16962,7 @@
       </c>
       <c r="I331" s="23"/>
     </row>
-    <row r="332" spans="1:9" ht="30" hidden="1">
+    <row r="332" spans="1:9" ht="29">
       <c r="A332" s="21" t="s">
         <v>696</v>
       </c>
@@ -16994,7 +16987,7 @@
       </c>
       <c r="I332" s="23"/>
     </row>
-    <row r="333" spans="1:9" ht="30" hidden="1">
+    <row r="333" spans="1:9" ht="29">
       <c r="A333" s="21" t="s">
         <v>698</v>
       </c>
@@ -17019,7 +17012,7 @@
       </c>
       <c r="I333" s="23"/>
     </row>
-    <row r="334" spans="1:9" ht="30" hidden="1">
+    <row r="334" spans="1:9" ht="29">
       <c r="A334" s="21" t="s">
         <v>700</v>
       </c>
@@ -17044,7 +17037,7 @@
       </c>
       <c r="I334" s="23"/>
     </row>
-    <row r="335" spans="1:9" ht="30" hidden="1">
+    <row r="335" spans="1:9" ht="29">
       <c r="A335" s="21" t="s">
         <v>702</v>
       </c>
@@ -17069,7 +17062,7 @@
       </c>
       <c r="I335" s="23"/>
     </row>
-    <row r="336" spans="1:9" ht="30" hidden="1">
+    <row r="336" spans="1:9" ht="29">
       <c r="A336" s="21" t="s">
         <v>704</v>
       </c>
@@ -17094,7 +17087,7 @@
       </c>
       <c r="I336" s="23"/>
     </row>
-    <row r="337" spans="1:9" ht="30" hidden="1">
+    <row r="337" spans="1:9" ht="29">
       <c r="A337" s="21" t="s">
         <v>706</v>
       </c>
@@ -17119,7 +17112,7 @@
       </c>
       <c r="I337" s="23"/>
     </row>
-    <row r="338" spans="1:9" ht="30" hidden="1">
+    <row r="338" spans="1:9" ht="29">
       <c r="A338" s="21" t="s">
         <v>708</v>
       </c>
@@ -17144,7 +17137,7 @@
       </c>
       <c r="I338" s="23"/>
     </row>
-    <row r="339" spans="1:9" ht="30">
+    <row r="339" spans="1:9" ht="43.5">
       <c r="A339" s="21" t="s">
         <v>710</v>
       </c>
@@ -17219,7 +17212,7 @@
       </c>
       <c r="I341" s="23"/>
     </row>
-    <row r="342" spans="1:9" ht="30">
+    <row r="342" spans="1:9" ht="29">
       <c r="A342" s="21" t="s">
         <v>717</v>
       </c>
@@ -17244,7 +17237,7 @@
       </c>
       <c r="I342" s="23"/>
     </row>
-    <row r="343" spans="1:9" ht="30">
+    <row r="343" spans="1:9" ht="43.5">
       <c r="A343" s="21" t="s">
         <v>719</v>
       </c>
@@ -17252,7 +17245,7 @@
         <v>711</v>
       </c>
       <c r="C343" s="23" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="D343" s="21"/>
       <c r="E343" s="21" t="s">
@@ -17269,7 +17262,7 @@
       </c>
       <c r="I343" s="23"/>
     </row>
-    <row r="344" spans="1:9" ht="30">
+    <row r="344" spans="1:9" ht="29">
       <c r="A344" s="21" t="s">
         <v>720</v>
       </c>
@@ -17294,7 +17287,7 @@
       </c>
       <c r="I344" s="23"/>
     </row>
-    <row r="345" spans="1:9" ht="45" hidden="1">
+    <row r="345" spans="1:9" ht="43.5">
       <c r="A345" s="21" t="s">
         <v>722</v>
       </c>
@@ -17319,7 +17312,7 @@
       </c>
       <c r="I345" s="23"/>
     </row>
-    <row r="346" spans="1:9" hidden="1">
+    <row r="346" spans="1:9">
       <c r="A346" s="21" t="s">
         <v>725</v>
       </c>
@@ -17344,7 +17337,7 @@
       </c>
       <c r="I346" s="23"/>
     </row>
-    <row r="347" spans="1:9" ht="30" hidden="1">
+    <row r="347" spans="1:9" ht="29">
       <c r="A347" s="21" t="s">
         <v>2101</v>
       </c>
@@ -17369,7 +17362,7 @@
       </c>
       <c r="I347" s="23"/>
     </row>
-    <row r="348" spans="1:9" hidden="1">
+    <row r="348" spans="1:9">
       <c r="A348" s="21" t="s">
         <v>728</v>
       </c>
@@ -17394,7 +17387,7 @@
       </c>
       <c r="I348" s="23"/>
     </row>
-    <row r="349" spans="1:9" ht="30" hidden="1">
+    <row r="349" spans="1:9" ht="29">
       <c r="A349" s="21" t="s">
         <v>730</v>
       </c>
@@ -17419,7 +17412,7 @@
       </c>
       <c r="I349" s="23"/>
     </row>
-    <row r="350" spans="1:9" hidden="1">
+    <row r="350" spans="1:9">
       <c r="A350" s="21" t="s">
         <v>732</v>
       </c>
@@ -17444,7 +17437,7 @@
       </c>
       <c r="I350" s="23"/>
     </row>
-    <row r="351" spans="1:9" hidden="1">
+    <row r="351" spans="1:9">
       <c r="A351" s="21" t="s">
         <v>734</v>
       </c>
@@ -17469,7 +17462,7 @@
       </c>
       <c r="I351" s="23"/>
     </row>
-    <row r="352" spans="1:9" ht="30" hidden="1">
+    <row r="352" spans="1:9" ht="29">
       <c r="A352" s="21" t="s">
         <v>2102</v>
       </c>
@@ -17477,7 +17470,7 @@
         <v>723</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>2111</v>
+        <v>2132</v>
       </c>
       <c r="D352" s="21"/>
       <c r="E352" s="21" t="s">
@@ -17494,7 +17487,7 @@
       </c>
       <c r="I352" s="23"/>
     </row>
-    <row r="353" spans="1:9" ht="45" hidden="1">
+    <row r="353" spans="1:9" ht="58">
       <c r="A353" s="21" t="s">
         <v>736</v>
       </c>
@@ -17519,7 +17512,7 @@
       </c>
       <c r="I353" s="23"/>
     </row>
-    <row r="354" spans="1:9" ht="45" hidden="1">
+    <row r="354" spans="1:9" ht="58">
       <c r="A354" s="21" t="s">
         <v>738</v>
       </c>
@@ -17544,7 +17537,7 @@
       </c>
       <c r="I354" s="23"/>
     </row>
-    <row r="355" spans="1:9" ht="30" hidden="1">
+    <row r="355" spans="1:9" ht="29">
       <c r="A355" s="21" t="s">
         <v>740</v>
       </c>
@@ -17569,7 +17562,7 @@
       </c>
       <c r="I355" s="23"/>
     </row>
-    <row r="356" spans="1:9" ht="30" hidden="1">
+    <row r="356" spans="1:9" ht="29">
       <c r="A356" s="21" t="s">
         <v>742</v>
       </c>
@@ -17594,7 +17587,7 @@
       </c>
       <c r="I356" s="23"/>
     </row>
-    <row r="357" spans="1:9" ht="45" hidden="1">
+    <row r="357" spans="1:9" ht="43.5">
       <c r="A357" s="21" t="s">
         <v>744</v>
       </c>
@@ -17619,7 +17612,7 @@
       </c>
       <c r="I357" s="23"/>
     </row>
-    <row r="358" spans="1:9" ht="30" hidden="1">
+    <row r="358" spans="1:9" ht="29">
       <c r="A358" s="21" t="s">
         <v>747</v>
       </c>
@@ -17644,7 +17637,7 @@
       </c>
       <c r="I358" s="23"/>
     </row>
-    <row r="359" spans="1:9" ht="30" hidden="1">
+    <row r="359" spans="1:9" ht="29">
       <c r="A359" s="21" t="s">
         <v>749</v>
       </c>
@@ -17669,7 +17662,7 @@
       </c>
       <c r="I359" s="23"/>
     </row>
-    <row r="360" spans="1:9" hidden="1">
+    <row r="360" spans="1:9">
       <c r="A360" s="21" t="s">
         <v>752</v>
       </c>
@@ -17694,7 +17687,7 @@
       </c>
       <c r="I360" s="23"/>
     </row>
-    <row r="361" spans="1:9" ht="30" hidden="1">
+    <row r="361" spans="1:9" ht="29">
       <c r="A361" s="21" t="s">
         <v>754</v>
       </c>
@@ -17719,7 +17712,7 @@
       </c>
       <c r="I361" s="23"/>
     </row>
-    <row r="362" spans="1:9" ht="30" hidden="1">
+    <row r="362" spans="1:9" ht="29">
       <c r="A362" s="21" t="s">
         <v>756</v>
       </c>
@@ -17744,7 +17737,7 @@
       </c>
       <c r="I362" s="23"/>
     </row>
-    <row r="363" spans="1:9" hidden="1">
+    <row r="363" spans="1:9">
       <c r="A363" s="21" t="s">
         <v>758</v>
       </c>
@@ -17769,7 +17762,7 @@
       </c>
       <c r="I363" s="23"/>
     </row>
-    <row r="364" spans="1:9" ht="30" hidden="1">
+    <row r="364" spans="1:9" ht="29">
       <c r="A364" s="21" t="s">
         <v>761</v>
       </c>
@@ -17794,7 +17787,7 @@
       </c>
       <c r="I364" s="23"/>
     </row>
-    <row r="365" spans="1:9" ht="30" hidden="1">
+    <row r="365" spans="1:9" ht="29">
       <c r="A365" s="21" t="s">
         <v>763</v>
       </c>
@@ -17819,7 +17812,7 @@
       </c>
       <c r="I365" s="23"/>
     </row>
-    <row r="366" spans="1:9" ht="30" hidden="1">
+    <row r="366" spans="1:9" ht="29">
       <c r="A366" s="21" t="s">
         <v>765</v>
       </c>
@@ -17844,7 +17837,7 @@
       </c>
       <c r="I366" s="23"/>
     </row>
-    <row r="367" spans="1:9" hidden="1">
+    <row r="367" spans="1:9" ht="29">
       <c r="A367" s="21" t="s">
         <v>767</v>
       </c>
@@ -17869,7 +17862,7 @@
       </c>
       <c r="I367" s="23"/>
     </row>
-    <row r="368" spans="1:9" ht="45" hidden="1">
+    <row r="368" spans="1:9" ht="43.5">
       <c r="A368" s="21" t="s">
         <v>769</v>
       </c>
@@ -17894,7 +17887,7 @@
       </c>
       <c r="I368" s="23"/>
     </row>
-    <row r="369" spans="1:9" hidden="1">
+    <row r="369" spans="1:9">
       <c r="A369" s="21" t="s">
         <v>771</v>
       </c>
@@ -17919,7 +17912,7 @@
       </c>
       <c r="I369" s="23"/>
     </row>
-    <row r="370" spans="1:9" ht="30" hidden="1">
+    <row r="370" spans="1:9" ht="29">
       <c r="A370" s="21" t="s">
         <v>773</v>
       </c>
@@ -17944,7 +17937,7 @@
       </c>
       <c r="I370" s="23"/>
     </row>
-    <row r="371" spans="1:9" ht="30" hidden="1">
+    <row r="371" spans="1:9" ht="29">
       <c r="A371" s="21" t="s">
         <v>775</v>
       </c>
@@ -17969,7 +17962,7 @@
       </c>
       <c r="I371" s="23"/>
     </row>
-    <row r="372" spans="1:9" ht="30" hidden="1">
+    <row r="372" spans="1:9" ht="29">
       <c r="A372" s="21" t="s">
         <v>778</v>
       </c>
@@ -17994,7 +17987,7 @@
       </c>
       <c r="I372" s="23"/>
     </row>
-    <row r="373" spans="1:9" ht="45" hidden="1">
+    <row r="373" spans="1:9" ht="43.5">
       <c r="A373" s="21" t="s">
         <v>780</v>
       </c>
@@ -18019,7 +18012,7 @@
       </c>
       <c r="I373" s="23"/>
     </row>
-    <row r="374" spans="1:9" hidden="1">
+    <row r="374" spans="1:9">
       <c r="A374" s="21" t="s">
         <v>782</v>
       </c>
@@ -18044,7 +18037,7 @@
       </c>
       <c r="I374" s="23"/>
     </row>
-    <row r="375" spans="1:9" hidden="1">
+    <row r="375" spans="1:9">
       <c r="A375" s="21" t="s">
         <v>784</v>
       </c>
@@ -18069,7 +18062,7 @@
       </c>
       <c r="I375" s="23"/>
     </row>
-    <row r="376" spans="1:9" ht="30" hidden="1">
+    <row r="376" spans="1:9" ht="29">
       <c r="A376" s="21" t="s">
         <v>786</v>
       </c>
@@ -18094,7 +18087,7 @@
       </c>
       <c r="I376" s="23"/>
     </row>
-    <row r="377" spans="1:9" ht="75" hidden="1">
+    <row r="377" spans="1:9" ht="87">
       <c r="A377" s="21" t="s">
         <v>788</v>
       </c>
@@ -18121,7 +18114,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="45" hidden="1">
+    <row r="378" spans="1:9" ht="43.5">
       <c r="A378" s="21" t="s">
         <v>791</v>
       </c>
@@ -18146,7 +18139,7 @@
       </c>
       <c r="I378" s="23"/>
     </row>
-    <row r="379" spans="1:9" ht="45" hidden="1">
+    <row r="379" spans="1:9" ht="43.5">
       <c r="A379" s="21" t="s">
         <v>793</v>
       </c>
@@ -18171,7 +18164,7 @@
       </c>
       <c r="I379" s="23"/>
     </row>
-    <row r="380" spans="1:9" ht="45" hidden="1">
+    <row r="380" spans="1:9" ht="43.5">
       <c r="A380" s="21" t="s">
         <v>795</v>
       </c>
@@ -18196,7 +18189,7 @@
       </c>
       <c r="I380" s="23"/>
     </row>
-    <row r="381" spans="1:9" ht="60" hidden="1">
+    <row r="381" spans="1:9" ht="58">
       <c r="A381" s="21" t="s">
         <v>797</v>
       </c>
@@ -18221,7 +18214,7 @@
       </c>
       <c r="I381" s="23"/>
     </row>
-    <row r="382" spans="1:9" ht="60" hidden="1">
+    <row r="382" spans="1:9" ht="58">
       <c r="A382" s="21" t="s">
         <v>799</v>
       </c>
@@ -18246,7 +18239,7 @@
       </c>
       <c r="I382" s="23"/>
     </row>
-    <row r="383" spans="1:9" ht="30" hidden="1">
+    <row r="383" spans="1:9" ht="29">
       <c r="A383" s="21" t="s">
         <v>801</v>
       </c>
@@ -18271,7 +18264,7 @@
       </c>
       <c r="I383" s="23"/>
     </row>
-    <row r="384" spans="1:9" hidden="1">
+    <row r="384" spans="1:9">
       <c r="A384" s="21" t="s">
         <v>803</v>
       </c>
@@ -18296,7 +18289,7 @@
       </c>
       <c r="I384" s="23"/>
     </row>
-    <row r="385" spans="1:9" ht="45" hidden="1">
+    <row r="385" spans="1:9" ht="43.5">
       <c r="A385" s="21" t="s">
         <v>805</v>
       </c>
@@ -18321,7 +18314,7 @@
       </c>
       <c r="I385" s="23"/>
     </row>
-    <row r="386" spans="1:9" ht="30" hidden="1">
+    <row r="386" spans="1:9" ht="29">
       <c r="A386" s="21" t="s">
         <v>807</v>
       </c>
@@ -18346,7 +18339,7 @@
       </c>
       <c r="I386" s="23"/>
     </row>
-    <row r="387" spans="1:9" ht="60" hidden="1">
+    <row r="387" spans="1:9" ht="58">
       <c r="A387" s="21" t="s">
         <v>809</v>
       </c>
@@ -18371,7 +18364,7 @@
       </c>
       <c r="I387" s="23"/>
     </row>
-    <row r="388" spans="1:9" ht="45" hidden="1">
+    <row r="388" spans="1:9" ht="43.5">
       <c r="A388" s="21" t="s">
         <v>811</v>
       </c>
@@ -18396,7 +18389,7 @@
       </c>
       <c r="I388" s="23"/>
     </row>
-    <row r="389" spans="1:9" hidden="1">
+    <row r="389" spans="1:9">
       <c r="A389" s="21" t="s">
         <v>813</v>
       </c>
@@ -18421,7 +18414,7 @@
       </c>
       <c r="I389" s="23"/>
     </row>
-    <row r="390" spans="1:9" hidden="1">
+    <row r="390" spans="1:9">
       <c r="A390" s="21" t="s">
         <v>815</v>
       </c>
@@ -18446,7 +18439,7 @@
       </c>
       <c r="I390" s="23"/>
     </row>
-    <row r="391" spans="1:9" hidden="1">
+    <row r="391" spans="1:9">
       <c r="A391" s="21" t="s">
         <v>817</v>
       </c>
@@ -18471,7 +18464,7 @@
       </c>
       <c r="I391" s="23"/>
     </row>
-    <row r="392" spans="1:9" ht="30" hidden="1">
+    <row r="392" spans="1:9" ht="29">
       <c r="A392" s="21" t="s">
         <v>819</v>
       </c>
@@ -18496,7 +18489,7 @@
       </c>
       <c r="I392" s="23"/>
     </row>
-    <row r="393" spans="1:9" hidden="1">
+    <row r="393" spans="1:9">
       <c r="A393" s="21" t="s">
         <v>822</v>
       </c>
@@ -18521,7 +18514,7 @@
       </c>
       <c r="I393" s="23"/>
     </row>
-    <row r="394" spans="1:9" hidden="1">
+    <row r="394" spans="1:9" ht="29">
       <c r="A394" s="21" t="s">
         <v>824</v>
       </c>
@@ -18546,7 +18539,7 @@
       </c>
       <c r="I394" s="23"/>
     </row>
-    <row r="395" spans="1:9" ht="30" hidden="1">
+    <row r="395" spans="1:9" ht="29">
       <c r="A395" s="21" t="s">
         <v>826</v>
       </c>
@@ -18571,7 +18564,7 @@
       </c>
       <c r="I395" s="23"/>
     </row>
-    <row r="396" spans="1:9" hidden="1">
+    <row r="396" spans="1:9">
       <c r="A396" s="21" t="s">
         <v>828</v>
       </c>
@@ -18596,7 +18589,7 @@
       </c>
       <c r="I396" s="23"/>
     </row>
-    <row r="397" spans="1:9" ht="30" hidden="1">
+    <row r="397" spans="1:9" ht="29">
       <c r="A397" s="21" t="s">
         <v>830</v>
       </c>
@@ -18623,7 +18616,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="30" hidden="1">
+    <row r="398" spans="1:9" ht="29">
       <c r="A398" s="21" t="s">
         <v>833</v>
       </c>
@@ -18648,7 +18641,7 @@
       </c>
       <c r="I398" s="23"/>
     </row>
-    <row r="399" spans="1:9" ht="30" hidden="1">
+    <row r="399" spans="1:9" ht="29">
       <c r="A399" s="21" t="s">
         <v>835</v>
       </c>
@@ -18673,7 +18666,7 @@
       </c>
       <c r="I399" s="23"/>
     </row>
-    <row r="400" spans="1:9" ht="30" hidden="1">
+    <row r="400" spans="1:9" ht="43.5">
       <c r="A400" s="21" t="s">
         <v>837</v>
       </c>
@@ -18698,7 +18691,7 @@
       </c>
       <c r="I400" s="23"/>
     </row>
-    <row r="401" spans="1:9" hidden="1">
+    <row r="401" spans="1:9">
       <c r="A401" s="21" t="s">
         <v>839</v>
       </c>
@@ -18723,7 +18716,7 @@
       </c>
       <c r="I401" s="23"/>
     </row>
-    <row r="402" spans="1:9" hidden="1">
+    <row r="402" spans="1:9">
       <c r="A402" s="21" t="s">
         <v>842</v>
       </c>
@@ -18748,7 +18741,7 @@
       </c>
       <c r="I402" s="23"/>
     </row>
-    <row r="403" spans="1:9" hidden="1">
+    <row r="403" spans="1:9">
       <c r="A403" s="21" t="s">
         <v>844</v>
       </c>
@@ -18773,7 +18766,7 @@
       </c>
       <c r="I403" s="23"/>
     </row>
-    <row r="404" spans="1:9" ht="30" hidden="1">
+    <row r="404" spans="1:9" ht="29">
       <c r="A404" s="21" t="s">
         <v>846</v>
       </c>
@@ -18798,7 +18791,7 @@
       </c>
       <c r="I404" s="23"/>
     </row>
-    <row r="405" spans="1:9" ht="30" hidden="1">
+    <row r="405" spans="1:9" ht="43.5">
       <c r="A405" s="21" t="s">
         <v>848</v>
       </c>
@@ -18823,7 +18816,7 @@
       </c>
       <c r="I405" s="23"/>
     </row>
-    <row r="406" spans="1:9" hidden="1">
+    <row r="406" spans="1:9">
       <c r="A406" s="21" t="s">
         <v>850</v>
       </c>
@@ -18848,7 +18841,7 @@
       </c>
       <c r="I406" s="23"/>
     </row>
-    <row r="407" spans="1:9" hidden="1">
+    <row r="407" spans="1:9" ht="29">
       <c r="A407" s="21" t="s">
         <v>852</v>
       </c>
@@ -18873,7 +18866,7 @@
       </c>
       <c r="I407" s="23"/>
     </row>
-    <row r="408" spans="1:9" hidden="1">
+    <row r="408" spans="1:9">
       <c r="A408" s="21" t="s">
         <v>854</v>
       </c>
@@ -18898,7 +18891,7 @@
       </c>
       <c r="I408" s="23"/>
     </row>
-    <row r="409" spans="1:9" hidden="1">
+    <row r="409" spans="1:9" ht="29">
       <c r="A409" s="21" t="s">
         <v>856</v>
       </c>
@@ -18923,7 +18916,7 @@
       </c>
       <c r="I409" s="23"/>
     </row>
-    <row r="410" spans="1:9" ht="45" hidden="1">
+    <row r="410" spans="1:9" ht="43.5">
       <c r="A410" s="21" t="s">
         <v>858</v>
       </c>
@@ -18948,7 +18941,7 @@
       </c>
       <c r="I410" s="23"/>
     </row>
-    <row r="411" spans="1:9" ht="45" hidden="1">
+    <row r="411" spans="1:9" ht="43.5">
       <c r="A411" s="21" t="s">
         <v>860</v>
       </c>
@@ -18973,7 +18966,7 @@
       </c>
       <c r="I411" s="23"/>
     </row>
-    <row r="412" spans="1:9" ht="30" hidden="1">
+    <row r="412" spans="1:9" ht="29">
       <c r="A412" s="21" t="s">
         <v>862</v>
       </c>
@@ -18998,7 +18991,7 @@
       </c>
       <c r="I412" s="23"/>
     </row>
-    <row r="413" spans="1:9" hidden="1">
+    <row r="413" spans="1:9">
       <c r="A413" s="21" t="s">
         <v>864</v>
       </c>
@@ -19023,7 +19016,7 @@
       </c>
       <c r="I413" s="23"/>
     </row>
-    <row r="414" spans="1:9" hidden="1">
+    <row r="414" spans="1:9">
       <c r="A414" s="21" t="s">
         <v>866</v>
       </c>
@@ -19048,7 +19041,7 @@
       </c>
       <c r="I414" s="23"/>
     </row>
-    <row r="415" spans="1:9" hidden="1">
+    <row r="415" spans="1:9">
       <c r="A415" s="21" t="s">
         <v>868</v>
       </c>
@@ -19073,7 +19066,7 @@
       </c>
       <c r="I415" s="23"/>
     </row>
-    <row r="416" spans="1:9" hidden="1">
+    <row r="416" spans="1:9">
       <c r="A416" s="21" t="s">
         <v>870</v>
       </c>
@@ -19098,7 +19091,7 @@
       </c>
       <c r="I416" s="23"/>
     </row>
-    <row r="417" spans="1:9" hidden="1">
+    <row r="417" spans="1:9">
       <c r="A417" s="21" t="s">
         <v>872</v>
       </c>
@@ -19123,7 +19116,7 @@
       </c>
       <c r="I417" s="23"/>
     </row>
-    <row r="418" spans="1:9" hidden="1">
+    <row r="418" spans="1:9">
       <c r="A418" s="21" t="s">
         <v>874</v>
       </c>
@@ -19148,7 +19141,7 @@
       </c>
       <c r="I418" s="23"/>
     </row>
-    <row r="419" spans="1:9" hidden="1">
+    <row r="419" spans="1:9">
       <c r="A419" s="21" t="s">
         <v>876</v>
       </c>
@@ -19173,7 +19166,7 @@
       </c>
       <c r="I419" s="23"/>
     </row>
-    <row r="420" spans="1:9" ht="45" hidden="1">
+    <row r="420" spans="1:9" ht="43.5">
       <c r="A420" s="21" t="s">
         <v>878</v>
       </c>
@@ -19198,7 +19191,7 @@
       </c>
       <c r="I420" s="23"/>
     </row>
-    <row r="421" spans="1:9" ht="30" hidden="1">
+    <row r="421" spans="1:9" ht="29">
       <c r="A421" s="21" t="s">
         <v>880</v>
       </c>
@@ -19223,7 +19216,7 @@
       </c>
       <c r="I421" s="23"/>
     </row>
-    <row r="422" spans="1:9" hidden="1">
+    <row r="422" spans="1:9">
       <c r="A422" s="21" t="s">
         <v>882</v>
       </c>
@@ -19248,7 +19241,7 @@
       </c>
       <c r="I422" s="23"/>
     </row>
-    <row r="423" spans="1:9" hidden="1">
+    <row r="423" spans="1:9">
       <c r="A423" s="21" t="s">
         <v>884</v>
       </c>
@@ -19273,7 +19266,7 @@
       </c>
       <c r="I423" s="23"/>
     </row>
-    <row r="424" spans="1:9" hidden="1">
+    <row r="424" spans="1:9">
       <c r="A424" s="21" t="s">
         <v>886</v>
       </c>
@@ -19298,7 +19291,7 @@
       </c>
       <c r="I424" s="23"/>
     </row>
-    <row r="425" spans="1:9" hidden="1">
+    <row r="425" spans="1:9">
       <c r="A425" s="21" t="s">
         <v>888</v>
       </c>
@@ -19323,7 +19316,7 @@
       </c>
       <c r="I425" s="23"/>
     </row>
-    <row r="426" spans="1:9" hidden="1">
+    <row r="426" spans="1:9">
       <c r="A426" s="21" t="s">
         <v>890</v>
       </c>
@@ -19348,7 +19341,7 @@
       </c>
       <c r="I426" s="23"/>
     </row>
-    <row r="427" spans="1:9" ht="30" hidden="1">
+    <row r="427" spans="1:9" ht="29">
       <c r="A427" s="21" t="s">
         <v>892</v>
       </c>
@@ -19373,7 +19366,7 @@
       </c>
       <c r="I427" s="23"/>
     </row>
-    <row r="428" spans="1:9" hidden="1">
+    <row r="428" spans="1:9">
       <c r="A428" s="21" t="s">
         <v>894</v>
       </c>
@@ -19398,7 +19391,7 @@
       </c>
       <c r="I428" s="23"/>
     </row>
-    <row r="429" spans="1:9" ht="30" hidden="1">
+    <row r="429" spans="1:9" ht="29">
       <c r="A429" s="21" t="s">
         <v>896</v>
       </c>
@@ -19423,7 +19416,7 @@
       </c>
       <c r="I429" s="23"/>
     </row>
-    <row r="430" spans="1:9" hidden="1">
+    <row r="430" spans="1:9">
       <c r="A430" s="21" t="s">
         <v>898</v>
       </c>
@@ -19448,7 +19441,7 @@
       </c>
       <c r="I430" s="23"/>
     </row>
-    <row r="431" spans="1:9" hidden="1">
+    <row r="431" spans="1:9">
       <c r="A431" s="21" t="s">
         <v>900</v>
       </c>
@@ -19473,7 +19466,7 @@
       </c>
       <c r="I431" s="23"/>
     </row>
-    <row r="432" spans="1:9" ht="30" hidden="1">
+    <row r="432" spans="1:9" ht="29">
       <c r="A432" s="21" t="s">
         <v>902</v>
       </c>
@@ -19498,7 +19491,7 @@
       </c>
       <c r="I432" s="23"/>
     </row>
-    <row r="433" spans="1:9" hidden="1">
+    <row r="433" spans="1:9" ht="29">
       <c r="A433" s="21" t="s">
         <v>904</v>
       </c>
@@ -19523,7 +19516,7 @@
       </c>
       <c r="I433" s="23"/>
     </row>
-    <row r="434" spans="1:9" hidden="1">
+    <row r="434" spans="1:9">
       <c r="A434" s="21" t="s">
         <v>906</v>
       </c>
@@ -19548,7 +19541,7 @@
       </c>
       <c r="I434" s="23"/>
     </row>
-    <row r="435" spans="1:9" ht="30" hidden="1">
+    <row r="435" spans="1:9" ht="43.5">
       <c r="A435" s="21" t="s">
         <v>908</v>
       </c>
@@ -19573,7 +19566,7 @@
       </c>
       <c r="I435" s="23"/>
     </row>
-    <row r="436" spans="1:9" ht="30" hidden="1">
+    <row r="436" spans="1:9" ht="29">
       <c r="A436" s="21" t="s">
         <v>910</v>
       </c>
@@ -19598,7 +19591,7 @@
       </c>
       <c r="I436" s="23"/>
     </row>
-    <row r="437" spans="1:9" hidden="1">
+    <row r="437" spans="1:9" ht="29">
       <c r="A437" s="21" t="s">
         <v>912</v>
       </c>
@@ -19623,7 +19616,7 @@
       </c>
       <c r="I437" s="23"/>
     </row>
-    <row r="438" spans="1:9" ht="30" hidden="1">
+    <row r="438" spans="1:9" ht="43.5">
       <c r="A438" s="21" t="s">
         <v>914</v>
       </c>
@@ -19648,7 +19641,7 @@
       </c>
       <c r="I438" s="23"/>
     </row>
-    <row r="439" spans="1:9" ht="30" hidden="1">
+    <row r="439" spans="1:9" ht="29">
       <c r="A439" s="21" t="s">
         <v>916</v>
       </c>
@@ -19673,7 +19666,7 @@
       </c>
       <c r="I439" s="23"/>
     </row>
-    <row r="440" spans="1:9" hidden="1">
+    <row r="440" spans="1:9">
       <c r="A440" s="21" t="s">
         <v>918</v>
       </c>
@@ -19698,7 +19691,7 @@
       </c>
       <c r="I440" s="23"/>
     </row>
-    <row r="441" spans="1:9" hidden="1">
+    <row r="441" spans="1:9" ht="29">
       <c r="A441" s="21" t="s">
         <v>920</v>
       </c>
@@ -19723,7 +19716,7 @@
       </c>
       <c r="I441" s="23"/>
     </row>
-    <row r="442" spans="1:9" hidden="1">
+    <row r="442" spans="1:9">
       <c r="A442" s="21" t="s">
         <v>922</v>
       </c>
@@ -19748,7 +19741,7 @@
       </c>
       <c r="I442" s="23"/>
     </row>
-    <row r="443" spans="1:9" ht="30" hidden="1">
+    <row r="443" spans="1:9" ht="29">
       <c r="A443" s="21" t="s">
         <v>924</v>
       </c>
@@ -19773,7 +19766,7 @@
       </c>
       <c r="I443" s="23"/>
     </row>
-    <row r="444" spans="1:9" hidden="1">
+    <row r="444" spans="1:9">
       <c r="A444" s="21" t="s">
         <v>926</v>
       </c>
@@ -19798,7 +19791,7 @@
       </c>
       <c r="I444" s="23"/>
     </row>
-    <row r="445" spans="1:9" ht="30" hidden="1">
+    <row r="445" spans="1:9" ht="29">
       <c r="A445" s="21" t="s">
         <v>928</v>
       </c>
@@ -19823,7 +19816,7 @@
       </c>
       <c r="I445" s="23"/>
     </row>
-    <row r="446" spans="1:9" ht="30" hidden="1">
+    <row r="446" spans="1:9" ht="29">
       <c r="A446" s="21" t="s">
         <v>930</v>
       </c>
@@ -19848,7 +19841,7 @@
       </c>
       <c r="I446" s="23"/>
     </row>
-    <row r="447" spans="1:9" ht="30" hidden="1">
+    <row r="447" spans="1:9" ht="29">
       <c r="A447" s="21" t="s">
         <v>932</v>
       </c>
@@ -19873,7 +19866,7 @@
       </c>
       <c r="I447" s="23"/>
     </row>
-    <row r="448" spans="1:9" ht="30" hidden="1">
+    <row r="448" spans="1:9" ht="29">
       <c r="A448" s="21" t="s">
         <v>934</v>
       </c>
@@ -19898,7 +19891,7 @@
       </c>
       <c r="I448" s="23"/>
     </row>
-    <row r="449" spans="1:9" ht="30" hidden="1">
+    <row r="449" spans="1:9" ht="29">
       <c r="A449" s="21" t="s">
         <v>936</v>
       </c>
@@ -19923,7 +19916,7 @@
       </c>
       <c r="I449" s="23"/>
     </row>
-    <row r="450" spans="1:9" ht="30" hidden="1">
+    <row r="450" spans="1:9" ht="29">
       <c r="A450" s="21" t="s">
         <v>938</v>
       </c>
@@ -19948,7 +19941,7 @@
       </c>
       <c r="I450" s="23"/>
     </row>
-    <row r="451" spans="1:9" ht="30" hidden="1">
+    <row r="451" spans="1:9" ht="29">
       <c r="A451" s="21" t="s">
         <v>940</v>
       </c>
@@ -19973,7 +19966,7 @@
       </c>
       <c r="I451" s="23"/>
     </row>
-    <row r="452" spans="1:9" hidden="1">
+    <row r="452" spans="1:9">
       <c r="A452" s="21" t="s">
         <v>942</v>
       </c>
@@ -19998,7 +19991,7 @@
       </c>
       <c r="I452" s="23"/>
     </row>
-    <row r="453" spans="1:9" hidden="1">
+    <row r="453" spans="1:9">
       <c r="A453" s="21" t="s">
         <v>944</v>
       </c>
@@ -20023,7 +20016,7 @@
       </c>
       <c r="I453" s="23"/>
     </row>
-    <row r="454" spans="1:9" ht="30" hidden="1">
+    <row r="454" spans="1:9" ht="29">
       <c r="A454" s="21" t="s">
         <v>946</v>
       </c>
@@ -20048,7 +20041,7 @@
       </c>
       <c r="I454" s="23"/>
     </row>
-    <row r="455" spans="1:9" ht="30" hidden="1">
+    <row r="455" spans="1:9" ht="29">
       <c r="A455" s="21" t="s">
         <v>948</v>
       </c>
@@ -20073,7 +20066,7 @@
       </c>
       <c r="I455" s="23"/>
     </row>
-    <row r="456" spans="1:9" ht="30" hidden="1">
+    <row r="456" spans="1:9" ht="29">
       <c r="A456" s="21" t="s">
         <v>950</v>
       </c>
@@ -20098,7 +20091,7 @@
       </c>
       <c r="I456" s="23"/>
     </row>
-    <row r="457" spans="1:9" ht="30" hidden="1">
+    <row r="457" spans="1:9" ht="43.5">
       <c r="A457" s="21" t="s">
         <v>952</v>
       </c>
@@ -20123,7 +20116,7 @@
       </c>
       <c r="I457" s="23"/>
     </row>
-    <row r="458" spans="1:9" ht="30" hidden="1">
+    <row r="458" spans="1:9" ht="29">
       <c r="A458" s="21" t="s">
         <v>954</v>
       </c>
@@ -20148,7 +20141,7 @@
       </c>
       <c r="I458" s="23"/>
     </row>
-    <row r="459" spans="1:9" hidden="1">
+    <row r="459" spans="1:9">
       <c r="A459" s="21" t="s">
         <v>956</v>
       </c>
@@ -20173,7 +20166,7 @@
       </c>
       <c r="I459" s="23"/>
     </row>
-    <row r="460" spans="1:9" ht="30" hidden="1">
+    <row r="460" spans="1:9" ht="29">
       <c r="A460" s="21" t="s">
         <v>958</v>
       </c>
@@ -20198,7 +20191,7 @@
       </c>
       <c r="I460" s="23"/>
     </row>
-    <row r="461" spans="1:9" ht="30" hidden="1">
+    <row r="461" spans="1:9" ht="29">
       <c r="A461" s="21" t="s">
         <v>960</v>
       </c>
@@ -20223,7 +20216,7 @@
       </c>
       <c r="I461" s="23"/>
     </row>
-    <row r="462" spans="1:9" ht="30" hidden="1">
+    <row r="462" spans="1:9" ht="29">
       <c r="A462" s="21" t="s">
         <v>962</v>
       </c>
@@ -20248,7 +20241,7 @@
       </c>
       <c r="I462" s="23"/>
     </row>
-    <row r="463" spans="1:9" ht="30" hidden="1">
+    <row r="463" spans="1:9" ht="29">
       <c r="A463" s="21" t="s">
         <v>964</v>
       </c>
@@ -20273,7 +20266,7 @@
       </c>
       <c r="I463" s="23"/>
     </row>
-    <row r="464" spans="1:9" hidden="1">
+    <row r="464" spans="1:9">
       <c r="A464" s="21" t="s">
         <v>966</v>
       </c>
@@ -20298,7 +20291,7 @@
       </c>
       <c r="I464" s="23"/>
     </row>
-    <row r="465" spans="1:9" hidden="1">
+    <row r="465" spans="1:9">
       <c r="A465" s="21" t="s">
         <v>968</v>
       </c>
@@ -20323,7 +20316,7 @@
       </c>
       <c r="I465" s="23"/>
     </row>
-    <row r="466" spans="1:9" ht="30" hidden="1">
+    <row r="466" spans="1:9" ht="29">
       <c r="A466" s="21" t="s">
         <v>969</v>
       </c>
@@ -20348,7 +20341,7 @@
       </c>
       <c r="I466" s="23"/>
     </row>
-    <row r="467" spans="1:9" ht="30" hidden="1">
+    <row r="467" spans="1:9" ht="29">
       <c r="A467" s="21" t="s">
         <v>971</v>
       </c>
@@ -20373,7 +20366,7 @@
       </c>
       <c r="I467" s="23"/>
     </row>
-    <row r="468" spans="1:9" ht="30" hidden="1">
+    <row r="468" spans="1:9" ht="29">
       <c r="A468" s="21" t="s">
         <v>973</v>
       </c>
@@ -20398,7 +20391,7 @@
       </c>
       <c r="I468" s="23"/>
     </row>
-    <row r="469" spans="1:9" ht="30" hidden="1">
+    <row r="469" spans="1:9" ht="29">
       <c r="A469" s="21" t="s">
         <v>975</v>
       </c>
@@ -20423,7 +20416,7 @@
       </c>
       <c r="I469" s="23"/>
     </row>
-    <row r="470" spans="1:9" ht="30" hidden="1">
+    <row r="470" spans="1:9" ht="29">
       <c r="A470" s="21" t="s">
         <v>977</v>
       </c>
@@ -20448,7 +20441,7 @@
       </c>
       <c r="I470" s="23"/>
     </row>
-    <row r="471" spans="1:9" ht="30" hidden="1">
+    <row r="471" spans="1:9" ht="29">
       <c r="A471" s="21" t="s">
         <v>979</v>
       </c>
@@ -20473,7 +20466,7 @@
       </c>
       <c r="I471" s="23"/>
     </row>
-    <row r="472" spans="1:9" ht="30" hidden="1">
+    <row r="472" spans="1:9" ht="29">
       <c r="A472" s="21" t="s">
         <v>981</v>
       </c>
@@ -20498,7 +20491,7 @@
       </c>
       <c r="I472" s="23"/>
     </row>
-    <row r="473" spans="1:9" ht="30" hidden="1">
+    <row r="473" spans="1:9" ht="29">
       <c r="A473" s="21" t="s">
         <v>983</v>
       </c>
@@ -20523,7 +20516,7 @@
       </c>
       <c r="I473" s="23"/>
     </row>
-    <row r="474" spans="1:9" ht="30" hidden="1">
+    <row r="474" spans="1:9" ht="29">
       <c r="A474" s="21" t="s">
         <v>985</v>
       </c>
@@ -20548,7 +20541,7 @@
       </c>
       <c r="I474" s="23"/>
     </row>
-    <row r="475" spans="1:9" ht="30" hidden="1">
+    <row r="475" spans="1:9" ht="29">
       <c r="A475" s="21" t="s">
         <v>987</v>
       </c>
@@ -20573,7 +20566,7 @@
       </c>
       <c r="I475" s="23"/>
     </row>
-    <row r="476" spans="1:9" ht="30" hidden="1">
+    <row r="476" spans="1:9" ht="29">
       <c r="A476" s="21" t="s">
         <v>989</v>
       </c>
@@ -20598,7 +20591,7 @@
       </c>
       <c r="I476" s="23"/>
     </row>
-    <row r="477" spans="1:9" ht="30" hidden="1">
+    <row r="477" spans="1:9" ht="29">
       <c r="A477" s="21" t="s">
         <v>991</v>
       </c>
@@ -20623,7 +20616,7 @@
       </c>
       <c r="I477" s="23"/>
     </row>
-    <row r="478" spans="1:9" ht="30" hidden="1">
+    <row r="478" spans="1:9" ht="29">
       <c r="A478" s="21" t="s">
         <v>993</v>
       </c>
@@ -20648,7 +20641,7 @@
       </c>
       <c r="I478" s="23"/>
     </row>
-    <row r="479" spans="1:9" ht="30" hidden="1">
+    <row r="479" spans="1:9" ht="29">
       <c r="A479" s="21" t="s">
         <v>995</v>
       </c>
@@ -20673,7 +20666,7 @@
       </c>
       <c r="I479" s="23"/>
     </row>
-    <row r="480" spans="1:9" ht="30" hidden="1">
+    <row r="480" spans="1:9" ht="29">
       <c r="A480" s="21" t="s">
         <v>997</v>
       </c>
@@ -20698,7 +20691,7 @@
       </c>
       <c r="I480" s="23"/>
     </row>
-    <row r="481" spans="1:9" ht="30" hidden="1">
+    <row r="481" spans="1:9" ht="29">
       <c r="A481" s="21" t="s">
         <v>999</v>
       </c>
@@ -20723,7 +20716,7 @@
       </c>
       <c r="I481" s="23"/>
     </row>
-    <row r="482" spans="1:9" ht="30" hidden="1">
+    <row r="482" spans="1:9" ht="29">
       <c r="A482" s="21" t="s">
         <v>1001</v>
       </c>
@@ -20748,7 +20741,7 @@
       </c>
       <c r="I482" s="23"/>
     </row>
-    <row r="483" spans="1:9" ht="30" hidden="1">
+    <row r="483" spans="1:9" ht="29">
       <c r="A483" s="21" t="s">
         <v>1003</v>
       </c>
@@ -20773,7 +20766,7 @@
       </c>
       <c r="I483" s="23"/>
     </row>
-    <row r="484" spans="1:9" ht="30" hidden="1">
+    <row r="484" spans="1:9" ht="29">
       <c r="A484" s="21" t="s">
         <v>1005</v>
       </c>
@@ -20798,7 +20791,7 @@
       </c>
       <c r="I484" s="23"/>
     </row>
-    <row r="485" spans="1:9" ht="30" hidden="1">
+    <row r="485" spans="1:9" ht="29">
       <c r="A485" s="21" t="s">
         <v>1007</v>
       </c>
@@ -20823,7 +20816,7 @@
       </c>
       <c r="I485" s="23"/>
     </row>
-    <row r="486" spans="1:9" hidden="1">
+    <row r="486" spans="1:9">
       <c r="A486" s="21" t="s">
         <v>1009</v>
       </c>
@@ -20848,7 +20841,7 @@
       </c>
       <c r="I486" s="23"/>
     </row>
-    <row r="487" spans="1:9" hidden="1">
+    <row r="487" spans="1:9">
       <c r="A487" s="21" t="s">
         <v>1011</v>
       </c>
@@ -20873,7 +20866,7 @@
       </c>
       <c r="I487" s="23"/>
     </row>
-    <row r="488" spans="1:9" ht="30" hidden="1">
+    <row r="488" spans="1:9" ht="29">
       <c r="A488" s="21" t="s">
         <v>1013</v>
       </c>
@@ -20898,7 +20891,7 @@
       </c>
       <c r="I488" s="23"/>
     </row>
-    <row r="489" spans="1:9" ht="30" hidden="1">
+    <row r="489" spans="1:9" ht="29">
       <c r="A489" s="21" t="s">
         <v>1015</v>
       </c>
@@ -20923,7 +20916,7 @@
       </c>
       <c r="I489" s="23"/>
     </row>
-    <row r="490" spans="1:9" ht="30" hidden="1">
+    <row r="490" spans="1:9" ht="29">
       <c r="A490" s="21" t="s">
         <v>1017</v>
       </c>
@@ -20948,7 +20941,7 @@
       </c>
       <c r="I490" s="23"/>
     </row>
-    <row r="491" spans="1:9" ht="45" hidden="1">
+    <row r="491" spans="1:9" ht="43.5">
       <c r="A491" s="21" t="s">
         <v>1019</v>
       </c>
@@ -20973,7 +20966,7 @@
       </c>
       <c r="I491" s="23"/>
     </row>
-    <row r="492" spans="1:9" ht="30" hidden="1">
+    <row r="492" spans="1:9" ht="29">
       <c r="A492" s="21" t="s">
         <v>1021</v>
       </c>
@@ -20998,7 +20991,7 @@
       </c>
       <c r="I492" s="23"/>
     </row>
-    <row r="493" spans="1:9" hidden="1">
+    <row r="493" spans="1:9">
       <c r="A493" s="21" t="s">
         <v>1023</v>
       </c>
@@ -21023,7 +21016,7 @@
       </c>
       <c r="I493" s="23"/>
     </row>
-    <row r="494" spans="1:9" ht="30" hidden="1">
+    <row r="494" spans="1:9" ht="29">
       <c r="A494" s="21" t="s">
         <v>1025</v>
       </c>
@@ -21048,7 +21041,7 @@
       </c>
       <c r="I494" s="23"/>
     </row>
-    <row r="495" spans="1:9" ht="30" hidden="1">
+    <row r="495" spans="1:9" ht="29">
       <c r="A495" s="21" t="s">
         <v>1027</v>
       </c>
@@ -21073,7 +21066,7 @@
       </c>
       <c r="I495" s="23"/>
     </row>
-    <row r="496" spans="1:9" ht="30" hidden="1">
+    <row r="496" spans="1:9" ht="29">
       <c r="A496" s="21" t="s">
         <v>1030</v>
       </c>
@@ -21098,7 +21091,7 @@
       </c>
       <c r="I496" s="23"/>
     </row>
-    <row r="497" spans="1:9" hidden="1">
+    <row r="497" spans="1:9" ht="29">
       <c r="A497" s="21" t="s">
         <v>1032</v>
       </c>
@@ -21123,7 +21116,7 @@
       </c>
       <c r="I497" s="23"/>
     </row>
-    <row r="498" spans="1:9" hidden="1">
+    <row r="498" spans="1:9">
       <c r="A498" s="21" t="s">
         <v>1034</v>
       </c>
@@ -21148,7 +21141,7 @@
       </c>
       <c r="I498" s="23"/>
     </row>
-    <row r="499" spans="1:9" ht="30" hidden="1">
+    <row r="499" spans="1:9" ht="29">
       <c r="A499" s="21" t="s">
         <v>1036</v>
       </c>
@@ -21173,7 +21166,7 @@
       </c>
       <c r="I499" s="23"/>
     </row>
-    <row r="500" spans="1:9" ht="45" hidden="1">
+    <row r="500" spans="1:9" ht="43.5">
       <c r="A500" s="21" t="s">
         <v>1038</v>
       </c>
@@ -21198,7 +21191,7 @@
       </c>
       <c r="I500" s="23"/>
     </row>
-    <row r="501" spans="1:9" ht="45" hidden="1">
+    <row r="501" spans="1:9" ht="43.5">
       <c r="A501" s="21" t="s">
         <v>1040</v>
       </c>
@@ -21223,7 +21216,7 @@
       </c>
       <c r="I501" s="23"/>
     </row>
-    <row r="502" spans="1:9" hidden="1">
+    <row r="502" spans="1:9">
       <c r="A502" s="21" t="s">
         <v>1043</v>
       </c>
@@ -21248,7 +21241,7 @@
       </c>
       <c r="I502" s="23"/>
     </row>
-    <row r="503" spans="1:9" ht="45" hidden="1">
+    <row r="503" spans="1:9" ht="43.5">
       <c r="A503" s="21" t="s">
         <v>1045</v>
       </c>
@@ -21273,7 +21266,7 @@
       </c>
       <c r="I503" s="23"/>
     </row>
-    <row r="504" spans="1:9" ht="30" hidden="1">
+    <row r="504" spans="1:9" ht="43.5">
       <c r="A504" s="21" t="s">
         <v>1047</v>
       </c>
@@ -21298,7 +21291,7 @@
       </c>
       <c r="I504" s="23"/>
     </row>
-    <row r="505" spans="1:9" ht="45" hidden="1">
+    <row r="505" spans="1:9" ht="43.5">
       <c r="A505" s="21" t="s">
         <v>1049</v>
       </c>
@@ -21323,7 +21316,7 @@
       </c>
       <c r="I505" s="23"/>
     </row>
-    <row r="506" spans="1:9" ht="30" hidden="1">
+    <row r="506" spans="1:9" ht="29">
       <c r="A506" s="21" t="s">
         <v>1051</v>
       </c>
@@ -21348,7 +21341,7 @@
       </c>
       <c r="I506" s="23"/>
     </row>
-    <row r="507" spans="1:9" hidden="1">
+    <row r="507" spans="1:9">
       <c r="A507" s="21" t="s">
         <v>1054</v>
       </c>
@@ -21373,7 +21366,7 @@
       </c>
       <c r="I507" s="23"/>
     </row>
-    <row r="508" spans="1:9" ht="30" hidden="1">
+    <row r="508" spans="1:9" ht="29">
       <c r="A508" s="21" t="s">
         <v>1056</v>
       </c>
@@ -21398,7 +21391,7 @@
       </c>
       <c r="I508" s="23"/>
     </row>
-    <row r="509" spans="1:9" ht="30" hidden="1">
+    <row r="509" spans="1:9" ht="43.5">
       <c r="A509" s="21" t="s">
         <v>1058</v>
       </c>
@@ -21423,7 +21416,7 @@
       </c>
       <c r="I509" s="23"/>
     </row>
-    <row r="510" spans="1:9" ht="30" hidden="1">
+    <row r="510" spans="1:9" ht="43.5">
       <c r="A510" s="21" t="s">
         <v>1060</v>
       </c>
@@ -21448,7 +21441,7 @@
       </c>
       <c r="I510" s="23"/>
     </row>
-    <row r="511" spans="1:9" hidden="1">
+    <row r="511" spans="1:9">
       <c r="A511" s="21" t="s">
         <v>1063</v>
       </c>
@@ -21473,7 +21466,7 @@
       </c>
       <c r="I511" s="23"/>
     </row>
-    <row r="512" spans="1:9" ht="45" hidden="1">
+    <row r="512" spans="1:9" ht="43.5">
       <c r="A512" s="21" t="s">
         <v>1065</v>
       </c>
@@ -21498,7 +21491,7 @@
       </c>
       <c r="I512" s="23"/>
     </row>
-    <row r="513" spans="1:9" ht="30" hidden="1">
+    <row r="513" spans="1:9" ht="29">
       <c r="A513" s="21" t="s">
         <v>1067</v>
       </c>
@@ -21523,7 +21516,7 @@
       </c>
       <c r="I513" s="23"/>
     </row>
-    <row r="514" spans="1:9" hidden="1">
+    <row r="514" spans="1:9">
       <c r="A514" s="21" t="s">
         <v>1070</v>
       </c>
@@ -21548,7 +21541,7 @@
       </c>
       <c r="I514" s="23"/>
     </row>
-    <row r="515" spans="1:9" ht="30" hidden="1">
+    <row r="515" spans="1:9" ht="43.5">
       <c r="A515" s="21" t="s">
         <v>1072</v>
       </c>
@@ -21573,7 +21566,7 @@
       </c>
       <c r="I515" s="23"/>
     </row>
-    <row r="516" spans="1:9" hidden="1">
+    <row r="516" spans="1:9">
       <c r="A516" s="21" t="s">
         <v>1074</v>
       </c>
@@ -21598,7 +21591,7 @@
       </c>
       <c r="I516" s="23"/>
     </row>
-    <row r="517" spans="1:9" ht="30" hidden="1">
+    <row r="517" spans="1:9" ht="29">
       <c r="A517" s="21" t="s">
         <v>1076</v>
       </c>
@@ -21623,7 +21616,7 @@
       </c>
       <c r="I517" s="23"/>
     </row>
-    <row r="518" spans="1:9" ht="30" hidden="1">
+    <row r="518" spans="1:9" ht="29">
       <c r="A518" s="21" t="s">
         <v>1079</v>
       </c>
@@ -21648,7 +21641,7 @@
       </c>
       <c r="I518" s="23"/>
     </row>
-    <row r="519" spans="1:9" hidden="1">
+    <row r="519" spans="1:9">
       <c r="A519" s="21" t="s">
         <v>1081</v>
       </c>
@@ -21673,7 +21666,7 @@
       </c>
       <c r="I519" s="23"/>
     </row>
-    <row r="520" spans="1:9" ht="30" hidden="1">
+    <row r="520" spans="1:9" ht="29">
       <c r="A520" s="21" t="s">
         <v>1083</v>
       </c>
@@ -21698,7 +21691,7 @@
       </c>
       <c r="I520" s="23"/>
     </row>
-    <row r="521" spans="1:9" ht="45" hidden="1">
+    <row r="521" spans="1:9" ht="43.5">
       <c r="A521" s="21" t="s">
         <v>1085</v>
       </c>
@@ -21725,7 +21718,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="522" spans="1:9" ht="30" hidden="1">
+    <row r="522" spans="1:9" ht="29">
       <c r="A522" s="21" t="s">
         <v>1088</v>
       </c>
@@ -21752,7 +21745,7 @@
       </c>
       <c r="I522" s="23"/>
     </row>
-    <row r="523" spans="1:9" ht="30" hidden="1">
+    <row r="523" spans="1:9" ht="29">
       <c r="A523" s="21" t="s">
         <v>1090</v>
       </c>
@@ -21777,7 +21770,7 @@
       </c>
       <c r="I523" s="23"/>
     </row>
-    <row r="524" spans="1:9" ht="30" hidden="1">
+    <row r="524" spans="1:9" ht="29">
       <c r="A524" s="21" t="s">
         <v>1092</v>
       </c>
@@ -21802,7 +21795,7 @@
       </c>
       <c r="I524" s="23"/>
     </row>
-    <row r="525" spans="1:9" ht="45" hidden="1">
+    <row r="525" spans="1:9" ht="43.5">
       <c r="A525" s="21" t="s">
         <v>1094</v>
       </c>
@@ -21827,7 +21820,7 @@
       </c>
       <c r="I525" s="23"/>
     </row>
-    <row r="526" spans="1:9" hidden="1">
+    <row r="526" spans="1:9">
       <c r="A526" s="21" t="s">
         <v>1096</v>
       </c>
@@ -21852,7 +21845,7 @@
       </c>
       <c r="I526" s="23"/>
     </row>
-    <row r="527" spans="1:9" ht="30" hidden="1">
+    <row r="527" spans="1:9" ht="29">
       <c r="A527" s="21" t="s">
         <v>1098</v>
       </c>
@@ -21877,7 +21870,7 @@
       </c>
       <c r="I527" s="23"/>
     </row>
-    <row r="528" spans="1:9" ht="30" hidden="1">
+    <row r="528" spans="1:9" ht="29">
       <c r="A528" s="21" t="s">
         <v>1100</v>
       </c>
@@ -21902,7 +21895,7 @@
       </c>
       <c r="I528" s="23"/>
     </row>
-    <row r="529" spans="1:10" hidden="1">
+    <row r="529" spans="1:10">
       <c r="A529" s="21" t="s">
         <v>1102</v>
       </c>
@@ -21927,7 +21920,7 @@
       </c>
       <c r="I529" s="23"/>
     </row>
-    <row r="530" spans="1:10" ht="30" hidden="1">
+    <row r="530" spans="1:10" ht="43.5">
       <c r="A530" s="21" t="s">
         <v>1104</v>
       </c>
@@ -21952,7 +21945,7 @@
       </c>
       <c r="I530" s="23"/>
     </row>
-    <row r="531" spans="1:10" hidden="1">
+    <row r="531" spans="1:10">
       <c r="A531" s="21" t="s">
         <v>1107</v>
       </c>
@@ -21977,7 +21970,7 @@
       </c>
       <c r="I531" s="23"/>
     </row>
-    <row r="532" spans="1:10" ht="30" hidden="1">
+    <row r="532" spans="1:10" ht="29">
       <c r="A532" s="21" t="s">
         <v>1109</v>
       </c>
@@ -22002,7 +21995,7 @@
       </c>
       <c r="I532" s="23"/>
     </row>
-    <row r="533" spans="1:10" ht="45" hidden="1">
+    <row r="533" spans="1:10" ht="58">
       <c r="A533" s="21" t="s">
         <v>1111</v>
       </c>
@@ -22029,7 +22022,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="534" spans="1:10" ht="30" hidden="1">
+    <row r="534" spans="1:10" ht="29">
       <c r="A534" s="21" t="s">
         <v>1114</v>
       </c>
@@ -22056,7 +22049,7 @@
       </c>
       <c r="I534" s="23"/>
     </row>
-    <row r="535" spans="1:10" ht="30" hidden="1">
+    <row r="535" spans="1:10" ht="29">
       <c r="A535" s="21" t="s">
         <v>1116</v>
       </c>
@@ -22084,7 +22077,7 @@
       <c r="I535" s="23"/>
       <c r="J535" s="21"/>
     </row>
-    <row r="536" spans="1:10" ht="30" hidden="1">
+    <row r="536" spans="1:10" ht="29">
       <c r="A536" s="21" t="s">
         <v>1118</v>
       </c>
@@ -22109,7 +22102,7 @@
       </c>
       <c r="I536" s="23"/>
     </row>
-    <row r="537" spans="1:10" ht="30" hidden="1">
+    <row r="537" spans="1:10" ht="29">
       <c r="A537" s="21" t="s">
         <v>1120</v>
       </c>
@@ -22134,7 +22127,7 @@
       </c>
       <c r="I537" s="23"/>
     </row>
-    <row r="538" spans="1:10" ht="45" hidden="1">
+    <row r="538" spans="1:10" ht="58">
       <c r="A538" s="21" t="s">
         <v>1122</v>
       </c>
@@ -22159,7 +22152,7 @@
       </c>
       <c r="I538" s="23"/>
     </row>
-    <row r="539" spans="1:10" ht="45" hidden="1">
+    <row r="539" spans="1:10" ht="58">
       <c r="A539" s="21" t="s">
         <v>1124</v>
       </c>
@@ -22185,7 +22178,7 @@
       <c r="I539" s="23"/>
       <c r="J539" s="21"/>
     </row>
-    <row r="540" spans="1:10" ht="30" hidden="1">
+    <row r="540" spans="1:10" ht="29">
       <c r="A540" s="21" t="s">
         <v>1126</v>
       </c>
@@ -22210,7 +22203,7 @@
       </c>
       <c r="I540" s="23"/>
     </row>
-    <row r="541" spans="1:10" ht="30" hidden="1">
+    <row r="541" spans="1:10" ht="29">
       <c r="A541" s="21" t="s">
         <v>1128</v>
       </c>
@@ -22235,7 +22228,7 @@
       </c>
       <c r="I541" s="23"/>
     </row>
-    <row r="542" spans="1:10" ht="30" hidden="1">
+    <row r="542" spans="1:10" ht="29">
       <c r="A542" s="21" t="s">
         <v>1130</v>
       </c>
@@ -22260,7 +22253,7 @@
       </c>
       <c r="I542" s="23"/>
     </row>
-    <row r="543" spans="1:10" hidden="1">
+    <row r="543" spans="1:10">
       <c r="A543" s="21" t="s">
         <v>1132</v>
       </c>
@@ -22285,7 +22278,7 @@
       </c>
       <c r="I543" s="23"/>
     </row>
-    <row r="544" spans="1:10" hidden="1">
+    <row r="544" spans="1:10">
       <c r="A544" s="21" t="s">
         <v>1134</v>
       </c>
@@ -22310,7 +22303,7 @@
       </c>
       <c r="I544" s="23"/>
     </row>
-    <row r="545" spans="1:9" ht="30" hidden="1">
+    <row r="545" spans="1:9" ht="29">
       <c r="A545" s="21" t="s">
         <v>1136</v>
       </c>
@@ -22335,7 +22328,7 @@
       </c>
       <c r="I545" s="23"/>
     </row>
-    <row r="546" spans="1:9" ht="30" hidden="1">
+    <row r="546" spans="1:9" ht="29">
       <c r="A546" s="21" t="s">
         <v>1138</v>
       </c>
@@ -22360,7 +22353,7 @@
       </c>
       <c r="I546" s="23"/>
     </row>
-    <row r="547" spans="1:9" ht="30" hidden="1">
+    <row r="547" spans="1:9" ht="43.5">
       <c r="A547" s="21" t="s">
         <v>1140</v>
       </c>
@@ -22385,7 +22378,7 @@
       </c>
       <c r="I547" s="23"/>
     </row>
-    <row r="548" spans="1:9" hidden="1">
+    <row r="548" spans="1:9">
       <c r="A548" s="21" t="s">
         <v>1143</v>
       </c>
@@ -22410,7 +22403,7 @@
       </c>
       <c r="I548" s="23"/>
     </row>
-    <row r="549" spans="1:9" ht="30" hidden="1">
+    <row r="549" spans="1:9" ht="29">
       <c r="A549" s="21" t="s">
         <v>1145</v>
       </c>
@@ -22435,7 +22428,7 @@
       </c>
       <c r="I549" s="23"/>
     </row>
-    <row r="550" spans="1:9" ht="30" hidden="1">
+    <row r="550" spans="1:9" ht="29">
       <c r="A550" s="21" t="s">
         <v>1147</v>
       </c>
@@ -22460,7 +22453,7 @@
       </c>
       <c r="I550" s="23"/>
     </row>
-    <row r="551" spans="1:9" ht="30" hidden="1">
+    <row r="551" spans="1:9" ht="29">
       <c r="A551" s="21" t="s">
         <v>1149</v>
       </c>
@@ -22485,7 +22478,7 @@
       </c>
       <c r="I551" s="23"/>
     </row>
-    <row r="552" spans="1:9" hidden="1">
+    <row r="552" spans="1:9">
       <c r="A552" s="21" t="s">
         <v>1152</v>
       </c>
@@ -22510,7 +22503,7 @@
       </c>
       <c r="I552" s="23"/>
     </row>
-    <row r="553" spans="1:9" hidden="1">
+    <row r="553" spans="1:9">
       <c r="A553" s="21" t="s">
         <v>1154</v>
       </c>
@@ -22535,7 +22528,7 @@
       </c>
       <c r="I553" s="23"/>
     </row>
-    <row r="554" spans="1:9" hidden="1">
+    <row r="554" spans="1:9">
       <c r="A554" s="21" t="s">
         <v>1156</v>
       </c>
@@ -22560,7 +22553,7 @@
       </c>
       <c r="I554" s="23"/>
     </row>
-    <row r="555" spans="1:9" ht="30" hidden="1">
+    <row r="555" spans="1:9" ht="29">
       <c r="A555" s="21" t="s">
         <v>1158</v>
       </c>
@@ -22585,7 +22578,7 @@
       </c>
       <c r="I555" s="23"/>
     </row>
-    <row r="556" spans="1:9" hidden="1">
+    <row r="556" spans="1:9">
       <c r="A556" s="21" t="s">
         <v>1161</v>
       </c>
@@ -22610,7 +22603,7 @@
       </c>
       <c r="I556" s="23"/>
     </row>
-    <row r="557" spans="1:9" hidden="1">
+    <row r="557" spans="1:9">
       <c r="A557" s="21" t="s">
         <v>1163</v>
       </c>
@@ -22635,7 +22628,7 @@
       </c>
       <c r="I557" s="23"/>
     </row>
-    <row r="558" spans="1:9" hidden="1">
+    <row r="558" spans="1:9" ht="29">
       <c r="A558" s="21" t="s">
         <v>1165</v>
       </c>
@@ -22660,7 +22653,7 @@
       </c>
       <c r="I558" s="23"/>
     </row>
-    <row r="559" spans="1:9" hidden="1">
+    <row r="559" spans="1:9">
       <c r="A559" s="21" t="s">
         <v>1167</v>
       </c>
@@ -22685,7 +22678,7 @@
       </c>
       <c r="I559" s="23"/>
     </row>
-    <row r="560" spans="1:9" ht="60" hidden="1">
+    <row r="560" spans="1:9" ht="58">
       <c r="A560" s="21" t="s">
         <v>1169</v>
       </c>
@@ -22712,7 +22705,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="561" spans="1:9" ht="30" hidden="1">
+    <row r="561" spans="1:9" ht="43.5">
       <c r="A561" s="21" t="s">
         <v>1172</v>
       </c>
@@ -22739,7 +22732,7 @@
       </c>
       <c r="I561" s="23"/>
     </row>
-    <row r="562" spans="1:9" hidden="1">
+    <row r="562" spans="1:9">
       <c r="A562" s="21" t="s">
         <v>1174</v>
       </c>
@@ -22764,7 +22757,7 @@
       </c>
       <c r="I562" s="23"/>
     </row>
-    <row r="563" spans="1:9" ht="45" hidden="1">
+    <row r="563" spans="1:9" ht="43.5">
       <c r="A563" s="21" t="s">
         <v>1176</v>
       </c>
@@ -22791,7 +22784,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="564" spans="1:9" ht="30" hidden="1">
+    <row r="564" spans="1:9" ht="29">
       <c r="A564" s="21" t="s">
         <v>1179</v>
       </c>
@@ -22818,7 +22811,7 @@
       </c>
       <c r="I564" s="23"/>
     </row>
-    <row r="565" spans="1:9" ht="60" hidden="1">
+    <row r="565" spans="1:9" ht="58">
       <c r="A565" s="21" t="s">
         <v>1181</v>
       </c>
@@ -22843,7 +22836,7 @@
       </c>
       <c r="I565" s="23"/>
     </row>
-    <row r="566" spans="1:9" hidden="1">
+    <row r="566" spans="1:9">
       <c r="A566" s="21" t="s">
         <v>1184</v>
       </c>
@@ -22868,7 +22861,7 @@
       </c>
       <c r="I566" s="23"/>
     </row>
-    <row r="567" spans="1:9" hidden="1">
+    <row r="567" spans="1:9">
       <c r="A567" s="21" t="s">
         <v>1186</v>
       </c>
@@ -22893,7 +22886,7 @@
       </c>
       <c r="I567" s="23"/>
     </row>
-    <row r="568" spans="1:9" ht="30" hidden="1">
+    <row r="568" spans="1:9" ht="43.5">
       <c r="A568" s="21" t="s">
         <v>1188</v>
       </c>
@@ -22918,7 +22911,7 @@
       </c>
       <c r="I568" s="23"/>
     </row>
-    <row r="569" spans="1:9" ht="30" hidden="1">
+    <row r="569" spans="1:9" ht="29">
       <c r="A569" s="21" t="s">
         <v>1190</v>
       </c>
@@ -22943,7 +22936,7 @@
       </c>
       <c r="I569" s="23"/>
     </row>
-    <row r="570" spans="1:9" ht="30" hidden="1">
+    <row r="570" spans="1:9" ht="29">
       <c r="A570" s="21" t="s">
         <v>1192</v>
       </c>
@@ -22968,7 +22961,7 @@
       </c>
       <c r="I570" s="23"/>
     </row>
-    <row r="571" spans="1:9" hidden="1">
+    <row r="571" spans="1:9">
       <c r="A571" s="21" t="s">
         <v>1194</v>
       </c>
@@ -22993,7 +22986,7 @@
       </c>
       <c r="I571" s="23"/>
     </row>
-    <row r="572" spans="1:9" ht="60" hidden="1">
+    <row r="572" spans="1:9" ht="58">
       <c r="A572" s="21" t="s">
         <v>1196</v>
       </c>
@@ -23020,7 +23013,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="573" spans="1:9" ht="45" hidden="1">
+    <row r="573" spans="1:9" ht="43.5">
       <c r="A573" s="21" t="s">
         <v>1199</v>
       </c>
@@ -23047,7 +23040,7 @@
       </c>
       <c r="I573" s="23"/>
     </row>
-    <row r="574" spans="1:9" ht="60" hidden="1">
+    <row r="574" spans="1:9" ht="58">
       <c r="A574" s="21" t="s">
         <v>1201</v>
       </c>
@@ -23072,7 +23065,7 @@
       </c>
       <c r="I574" s="23"/>
     </row>
-    <row r="575" spans="1:9" hidden="1">
+    <row r="575" spans="1:9">
       <c r="A575" s="21" t="s">
         <v>1204</v>
       </c>
@@ -23097,7 +23090,7 @@
       </c>
       <c r="I575" s="23"/>
     </row>
-    <row r="576" spans="1:9" hidden="1">
+    <row r="576" spans="1:9">
       <c r="A576" s="21" t="s">
         <v>1206</v>
       </c>
@@ -23122,7 +23115,7 @@
       </c>
       <c r="I576" s="23"/>
     </row>
-    <row r="577" spans="1:9" ht="30" hidden="1">
+    <row r="577" spans="1:9" ht="43.5">
       <c r="A577" s="21" t="s">
         <v>1208</v>
       </c>
@@ -23147,7 +23140,7 @@
       </c>
       <c r="I577" s="23"/>
     </row>
-    <row r="578" spans="1:9" ht="30" hidden="1">
+    <row r="578" spans="1:9" ht="29">
       <c r="A578" s="21" t="s">
         <v>1210</v>
       </c>
@@ -23172,7 +23165,7 @@
       </c>
       <c r="I578" s="23"/>
     </row>
-    <row r="579" spans="1:9" ht="30" hidden="1">
+    <row r="579" spans="1:9" ht="29">
       <c r="A579" s="21" t="s">
         <v>1212</v>
       </c>
@@ -23197,7 +23190,7 @@
       </c>
       <c r="I579" s="23"/>
     </row>
-    <row r="580" spans="1:9" ht="45" hidden="1">
+    <row r="580" spans="1:9" ht="43.5">
       <c r="A580" s="21" t="s">
         <v>1214</v>
       </c>
@@ -23222,7 +23215,7 @@
       </c>
       <c r="I580" s="23"/>
     </row>
-    <row r="581" spans="1:9" ht="30" hidden="1">
+    <row r="581" spans="1:9" ht="29">
       <c r="A581" s="21" t="s">
         <v>1216</v>
       </c>
@@ -23247,7 +23240,7 @@
       </c>
       <c r="I581" s="23"/>
     </row>
-    <row r="582" spans="1:9" hidden="1">
+    <row r="582" spans="1:9">
       <c r="A582" s="21" t="s">
         <v>1218</v>
       </c>
@@ -23272,7 +23265,7 @@
       </c>
       <c r="I582" s="23"/>
     </row>
-    <row r="583" spans="1:9" ht="75" hidden="1">
+    <row r="583" spans="1:9" ht="87">
       <c r="A583" s="21" t="s">
         <v>1220</v>
       </c>
@@ -23299,7 +23292,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="584" spans="1:9" ht="60" hidden="1">
+    <row r="584" spans="1:9" ht="58">
       <c r="A584" s="21" t="s">
         <v>1223</v>
       </c>
@@ -23326,7 +23319,7 @@
       </c>
       <c r="I584" s="23"/>
     </row>
-    <row r="585" spans="1:9" ht="30" hidden="1">
+    <row r="585" spans="1:9" ht="29">
       <c r="A585" s="21" t="s">
         <v>1225</v>
       </c>
@@ -23351,7 +23344,7 @@
       </c>
       <c r="I585" s="23"/>
     </row>
-    <row r="586" spans="1:9" hidden="1">
+    <row r="586" spans="1:9">
       <c r="A586" s="21" t="s">
         <v>1228</v>
       </c>
@@ -23376,7 +23369,7 @@
       </c>
       <c r="I586" s="23"/>
     </row>
-    <row r="587" spans="1:9" ht="30" hidden="1">
+    <row r="587" spans="1:9" ht="29">
       <c r="A587" s="21" t="s">
         <v>1230</v>
       </c>
@@ -23401,7 +23394,7 @@
       </c>
       <c r="I587" s="23"/>
     </row>
-    <row r="588" spans="1:9" hidden="1">
+    <row r="588" spans="1:9">
       <c r="A588" s="21" t="s">
         <v>1232</v>
       </c>
@@ -23426,7 +23419,7 @@
       </c>
       <c r="I588" s="23"/>
     </row>
-    <row r="589" spans="1:9" ht="45" hidden="1">
+    <row r="589" spans="1:9" ht="43.5">
       <c r="A589" s="21" t="s">
         <v>1234</v>
       </c>
@@ -23451,7 +23444,7 @@
       </c>
       <c r="I589" s="23"/>
     </row>
-    <row r="590" spans="1:9" ht="30" hidden="1">
+    <row r="590" spans="1:9" ht="29">
       <c r="A590" s="21" t="s">
         <v>1236</v>
       </c>
@@ -23476,7 +23469,7 @@
       </c>
       <c r="I590" s="23"/>
     </row>
-    <row r="591" spans="1:9" ht="30" hidden="1">
+    <row r="591" spans="1:9" ht="43.5">
       <c r="A591" s="21" t="s">
         <v>1238</v>
       </c>
@@ -23501,7 +23494,7 @@
       </c>
       <c r="I591" s="23"/>
     </row>
-    <row r="592" spans="1:9" ht="45" hidden="1">
+    <row r="592" spans="1:9" ht="43.5">
       <c r="A592" s="21" t="s">
         <v>1240</v>
       </c>
@@ -23526,7 +23519,7 @@
       </c>
       <c r="I592" s="23"/>
     </row>
-    <row r="593" spans="1:9" ht="30" hidden="1">
+    <row r="593" spans="1:9" ht="29">
       <c r="A593" s="21" t="s">
         <v>1242</v>
       </c>
@@ -23551,7 +23544,7 @@
       </c>
       <c r="I593" s="23"/>
     </row>
-    <row r="594" spans="1:9" ht="30" hidden="1">
+    <row r="594" spans="1:9" ht="29">
       <c r="A594" s="21" t="s">
         <v>1244</v>
       </c>
@@ -23576,7 +23569,7 @@
       </c>
       <c r="I594" s="23"/>
     </row>
-    <row r="595" spans="1:9" ht="30" hidden="1">
+    <row r="595" spans="1:9" ht="43.5">
       <c r="A595" s="21" t="s">
         <v>1247</v>
       </c>
@@ -23601,7 +23594,7 @@
       </c>
       <c r="I595" s="23"/>
     </row>
-    <row r="596" spans="1:9" ht="30" hidden="1">
+    <row r="596" spans="1:9" ht="29">
       <c r="A596" s="21" t="s">
         <v>1249</v>
       </c>
@@ -23626,7 +23619,7 @@
       </c>
       <c r="I596" s="23"/>
     </row>
-    <row r="597" spans="1:9" hidden="1">
+    <row r="597" spans="1:9">
       <c r="A597" s="21" t="s">
         <v>1251</v>
       </c>
@@ -23651,7 +23644,7 @@
       </c>
       <c r="I597" s="23"/>
     </row>
-    <row r="598" spans="1:9" ht="45" hidden="1">
+    <row r="598" spans="1:9" ht="43.5">
       <c r="A598" s="21" t="s">
         <v>1253</v>
       </c>
@@ -23676,7 +23669,7 @@
       </c>
       <c r="I598" s="23"/>
     </row>
-    <row r="599" spans="1:9" ht="30" hidden="1">
+    <row r="599" spans="1:9" ht="29">
       <c r="A599" s="21" t="s">
         <v>1255</v>
       </c>
@@ -23701,7 +23694,7 @@
       </c>
       <c r="I599" s="23"/>
     </row>
-    <row r="600" spans="1:9" ht="30" hidden="1">
+    <row r="600" spans="1:9" ht="43.5">
       <c r="A600" s="21" t="s">
         <v>1257</v>
       </c>
@@ -23726,7 +23719,7 @@
       </c>
       <c r="I600" s="23"/>
     </row>
-    <row r="601" spans="1:9" ht="45" hidden="1">
+    <row r="601" spans="1:9" ht="43.5">
       <c r="A601" s="21" t="s">
         <v>1259</v>
       </c>
@@ -23751,7 +23744,7 @@
       </c>
       <c r="I601" s="23"/>
     </row>
-    <row r="602" spans="1:9" hidden="1">
+    <row r="602" spans="1:9">
       <c r="A602" s="21" t="s">
         <v>1261</v>
       </c>
@@ -23776,7 +23769,7 @@
       </c>
       <c r="I602" s="23"/>
     </row>
-    <row r="603" spans="1:9" ht="30" hidden="1">
+    <row r="603" spans="1:9" ht="29">
       <c r="A603" s="21" t="s">
         <v>1263</v>
       </c>
@@ -23801,7 +23794,7 @@
       </c>
       <c r="I603" s="23"/>
     </row>
-    <row r="604" spans="1:9" ht="45" hidden="1">
+    <row r="604" spans="1:9" ht="43.5">
       <c r="A604" s="21" t="s">
         <v>1265</v>
       </c>
@@ -23826,7 +23819,7 @@
       </c>
       <c r="I604" s="23"/>
     </row>
-    <row r="605" spans="1:9" hidden="1">
+    <row r="605" spans="1:9">
       <c r="A605" s="21" t="s">
         <v>1268</v>
       </c>
@@ -23851,7 +23844,7 @@
       </c>
       <c r="I605" s="23"/>
     </row>
-    <row r="606" spans="1:9" hidden="1">
+    <row r="606" spans="1:9">
       <c r="A606" s="21" t="s">
         <v>1270</v>
       </c>
@@ -23876,7 +23869,7 @@
       </c>
       <c r="I606" s="23"/>
     </row>
-    <row r="607" spans="1:9" ht="30" hidden="1">
+    <row r="607" spans="1:9" ht="43.5">
       <c r="A607" s="21" t="s">
         <v>1272</v>
       </c>
@@ -23901,7 +23894,7 @@
       </c>
       <c r="I607" s="23"/>
     </row>
-    <row r="608" spans="1:9" ht="30" hidden="1">
+    <row r="608" spans="1:9" ht="29">
       <c r="A608" s="21" t="s">
         <v>1274</v>
       </c>
@@ -23926,7 +23919,7 @@
       </c>
       <c r="I608" s="23"/>
     </row>
-    <row r="609" spans="1:9" ht="30" hidden="1">
+    <row r="609" spans="1:9" ht="29">
       <c r="A609" s="21" t="s">
         <v>1276</v>
       </c>
@@ -23951,7 +23944,7 @@
       </c>
       <c r="I609" s="23"/>
     </row>
-    <row r="610" spans="1:9" hidden="1">
+    <row r="610" spans="1:9">
       <c r="A610" s="21" t="s">
         <v>1279</v>
       </c>
@@ -23976,7 +23969,7 @@
       </c>
       <c r="I610" s="23"/>
     </row>
-    <row r="611" spans="1:9" hidden="1">
+    <row r="611" spans="1:9">
       <c r="A611" s="21" t="s">
         <v>1281</v>
       </c>
@@ -24001,7 +23994,7 @@
       </c>
       <c r="I611" s="23"/>
     </row>
-    <row r="612" spans="1:9" ht="30" hidden="1">
+    <row r="612" spans="1:9" ht="43.5">
       <c r="A612" s="21" t="s">
         <v>1283</v>
       </c>
@@ -24026,7 +24019,7 @@
       </c>
       <c r="I612" s="23"/>
     </row>
-    <row r="613" spans="1:9" ht="30" hidden="1">
+    <row r="613" spans="1:9" ht="29">
       <c r="A613" s="21" t="s">
         <v>1285</v>
       </c>
@@ -24051,7 +24044,7 @@
       </c>
       <c r="I613" s="23"/>
     </row>
-    <row r="614" spans="1:9" ht="30" hidden="1">
+    <row r="614" spans="1:9" ht="29">
       <c r="A614" s="21" t="s">
         <v>1287</v>
       </c>
@@ -24076,7 +24069,7 @@
       </c>
       <c r="I614" s="23"/>
     </row>
-    <row r="615" spans="1:9" hidden="1">
+    <row r="615" spans="1:9">
       <c r="A615" s="21" t="s">
         <v>1290</v>
       </c>
@@ -24101,7 +24094,7 @@
       </c>
       <c r="I615" s="23"/>
     </row>
-    <row r="616" spans="1:9" hidden="1">
+    <row r="616" spans="1:9">
       <c r="A616" s="21" t="s">
         <v>1292</v>
       </c>
@@ -24126,7 +24119,7 @@
       </c>
       <c r="I616" s="23"/>
     </row>
-    <row r="617" spans="1:9" ht="30" hidden="1">
+    <row r="617" spans="1:9" ht="29">
       <c r="A617" s="21" t="s">
         <v>1294</v>
       </c>
@@ -24151,7 +24144,7 @@
       </c>
       <c r="I617" s="23"/>
     </row>
-    <row r="618" spans="1:9" ht="45" hidden="1">
+    <row r="618" spans="1:9" ht="43.5">
       <c r="A618" s="21" t="s">
         <v>1296</v>
       </c>
@@ -24176,7 +24169,7 @@
       </c>
       <c r="I618" s="23"/>
     </row>
-    <row r="619" spans="1:9" hidden="1">
+    <row r="619" spans="1:9" ht="29">
       <c r="A619" s="21" t="s">
         <v>1298</v>
       </c>
@@ -24201,7 +24194,7 @@
       </c>
       <c r="I619" s="23"/>
     </row>
-    <row r="620" spans="1:9" ht="45" hidden="1">
+    <row r="620" spans="1:9" ht="43.5">
       <c r="A620" s="21" t="s">
         <v>1300</v>
       </c>
@@ -24226,7 +24219,7 @@
       </c>
       <c r="I620" s="23"/>
     </row>
-    <row r="621" spans="1:9" hidden="1">
+    <row r="621" spans="1:9">
       <c r="A621" s="21" t="s">
         <v>1303</v>
       </c>
@@ -24251,7 +24244,7 @@
       </c>
       <c r="I621" s="23"/>
     </row>
-    <row r="622" spans="1:9" ht="30" hidden="1">
+    <row r="622" spans="1:9" ht="29">
       <c r="A622" s="21" t="s">
         <v>1305</v>
       </c>
@@ -24276,7 +24269,7 @@
       </c>
       <c r="I622" s="23"/>
     </row>
-    <row r="623" spans="1:9" ht="30" hidden="1">
+    <row r="623" spans="1:9" ht="29">
       <c r="A623" s="21" t="s">
         <v>1307</v>
       </c>
@@ -24301,7 +24294,7 @@
       </c>
       <c r="I623" s="23"/>
     </row>
-    <row r="624" spans="1:9" ht="30" hidden="1">
+    <row r="624" spans="1:9" ht="29">
       <c r="A624" s="21" t="s">
         <v>1309</v>
       </c>
@@ -24326,7 +24319,7 @@
       </c>
       <c r="I624" s="23"/>
     </row>
-    <row r="625" spans="1:9" ht="45" hidden="1">
+    <row r="625" spans="1:9" ht="58">
       <c r="A625" s="21" t="s">
         <v>1312</v>
       </c>
@@ -24351,7 +24344,7 @@
       </c>
       <c r="I625" s="23"/>
     </row>
-    <row r="626" spans="1:9" hidden="1">
+    <row r="626" spans="1:9">
       <c r="A626" s="21" t="s">
         <v>1314</v>
       </c>
@@ -24376,7 +24369,7 @@
       </c>
       <c r="I626" s="23"/>
     </row>
-    <row r="627" spans="1:9" ht="60" hidden="1">
+    <row r="627" spans="1:9" ht="58">
       <c r="A627" s="21" t="s">
         <v>1316</v>
       </c>
@@ -24403,7 +24396,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="628" spans="1:9" ht="30" hidden="1">
+    <row r="628" spans="1:9" ht="29">
       <c r="A628" s="21" t="s">
         <v>1319</v>
       </c>
@@ -24428,7 +24421,7 @@
       </c>
       <c r="I628" s="23"/>
     </row>
-    <row r="629" spans="1:9" hidden="1">
+    <row r="629" spans="1:9" ht="29">
       <c r="A629" s="21" t="s">
         <v>1321</v>
       </c>
@@ -24453,7 +24446,7 @@
       </c>
       <c r="I629" s="23"/>
     </row>
-    <row r="630" spans="1:9" ht="30" hidden="1">
+    <row r="630" spans="1:9" ht="29">
       <c r="A630" s="21" t="s">
         <v>1323</v>
       </c>
@@ -24478,7 +24471,7 @@
       </c>
       <c r="I630" s="23"/>
     </row>
-    <row r="631" spans="1:9" ht="30" hidden="1">
+    <row r="631" spans="1:9" ht="29">
       <c r="A631" s="21" t="s">
         <v>1325</v>
       </c>
@@ -24503,7 +24496,7 @@
       </c>
       <c r="I631" s="23"/>
     </row>
-    <row r="632" spans="1:9" ht="45" hidden="1">
+    <row r="632" spans="1:9" ht="43.5">
       <c r="A632" s="21" t="s">
         <v>1328</v>
       </c>
@@ -24528,7 +24521,7 @@
       </c>
       <c r="I632" s="23"/>
     </row>
-    <row r="633" spans="1:9" ht="30" hidden="1">
+    <row r="633" spans="1:9" ht="29">
       <c r="A633" s="21" t="s">
         <v>1330</v>
       </c>
@@ -24553,7 +24546,7 @@
       </c>
       <c r="I633" s="23"/>
     </row>
-    <row r="634" spans="1:9" hidden="1">
+    <row r="634" spans="1:9" ht="29">
       <c r="A634" s="21" t="s">
         <v>1332</v>
       </c>
@@ -24578,7 +24571,7 @@
       </c>
       <c r="I634" s="23"/>
     </row>
-    <row r="635" spans="1:9" ht="30" hidden="1">
+    <row r="635" spans="1:9" ht="43.5">
       <c r="A635" s="21" t="s">
         <v>1334</v>
       </c>
@@ -24603,7 +24596,7 @@
       </c>
       <c r="I635" s="23"/>
     </row>
-    <row r="636" spans="1:9" hidden="1">
+    <row r="636" spans="1:9">
       <c r="A636" s="21" t="s">
         <v>1336</v>
       </c>
@@ -24628,7 +24621,7 @@
       </c>
       <c r="I636" s="23"/>
     </row>
-    <row r="637" spans="1:9" ht="45" hidden="1">
+    <row r="637" spans="1:9" ht="43.5">
       <c r="A637" s="21" t="s">
         <v>1338</v>
       </c>
@@ -24653,7 +24646,7 @@
       </c>
       <c r="I637" s="23"/>
     </row>
-    <row r="638" spans="1:9" ht="30" hidden="1">
+    <row r="638" spans="1:9" ht="43.5">
       <c r="A638" s="21" t="s">
         <v>1340</v>
       </c>
@@ -24678,7 +24671,7 @@
       </c>
       <c r="I638" s="23"/>
     </row>
-    <row r="639" spans="1:9" hidden="1">
+    <row r="639" spans="1:9">
       <c r="A639" s="21" t="s">
         <v>1342</v>
       </c>
@@ -24703,7 +24696,7 @@
       </c>
       <c r="I639" s="23"/>
     </row>
-    <row r="640" spans="1:9" ht="30" hidden="1">
+    <row r="640" spans="1:9" ht="29">
       <c r="A640" s="21" t="s">
         <v>1344</v>
       </c>
@@ -24728,7 +24721,7 @@
       </c>
       <c r="I640" s="23"/>
     </row>
-    <row r="641" spans="1:9" ht="30" hidden="1">
+    <row r="641" spans="1:9" ht="43.5">
       <c r="A641" s="21" t="s">
         <v>1347</v>
       </c>
@@ -24753,7 +24746,7 @@
       </c>
       <c r="I641" s="23"/>
     </row>
-    <row r="642" spans="1:9" hidden="1">
+    <row r="642" spans="1:9">
       <c r="A642" s="21" t="s">
         <v>1349</v>
       </c>
@@ -24778,7 +24771,7 @@
       </c>
       <c r="I642" s="23"/>
     </row>
-    <row r="643" spans="1:9" hidden="1">
+    <row r="643" spans="1:9">
       <c r="A643" s="21" t="s">
         <v>1351</v>
       </c>
@@ -24803,7 +24796,7 @@
       </c>
       <c r="I643" s="23"/>
     </row>
-    <row r="644" spans="1:9" ht="30" hidden="1">
+    <row r="644" spans="1:9" ht="29">
       <c r="A644" s="21" t="s">
         <v>1353</v>
       </c>
@@ -24828,7 +24821,7 @@
       </c>
       <c r="I644" s="23"/>
     </row>
-    <row r="645" spans="1:9" ht="30" hidden="1">
+    <row r="645" spans="1:9" ht="29">
       <c r="A645" s="21" t="s">
         <v>1355</v>
       </c>
@@ -24853,7 +24846,7 @@
       </c>
       <c r="I645" s="23"/>
     </row>
-    <row r="646" spans="1:9" ht="30" hidden="1">
+    <row r="646" spans="1:9" ht="29">
       <c r="A646" s="21" t="s">
         <v>1358</v>
       </c>
@@ -24878,7 +24871,7 @@
       </c>
       <c r="I646" s="23"/>
     </row>
-    <row r="647" spans="1:9" hidden="1">
+    <row r="647" spans="1:9">
       <c r="A647" s="21" t="s">
         <v>1360</v>
       </c>
@@ -24903,7 +24896,7 @@
       </c>
       <c r="I647" s="23"/>
     </row>
-    <row r="648" spans="1:9" ht="30" hidden="1">
+    <row r="648" spans="1:9" ht="29">
       <c r="A648" s="21" t="s">
         <v>1362</v>
       </c>
@@ -24928,7 +24921,7 @@
       </c>
       <c r="I648" s="23"/>
     </row>
-    <row r="649" spans="1:9" ht="30" hidden="1">
+    <row r="649" spans="1:9" ht="29">
       <c r="A649" s="21" t="s">
         <v>1364</v>
       </c>
@@ -24953,7 +24946,7 @@
       </c>
       <c r="I649" s="23"/>
     </row>
-    <row r="650" spans="1:9" ht="30" hidden="1">
+    <row r="650" spans="1:9" ht="29">
       <c r="A650" s="21" t="s">
         <v>1366</v>
       </c>
@@ -24980,7 +24973,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="651" spans="1:9" ht="30" hidden="1">
+    <row r="651" spans="1:9" ht="29">
       <c r="A651" s="21" t="s">
         <v>1369</v>
       </c>
@@ -25007,7 +25000,7 @@
       </c>
       <c r="I651" s="23"/>
     </row>
-    <row r="652" spans="1:9" ht="30" hidden="1">
+    <row r="652" spans="1:9" ht="29">
       <c r="A652" s="21" t="s">
         <v>1371</v>
       </c>
@@ -25032,7 +25025,7 @@
       </c>
       <c r="I652" s="23"/>
     </row>
-    <row r="653" spans="1:9" hidden="1">
+    <row r="653" spans="1:9" ht="29">
       <c r="A653" s="21" t="s">
         <v>1374</v>
       </c>
@@ -25057,7 +25050,7 @@
       </c>
       <c r="I653" s="23"/>
     </row>
-    <row r="654" spans="1:9" hidden="1">
+    <row r="654" spans="1:9">
       <c r="A654" s="21" t="s">
         <v>1376</v>
       </c>
@@ -25082,7 +25075,7 @@
       </c>
       <c r="I654" s="23"/>
     </row>
-    <row r="655" spans="1:9" ht="45" hidden="1">
+    <row r="655" spans="1:9" ht="58">
       <c r="A655" s="21" t="s">
         <v>1378</v>
       </c>
@@ -25107,7 +25100,7 @@
       </c>
       <c r="I655" s="23"/>
     </row>
-    <row r="656" spans="1:9" ht="30" hidden="1">
+    <row r="656" spans="1:9" ht="43.5">
       <c r="A656" s="21" t="s">
         <v>1380</v>
       </c>
@@ -25132,7 +25125,7 @@
       </c>
       <c r="I656" s="23"/>
     </row>
-    <row r="657" spans="1:9" ht="30" hidden="1">
+    <row r="657" spans="1:9" ht="29">
       <c r="A657" s="21" t="s">
         <v>1382</v>
       </c>
@@ -25157,7 +25150,7 @@
       </c>
       <c r="I657" s="23"/>
     </row>
-    <row r="658" spans="1:9" ht="30" hidden="1">
+    <row r="658" spans="1:9" ht="29">
       <c r="A658" s="21" t="s">
         <v>1384</v>
       </c>
@@ -25182,7 +25175,7 @@
       </c>
       <c r="I658" s="23"/>
     </row>
-    <row r="659" spans="1:9" hidden="1">
+    <row r="659" spans="1:9" ht="29">
       <c r="A659" s="21" t="s">
         <v>1387</v>
       </c>
@@ -25207,7 +25200,7 @@
       </c>
       <c r="I659" s="23"/>
     </row>
-    <row r="660" spans="1:9" hidden="1">
+    <row r="660" spans="1:9">
       <c r="A660" s="21" t="s">
         <v>1389</v>
       </c>
@@ -25232,7 +25225,7 @@
       </c>
       <c r="I660" s="23"/>
     </row>
-    <row r="661" spans="1:9" ht="30" hidden="1">
+    <row r="661" spans="1:9" ht="43.5">
       <c r="A661" s="21" t="s">
         <v>1391</v>
       </c>
@@ -25257,7 +25250,7 @@
       </c>
       <c r="I661" s="23"/>
     </row>
-    <row r="662" spans="1:9" ht="30" hidden="1">
+    <row r="662" spans="1:9" ht="43.5">
       <c r="A662" s="21" t="s">
         <v>1393</v>
       </c>
@@ -25282,7 +25275,7 @@
       </c>
       <c r="I662" s="23"/>
     </row>
-    <row r="663" spans="1:9" ht="30" hidden="1">
+    <row r="663" spans="1:9" ht="29">
       <c r="A663" s="21" t="s">
         <v>1395</v>
       </c>
@@ -25307,7 +25300,7 @@
       </c>
       <c r="I663" s="23"/>
     </row>
-    <row r="664" spans="1:9" ht="45" hidden="1">
+    <row r="664" spans="1:9" ht="43.5">
       <c r="A664" s="21" t="s">
         <v>1397</v>
       </c>
@@ -25332,7 +25325,7 @@
       </c>
       <c r="I664" s="23"/>
     </row>
-    <row r="665" spans="1:9" hidden="1">
+    <row r="665" spans="1:9">
       <c r="A665" s="21" t="s">
         <v>1400</v>
       </c>
@@ -25357,7 +25350,7 @@
       </c>
       <c r="I665" s="23"/>
     </row>
-    <row r="666" spans="1:9" hidden="1">
+    <row r="666" spans="1:9">
       <c r="A666" s="21" t="s">
         <v>1402</v>
       </c>
@@ -25382,7 +25375,7 @@
       </c>
       <c r="I666" s="23"/>
     </row>
-    <row r="667" spans="1:9" ht="30" hidden="1">
+    <row r="667" spans="1:9" ht="43.5">
       <c r="A667" s="21" t="s">
         <v>1404</v>
       </c>
@@ -25407,7 +25400,7 @@
       </c>
       <c r="I667" s="23"/>
     </row>
-    <row r="668" spans="1:9" ht="30" hidden="1">
+    <row r="668" spans="1:9" ht="29">
       <c r="A668" s="21" t="s">
         <v>1406</v>
       </c>
@@ -25432,7 +25425,7 @@
       </c>
       <c r="I668" s="23"/>
     </row>
-    <row r="669" spans="1:9" ht="30" hidden="1">
+    <row r="669" spans="1:9" ht="29">
       <c r="A669" s="21" t="s">
         <v>1408</v>
       </c>
@@ -25457,7 +25450,7 @@
       </c>
       <c r="I669" s="23"/>
     </row>
-    <row r="670" spans="1:9" ht="30" hidden="1">
+    <row r="670" spans="1:9" ht="29">
       <c r="A670" s="21" t="s">
         <v>1410</v>
       </c>
@@ -25482,7 +25475,7 @@
       </c>
       <c r="I670" s="23"/>
     </row>
-    <row r="671" spans="1:9" hidden="1">
+    <row r="671" spans="1:9" ht="29">
       <c r="A671" s="21" t="s">
         <v>1413</v>
       </c>
@@ -25507,7 +25500,7 @@
       </c>
       <c r="I671" s="23"/>
     </row>
-    <row r="672" spans="1:9" hidden="1">
+    <row r="672" spans="1:9">
       <c r="A672" s="21" t="s">
         <v>1415</v>
       </c>
@@ -25532,7 +25525,7 @@
       </c>
       <c r="I672" s="23"/>
     </row>
-    <row r="673" spans="1:9" ht="30" hidden="1">
+    <row r="673" spans="1:9" ht="43.5">
       <c r="A673" s="21" t="s">
         <v>1417</v>
       </c>
@@ -25557,7 +25550,7 @@
       </c>
       <c r="I673" s="23"/>
     </row>
-    <row r="674" spans="1:9" ht="30" hidden="1">
+    <row r="674" spans="1:9" ht="29">
       <c r="A674" s="21" t="s">
         <v>1419</v>
       </c>
@@ -25582,7 +25575,7 @@
       </c>
       <c r="I674" s="23"/>
     </row>
-    <row r="675" spans="1:9" ht="30" hidden="1">
+    <row r="675" spans="1:9" ht="29">
       <c r="A675" s="21" t="s">
         <v>1421</v>
       </c>
@@ -25607,7 +25600,7 @@
       </c>
       <c r="I675" s="23"/>
     </row>
-    <row r="676" spans="1:9" ht="30" hidden="1">
+    <row r="676" spans="1:9" ht="29">
       <c r="A676" s="21" t="s">
         <v>1423</v>
       </c>
@@ -25632,7 +25625,7 @@
       </c>
       <c r="I676" s="23"/>
     </row>
-    <row r="677" spans="1:9" ht="30" hidden="1">
+    <row r="677" spans="1:9" ht="29">
       <c r="A677" s="21" t="s">
         <v>1426</v>
       </c>
@@ -25657,7 +25650,7 @@
       </c>
       <c r="I677" s="23"/>
     </row>
-    <row r="678" spans="1:9" ht="30" hidden="1">
+    <row r="678" spans="1:9" ht="29">
       <c r="A678" s="21" t="s">
         <v>1428</v>
       </c>
@@ -25682,7 +25675,7 @@
       </c>
       <c r="I678" s="23"/>
     </row>
-    <row r="679" spans="1:9" hidden="1">
+    <row r="679" spans="1:9">
       <c r="A679" s="21" t="s">
         <v>1430</v>
       </c>
@@ -25707,7 +25700,7 @@
       </c>
       <c r="I679" s="23"/>
     </row>
-    <row r="680" spans="1:9" ht="30" hidden="1">
+    <row r="680" spans="1:9" ht="29">
       <c r="A680" s="21" t="s">
         <v>1432</v>
       </c>
@@ -25732,7 +25725,7 @@
       </c>
       <c r="I680" s="23"/>
     </row>
-    <row r="681" spans="1:9" ht="30" hidden="1">
+    <row r="681" spans="1:9" ht="29">
       <c r="A681" s="21" t="s">
         <v>1434</v>
       </c>
@@ -25757,7 +25750,7 @@
       </c>
       <c r="I681" s="23"/>
     </row>
-    <row r="682" spans="1:9" ht="30" hidden="1">
+    <row r="682" spans="1:9" ht="29">
       <c r="A682" s="21" t="s">
         <v>1436</v>
       </c>
@@ -25782,7 +25775,7 @@
       </c>
       <c r="I682" s="23"/>
     </row>
-    <row r="683" spans="1:9" ht="30" hidden="1">
+    <row r="683" spans="1:9" ht="43.5">
       <c r="A683" s="21" t="s">
         <v>1438</v>
       </c>
@@ -25807,7 +25800,7 @@
       </c>
       <c r="I683" s="23"/>
     </row>
-    <row r="684" spans="1:9" ht="45" hidden="1">
+    <row r="684" spans="1:9" ht="43.5">
       <c r="A684" s="21" t="s">
         <v>1440</v>
       </c>
@@ -25832,7 +25825,7 @@
       </c>
       <c r="I684" s="23"/>
     </row>
-    <row r="685" spans="1:9" ht="45" hidden="1">
+    <row r="685" spans="1:9" ht="43.5">
       <c r="A685" s="21" t="s">
         <v>1442</v>
       </c>
@@ -25857,7 +25850,7 @@
       </c>
       <c r="I685" s="23"/>
     </row>
-    <row r="686" spans="1:9" ht="30" hidden="1">
+    <row r="686" spans="1:9" ht="43.5">
       <c r="A686" s="21" t="s">
         <v>1444</v>
       </c>
@@ -25882,7 +25875,7 @@
       </c>
       <c r="I686" s="23"/>
     </row>
-    <row r="687" spans="1:9" ht="45" hidden="1">
+    <row r="687" spans="1:9" ht="43.5">
       <c r="A687" s="21" t="s">
         <v>1446</v>
       </c>
@@ -25907,7 +25900,7 @@
       </c>
       <c r="I687" s="23"/>
     </row>
-    <row r="688" spans="1:9" ht="45" hidden="1">
+    <row r="688" spans="1:9" ht="43.5">
       <c r="A688" s="21" t="s">
         <v>1448</v>
       </c>
@@ -25932,7 +25925,7 @@
       </c>
       <c r="I688" s="23"/>
     </row>
-    <row r="689" spans="1:9" ht="30" hidden="1">
+    <row r="689" spans="1:9" ht="29">
       <c r="A689" s="21" t="s">
         <v>1450</v>
       </c>
@@ -25957,7 +25950,7 @@
       </c>
       <c r="I689" s="23"/>
     </row>
-    <row r="690" spans="1:9" ht="45" hidden="1">
+    <row r="690" spans="1:9" ht="43.5">
       <c r="A690" s="21" t="s">
         <v>1452</v>
       </c>
@@ -25982,7 +25975,7 @@
       </c>
       <c r="I690" s="23"/>
     </row>
-    <row r="691" spans="1:9" ht="45" hidden="1">
+    <row r="691" spans="1:9" ht="43.5">
       <c r="A691" s="21" t="s">
         <v>1454</v>
       </c>
@@ -26007,7 +26000,7 @@
       </c>
       <c r="I691" s="23"/>
     </row>
-    <row r="692" spans="1:9" ht="30" hidden="1">
+    <row r="692" spans="1:9" ht="29">
       <c r="A692" s="21" t="s">
         <v>1456</v>
       </c>
@@ -26032,7 +26025,7 @@
       </c>
       <c r="I692" s="23"/>
     </row>
-    <row r="693" spans="1:9" ht="30" hidden="1">
+    <row r="693" spans="1:9" ht="29">
       <c r="A693" s="21" t="s">
         <v>1458</v>
       </c>
@@ -26057,7 +26050,7 @@
       </c>
       <c r="I693" s="23"/>
     </row>
-    <row r="694" spans="1:9" ht="30" hidden="1">
+    <row r="694" spans="1:9" ht="29">
       <c r="A694" s="21" t="s">
         <v>1460</v>
       </c>
@@ -26082,7 +26075,7 @@
       </c>
       <c r="I694" s="23"/>
     </row>
-    <row r="695" spans="1:9" ht="30" hidden="1">
+    <row r="695" spans="1:9" ht="29">
       <c r="A695" s="21" t="s">
         <v>1462</v>
       </c>
@@ -26107,7 +26100,7 @@
       </c>
       <c r="I695" s="23"/>
     </row>
-    <row r="696" spans="1:9" ht="30" hidden="1">
+    <row r="696" spans="1:9" ht="29">
       <c r="A696" s="21" t="s">
         <v>1464</v>
       </c>
@@ -26132,7 +26125,7 @@
       </c>
       <c r="I696" s="23"/>
     </row>
-    <row r="697" spans="1:9" ht="30" hidden="1">
+    <row r="697" spans="1:9" ht="29">
       <c r="A697" s="21" t="s">
         <v>1467</v>
       </c>
@@ -26157,7 +26150,7 @@
       </c>
       <c r="I697" s="23"/>
     </row>
-    <row r="698" spans="1:9" ht="30" hidden="1">
+    <row r="698" spans="1:9" ht="29">
       <c r="A698" s="21" t="s">
         <v>1469</v>
       </c>
@@ -26182,7 +26175,7 @@
       </c>
       <c r="I698" s="23"/>
     </row>
-    <row r="699" spans="1:9" ht="30" hidden="1">
+    <row r="699" spans="1:9" ht="29">
       <c r="A699" s="21" t="s">
         <v>1471</v>
       </c>
@@ -26207,7 +26200,7 @@
       </c>
       <c r="I699" s="23"/>
     </row>
-    <row r="700" spans="1:9" ht="30" hidden="1">
+    <row r="700" spans="1:9" ht="29">
       <c r="A700" s="21" t="s">
         <v>1473</v>
       </c>
@@ -26232,7 +26225,7 @@
       </c>
       <c r="I700" s="23"/>
     </row>
-    <row r="701" spans="1:9" ht="30" hidden="1">
+    <row r="701" spans="1:9" ht="29">
       <c r="A701" s="21" t="s">
         <v>1475</v>
       </c>
@@ -26257,7 +26250,7 @@
       </c>
       <c r="I701" s="23"/>
     </row>
-    <row r="702" spans="1:9" ht="30" hidden="1">
+    <row r="702" spans="1:9" ht="43.5">
       <c r="A702" s="21" t="s">
         <v>1477</v>
       </c>
@@ -26282,7 +26275,7 @@
       </c>
       <c r="I702" s="23"/>
     </row>
-    <row r="703" spans="1:9" ht="45" hidden="1">
+    <row r="703" spans="1:9" ht="43.5">
       <c r="A703" s="21" t="s">
         <v>1479</v>
       </c>
@@ -26307,7 +26300,7 @@
       </c>
       <c r="I703" s="23"/>
     </row>
-    <row r="704" spans="1:9" ht="30" hidden="1">
+    <row r="704" spans="1:9" ht="29">
       <c r="A704" s="21" t="s">
         <v>1481</v>
       </c>
@@ -26332,7 +26325,7 @@
       </c>
       <c r="I704" s="23"/>
     </row>
-    <row r="705" spans="1:9" ht="30" hidden="1">
+    <row r="705" spans="1:9" ht="29">
       <c r="A705" s="21" t="s">
         <v>1483</v>
       </c>
@@ -26357,7 +26350,7 @@
       </c>
       <c r="I705" s="23"/>
     </row>
-    <row r="706" spans="1:9" ht="30" hidden="1">
+    <row r="706" spans="1:9" ht="29">
       <c r="A706" s="21" t="s">
         <v>1485</v>
       </c>
@@ -26382,7 +26375,7 @@
       </c>
       <c r="I706" s="23"/>
     </row>
-    <row r="707" spans="1:9" ht="30" hidden="1">
+    <row r="707" spans="1:9" ht="29">
       <c r="A707" s="21" t="s">
         <v>1487</v>
       </c>
@@ -26407,7 +26400,7 @@
       </c>
       <c r="I707" s="23"/>
     </row>
-    <row r="708" spans="1:9" hidden="1">
+    <row r="708" spans="1:9">
       <c r="A708" s="21" t="s">
         <v>1489</v>
       </c>
@@ -26432,7 +26425,7 @@
       </c>
       <c r="I708" s="23"/>
     </row>
-    <row r="709" spans="1:9" ht="30" hidden="1">
+    <row r="709" spans="1:9" ht="29">
       <c r="A709" s="21" t="s">
         <v>1491</v>
       </c>
@@ -26457,7 +26450,7 @@
       </c>
       <c r="I709" s="23"/>
     </row>
-    <row r="710" spans="1:9" ht="45" hidden="1">
+    <row r="710" spans="1:9" ht="43.5">
       <c r="A710" s="21" t="s">
         <v>1493</v>
       </c>
@@ -26482,7 +26475,7 @@
       </c>
       <c r="I710" s="23"/>
     </row>
-    <row r="711" spans="1:9" hidden="1">
+    <row r="711" spans="1:9" ht="29">
       <c r="A711" s="21" t="s">
         <v>1495</v>
       </c>
@@ -26507,7 +26500,7 @@
       </c>
       <c r="I711" s="23"/>
     </row>
-    <row r="712" spans="1:9" ht="30" hidden="1">
+    <row r="712" spans="1:9" ht="29">
       <c r="A712" s="21" t="s">
         <v>1497</v>
       </c>
@@ -26532,7 +26525,7 @@
       </c>
       <c r="I712" s="23"/>
     </row>
-    <row r="713" spans="1:9" ht="30" hidden="1">
+    <row r="713" spans="1:9" ht="29">
       <c r="A713" s="21" t="s">
         <v>1499</v>
       </c>
@@ -26557,7 +26550,7 @@
       </c>
       <c r="I713" s="23"/>
     </row>
-    <row r="714" spans="1:9" ht="30" hidden="1">
+    <row r="714" spans="1:9" ht="29">
       <c r="A714" s="21" t="s">
         <v>1501</v>
       </c>
@@ -26582,7 +26575,7 @@
       </c>
       <c r="I714" s="23"/>
     </row>
-    <row r="715" spans="1:9" ht="30" hidden="1">
+    <row r="715" spans="1:9" ht="29">
       <c r="A715" s="21" t="s">
         <v>1504</v>
       </c>
@@ -26607,7 +26600,7 @@
       </c>
       <c r="I715" s="23"/>
     </row>
-    <row r="716" spans="1:9" hidden="1">
+    <row r="716" spans="1:9" ht="29">
       <c r="A716" s="21" t="s">
         <v>1506</v>
       </c>
@@ -26632,7 +26625,7 @@
       </c>
       <c r="I716" s="23"/>
     </row>
-    <row r="717" spans="1:9" ht="30" hidden="1">
+    <row r="717" spans="1:9" ht="43.5">
       <c r="A717" s="21" t="s">
         <v>1508</v>
       </c>
@@ -26657,7 +26650,7 @@
       </c>
       <c r="I717" s="23"/>
     </row>
-    <row r="718" spans="1:9" ht="30" hidden="1">
+    <row r="718" spans="1:9" ht="29">
       <c r="A718" s="21" t="s">
         <v>1510</v>
       </c>
@@ -26682,7 +26675,7 @@
       </c>
       <c r="I718" s="23"/>
     </row>
-    <row r="719" spans="1:9" ht="30" hidden="1">
+    <row r="719" spans="1:9" ht="43.5">
       <c r="A719" s="21" t="s">
         <v>1512</v>
       </c>
@@ -26707,7 +26700,7 @@
       </c>
       <c r="I719" s="23"/>
     </row>
-    <row r="720" spans="1:9" ht="30" hidden="1">
+    <row r="720" spans="1:9" ht="43.5">
       <c r="A720" s="21" t="s">
         <v>1514</v>
       </c>
@@ -26732,7 +26725,7 @@
       </c>
       <c r="I720" s="23"/>
     </row>
-    <row r="721" spans="1:9" ht="30" hidden="1">
+    <row r="721" spans="1:9" ht="29">
       <c r="A721" s="21" t="s">
         <v>1516</v>
       </c>
@@ -26757,7 +26750,7 @@
       </c>
       <c r="I721" s="23"/>
     </row>
-    <row r="722" spans="1:9" ht="30" hidden="1">
+    <row r="722" spans="1:9" ht="29">
       <c r="A722" s="21" t="s">
         <v>1519</v>
       </c>
@@ -26782,7 +26775,7 @@
       </c>
       <c r="I722" s="23"/>
     </row>
-    <row r="723" spans="1:9" ht="30" hidden="1">
+    <row r="723" spans="1:9" ht="29">
       <c r="A723" s="21" t="s">
         <v>1521</v>
       </c>
@@ -26807,7 +26800,7 @@
       </c>
       <c r="I723" s="23"/>
     </row>
-    <row r="724" spans="1:9" ht="45" hidden="1">
+    <row r="724" spans="1:9" ht="43.5">
       <c r="A724" s="21" t="s">
         <v>1523</v>
       </c>
@@ -26832,7 +26825,7 @@
       </c>
       <c r="I724" s="23"/>
     </row>
-    <row r="725" spans="1:9" ht="30" hidden="1">
+    <row r="725" spans="1:9" ht="29">
       <c r="A725" s="21" t="s">
         <v>1525</v>
       </c>
@@ -26857,7 +26850,7 @@
       </c>
       <c r="I725" s="23"/>
     </row>
-    <row r="726" spans="1:9" ht="30" hidden="1">
+    <row r="726" spans="1:9" ht="43.5">
       <c r="A726" s="21" t="s">
         <v>1527</v>
       </c>
@@ -26882,7 +26875,7 @@
       </c>
       <c r="I726" s="23"/>
     </row>
-    <row r="727" spans="1:9" ht="30" hidden="1">
+    <row r="727" spans="1:9" ht="43.5">
       <c r="A727" s="21" t="s">
         <v>1529</v>
       </c>
@@ -26907,7 +26900,7 @@
       </c>
       <c r="I727" s="23"/>
     </row>
-    <row r="728" spans="1:9" ht="30" hidden="1">
+    <row r="728" spans="1:9" ht="29">
       <c r="A728" s="21" t="s">
         <v>1531</v>
       </c>
@@ -26932,7 +26925,7 @@
       </c>
       <c r="I728" s="23"/>
     </row>
-    <row r="729" spans="1:9" hidden="1">
+    <row r="729" spans="1:9" ht="29">
       <c r="A729" s="21" t="s">
         <v>1534</v>
       </c>
@@ -26957,7 +26950,7 @@
       </c>
       <c r="I729" s="23"/>
     </row>
-    <row r="730" spans="1:9" ht="45" hidden="1">
+    <row r="730" spans="1:9" ht="43.5">
       <c r="A730" s="21" t="s">
         <v>1536</v>
       </c>
@@ -26982,7 +26975,7 @@
       </c>
       <c r="I730" s="23"/>
     </row>
-    <row r="731" spans="1:9" ht="30" hidden="1">
+    <row r="731" spans="1:9" ht="29">
       <c r="A731" s="21" t="s">
         <v>1538</v>
       </c>
@@ -27007,7 +27000,7 @@
       </c>
       <c r="I731" s="23"/>
     </row>
-    <row r="732" spans="1:9" ht="30" hidden="1">
+    <row r="732" spans="1:9" ht="29">
       <c r="A732" s="21" t="s">
         <v>1540</v>
       </c>
@@ -27032,7 +27025,7 @@
       </c>
       <c r="I732" s="23"/>
     </row>
-    <row r="733" spans="1:9" ht="30" hidden="1">
+    <row r="733" spans="1:9" ht="29">
       <c r="A733" s="21" t="s">
         <v>1542</v>
       </c>
@@ -27057,7 +27050,7 @@
       </c>
       <c r="I733" s="23"/>
     </row>
-    <row r="734" spans="1:9" ht="30" hidden="1">
+    <row r="734" spans="1:9" ht="29">
       <c r="A734" s="21" t="s">
         <v>1545</v>
       </c>
@@ -27082,7 +27075,7 @@
       </c>
       <c r="I734" s="23"/>
     </row>
-    <row r="735" spans="1:9" ht="30" hidden="1">
+    <row r="735" spans="1:9" ht="43.5">
       <c r="A735" s="21" t="s">
         <v>1547</v>
       </c>
@@ -27107,7 +27100,7 @@
       </c>
       <c r="I735" s="23"/>
     </row>
-    <row r="736" spans="1:9" ht="45" hidden="1">
+    <row r="736" spans="1:9" ht="43.5">
       <c r="A736" s="21" t="s">
         <v>1550</v>
       </c>
@@ -27132,7 +27125,7 @@
       </c>
       <c r="I736" s="23"/>
     </row>
-    <row r="737" spans="1:9" ht="45" hidden="1">
+    <row r="737" spans="1:9" ht="43.5">
       <c r="A737" s="21" t="s">
         <v>1552</v>
       </c>
@@ -27157,7 +27150,7 @@
       </c>
       <c r="I737" s="23"/>
     </row>
-    <row r="738" spans="1:9" ht="45" hidden="1">
+    <row r="738" spans="1:9" ht="43.5">
       <c r="A738" s="21" t="s">
         <v>1554</v>
       </c>
@@ -27182,7 +27175,7 @@
       </c>
       <c r="I738" s="23"/>
     </row>
-    <row r="739" spans="1:9" ht="30" hidden="1">
+    <row r="739" spans="1:9" ht="29">
       <c r="A739" s="21" t="s">
         <v>1556</v>
       </c>
@@ -27207,7 +27200,7 @@
       </c>
       <c r="I739" s="23"/>
     </row>
-    <row r="740" spans="1:9" ht="45" hidden="1">
+    <row r="740" spans="1:9" ht="43.5">
       <c r="A740" s="21" t="s">
         <v>1558</v>
       </c>
@@ -27232,7 +27225,7 @@
       </c>
       <c r="I740" s="23"/>
     </row>
-    <row r="741" spans="1:9" ht="45" hidden="1">
+    <row r="741" spans="1:9" ht="43.5">
       <c r="A741" s="21" t="s">
         <v>1560</v>
       </c>
@@ -27257,7 +27250,7 @@
       </c>
       <c r="I741" s="23"/>
     </row>
-    <row r="742" spans="1:9" ht="30" hidden="1">
+    <row r="742" spans="1:9" ht="43.5">
       <c r="A742" s="21" t="s">
         <v>1563</v>
       </c>
@@ -27282,7 +27275,7 @@
       </c>
       <c r="I742" s="23"/>
     </row>
-    <row r="743" spans="1:9" ht="45" hidden="1">
+    <row r="743" spans="1:9" ht="43.5">
       <c r="A743" s="21" t="s">
         <v>1565</v>
       </c>
@@ -27307,7 +27300,7 @@
       </c>
       <c r="I743" s="23"/>
     </row>
-    <row r="744" spans="1:9" hidden="1">
+    <row r="744" spans="1:9" ht="29">
       <c r="A744" s="21" t="s">
         <v>1567</v>
       </c>
@@ -27332,7 +27325,7 @@
       </c>
       <c r="I744" s="23"/>
     </row>
-    <row r="745" spans="1:9" ht="45" hidden="1">
+    <row r="745" spans="1:9" ht="43.5">
       <c r="A745" s="21" t="s">
         <v>1569</v>
       </c>
@@ -27357,7 +27350,7 @@
       </c>
       <c r="I745" s="23"/>
     </row>
-    <row r="746" spans="1:9" ht="45" hidden="1">
+    <row r="746" spans="1:9" ht="43.5">
       <c r="A746" s="21" t="s">
         <v>1571</v>
       </c>
@@ -27382,7 +27375,7 @@
       </c>
       <c r="I746" s="23"/>
     </row>
-    <row r="747" spans="1:9" ht="30" hidden="1">
+    <row r="747" spans="1:9" ht="29">
       <c r="A747" s="21" t="s">
         <v>1573</v>
       </c>
@@ -27407,7 +27400,7 @@
       </c>
       <c r="I747" s="23"/>
     </row>
-    <row r="748" spans="1:9" ht="30" hidden="1">
+    <row r="748" spans="1:9" ht="29">
       <c r="A748" s="21" t="s">
         <v>1575</v>
       </c>
@@ -27432,7 +27425,7 @@
       </c>
       <c r="I748" s="23"/>
     </row>
-    <row r="749" spans="1:9" ht="45" hidden="1">
+    <row r="749" spans="1:9" ht="43.5">
       <c r="A749" s="21" t="s">
         <v>1577</v>
       </c>
@@ -27457,7 +27450,7 @@
       </c>
       <c r="I749" s="23"/>
     </row>
-    <row r="750" spans="1:9" hidden="1">
+    <row r="750" spans="1:9" ht="29">
       <c r="A750" s="21" t="s">
         <v>1579</v>
       </c>
@@ -27482,7 +27475,7 @@
       </c>
       <c r="I750" s="23"/>
     </row>
-    <row r="751" spans="1:9" ht="45" hidden="1">
+    <row r="751" spans="1:9" ht="43.5">
       <c r="A751" s="21" t="s">
         <v>1581</v>
       </c>
@@ -27507,7 +27500,7 @@
       </c>
       <c r="I751" s="23"/>
     </row>
-    <row r="752" spans="1:9" ht="45" hidden="1">
+    <row r="752" spans="1:9" ht="43.5">
       <c r="A752" s="21" t="s">
         <v>1583</v>
       </c>
@@ -27532,7 +27525,7 @@
       </c>
       <c r="I752" s="23"/>
     </row>
-    <row r="753" spans="1:9" ht="30" hidden="1">
+    <row r="753" spans="1:9" ht="29">
       <c r="A753" s="21" t="s">
         <v>1585</v>
       </c>
@@ -27557,7 +27550,7 @@
       </c>
       <c r="I753" s="23"/>
     </row>
-    <row r="754" spans="1:9" ht="30" hidden="1">
+    <row r="754" spans="1:9" ht="29">
       <c r="A754" s="21" t="s">
         <v>1587</v>
       </c>
@@ -27582,7 +27575,7 @@
       </c>
       <c r="I754" s="23"/>
     </row>
-    <row r="755" spans="1:9" ht="45" hidden="1">
+    <row r="755" spans="1:9" ht="43.5">
       <c r="A755" s="21" t="s">
         <v>1589</v>
       </c>
@@ -27607,7 +27600,7 @@
       </c>
       <c r="I755" s="23"/>
     </row>
-    <row r="756" spans="1:9" ht="30" hidden="1">
+    <row r="756" spans="1:9" ht="29">
       <c r="A756" s="21" t="s">
         <v>1591</v>
       </c>
@@ -27632,7 +27625,7 @@
       </c>
       <c r="I756" s="23"/>
     </row>
-    <row r="757" spans="1:9" ht="45" hidden="1">
+    <row r="757" spans="1:9" ht="43.5">
       <c r="A757" s="21" t="s">
         <v>1593</v>
       </c>
@@ -27657,7 +27650,7 @@
       </c>
       <c r="I757" s="23"/>
     </row>
-    <row r="758" spans="1:9" ht="30" hidden="1">
+    <row r="758" spans="1:9" ht="29">
       <c r="A758" s="21" t="s">
         <v>1595</v>
       </c>
@@ -27682,7 +27675,7 @@
       </c>
       <c r="I758" s="23"/>
     </row>
-    <row r="759" spans="1:9" ht="45" hidden="1">
+    <row r="759" spans="1:9" ht="43.5">
       <c r="A759" s="21" t="s">
         <v>1597</v>
       </c>
@@ -27707,7 +27700,7 @@
       </c>
       <c r="I759" s="23"/>
     </row>
-    <row r="760" spans="1:9" ht="45" hidden="1">
+    <row r="760" spans="1:9" ht="58">
       <c r="A760" s="21" t="s">
         <v>1599</v>
       </c>
@@ -27715,7 +27708,7 @@
         <v>1561</v>
       </c>
       <c r="C760" s="23" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="D760" s="21"/>
       <c r="E760" s="21" t="s">
@@ -27732,7 +27725,7 @@
       </c>
       <c r="I760" s="23"/>
     </row>
-    <row r="761" spans="1:9" hidden="1">
+    <row r="761" spans="1:9">
       <c r="A761" s="21" t="s">
         <v>1600</v>
       </c>
@@ -27757,7 +27750,7 @@
       </c>
       <c r="I761" s="23"/>
     </row>
-    <row r="762" spans="1:9" ht="30" hidden="1">
+    <row r="762" spans="1:9" ht="29">
       <c r="A762" s="21" t="s">
         <v>1602</v>
       </c>
@@ -27782,7 +27775,7 @@
       </c>
       <c r="I762" s="23"/>
     </row>
-    <row r="763" spans="1:9" ht="30" hidden="1">
+    <row r="763" spans="1:9" ht="29">
       <c r="A763" s="21" t="s">
         <v>1604</v>
       </c>
@@ -27807,7 +27800,7 @@
       </c>
       <c r="I763" s="23"/>
     </row>
-    <row r="764" spans="1:9" ht="45" hidden="1">
+    <row r="764" spans="1:9" ht="43.5">
       <c r="A764" s="21" t="s">
         <v>1607</v>
       </c>
@@ -27832,7 +27825,7 @@
       </c>
       <c r="I764" s="23"/>
     </row>
-    <row r="765" spans="1:9" ht="30" hidden="1">
+    <row r="765" spans="1:9" ht="29">
       <c r="A765" s="21" t="s">
         <v>1609</v>
       </c>
@@ -27857,7 +27850,7 @@
       </c>
       <c r="I765" s="23"/>
     </row>
-    <row r="766" spans="1:9" ht="30" hidden="1">
+    <row r="766" spans="1:9" ht="29">
       <c r="A766" s="21" t="s">
         <v>1611</v>
       </c>
@@ -27882,7 +27875,7 @@
       </c>
       <c r="I766" s="23"/>
     </row>
-    <row r="767" spans="1:9" ht="30" hidden="1">
+    <row r="767" spans="1:9" ht="29">
       <c r="A767" s="21" t="s">
         <v>1613</v>
       </c>
@@ -27907,7 +27900,7 @@
       </c>
       <c r="I767" s="23"/>
     </row>
-    <row r="768" spans="1:9" ht="30" hidden="1">
+    <row r="768" spans="1:9" ht="29">
       <c r="A768" s="21" t="s">
         <v>1615</v>
       </c>
@@ -27932,7 +27925,7 @@
       </c>
       <c r="I768" s="23"/>
     </row>
-    <row r="769" spans="1:9" ht="30" hidden="1">
+    <row r="769" spans="1:9" ht="29">
       <c r="A769" s="21" t="s">
         <v>1617</v>
       </c>
@@ -27957,7 +27950,7 @@
       </c>
       <c r="I769" s="23"/>
     </row>
-    <row r="770" spans="1:9" ht="30" hidden="1">
+    <row r="770" spans="1:9" ht="29">
       <c r="A770" s="21" t="s">
         <v>1619</v>
       </c>
@@ -27982,7 +27975,7 @@
       </c>
       <c r="I770" s="23"/>
     </row>
-    <row r="771" spans="1:9" ht="45" hidden="1">
+    <row r="771" spans="1:9" ht="43.5">
       <c r="A771" s="21" t="s">
         <v>1621</v>
       </c>
@@ -28007,7 +28000,7 @@
       </c>
       <c r="I771" s="23"/>
     </row>
-    <row r="772" spans="1:9" ht="45" hidden="1">
+    <row r="772" spans="1:9" ht="43.5">
       <c r="A772" s="21" t="s">
         <v>1624</v>
       </c>
@@ -28032,7 +28025,7 @@
       </c>
       <c r="I772" s="23"/>
     </row>
-    <row r="773" spans="1:9" hidden="1">
+    <row r="773" spans="1:9" ht="29">
       <c r="A773" s="21" t="s">
         <v>1626</v>
       </c>
@@ -28057,7 +28050,7 @@
       </c>
       <c r="I773" s="23"/>
     </row>
-    <row r="774" spans="1:9" ht="30" hidden="1">
+    <row r="774" spans="1:9" ht="29">
       <c r="A774" s="21" t="s">
         <v>1628</v>
       </c>
@@ -28082,7 +28075,7 @@
       </c>
       <c r="I774" s="23"/>
     </row>
-    <row r="775" spans="1:9" hidden="1">
+    <row r="775" spans="1:9">
       <c r="A775" s="21" t="s">
         <v>1630</v>
       </c>
@@ -28107,7 +28100,7 @@
       </c>
       <c r="I775" s="23"/>
     </row>
-    <row r="776" spans="1:9" ht="30" hidden="1">
+    <row r="776" spans="1:9" ht="29">
       <c r="A776" s="21" t="s">
         <v>1632</v>
       </c>
@@ -28132,7 +28125,7 @@
       </c>
       <c r="I776" s="23"/>
     </row>
-    <row r="777" spans="1:9" ht="30" hidden="1">
+    <row r="777" spans="1:9" ht="29">
       <c r="A777" s="21" t="s">
         <v>1634</v>
       </c>
@@ -28157,7 +28150,7 @@
       </c>
       <c r="I777" s="23"/>
     </row>
-    <row r="778" spans="1:9" ht="45" hidden="1">
+    <row r="778" spans="1:9" ht="43.5">
       <c r="A778" s="21" t="s">
         <v>1636</v>
       </c>
@@ -28182,7 +28175,7 @@
       </c>
       <c r="I778" s="23"/>
     </row>
-    <row r="779" spans="1:9" ht="30" hidden="1">
+    <row r="779" spans="1:9" ht="29">
       <c r="A779" s="21" t="s">
         <v>1639</v>
       </c>
@@ -28207,7 +28200,7 @@
       </c>
       <c r="I779" s="23"/>
     </row>
-    <row r="780" spans="1:9" ht="30" hidden="1">
+    <row r="780" spans="1:9" ht="29">
       <c r="A780" s="21" t="s">
         <v>1641</v>
       </c>
@@ -28232,7 +28225,7 @@
       </c>
       <c r="I780" s="23"/>
     </row>
-    <row r="781" spans="1:9" ht="30" hidden="1">
+    <row r="781" spans="1:9" ht="29">
       <c r="A781" s="21" t="s">
         <v>1643</v>
       </c>
@@ -28257,7 +28250,7 @@
       </c>
       <c r="I781" s="23"/>
     </row>
-    <row r="782" spans="1:9" ht="30" hidden="1">
+    <row r="782" spans="1:9" ht="29">
       <c r="A782" s="21" t="s">
         <v>1645</v>
       </c>
@@ -28282,7 +28275,7 @@
       </c>
       <c r="I782" s="23"/>
     </row>
-    <row r="783" spans="1:9" ht="45" hidden="1">
+    <row r="783" spans="1:9" ht="43.5">
       <c r="A783" s="21" t="s">
         <v>1647</v>
       </c>
@@ -28307,7 +28300,7 @@
       </c>
       <c r="I783" s="23"/>
     </row>
-    <row r="784" spans="1:9" ht="45" hidden="1">
+    <row r="784" spans="1:9" ht="43.5">
       <c r="A784" s="21" t="s">
         <v>1649</v>
       </c>
@@ -28332,7 +28325,7 @@
       </c>
       <c r="I784" s="23"/>
     </row>
-    <row r="785" spans="1:9" hidden="1">
+    <row r="785" spans="1:9">
       <c r="A785" s="21" t="s">
         <v>1651</v>
       </c>
@@ -28357,7 +28350,7 @@
       </c>
       <c r="I785" s="23"/>
     </row>
-    <row r="786" spans="1:9" ht="45" hidden="1">
+    <row r="786" spans="1:9" ht="43.5">
       <c r="A786" s="21" t="s">
         <v>1653</v>
       </c>
@@ -28382,7 +28375,7 @@
       </c>
       <c r="I786" s="23"/>
     </row>
-    <row r="787" spans="1:9" ht="30" hidden="1">
+    <row r="787" spans="1:9" ht="29">
       <c r="A787" s="21" t="s">
         <v>1655</v>
       </c>
@@ -28407,7 +28400,7 @@
       </c>
       <c r="I787" s="23"/>
     </row>
-    <row r="788" spans="1:9" ht="30" hidden="1">
+    <row r="788" spans="1:9" ht="29">
       <c r="A788" s="21" t="s">
         <v>1657</v>
       </c>
@@ -28432,7 +28425,7 @@
       </c>
       <c r="I788" s="23"/>
     </row>
-    <row r="789" spans="1:9" hidden="1">
+    <row r="789" spans="1:9" ht="29">
       <c r="A789" s="21" t="s">
         <v>1660</v>
       </c>
@@ -28457,7 +28450,7 @@
       </c>
       <c r="I789" s="23"/>
     </row>
-    <row r="790" spans="1:9" hidden="1">
+    <row r="790" spans="1:9">
       <c r="A790" s="21" t="s">
         <v>1662</v>
       </c>
@@ -28482,7 +28475,7 @@
       </c>
       <c r="I790" s="23"/>
     </row>
-    <row r="791" spans="1:9" hidden="1">
+    <row r="791" spans="1:9">
       <c r="A791" s="21" t="s">
         <v>1664</v>
       </c>
@@ -28507,7 +28500,7 @@
       </c>
       <c r="I791" s="23"/>
     </row>
-    <row r="792" spans="1:9" ht="30" hidden="1">
+    <row r="792" spans="1:9" ht="29">
       <c r="A792" s="21" t="s">
         <v>1666</v>
       </c>
@@ -28532,7 +28525,7 @@
       </c>
       <c r="I792" s="23"/>
     </row>
-    <row r="793" spans="1:9" ht="30" hidden="1">
+    <row r="793" spans="1:9" ht="29">
       <c r="A793" s="21" t="s">
         <v>1668</v>
       </c>
@@ -28557,7 +28550,7 @@
       </c>
       <c r="I793" s="23"/>
     </row>
-    <row r="794" spans="1:9" hidden="1">
+    <row r="794" spans="1:9">
       <c r="A794" s="21" t="s">
         <v>1670</v>
       </c>
@@ -28582,7 +28575,7 @@
       </c>
       <c r="I794" s="23"/>
     </row>
-    <row r="795" spans="1:9" hidden="1">
+    <row r="795" spans="1:9">
       <c r="A795" s="21" t="s">
         <v>1672</v>
       </c>
@@ -28607,7 +28600,7 @@
       </c>
       <c r="I795" s="23"/>
     </row>
-    <row r="796" spans="1:9" ht="30" hidden="1">
+    <row r="796" spans="1:9" ht="29">
       <c r="A796" s="21" t="s">
         <v>1674</v>
       </c>
@@ -28632,7 +28625,7 @@
       </c>
       <c r="I796" s="23"/>
     </row>
-    <row r="797" spans="1:9" ht="30" hidden="1">
+    <row r="797" spans="1:9" ht="29">
       <c r="A797" s="21" t="s">
         <v>1676</v>
       </c>
@@ -28657,7 +28650,7 @@
       </c>
       <c r="I797" s="23"/>
     </row>
-    <row r="798" spans="1:9" ht="30" hidden="1">
+    <row r="798" spans="1:9" ht="29">
       <c r="A798" s="21" t="s">
         <v>1678</v>
       </c>
@@ -28682,7 +28675,7 @@
       </c>
       <c r="I798" s="23"/>
     </row>
-    <row r="799" spans="1:9" ht="30" hidden="1">
+    <row r="799" spans="1:9" ht="29">
       <c r="A799" s="21" t="s">
         <v>1680</v>
       </c>
@@ -28707,7 +28700,7 @@
       </c>
       <c r="I799" s="23"/>
     </row>
-    <row r="800" spans="1:9" ht="30" hidden="1">
+    <row r="800" spans="1:9" ht="29">
       <c r="A800" s="21" t="s">
         <v>1682</v>
       </c>
@@ -28732,7 +28725,7 @@
       </c>
       <c r="I800" s="23"/>
     </row>
-    <row r="801" spans="1:9" ht="30" hidden="1">
+    <row r="801" spans="1:9" ht="29">
       <c r="A801" s="21" t="s">
         <v>1684</v>
       </c>
@@ -28757,7 +28750,7 @@
       </c>
       <c r="I801" s="23"/>
     </row>
-    <row r="802" spans="1:9" ht="30" hidden="1">
+    <row r="802" spans="1:9" ht="29">
       <c r="A802" s="21" t="s">
         <v>1686</v>
       </c>
@@ -28782,7 +28775,7 @@
       </c>
       <c r="I802" s="23"/>
     </row>
-    <row r="803" spans="1:9" ht="45" hidden="1">
+    <row r="803" spans="1:9" ht="43.5">
       <c r="A803" s="21" t="s">
         <v>1688</v>
       </c>
@@ -28807,7 +28800,7 @@
       </c>
       <c r="I803" s="23"/>
     </row>
-    <row r="804" spans="1:9" ht="30" hidden="1">
+    <row r="804" spans="1:9" ht="29">
       <c r="A804" s="21" t="s">
         <v>1690</v>
       </c>
@@ -28832,7 +28825,7 @@
       </c>
       <c r="I804" s="23"/>
     </row>
-    <row r="805" spans="1:9" ht="30" hidden="1">
+    <row r="805" spans="1:9" ht="29">
       <c r="A805" s="21" t="s">
         <v>1692</v>
       </c>
@@ -28857,7 +28850,7 @@
       </c>
       <c r="I805" s="23"/>
     </row>
-    <row r="806" spans="1:9" ht="45" hidden="1">
+    <row r="806" spans="1:9" ht="43.5">
       <c r="A806" s="21" t="s">
         <v>1694</v>
       </c>
@@ -28882,7 +28875,7 @@
       </c>
       <c r="I806" s="23"/>
     </row>
-    <row r="807" spans="1:9" ht="30" hidden="1">
+    <row r="807" spans="1:9" ht="29">
       <c r="A807" s="21" t="s">
         <v>1696</v>
       </c>
@@ -28907,7 +28900,7 @@
       </c>
       <c r="I807" s="23"/>
     </row>
-    <row r="808" spans="1:9" ht="30" hidden="1">
+    <row r="808" spans="1:9" ht="29">
       <c r="A808" s="21" t="s">
         <v>1698</v>
       </c>
@@ -28932,7 +28925,7 @@
       </c>
       <c r="I808" s="23"/>
     </row>
-    <row r="809" spans="1:9" ht="45" hidden="1">
+    <row r="809" spans="1:9" ht="43.5">
       <c r="A809" s="21" t="s">
         <v>1700</v>
       </c>
@@ -28957,7 +28950,7 @@
       </c>
       <c r="I809" s="23"/>
     </row>
-    <row r="810" spans="1:9" ht="30" hidden="1">
+    <row r="810" spans="1:9" ht="29">
       <c r="A810" s="21" t="s">
         <v>1702</v>
       </c>
@@ -28982,7 +28975,7 @@
       </c>
       <c r="I810" s="23"/>
     </row>
-    <row r="811" spans="1:9" ht="30" hidden="1">
+    <row r="811" spans="1:9" ht="29">
       <c r="A811" s="21" t="s">
         <v>1704</v>
       </c>
@@ -29007,7 +29000,7 @@
       </c>
       <c r="I811" s="23"/>
     </row>
-    <row r="812" spans="1:9" hidden="1">
+    <row r="812" spans="1:9">
       <c r="A812" s="21" t="s">
         <v>1706</v>
       </c>
@@ -29032,7 +29025,7 @@
       </c>
       <c r="I812" s="23"/>
     </row>
-    <row r="813" spans="1:9" hidden="1">
+    <row r="813" spans="1:9">
       <c r="A813" s="21" t="s">
         <v>1708</v>
       </c>
@@ -29057,7 +29050,7 @@
       </c>
       <c r="I813" s="23"/>
     </row>
-    <row r="814" spans="1:9" ht="30" hidden="1">
+    <row r="814" spans="1:9" ht="29">
       <c r="A814" s="21" t="s">
         <v>1711</v>
       </c>
@@ -29082,7 +29075,7 @@
       </c>
       <c r="I814" s="23"/>
     </row>
-    <row r="815" spans="1:9" ht="30" hidden="1">
+    <row r="815" spans="1:9" ht="29">
       <c r="A815" s="21" t="s">
         <v>1713</v>
       </c>
@@ -29107,7 +29100,7 @@
       </c>
       <c r="I815" s="23"/>
     </row>
-    <row r="816" spans="1:9" ht="30" hidden="1">
+    <row r="816" spans="1:9" ht="29">
       <c r="A816" s="21" t="s">
         <v>1715</v>
       </c>
@@ -29132,7 +29125,7 @@
       </c>
       <c r="I816" s="23"/>
     </row>
-    <row r="817" spans="1:9" ht="30" hidden="1">
+    <row r="817" spans="1:9" ht="29">
       <c r="A817" s="21" t="s">
         <v>1717</v>
       </c>
@@ -29157,7 +29150,7 @@
       </c>
       <c r="I817" s="23"/>
     </row>
-    <row r="818" spans="1:9" ht="30" hidden="1">
+    <row r="818" spans="1:9" ht="29">
       <c r="A818" s="21" t="s">
         <v>1719</v>
       </c>
@@ -29182,7 +29175,7 @@
       </c>
       <c r="I818" s="23"/>
     </row>
-    <row r="819" spans="1:9" ht="30" hidden="1">
+    <row r="819" spans="1:9" ht="43.5">
       <c r="A819" s="21" t="s">
         <v>1721</v>
       </c>
@@ -29207,7 +29200,7 @@
       </c>
       <c r="I819" s="23"/>
     </row>
-    <row r="820" spans="1:9" ht="30" hidden="1">
+    <row r="820" spans="1:9" ht="29">
       <c r="A820" s="21" t="s">
         <v>1724</v>
       </c>
@@ -29232,7 +29225,7 @@
       </c>
       <c r="I820" s="23"/>
     </row>
-    <row r="821" spans="1:9" ht="30" hidden="1">
+    <row r="821" spans="1:9" ht="29">
       <c r="A821" s="21" t="s">
         <v>1726</v>
       </c>
@@ -29257,7 +29250,7 @@
       </c>
       <c r="I821" s="23"/>
     </row>
-    <row r="822" spans="1:9" ht="30" hidden="1">
+    <row r="822" spans="1:9" ht="29">
       <c r="A822" s="21" t="s">
         <v>1728</v>
       </c>
@@ -29282,7 +29275,7 @@
       </c>
       <c r="I822" s="23"/>
     </row>
-    <row r="823" spans="1:9" ht="30" hidden="1">
+    <row r="823" spans="1:9" ht="29">
       <c r="A823" s="21" t="s">
         <v>1730</v>
       </c>
@@ -29307,7 +29300,7 @@
       </c>
       <c r="I823" s="23"/>
     </row>
-    <row r="824" spans="1:9" ht="30" hidden="1">
+    <row r="824" spans="1:9" ht="29">
       <c r="A824" s="21" t="s">
         <v>1733</v>
       </c>
@@ -29332,7 +29325,7 @@
       </c>
       <c r="I824" s="23"/>
     </row>
-    <row r="825" spans="1:9" ht="30" hidden="1">
+    <row r="825" spans="1:9" ht="29">
       <c r="A825" s="21" t="s">
         <v>1735</v>
       </c>
@@ -29357,7 +29350,7 @@
       </c>
       <c r="I825" s="23"/>
     </row>
-    <row r="826" spans="1:9" hidden="1">
+    <row r="826" spans="1:9">
       <c r="A826" s="21" t="s">
         <v>1737</v>
       </c>
@@ -29382,7 +29375,7 @@
       </c>
       <c r="I826" s="23"/>
     </row>
-    <row r="827" spans="1:9" ht="30" hidden="1">
+    <row r="827" spans="1:9" ht="29">
       <c r="A827" s="21" t="s">
         <v>1739</v>
       </c>
@@ -29407,7 +29400,7 @@
       </c>
       <c r="I827" s="23"/>
     </row>
-    <row r="828" spans="1:9" hidden="1">
+    <row r="828" spans="1:9">
       <c r="A828" s="21" t="s">
         <v>1741</v>
       </c>
@@ -29432,7 +29425,7 @@
       </c>
       <c r="I828" s="23"/>
     </row>
-    <row r="829" spans="1:9" ht="30" hidden="1">
+    <row r="829" spans="1:9" ht="29">
       <c r="A829" s="21" t="s">
         <v>1743</v>
       </c>
@@ -29457,7 +29450,7 @@
       </c>
       <c r="I829" s="23"/>
     </row>
-    <row r="830" spans="1:9" ht="30" hidden="1">
+    <row r="830" spans="1:9" ht="29">
       <c r="A830" s="21" t="s">
         <v>1745</v>
       </c>
@@ -29482,7 +29475,7 @@
       </c>
       <c r="I830" s="23"/>
     </row>
-    <row r="831" spans="1:9" ht="30" hidden="1">
+    <row r="831" spans="1:9" ht="29">
       <c r="A831" s="21" t="s">
         <v>1747</v>
       </c>
@@ -29507,7 +29500,7 @@
       </c>
       <c r="I831" s="23"/>
     </row>
-    <row r="832" spans="1:9" ht="30" hidden="1">
+    <row r="832" spans="1:9" ht="29">
       <c r="A832" s="21" t="s">
         <v>1749</v>
       </c>
@@ -29532,7 +29525,7 @@
       </c>
       <c r="I832" s="23"/>
     </row>
-    <row r="833" spans="1:9" ht="30" hidden="1">
+    <row r="833" spans="1:9" ht="29">
       <c r="A833" s="21" t="s">
         <v>1751</v>
       </c>
@@ -29557,7 +29550,7 @@
       </c>
       <c r="I833" s="23"/>
     </row>
-    <row r="834" spans="1:9" ht="30" hidden="1">
+    <row r="834" spans="1:9" ht="29">
       <c r="A834" s="21" t="s">
         <v>1754</v>
       </c>
@@ -29582,7 +29575,7 @@
       </c>
       <c r="I834" s="23"/>
     </row>
-    <row r="835" spans="1:9" ht="30" hidden="1">
+    <row r="835" spans="1:9" ht="29">
       <c r="A835" s="21" t="s">
         <v>1756</v>
       </c>
@@ -29607,7 +29600,7 @@
       </c>
       <c r="I835" s="23"/>
     </row>
-    <row r="836" spans="1:9" ht="30" hidden="1">
+    <row r="836" spans="1:9" ht="29">
       <c r="A836" s="21" t="s">
         <v>1758</v>
       </c>
@@ -29632,7 +29625,7 @@
       </c>
       <c r="I836" s="23"/>
     </row>
-    <row r="837" spans="1:9" hidden="1">
+    <row r="837" spans="1:9">
       <c r="A837" s="21" t="s">
         <v>1760</v>
       </c>
@@ -29657,7 +29650,7 @@
       </c>
       <c r="I837" s="23"/>
     </row>
-    <row r="838" spans="1:9" hidden="1">
+    <row r="838" spans="1:9">
       <c r="A838" s="21" t="s">
         <v>1762</v>
       </c>
@@ -29682,7 +29675,7 @@
       </c>
       <c r="I838" s="23"/>
     </row>
-    <row r="839" spans="1:9" ht="45" hidden="1">
+    <row r="839" spans="1:9" ht="43.5">
       <c r="A839" s="21" t="s">
         <v>1764</v>
       </c>
@@ -29707,7 +29700,7 @@
       </c>
       <c r="I839" s="23"/>
     </row>
-    <row r="840" spans="1:9" hidden="1">
+    <row r="840" spans="1:9">
       <c r="A840" s="21" t="s">
         <v>1766</v>
       </c>
@@ -29732,7 +29725,7 @@
       </c>
       <c r="I840" s="23"/>
     </row>
-    <row r="841" spans="1:9" ht="30" hidden="1">
+    <row r="841" spans="1:9" ht="29">
       <c r="A841" s="21" t="s">
         <v>1768</v>
       </c>
@@ -29757,7 +29750,7 @@
       </c>
       <c r="I841" s="23"/>
     </row>
-    <row r="842" spans="1:9" hidden="1">
+    <row r="842" spans="1:9" ht="29">
       <c r="A842" s="21" t="s">
         <v>1770</v>
       </c>
@@ -29782,7 +29775,7 @@
       </c>
       <c r="I842" s="23"/>
     </row>
-    <row r="843" spans="1:9" ht="30" hidden="1">
+    <row r="843" spans="1:9" ht="29">
       <c r="A843" s="21" t="s">
         <v>1772</v>
       </c>
@@ -29807,7 +29800,7 @@
       </c>
       <c r="I843" s="23"/>
     </row>
-    <row r="844" spans="1:9" hidden="1">
+    <row r="844" spans="1:9">
       <c r="A844" s="21" t="s">
         <v>1774</v>
       </c>
@@ -29832,7 +29825,7 @@
       </c>
       <c r="I844" s="23"/>
     </row>
-    <row r="845" spans="1:9" ht="30" hidden="1">
+    <row r="845" spans="1:9" ht="29">
       <c r="A845" s="21" t="s">
         <v>1776</v>
       </c>
@@ -29857,7 +29850,7 @@
       </c>
       <c r="I845" s="23"/>
     </row>
-    <row r="846" spans="1:9" hidden="1">
+    <row r="846" spans="1:9" ht="29">
       <c r="A846" s="21" t="s">
         <v>1778</v>
       </c>
@@ -29882,7 +29875,7 @@
       </c>
       <c r="I846" s="23"/>
     </row>
-    <row r="847" spans="1:9" ht="30" hidden="1">
+    <row r="847" spans="1:9" ht="29">
       <c r="A847" s="21" t="s">
         <v>1780</v>
       </c>
@@ -29907,7 +29900,7 @@
       </c>
       <c r="I847" s="23"/>
     </row>
-    <row r="848" spans="1:9" ht="30" hidden="1">
+    <row r="848" spans="1:9" ht="29">
       <c r="A848" s="21" t="s">
         <v>1782</v>
       </c>
@@ -29932,7 +29925,7 @@
       </c>
       <c r="I848" s="23"/>
     </row>
-    <row r="849" spans="1:9" ht="45" hidden="1">
+    <row r="849" spans="1:9" ht="43.5">
       <c r="A849" s="21" t="s">
         <v>1784</v>
       </c>
@@ -29957,7 +29950,7 @@
       </c>
       <c r="I849" s="23"/>
     </row>
-    <row r="850" spans="1:9" ht="45" hidden="1">
+    <row r="850" spans="1:9" ht="43.5">
       <c r="A850" s="21" t="s">
         <v>1786</v>
       </c>
@@ -29982,7 +29975,7 @@
       </c>
       <c r="I850" s="23"/>
     </row>
-    <row r="851" spans="1:9" ht="30" hidden="1">
+    <row r="851" spans="1:9" ht="29">
       <c r="A851" s="21" t="s">
         <v>1788</v>
       </c>
@@ -30007,7 +30000,7 @@
       </c>
       <c r="I851" s="23"/>
     </row>
-    <row r="852" spans="1:9" ht="30" hidden="1">
+    <row r="852" spans="1:9" ht="29">
       <c r="A852" s="21" t="s">
         <v>1791</v>
       </c>
@@ -30032,7 +30025,7 @@
       </c>
       <c r="I852" s="23"/>
     </row>
-    <row r="853" spans="1:9" ht="30" hidden="1">
+    <row r="853" spans="1:9" ht="29">
       <c r="A853" s="21" t="s">
         <v>1793</v>
       </c>
@@ -30057,7 +30050,7 @@
       </c>
       <c r="I853" s="23"/>
     </row>
-    <row r="854" spans="1:9" ht="30" hidden="1">
+    <row r="854" spans="1:9" ht="29">
       <c r="A854" s="21" t="s">
         <v>1795</v>
       </c>
@@ -30082,7 +30075,7 @@
       </c>
       <c r="I854" s="23"/>
     </row>
-    <row r="855" spans="1:9" ht="30" hidden="1">
+    <row r="855" spans="1:9" ht="29">
       <c r="A855" s="21" t="s">
         <v>1797</v>
       </c>
@@ -30107,7 +30100,7 @@
       </c>
       <c r="I855" s="23"/>
     </row>
-    <row r="856" spans="1:9" ht="30" hidden="1">
+    <row r="856" spans="1:9" ht="29">
       <c r="A856" s="21" t="s">
         <v>1800</v>
       </c>
@@ -30132,7 +30125,7 @@
       </c>
       <c r="I856" s="23"/>
     </row>
-    <row r="857" spans="1:9" ht="30" hidden="1">
+    <row r="857" spans="1:9" ht="29">
       <c r="A857" s="21" t="s">
         <v>1802</v>
       </c>
@@ -30157,7 +30150,7 @@
       </c>
       <c r="I857" s="23"/>
     </row>
-    <row r="858" spans="1:9" ht="30" hidden="1">
+    <row r="858" spans="1:9" ht="29">
       <c r="A858" s="21" t="s">
         <v>1804</v>
       </c>
@@ -30182,7 +30175,7 @@
       </c>
       <c r="I858" s="23"/>
     </row>
-    <row r="859" spans="1:9" hidden="1">
+    <row r="859" spans="1:9">
       <c r="A859" s="21" t="s">
         <v>1806</v>
       </c>
@@ -30207,7 +30200,7 @@
       </c>
       <c r="I859" s="23"/>
     </row>
-    <row r="860" spans="1:9" ht="30" hidden="1">
+    <row r="860" spans="1:9" ht="29">
       <c r="A860" s="21" t="s">
         <v>1809</v>
       </c>
@@ -30232,7 +30225,7 @@
       </c>
       <c r="I860" s="23"/>
     </row>
-    <row r="861" spans="1:9" hidden="1">
+    <row r="861" spans="1:9">
       <c r="A861" s="21" t="s">
         <v>1811</v>
       </c>
@@ -30257,7 +30250,7 @@
       </c>
       <c r="I861" s="23"/>
     </row>
-    <row r="862" spans="1:9" ht="30" hidden="1">
+    <row r="862" spans="1:9" ht="29">
       <c r="A862" s="21" t="s">
         <v>1813</v>
       </c>
@@ -30282,7 +30275,7 @@
       </c>
       <c r="I862" s="23"/>
     </row>
-    <row r="863" spans="1:9" hidden="1">
+    <row r="863" spans="1:9">
       <c r="A863" s="21" t="s">
         <v>1815</v>
       </c>
@@ -30307,7 +30300,7 @@
       </c>
       <c r="I863" s="23"/>
     </row>
-    <row r="864" spans="1:9" hidden="1">
+    <row r="864" spans="1:9">
       <c r="A864" s="21" t="s">
         <v>1817</v>
       </c>
@@ -30332,7 +30325,7 @@
       </c>
       <c r="I864" s="23"/>
     </row>
-    <row r="865" spans="1:9" hidden="1">
+    <row r="865" spans="1:9" ht="29">
       <c r="A865" s="21" t="s">
         <v>1819</v>
       </c>
@@ -30357,7 +30350,7 @@
       </c>
       <c r="I865" s="23"/>
     </row>
-    <row r="866" spans="1:9" ht="30" hidden="1">
+    <row r="866" spans="1:9" ht="29">
       <c r="A866" s="21" t="s">
         <v>1821</v>
       </c>
@@ -30382,7 +30375,7 @@
       </c>
       <c r="I866" s="23"/>
     </row>
-    <row r="867" spans="1:9" ht="30" hidden="1">
+    <row r="867" spans="1:9" ht="29">
       <c r="A867" s="21" t="s">
         <v>1823</v>
       </c>
@@ -30407,7 +30400,7 @@
       </c>
       <c r="I867" s="23"/>
     </row>
-    <row r="868" spans="1:9" hidden="1">
+    <row r="868" spans="1:9">
       <c r="A868" s="21" t="s">
         <v>1825</v>
       </c>
@@ -30432,7 +30425,7 @@
       </c>
       <c r="I868" s="23"/>
     </row>
-    <row r="869" spans="1:9" ht="30" hidden="1">
+    <row r="869" spans="1:9" ht="29">
       <c r="A869" s="21" t="s">
         <v>1827</v>
       </c>
@@ -30457,7 +30450,7 @@
       </c>
       <c r="I869" s="23"/>
     </row>
-    <row r="870" spans="1:9" ht="45" hidden="1">
+    <row r="870" spans="1:9" ht="43.5">
       <c r="A870" s="21" t="s">
         <v>1830</v>
       </c>
@@ -30482,7 +30475,7 @@
       </c>
       <c r="I870" s="23"/>
     </row>
-    <row r="871" spans="1:9" hidden="1">
+    <row r="871" spans="1:9">
       <c r="A871" s="21" t="s">
         <v>1832</v>
       </c>
@@ -30507,7 +30500,7 @@
       </c>
       <c r="I871" s="23"/>
     </row>
-    <row r="872" spans="1:9" ht="30" hidden="1">
+    <row r="872" spans="1:9" ht="29">
       <c r="A872" s="21" t="s">
         <v>1834</v>
       </c>
@@ -30532,7 +30525,7 @@
       </c>
       <c r="I872" s="23"/>
     </row>
-    <row r="873" spans="1:9" hidden="1">
+    <row r="873" spans="1:9" ht="29">
       <c r="A873" s="21" t="s">
         <v>1836</v>
       </c>
@@ -30557,7 +30550,7 @@
       </c>
       <c r="I873" s="23"/>
     </row>
-    <row r="874" spans="1:9" hidden="1">
+    <row r="874" spans="1:9">
       <c r="A874" s="21" t="s">
         <v>1838</v>
       </c>
@@ -30582,7 +30575,7 @@
       </c>
       <c r="I874" s="23"/>
     </row>
-    <row r="875" spans="1:9" hidden="1">
+    <row r="875" spans="1:9">
       <c r="A875" s="21" t="s">
         <v>1840</v>
       </c>
@@ -30607,7 +30600,7 @@
       </c>
       <c r="I875" s="23"/>
     </row>
-    <row r="876" spans="1:9" ht="30" hidden="1">
+    <row r="876" spans="1:9" ht="29">
       <c r="A876" s="21" t="s">
         <v>1842</v>
       </c>
@@ -30632,7 +30625,7 @@
       </c>
       <c r="I876" s="23"/>
     </row>
-    <row r="877" spans="1:9" ht="30" hidden="1">
+    <row r="877" spans="1:9" ht="29">
       <c r="A877" s="21" t="s">
         <v>1844</v>
       </c>
@@ -30657,7 +30650,7 @@
       </c>
       <c r="I877" s="23"/>
     </row>
-    <row r="878" spans="1:9" hidden="1">
+    <row r="878" spans="1:9">
       <c r="A878" s="21" t="s">
         <v>1846</v>
       </c>
@@ -30682,7 +30675,7 @@
       </c>
       <c r="I878" s="23"/>
     </row>
-    <row r="879" spans="1:9" ht="30" hidden="1">
+    <row r="879" spans="1:9" ht="29">
       <c r="A879" s="21" t="s">
         <v>1848</v>
       </c>
@@ -30707,7 +30700,7 @@
       </c>
       <c r="I879" s="23"/>
     </row>
-    <row r="880" spans="1:9" ht="30" hidden="1">
+    <row r="880" spans="1:9" ht="29">
       <c r="A880" s="21" t="s">
         <v>1851</v>
       </c>
@@ -30732,7 +30725,7 @@
       </c>
       <c r="I880" s="23"/>
     </row>
-    <row r="881" spans="1:9" ht="30" hidden="1">
+    <row r="881" spans="1:9" ht="29">
       <c r="A881" s="21" t="s">
         <v>1853</v>
       </c>
@@ -30757,7 +30750,7 @@
       </c>
       <c r="I881" s="23"/>
     </row>
-    <row r="882" spans="1:9" hidden="1">
+    <row r="882" spans="1:9">
       <c r="A882" s="21" t="s">
         <v>1855</v>
       </c>
@@ -30782,7 +30775,7 @@
       </c>
       <c r="I882" s="23"/>
     </row>
-    <row r="883" spans="1:9" ht="30" hidden="1">
+    <row r="883" spans="1:9" ht="29">
       <c r="A883" s="21" t="s">
         <v>1857</v>
       </c>
@@ -30807,7 +30800,7 @@
       </c>
       <c r="I883" s="23"/>
     </row>
-    <row r="884" spans="1:9" hidden="1">
+    <row r="884" spans="1:9">
       <c r="A884" s="21" t="s">
         <v>1859</v>
       </c>
@@ -30832,7 +30825,7 @@
       </c>
       <c r="I884" s="23"/>
     </row>
-    <row r="885" spans="1:9" ht="30" hidden="1">
+    <row r="885" spans="1:9" ht="29">
       <c r="A885" s="21" t="s">
         <v>1861</v>
       </c>
@@ -30857,7 +30850,7 @@
       </c>
       <c r="I885" s="23"/>
     </row>
-    <row r="886" spans="1:9" ht="30" hidden="1">
+    <row r="886" spans="1:9" ht="29">
       <c r="A886" s="21" t="s">
         <v>1863</v>
       </c>
@@ -30882,7 +30875,7 @@
       </c>
       <c r="I886" s="23"/>
     </row>
-    <row r="887" spans="1:9" ht="30" hidden="1">
+    <row r="887" spans="1:9" ht="29">
       <c r="A887" s="21" t="s">
         <v>1865</v>
       </c>
@@ -30907,7 +30900,7 @@
       </c>
       <c r="I887" s="23"/>
     </row>
-    <row r="888" spans="1:9" hidden="1">
+    <row r="888" spans="1:9">
       <c r="A888" s="21" t="s">
         <v>1867</v>
       </c>
@@ -30932,7 +30925,7 @@
       </c>
       <c r="I888" s="23"/>
     </row>
-    <row r="889" spans="1:9" ht="30" hidden="1">
+    <row r="889" spans="1:9" ht="29">
       <c r="A889" s="21" t="s">
         <v>1868</v>
       </c>
@@ -30957,7 +30950,7 @@
       </c>
       <c r="I889" s="23"/>
     </row>
-    <row r="890" spans="1:9" ht="30" hidden="1">
+    <row r="890" spans="1:9" ht="29">
       <c r="A890" s="21" t="s">
         <v>1870</v>
       </c>
@@ -30982,7 +30975,7 @@
       </c>
       <c r="I890" s="23"/>
     </row>
-    <row r="891" spans="1:9" ht="30" hidden="1">
+    <row r="891" spans="1:9" ht="29">
       <c r="A891" s="21" t="s">
         <v>1873</v>
       </c>
@@ -31007,7 +31000,7 @@
       </c>
       <c r="I891" s="23"/>
     </row>
-    <row r="892" spans="1:9" ht="30" hidden="1">
+    <row r="892" spans="1:9" ht="29">
       <c r="A892" s="21" t="s">
         <v>1875</v>
       </c>
@@ -31032,7 +31025,7 @@
       </c>
       <c r="I892" s="23"/>
     </row>
-    <row r="893" spans="1:9" ht="30" hidden="1">
+    <row r="893" spans="1:9" ht="29">
       <c r="A893" s="21" t="s">
         <v>1877</v>
       </c>
@@ -31057,7 +31050,7 @@
       </c>
       <c r="I893" s="23"/>
     </row>
-    <row r="894" spans="1:9" ht="30" hidden="1">
+    <row r="894" spans="1:9" ht="29">
       <c r="A894" s="21" t="s">
         <v>1879</v>
       </c>
@@ -31082,7 +31075,7 @@
       </c>
       <c r="I894" s="23"/>
     </row>
-    <row r="895" spans="1:9" hidden="1">
+    <row r="895" spans="1:9">
       <c r="A895" s="21" t="s">
         <v>1881</v>
       </c>
@@ -31107,7 +31100,7 @@
       </c>
       <c r="I895" s="23"/>
     </row>
-    <row r="896" spans="1:9" ht="30" hidden="1">
+    <row r="896" spans="1:9" ht="43.5">
       <c r="A896" s="21" t="s">
         <v>1883</v>
       </c>
@@ -31132,7 +31125,7 @@
       </c>
       <c r="I896" s="23"/>
     </row>
-    <row r="897" spans="1:9" ht="30" hidden="1">
+    <row r="897" spans="1:9" ht="29">
       <c r="A897" s="21" t="s">
         <v>1886</v>
       </c>
@@ -31157,7 +31150,7 @@
       </c>
       <c r="I897" s="23"/>
     </row>
-    <row r="898" spans="1:9" ht="195" hidden="1">
+    <row r="898" spans="1:9" ht="188.5">
       <c r="A898" s="21" t="s">
         <v>1888</v>
       </c>
@@ -31184,7 +31177,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="899" spans="1:9" ht="30" hidden="1">
+    <row r="899" spans="1:9" ht="29">
       <c r="A899" s="21" t="s">
         <v>1892</v>
       </c>
@@ -31209,7 +31202,7 @@
       </c>
       <c r="I899" s="23"/>
     </row>
-    <row r="900" spans="1:9" ht="30" hidden="1">
+    <row r="900" spans="1:9" ht="29">
       <c r="A900" s="21" t="s">
         <v>1894</v>
       </c>
@@ -31234,7 +31227,7 @@
       </c>
       <c r="I900" s="23"/>
     </row>
-    <row r="901" spans="1:9" hidden="1">
+    <row r="901" spans="1:9">
       <c r="A901" s="21" t="s">
         <v>1896</v>
       </c>
@@ -31259,7 +31252,7 @@
       </c>
       <c r="I901" s="23"/>
     </row>
-    <row r="902" spans="1:9" hidden="1">
+    <row r="902" spans="1:9">
       <c r="A902" s="21" t="s">
         <v>1898</v>
       </c>
@@ -31284,7 +31277,7 @@
       </c>
       <c r="I902" s="23"/>
     </row>
-    <row r="903" spans="1:9" hidden="1">
+    <row r="903" spans="1:9">
       <c r="A903" s="21" t="s">
         <v>1900</v>
       </c>
@@ -31309,7 +31302,7 @@
       </c>
       <c r="I903" s="23"/>
     </row>
-    <row r="904" spans="1:9" ht="30" hidden="1">
+    <row r="904" spans="1:9" ht="29">
       <c r="A904" s="21" t="s">
         <v>1902</v>
       </c>
@@ -31334,7 +31327,7 @@
       </c>
       <c r="I904" s="23"/>
     </row>
-    <row r="905" spans="1:9" ht="30" hidden="1">
+    <row r="905" spans="1:9" ht="29">
       <c r="A905" s="21" t="s">
         <v>1904</v>
       </c>
@@ -31359,7 +31352,7 @@
       </c>
       <c r="I905" s="23"/>
     </row>
-    <row r="906" spans="1:9" hidden="1">
+    <row r="906" spans="1:9" ht="29">
       <c r="A906" s="21" t="s">
         <v>1906</v>
       </c>
@@ -31384,7 +31377,7 @@
       </c>
       <c r="I906" s="23"/>
     </row>
-    <row r="907" spans="1:9" ht="45" hidden="1">
+    <row r="907" spans="1:9" ht="43.5">
       <c r="A907" s="21" t="s">
         <v>1908</v>
       </c>
@@ -31409,7 +31402,7 @@
       </c>
       <c r="I907" s="23"/>
     </row>
-    <row r="908" spans="1:9" hidden="1">
+    <row r="908" spans="1:9">
       <c r="A908" s="21" t="s">
         <v>1910</v>
       </c>
@@ -31434,7 +31427,7 @@
       </c>
       <c r="I908" s="23"/>
     </row>
-    <row r="909" spans="1:9" ht="30" hidden="1">
+    <row r="909" spans="1:9" ht="29">
       <c r="A909" s="21" t="s">
         <v>1912</v>
       </c>
@@ -31459,7 +31452,7 @@
       </c>
       <c r="I909" s="23"/>
     </row>
-    <row r="910" spans="1:9" ht="30" hidden="1">
+    <row r="910" spans="1:9" ht="29">
       <c r="A910" s="21" t="s">
         <v>1914</v>
       </c>
@@ -31484,7 +31477,7 @@
       </c>
       <c r="I910" s="23"/>
     </row>
-    <row r="911" spans="1:9" ht="45" hidden="1">
+    <row r="911" spans="1:9" ht="43.5">
       <c r="A911" s="21" t="s">
         <v>1916</v>
       </c>
@@ -31509,7 +31502,7 @@
       </c>
       <c r="I911" s="23"/>
     </row>
-    <row r="912" spans="1:9" ht="45" hidden="1">
+    <row r="912" spans="1:9" ht="58">
       <c r="A912" s="21" t="s">
         <v>1918</v>
       </c>
@@ -31534,7 +31527,7 @@
       </c>
       <c r="I912" s="23"/>
     </row>
-    <row r="913" spans="1:9" ht="60" hidden="1">
+    <row r="913" spans="1:9" ht="58">
       <c r="A913" s="21" t="s">
         <v>1921</v>
       </c>
@@ -31542,7 +31535,7 @@
         <v>1919</v>
       </c>
       <c r="C913" s="23" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D913" s="21"/>
       <c r="E913" s="21" t="s">
@@ -31561,7 +31554,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="914" spans="1:9" ht="45" hidden="1">
+    <row r="914" spans="1:9" ht="43.5">
       <c r="A914" s="21" t="s">
         <v>1923</v>
       </c>
@@ -31586,7 +31579,7 @@
       </c>
       <c r="I914" s="23"/>
     </row>
-    <row r="915" spans="1:9" ht="45" hidden="1">
+    <row r="915" spans="1:9" ht="43.5">
       <c r="A915" s="21" t="s">
         <v>1925</v>
       </c>
@@ -31611,15 +31604,15 @@
       </c>
       <c r="I915" s="23"/>
     </row>
-    <row r="916" spans="1:9" ht="30" hidden="1">
+    <row r="916" spans="1:9" ht="29">
       <c r="A916" s="21" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="B916" s="22" t="s">
         <v>1919</v>
       </c>
       <c r="C916" s="23" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="D916" s="21"/>
       <c r="E916" s="21" t="s">
@@ -31636,7 +31629,7 @@
       </c>
       <c r="I916" s="23"/>
     </row>
-    <row r="917" spans="1:9" ht="30" hidden="1">
+    <row r="917" spans="1:9" ht="29">
       <c r="A917" s="21" t="s">
         <v>1927</v>
       </c>
@@ -31661,9 +31654,9 @@
       </c>
       <c r="I917" s="23"/>
     </row>
-    <row r="918" spans="1:9" hidden="1">
+    <row r="918" spans="1:9" ht="29">
       <c r="A918" s="21" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="B918" s="22" t="s">
         <v>1919</v>
@@ -31686,9 +31679,9 @@
       </c>
       <c r="I918" s="23"/>
     </row>
-    <row r="919" spans="1:9" hidden="1">
+    <row r="919" spans="1:9" ht="29">
       <c r="A919" s="21" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="B919" s="22" t="s">
         <v>1919</v>
@@ -31711,7 +31704,7 @@
       </c>
       <c r="I919" s="23"/>
     </row>
-    <row r="920" spans="1:9" ht="30" hidden="1">
+    <row r="920" spans="1:9" ht="43.5">
       <c r="A920" s="21" t="s">
         <v>2109</v>
       </c>
@@ -31719,7 +31712,7 @@
         <v>1919</v>
       </c>
       <c r="C920" s="23" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="D920" s="21"/>
       <c r="E920" s="21" t="s">
@@ -31736,9 +31729,9 @@
       </c>
       <c r="I920" s="23"/>
     </row>
-    <row r="921" spans="1:9" ht="30" hidden="1">
+    <row r="921" spans="1:9" ht="29">
       <c r="A921" s="21" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="B921" s="22" t="s">
         <v>1919</v>
@@ -31761,9 +31754,9 @@
       </c>
       <c r="I921" s="23"/>
     </row>
-    <row r="922" spans="1:9" ht="30" hidden="1">
+    <row r="922" spans="1:9" ht="29">
       <c r="A922" s="21" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="B922" s="22" t="s">
         <v>1919</v>
@@ -31786,9 +31779,9 @@
       </c>
       <c r="I922" s="23"/>
     </row>
-    <row r="923" spans="1:9" ht="30" hidden="1">
+    <row r="923" spans="1:9" ht="29">
       <c r="A923" s="21" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="B923" s="22" t="s">
         <v>1919</v>
@@ -31811,9 +31804,9 @@
       </c>
       <c r="I923" s="23"/>
     </row>
-    <row r="924" spans="1:9" hidden="1">
+    <row r="924" spans="1:9" ht="29">
       <c r="A924" s="21" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="B924" s="22" t="s">
         <v>1919</v>
@@ -31836,7 +31829,7 @@
       </c>
       <c r="I924" s="23"/>
     </row>
-    <row r="925" spans="1:9" hidden="1">
+    <row r="925" spans="1:9">
       <c r="A925" s="21" t="s">
         <v>1933</v>
       </c>
@@ -31861,9 +31854,9 @@
       </c>
       <c r="I925" s="23"/>
     </row>
-    <row r="926" spans="1:9" ht="30" hidden="1">
+    <row r="926" spans="1:9" ht="29">
       <c r="A926" s="21" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="B926" s="22" t="s">
         <v>1919</v>
@@ -31886,7 +31879,7 @@
       </c>
       <c r="I926" s="23"/>
     </row>
-    <row r="927" spans="1:9" hidden="1">
+    <row r="927" spans="1:9" ht="29">
       <c r="A927" s="21" t="s">
         <v>1936</v>
       </c>
@@ -31911,7 +31904,7 @@
       </c>
       <c r="I927" s="23"/>
     </row>
-    <row r="928" spans="1:9" ht="30" hidden="1">
+    <row r="928" spans="1:9" ht="29">
       <c r="A928" s="21" t="s">
         <v>1938</v>
       </c>
@@ -31936,7 +31929,7 @@
       </c>
       <c r="I928" s="23"/>
     </row>
-    <row r="929" spans="1:9" ht="30" hidden="1">
+    <row r="929" spans="1:9" ht="29">
       <c r="A929" s="21" t="s">
         <v>1940</v>
       </c>
@@ -31961,7 +31954,7 @@
       </c>
       <c r="I929" s="23"/>
     </row>
-    <row r="930" spans="1:9" hidden="1">
+    <row r="930" spans="1:9" ht="29">
       <c r="A930" s="21" t="s">
         <v>1942</v>
       </c>
@@ -31986,7 +31979,7 @@
       </c>
       <c r="I930" s="23"/>
     </row>
-    <row r="931" spans="1:9" ht="30" hidden="1">
+    <row r="931" spans="1:9" ht="43.5">
       <c r="A931" s="21" t="s">
         <v>1944</v>
       </c>
@@ -32011,7 +32004,7 @@
       </c>
       <c r="I931" s="23"/>
     </row>
-    <row r="932" spans="1:9" ht="75" hidden="1">
+    <row r="932" spans="1:9" ht="72.5">
       <c r="A932" s="21" t="s">
         <v>1947</v>
       </c>
@@ -32038,7 +32031,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="933" spans="1:9" ht="30" hidden="1">
+    <row r="933" spans="1:9" ht="29">
       <c r="A933" s="21" t="s">
         <v>1950</v>
       </c>
@@ -32063,7 +32056,7 @@
       </c>
       <c r="I933" s="23"/>
     </row>
-    <row r="934" spans="1:9" ht="30" hidden="1">
+    <row r="934" spans="1:9" ht="29">
       <c r="A934" s="21" t="s">
         <v>1952</v>
       </c>
@@ -32088,9 +32081,9 @@
       </c>
       <c r="I934" s="23"/>
     </row>
-    <row r="935" spans="1:9" ht="30" hidden="1">
+    <row r="935" spans="1:9" ht="29">
       <c r="A935" s="21" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="B935" s="22" t="s">
         <v>1945</v>
@@ -32113,7 +32106,7 @@
       </c>
       <c r="I935" s="23"/>
     </row>
-    <row r="936" spans="1:9" hidden="1">
+    <row r="936" spans="1:9">
       <c r="A936" s="21" t="s">
         <v>1955</v>
       </c>
@@ -32138,7 +32131,7 @@
       </c>
       <c r="I936" s="23"/>
     </row>
-    <row r="937" spans="1:9" ht="45" hidden="1">
+    <row r="937" spans="1:9" ht="43.5">
       <c r="A937" s="21" t="s">
         <v>1957</v>
       </c>
@@ -32163,7 +32156,7 @@
       </c>
       <c r="I937" s="23"/>
     </row>
-    <row r="938" spans="1:9" hidden="1">
+    <row r="938" spans="1:9" ht="29">
       <c r="A938" s="21" t="s">
         <v>1960</v>
       </c>
@@ -32188,7 +32181,7 @@
       </c>
       <c r="I938" s="23"/>
     </row>
-    <row r="939" spans="1:9" ht="30" hidden="1">
+    <row r="939" spans="1:9" ht="29">
       <c r="A939" s="21" t="s">
         <v>1962</v>
       </c>
@@ -32213,7 +32206,7 @@
       </c>
       <c r="I939" s="23"/>
     </row>
-    <row r="940" spans="1:9" ht="45" hidden="1">
+    <row r="940" spans="1:9" ht="43.5">
       <c r="A940" s="21" t="s">
         <v>1964</v>
       </c>
@@ -32238,7 +32231,7 @@
       </c>
       <c r="I940" s="23"/>
     </row>
-    <row r="941" spans="1:9" ht="30" hidden="1">
+    <row r="941" spans="1:9" ht="29">
       <c r="A941" s="21" t="s">
         <v>1966</v>
       </c>
@@ -32263,7 +32256,7 @@
       </c>
       <c r="I941" s="23"/>
     </row>
-    <row r="942" spans="1:9" ht="30" hidden="1">
+    <row r="942" spans="1:9" ht="29">
       <c r="A942" s="21" t="s">
         <v>1968</v>
       </c>
@@ -32288,7 +32281,7 @@
       </c>
       <c r="I942" s="23"/>
     </row>
-    <row r="943" spans="1:9" ht="30" hidden="1">
+    <row r="943" spans="1:9" ht="29">
       <c r="A943" s="21" t="s">
         <v>1970</v>
       </c>
@@ -32313,7 +32306,7 @@
       </c>
       <c r="I943" s="23"/>
     </row>
-    <row r="944" spans="1:9" ht="30" hidden="1">
+    <row r="944" spans="1:9" ht="29">
       <c r="A944" s="21" t="s">
         <v>1972</v>
       </c>
@@ -32338,7 +32331,7 @@
       </c>
       <c r="I944" s="23"/>
     </row>
-    <row r="945" spans="1:9" ht="30" hidden="1">
+    <row r="945" spans="1:9" ht="29">
       <c r="A945" s="21" t="s">
         <v>1974</v>
       </c>
@@ -32363,7 +32356,7 @@
       </c>
       <c r="I945" s="23"/>
     </row>
-    <row r="946" spans="1:9" ht="30" hidden="1">
+    <row r="946" spans="1:9" ht="43.5">
       <c r="A946" s="21" t="s">
         <v>1976</v>
       </c>
@@ -32388,7 +32381,7 @@
       </c>
       <c r="I946" s="23"/>
     </row>
-    <row r="947" spans="1:9" ht="45" hidden="1">
+    <row r="947" spans="1:9" ht="43.5">
       <c r="A947" s="21" t="s">
         <v>1978</v>
       </c>
@@ -32413,7 +32406,7 @@
       </c>
       <c r="I947" s="23"/>
     </row>
-    <row r="948" spans="1:9" ht="45" hidden="1">
+    <row r="948" spans="1:9" ht="43.5">
       <c r="A948" s="21" t="s">
         <v>1981</v>
       </c>
@@ -32438,7 +32431,7 @@
       </c>
       <c r="I948" s="23"/>
     </row>
-    <row r="949" spans="1:9" ht="30" hidden="1">
+    <row r="949" spans="1:9" ht="29">
       <c r="A949" s="21" t="s">
         <v>1983</v>
       </c>
@@ -32463,7 +32456,7 @@
       </c>
       <c r="I949" s="23"/>
     </row>
-    <row r="950" spans="1:9" hidden="1">
+    <row r="950" spans="1:9">
       <c r="A950" s="21" t="s">
         <v>1986</v>
       </c>
@@ -32488,7 +32481,7 @@
       </c>
       <c r="I950" s="23"/>
     </row>
-    <row r="951" spans="1:9" hidden="1">
+    <row r="951" spans="1:9" ht="29">
       <c r="A951" s="21" t="s">
         <v>1988</v>
       </c>
@@ -32513,7 +32506,7 @@
       </c>
       <c r="I951" s="23"/>
     </row>
-    <row r="952" spans="1:9" hidden="1">
+    <row r="952" spans="1:9">
       <c r="A952" s="21" t="s">
         <v>1990</v>
       </c>
@@ -32538,7 +32531,7 @@
       </c>
       <c r="I952" s="23"/>
     </row>
-    <row r="953" spans="1:9" hidden="1">
+    <row r="953" spans="1:9" ht="29">
       <c r="A953" s="21" t="s">
         <v>1992</v>
       </c>
@@ -32563,7 +32556,7 @@
       </c>
       <c r="I953" s="23"/>
     </row>
-    <row r="954" spans="1:9" ht="30" hidden="1">
+    <row r="954" spans="1:9" ht="29">
       <c r="A954" s="21" t="s">
         <v>1994</v>
       </c>
@@ -32588,7 +32581,7 @@
       </c>
       <c r="I954" s="23"/>
     </row>
-    <row r="955" spans="1:9" ht="30" hidden="1">
+    <row r="955" spans="1:9" ht="29">
       <c r="A955" s="21" t="s">
         <v>1996</v>
       </c>
@@ -32613,7 +32606,7 @@
       </c>
       <c r="I955" s="23"/>
     </row>
-    <row r="956" spans="1:9" ht="30" hidden="1">
+    <row r="956" spans="1:9" ht="29">
       <c r="A956" s="21" t="s">
         <v>1998</v>
       </c>
@@ -32638,7 +32631,7 @@
       </c>
       <c r="I956" s="23"/>
     </row>
-    <row r="957" spans="1:9" ht="60" hidden="1">
+    <row r="957" spans="1:9" ht="58">
       <c r="A957" s="21" t="s">
         <v>2000</v>
       </c>
@@ -32663,7 +32656,7 @@
       </c>
       <c r="I957" s="23"/>
     </row>
-    <row r="958" spans="1:9" ht="45" hidden="1">
+    <row r="958" spans="1:9" ht="43.5">
       <c r="A958" s="21" t="s">
         <v>2002</v>
       </c>
@@ -32688,7 +32681,7 @@
       </c>
       <c r="I958" s="23"/>
     </row>
-    <row r="959" spans="1:9" ht="30" hidden="1">
+    <row r="959" spans="1:9" ht="29">
       <c r="A959" s="21" t="s">
         <v>2004</v>
       </c>
@@ -32713,7 +32706,7 @@
       </c>
       <c r="I959" s="23"/>
     </row>
-    <row r="960" spans="1:9" ht="30" hidden="1">
+    <row r="960" spans="1:9" ht="29">
       <c r="A960" s="21" t="s">
         <v>2006</v>
       </c>
@@ -32738,7 +32731,7 @@
       </c>
       <c r="I960" s="23"/>
     </row>
-    <row r="961" spans="1:9" ht="45" hidden="1">
+    <row r="961" spans="1:9" ht="58">
       <c r="A961" s="21" t="s">
         <v>2008</v>
       </c>
@@ -32763,7 +32756,7 @@
       </c>
       <c r="I961" s="23"/>
     </row>
-    <row r="962" spans="1:9" ht="165" hidden="1">
+    <row r="962" spans="1:9" ht="159.5">
       <c r="A962" s="21" t="s">
         <v>2010</v>
       </c>
@@ -32790,7 +32783,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="963" spans="1:9" ht="30" hidden="1">
+    <row r="963" spans="1:9" ht="29">
       <c r="A963" s="21" t="s">
         <v>2013</v>
       </c>
@@ -32815,7 +32808,7 @@
       </c>
       <c r="I963" s="23"/>
     </row>
-    <row r="964" spans="1:9" ht="45" hidden="1">
+    <row r="964" spans="1:9" ht="58">
       <c r="A964" s="21" t="s">
         <v>2015</v>
       </c>
@@ -32840,7 +32833,7 @@
       </c>
       <c r="I964" s="23"/>
     </row>
-    <row r="965" spans="1:9" ht="45" hidden="1">
+    <row r="965" spans="1:9" ht="58">
       <c r="A965" s="21" t="s">
         <v>2017</v>
       </c>
@@ -32865,7 +32858,7 @@
       </c>
       <c r="I965" s="23"/>
     </row>
-    <row r="966" spans="1:9" ht="30" hidden="1">
+    <row r="966" spans="1:9" ht="29">
       <c r="A966" s="21" t="s">
         <v>2019</v>
       </c>
@@ -32890,7 +32883,7 @@
       </c>
       <c r="I966" s="23"/>
     </row>
-    <row r="967" spans="1:9" ht="30" hidden="1">
+    <row r="967" spans="1:9" ht="29">
       <c r="A967" s="21" t="s">
         <v>2021</v>
       </c>
@@ -32915,7 +32908,7 @@
       </c>
       <c r="I967" s="23"/>
     </row>
-    <row r="968" spans="1:9" ht="45" hidden="1">
+    <row r="968" spans="1:9" ht="43.5">
       <c r="A968" s="21" t="s">
         <v>2023</v>
       </c>
@@ -32940,7 +32933,7 @@
       </c>
       <c r="I968" s="23"/>
     </row>
-    <row r="969" spans="1:9" ht="45" hidden="1">
+    <row r="969" spans="1:9" ht="43.5">
       <c r="A969" s="21" t="s">
         <v>2025</v>
       </c>
@@ -32965,7 +32958,7 @@
       </c>
       <c r="I969" s="23"/>
     </row>
-    <row r="970" spans="1:9" ht="30" hidden="1">
+    <row r="970" spans="1:9" ht="29">
       <c r="A970" s="21" t="s">
         <v>2027</v>
       </c>
@@ -32990,7 +32983,7 @@
       </c>
       <c r="I970" s="23"/>
     </row>
-    <row r="971" spans="1:9" ht="30" hidden="1">
+    <row r="971" spans="1:9" ht="43.5">
       <c r="A971" s="21" t="s">
         <v>2029</v>
       </c>
@@ -33015,7 +33008,7 @@
       </c>
       <c r="I971" s="23"/>
     </row>
-    <row r="972" spans="1:9" ht="30" hidden="1">
+    <row r="972" spans="1:9" ht="43.5">
       <c r="A972" s="21" t="s">
         <v>2031</v>
       </c>
@@ -33040,7 +33033,7 @@
       </c>
       <c r="I972" s="23"/>
     </row>
-    <row r="973" spans="1:9" ht="60" hidden="1">
+    <row r="973" spans="1:9" ht="58">
       <c r="A973" s="21" t="s">
         <v>2033</v>
       </c>
@@ -33065,7 +33058,7 @@
       </c>
       <c r="I973" s="23"/>
     </row>
-    <row r="974" spans="1:9" ht="30" hidden="1">
+    <row r="974" spans="1:9" ht="29">
       <c r="A974" s="21" t="s">
         <v>2036</v>
       </c>
@@ -33090,7 +33083,7 @@
       </c>
       <c r="I974" s="23"/>
     </row>
-    <row r="975" spans="1:9" ht="30" hidden="1">
+    <row r="975" spans="1:9" ht="29">
       <c r="A975" s="21" t="s">
         <v>2038</v>
       </c>
@@ -33115,7 +33108,7 @@
       </c>
       <c r="I975" s="23"/>
     </row>
-    <row r="976" spans="1:9" ht="45" hidden="1">
+    <row r="976" spans="1:9" ht="43.5">
       <c r="A976" s="21" t="s">
         <v>2040</v>
       </c>
@@ -33123,7 +33116,7 @@
         <v>2034</v>
       </c>
       <c r="C976" s="23" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="D976" s="21"/>
       <c r="E976" s="21" t="s">
@@ -33140,7 +33133,7 @@
       </c>
       <c r="I976" s="23"/>
     </row>
-    <row r="977" spans="1:9" ht="30" hidden="1">
+    <row r="977" spans="1:9" ht="29">
       <c r="A977" s="21" t="s">
         <v>2041</v>
       </c>
@@ -33165,7 +33158,7 @@
       </c>
       <c r="I977" s="23"/>
     </row>
-    <row r="978" spans="1:9" ht="30" hidden="1">
+    <row r="978" spans="1:9" ht="29">
       <c r="A978" s="21" t="s">
         <v>2043</v>
       </c>
@@ -33190,7 +33183,7 @@
       </c>
       <c r="I978" s="23"/>
     </row>
-    <row r="979" spans="1:9" ht="30" hidden="1">
+    <row r="979" spans="1:9" ht="43.5">
       <c r="A979" s="21" t="s">
         <v>2046</v>
       </c>
@@ -33215,7 +33208,7 @@
       </c>
       <c r="I979" s="23"/>
     </row>
-    <row r="980" spans="1:9" ht="45" hidden="1">
+    <row r="980" spans="1:9" ht="43.5">
       <c r="A980" s="21" t="s">
         <v>2048</v>
       </c>
@@ -33223,7 +33216,7 @@
         <v>2044</v>
       </c>
       <c r="C980" s="23" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D980" s="21"/>
       <c r="E980" s="21" t="s">
@@ -33240,7 +33233,7 @@
       </c>
       <c r="I980" s="23"/>
     </row>
-    <row r="981" spans="1:9" ht="30" hidden="1">
+    <row r="981" spans="1:9" ht="43.5">
       <c r="A981" s="21" t="s">
         <v>2049</v>
       </c>
@@ -33248,7 +33241,7 @@
         <v>2044</v>
       </c>
       <c r="C981" s="23" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="D981" s="21"/>
       <c r="E981" s="21" t="s">
@@ -33265,7 +33258,7 @@
       </c>
       <c r="I981" s="23"/>
     </row>
-    <row r="982" spans="1:9" ht="30" hidden="1">
+    <row r="982" spans="1:9" ht="29">
       <c r="A982" s="21" t="s">
         <v>2050</v>
       </c>
@@ -33290,7 +33283,7 @@
       </c>
       <c r="I982" s="23"/>
     </row>
-    <row r="983" spans="1:9" ht="30" hidden="1">
+    <row r="983" spans="1:9" ht="43.5">
       <c r="A983" s="21" t="s">
         <v>2052</v>
       </c>
@@ -33315,7 +33308,7 @@
       </c>
       <c r="I983" s="23"/>
     </row>
-    <row r="984" spans="1:9" ht="45" hidden="1">
+    <row r="984" spans="1:9" ht="58">
       <c r="A984" s="21" t="s">
         <v>2055</v>
       </c>
@@ -33340,7 +33333,7 @@
       </c>
       <c r="I984" s="23"/>
     </row>
-    <row r="985" spans="1:9" ht="75" hidden="1">
+    <row r="985" spans="1:9" ht="72.5">
       <c r="A985" s="21" t="s">
         <v>2057</v>
       </c>
@@ -33365,7 +33358,7 @@
       </c>
       <c r="I985" s="23"/>
     </row>
-    <row r="986" spans="1:9" hidden="1">
+    <row r="986" spans="1:9">
       <c r="A986" s="21" t="s">
         <v>2059</v>
       </c>
@@ -33390,7 +33383,7 @@
       </c>
       <c r="I986" s="23"/>
     </row>
-    <row r="987" spans="1:9" hidden="1">
+    <row r="987" spans="1:9">
       <c r="A987" s="21" t="s">
         <v>2062</v>
       </c>
@@ -33415,7 +33408,7 @@
       </c>
       <c r="I987" s="23"/>
     </row>
-    <row r="988" spans="1:9" ht="30" hidden="1">
+    <row r="988" spans="1:9" ht="29">
       <c r="A988" s="21" t="s">
         <v>2064</v>
       </c>
@@ -33440,7 +33433,7 @@
       </c>
       <c r="I988" s="23"/>
     </row>
-    <row r="989" spans="1:9" ht="30" hidden="1">
+    <row r="989" spans="1:9" ht="29">
       <c r="A989" s="21" t="s">
         <v>2066</v>
       </c>
@@ -33467,7 +33460,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="990" spans="1:9" hidden="1">
+    <row r="990" spans="1:9">
       <c r="A990" s="21" t="s">
         <v>2069</v>
       </c>
@@ -33494,7 +33487,7 @@
       </c>
       <c r="I990" s="23"/>
     </row>
-    <row r="991" spans="1:9" ht="30" hidden="1">
+    <row r="991" spans="1:9" ht="29">
       <c r="A991" s="21" t="s">
         <v>2071</v>
       </c>
@@ -33502,7 +33495,7 @@
         <v>2060</v>
       </c>
       <c r="C991" s="23" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D991" s="21"/>
       <c r="E991" s="21" t="s">
@@ -33519,7 +33512,7 @@
       </c>
       <c r="I991" s="23"/>
     </row>
-    <row r="992" spans="1:9" ht="30" hidden="1">
+    <row r="992" spans="1:9" ht="29">
       <c r="A992" s="21" t="s">
         <v>2072</v>
       </c>
@@ -33543,10 +33536,10 @@
         <v>40</v>
       </c>
       <c r="I992" s="23" t="s">
-        <v>2126</v>
-      </c>
-    </row>
-    <row r="993" spans="1:9" hidden="1">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="993" spans="1:9">
       <c r="A993" s="21" t="s">
         <v>2074</v>
       </c>
@@ -33571,7 +33564,7 @@
       </c>
       <c r="I993" s="23"/>
     </row>
-    <row r="994" spans="1:9" hidden="1">
+    <row r="994" spans="1:9">
       <c r="A994" s="21" t="s">
         <v>2076</v>
       </c>
@@ -33596,7 +33589,7 @@
       </c>
       <c r="I994" s="23"/>
     </row>
-    <row r="995" spans="1:9" hidden="1">
+    <row r="995" spans="1:9">
       <c r="A995" s="21" t="s">
         <v>2078</v>
       </c>
@@ -33621,7 +33614,7 @@
       </c>
       <c r="I995" s="23"/>
     </row>
-    <row r="996" spans="1:9" ht="45" hidden="1">
+    <row r="996" spans="1:9" ht="58">
       <c r="A996" s="21" t="s">
         <v>2080</v>
       </c>
@@ -33646,7 +33639,7 @@
       </c>
       <c r="I996" s="23"/>
     </row>
-    <row r="997" spans="1:9" ht="30" hidden="1">
+    <row r="997" spans="1:9" ht="29">
       <c r="A997" s="21" t="s">
         <v>2082</v>
       </c>
@@ -33671,7 +33664,7 @@
       </c>
       <c r="I997" s="23"/>
     </row>
-    <row r="998" spans="1:9" ht="45" hidden="1">
+    <row r="998" spans="1:9" ht="43.5">
       <c r="A998" s="21" t="s">
         <v>2084</v>
       </c>
@@ -33695,10 +33688,10 @@
         <v>40</v>
       </c>
       <c r="I998" s="23" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="999" spans="1:9" ht="45" hidden="1">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="999" spans="1:9" ht="43.5">
       <c r="A999" s="21" t="s">
         <v>2086</v>
       </c>
@@ -33722,10 +33715,10 @@
         <v>40</v>
       </c>
       <c r="I999" s="23" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:9" hidden="1">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:9" ht="29">
       <c r="A1000" s="21" t="s">
         <v>2088</v>
       </c>
@@ -33750,7 +33743,7 @@
       </c>
       <c r="I1000" s="23"/>
     </row>
-    <row r="1001" spans="1:9" hidden="1">
+    <row r="1001" spans="1:9" ht="29">
       <c r="A1001" s="21" t="s">
         <v>2090</v>
       </c>
@@ -33775,7 +33768,7 @@
       </c>
       <c r="I1001" s="23"/>
     </row>
-    <row r="1002" spans="1:9" ht="30" hidden="1">
+    <row r="1002" spans="1:9" ht="29">
       <c r="A1002" s="21" t="s">
         <v>2092</v>
       </c>
@@ -33800,7 +33793,7 @@
       </c>
       <c r="I1002" s="23"/>
     </row>
-    <row r="1003" spans="1:9" ht="30" hidden="1">
+    <row r="1003" spans="1:9" ht="29">
       <c r="A1003" s="21" t="s">
         <v>2094</v>
       </c>
@@ -33808,7 +33801,7 @@
         <v>2060</v>
       </c>
       <c r="C1003" s="23" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="D1003" s="21"/>
       <c r="E1003" s="21" t="s">
@@ -33825,7 +33818,7 @@
       </c>
       <c r="I1003" s="23"/>
     </row>
-    <row r="1004" spans="1:9" hidden="1">
+    <row r="1004" spans="1:9">
       <c r="A1004" s="21" t="s">
         <v>2095</v>
       </c>
@@ -33850,7 +33843,7 @@
       </c>
       <c r="I1004" s="23"/>
     </row>
-    <row r="1005" spans="1:9" ht="45" hidden="1">
+    <row r="1005" spans="1:9" ht="43.5">
       <c r="A1005" s="21" t="s">
         <v>2097</v>
       </c>
@@ -33875,7 +33868,7 @@
       </c>
       <c r="I1005" s="23"/>
     </row>
-    <row r="1006" spans="1:9" ht="30" hidden="1">
+    <row r="1006" spans="1:9" ht="29">
       <c r="A1006" s="21" t="s">
         <v>2099</v>
       </c>
@@ -33902,11 +33895,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
     <mergeCell ref="B18:I18"/>
     <mergeCell ref="D12:I15"/>
     <mergeCell ref="B9:I9"/>
@@ -33914,6 +33902,11 @@
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="B17:I17"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B8:I8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A535:B535 D535:I535">
